--- a/param_files/Epi_model_parameters.xlsx
+++ b/param_files/Epi_model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/ws/github/ws.epi_model_HIV_TB/epi_model_HIV_TB/param_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781ECD7B-4E3D-EA49-9FEF-CC7F31C19278}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44E8778-1567-D846-AB69-DD88740F21CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="26960" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33480" yWindow="3940" windowWidth="30260" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Matched_Parameters" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="368">
   <si>
     <t>Epidemiological data point (description)</t>
   </si>
@@ -1213,12 +1213,6 @@
     <t>pop_init</t>
   </si>
   <si>
-    <t>Percentage HIV - pop female</t>
-  </si>
-  <si>
-    <t>Percentage HIV - pop male</t>
-  </si>
-  <si>
     <t>POS</t>
   </si>
   <si>
@@ -1231,19 +1225,38 @@
     <t>varpi</t>
   </si>
   <si>
-    <t>Adherence rate for gender compartment Male, per year</t>
-  </si>
-  <si>
-    <t>Adherence rate for gender compartment Female, per year</t>
+    <t>IPT Adherence for gender compartment Male under policy Community ART</t>
+  </si>
+  <si>
+    <t>IPT Adherence for gender compartment Female under policy Community ART</t>
+  </si>
+  <si>
+    <t>IPT Adherence for gender compartment Male under policy Standard (baseline)</t>
+  </si>
+  <si>
+    <t>IPT Adherence for gender compartment Female under policy Standard (baseline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage HIV - </t>
+  </si>
+  <si>
+    <t>Reference-Expected Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1385,7 +1398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,23 +1415,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1433,74 +1446,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1782,13 +1807,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O191"/>
+  <dimension ref="A1:O195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K172" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K189" sqref="K189"/>
+      <selection pane="bottomRight" activeCell="M173" sqref="M173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2231,7 +2256,7 @@
         <f t="shared" si="0"/>
         <v>kappa_1,1,1(3)</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="28">
         <v>0</v>
       </c>
       <c r="O14" s="10" t="s">
@@ -2268,7 +2293,7 @@
         <f t="shared" si="0"/>
         <v>kappa_1,1,2(3)</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="28">
         <v>0</v>
       </c>
       <c r="O15" s="10" t="s">
@@ -4970,8 +4995,8 @@
       </c>
     </row>
     <row r="88" spans="1:15" ht="17">
-      <c r="A88" s="35" t="s">
-        <v>362</v>
+      <c r="A88" s="34" t="s">
+        <v>360</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>124</v>
@@ -6040,7 +6065,7 @@
       </c>
     </row>
     <row r="123" spans="1:15" ht="51">
-      <c r="A123" s="31" t="s">
+      <c r="A123" s="30" t="s">
         <v>172</v>
       </c>
       <c r="B123" s="9" t="str">
@@ -7607,7 +7632,7 @@
         <v>mu_8,1,2</v>
       </c>
       <c r="K167" s="11">
-        <f t="shared" si="16"/>
+        <f>K111</f>
         <v>1.9E-3</v>
       </c>
       <c r="O167" s="10" t="s">
@@ -7829,7 +7854,7 @@
         <v>223</v>
       </c>
       <c r="B174" s="9" t="str">
-        <f t="shared" ref="B174:B190" si="17">CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G174, HIV_SET, 2), " and gender compartment ", VLOOKUP(H174, G_SET, 2), ", per year")</f>
+        <f t="shared" ref="B174:B189" si="17">CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G174, HIV_SET, 2), " and gender compartment ", VLOOKUP(H174, G_SET, 2), ", per year")</f>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C174" s="8" t="s">
@@ -8324,7 +8349,7 @@
         <v>2</v>
       </c>
       <c r="J189" s="9" t="str">
-        <f t="shared" ref="J189:J191" si="20">CONCATENATE(C189, "_", E189, IF(E189&lt;&gt;"",",",""), F189, IF(F189&lt;&gt;"",",",""),  G189, IF(G189&lt;&gt;"",",",""),  H189, IF(I189&lt;&gt;"","(",""), I189, IF(I189&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J189:J195" si="20">CONCATENATE(C189, "_", E189, IF(E189&lt;&gt;"",",",""), F189, IF(F189&lt;&gt;"",",",""),  G189, IF(G189&lt;&gt;"",",",""),  H189, IF(I189&lt;&gt;"","(",""), I189, IF(I189&lt;&gt;"",")",""))</f>
         <v>rho_6,2,2</v>
       </c>
       <c r="K189" s="23">
@@ -8332,53 +8357,171 @@
         <v>4.7500000000000003E-5</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="16">
+    <row r="190" spans="1:11" ht="32">
       <c r="A190" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B190" s="9" t="str">
-        <f>CONCATENATE("Adherence rate for gender compartment ", VLOOKUP(H190, G_SET, 2), ", per year")</f>
-        <v>Adherence rate for gender compartment Male, per year</v>
+        <f>CONCATENATE("IPT Adherence for gender compartment ", VLOOKUP(H190, G_SET, 2),  " under policy ", VLOOKUP(I60, P_SET,2))</f>
+        <v>IPT Adherence for gender compartment Male under policy Community ART</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H190" s="9">
+        <v>1</v>
+      </c>
+      <c r="I190" s="9">
         <v>1</v>
       </c>
       <c r="J190" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>varpi_1</v>
-      </c>
-      <c r="K190" s="36">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" ht="16">
+        <v>varpi_1(1)</v>
+      </c>
+      <c r="K190" s="35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="32">
       <c r="A191" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B191" s="9" t="str">
-        <f>CONCATENATE("Adherence rate for gender compartment ", VLOOKUP(H191, G_SET, 2), ", per year")</f>
-        <v>Adherence rate for gender compartment Female, per year</v>
+        <f>CONCATENATE("IPT Adherence for gender compartment ", VLOOKUP(H191, G_SET, 2),  " under policy ", VLOOKUP(I61, P_SET,2))</f>
+        <v>IPT Adherence for gender compartment Female under policy Community ART</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H191" s="9">
         <v>2</v>
+      </c>
+      <c r="I191" s="9">
+        <v>1</v>
       </c>
       <c r="J191" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>varpi_2</v>
-      </c>
-      <c r="K191" s="36">
+        <v>varpi_2(1)</v>
+      </c>
+      <c r="K191" s="35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="32">
+      <c r="A192" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B192" s="9" t="str">
+        <f>CONCATENATE("IPT Adherence for gender compartment ", VLOOKUP(H192, G_SET, 2),  " under policy ", VLOOKUP(I62, P_SET,2))</f>
+        <v>IPT Adherence for gender compartment Male under policy Standard (baseline)</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H192" s="9">
+        <v>1</v>
+      </c>
+      <c r="I192" s="9">
+        <v>2</v>
+      </c>
+      <c r="J192" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>varpi_1(2)</v>
+      </c>
+      <c r="K192" s="35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="32">
+      <c r="A193" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="B193" s="9" t="str">
+        <f>CONCATENATE("IPT Adherence for gender compartment ", VLOOKUP(H193, G_SET, 2),  " under policy ", VLOOKUP(I63, P_SET,2))</f>
+        <v>IPT Adherence for gender compartment Female under policy Standard (baseline)</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H193" s="9">
+        <v>2</v>
+      </c>
+      <c r="I193" s="9">
+        <v>2</v>
+      </c>
+      <c r="J193" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>varpi_2(2)</v>
+      </c>
+      <c r="K193" s="35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="32">
+      <c r="A194" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B194" s="9" t="str">
+        <f>CONCATENATE("IPT Adherence for gender compartment ", VLOOKUP(H194, G_SET, 2),  " under policy ", VLOOKUP(I64, P_SET,2))</f>
+        <v>IPT Adherence for gender compartment Male under policy Standard (baseline)</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H194" s="9">
+        <v>1</v>
+      </c>
+      <c r="I194" s="9">
+        <v>3</v>
+      </c>
+      <c r="J194" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>varpi_1(3)</v>
+      </c>
+      <c r="K194" s="35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" ht="32">
+      <c r="A195" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="B195" s="9" t="str">
+        <f>CONCATENATE("IPT Adherence for gender compartment ", VLOOKUP(H195, G_SET, 2),  " under policy ", VLOOKUP(I65, P_SET,2))</f>
+        <v>IPT Adherence for gender compartment Female under policy Standard (baseline)</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H195" s="9">
+        <v>2</v>
+      </c>
+      <c r="I195" s="9">
+        <v>3</v>
+      </c>
+      <c r="J195" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>varpi_2(3)</v>
+      </c>
+      <c r="K195" s="35">
         <v>0.8</v>
       </c>
     </row>
@@ -8394,13 +8537,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD4AF83-5BDA-B246-9A8F-C4F47C31E1D4}">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8570,7 +8713,7 @@
       <c r="F9" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <v>1</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -8590,15 +8733,15 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="34">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33">
         <v>3</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="32">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -8610,15 +8753,15 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="34">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32">
         <v>3</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -8633,15 +8776,15 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="34">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33">
-        <v>2</v>
-      </c>
-      <c r="E13" s="33">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32">
+        <v>2</v>
+      </c>
+      <c r="E13" s="32">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -8652,15 +8795,15 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="34">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33">
-        <v>2</v>
-      </c>
-      <c r="E14" s="33">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32">
+        <v>2</v>
+      </c>
+      <c r="E14" s="32">
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -8674,15 +8817,15 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="17">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32">
         <v>4</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="32">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -8693,21 +8836,21 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="34">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32">
         <v>4</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="32">
         <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="36">
         <v>0.27</v>
       </c>
       <c r="K16" t="s">
@@ -8718,71 +8861,76 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="17">
-      <c r="A17" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33">
-        <v>1</v>
-      </c>
-      <c r="E17" s="33">
+      <c r="A17" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G17" s="32">
-        <f>1-G11-G13-G15</f>
-        <v>0</v>
+      <c r="G17" s="36">
+        <v>0.7</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17">
-      <c r="A18" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33">
-        <v>1</v>
-      </c>
-      <c r="E18" s="33">
-        <v>2</v>
-      </c>
+      <c r="A18" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G18" s="32">
-        <f>1-G12-G14-G16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="17">
-      <c r="A19" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="G18" s="36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="34">
+      <c r="A19" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32">
+        <v>1</v>
+      </c>
+      <c r="E19" s="32">
+        <v>1</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G19" s="32"/>
+      <c r="G19" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="34">
-      <c r="A20" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33">
-        <v>1</v>
-      </c>
-      <c r="E20" s="33">
-        <v>1</v>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32">
+        <v>1</v>
+      </c>
+      <c r="E20" s="32">
+        <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>357</v>
@@ -8794,87 +8942,87 @@
         <v>342</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="34">
-      <c r="A21" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33">
-        <v>1</v>
-      </c>
-      <c r="E21" s="33">
-        <v>2</v>
+    <row r="21" spans="1:13" ht="17">
+      <c r="A21" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32">
+        <v>1</v>
+      </c>
+      <c r="E21" s="32">
+        <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>357</v>
       </c>
       <c r="G21" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K21" t="s">
-        <v>342</v>
+        <f>G22</f>
+        <v>0.49</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="17">
-      <c r="A22" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33">
-        <v>1</v>
-      </c>
-      <c r="E22" s="33">
-        <v>1</v>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32">
+        <v>1</v>
+      </c>
+      <c r="E22" s="32">
+        <v>2</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>357</v>
       </c>
       <c r="G22" s="1">
-        <f>G23</f>
+        <f>1-G19-G25</f>
         <v>0.49</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="17">
-      <c r="A23" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="B23" s="34" t="s">
+    <row r="23" spans="1:13" ht="34">
+      <c r="A23" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33">
-        <v>1</v>
-      </c>
-      <c r="E23" s="33">
-        <v>2</v>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="E23" s="32">
+        <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>357</v>
       </c>
       <c r="G23" s="1">
-        <f>1-G20-G26</f>
-        <v>0.49</v>
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="34">
-      <c r="A24" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="E24" s="33">
-        <v>1</v>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="E24" s="32">
+        <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>357</v>
@@ -8882,44 +9030,41 @@
       <c r="G24" s="1">
         <v>0.5</v>
       </c>
-      <c r="K24" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="34">
-      <c r="A25" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="E25" s="33">
-        <v>2</v>
+    </row>
+    <row r="25" spans="1:13" ht="17">
+      <c r="A25" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="B25" s="32">
+        <v>6</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32">
+        <v>1</v>
+      </c>
+      <c r="E25" s="32">
+        <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>357</v>
       </c>
       <c r="G25" s="1">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="17">
-      <c r="A26" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="B26" s="33">
+      <c r="A26" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="B26" s="32">
         <v>6</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33">
-        <v>1</v>
-      </c>
-      <c r="E26" s="33">
-        <v>1</v>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32">
+        <v>1</v>
+      </c>
+      <c r="E26" s="32">
+        <v>2</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>357</v>
@@ -8928,85 +9073,94 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17">
-      <c r="A27" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="B27" s="33">
+    <row r="27" spans="1:13" ht="34">
+      <c r="A27" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="B27" s="32">
         <v>6</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33">
-        <v>1</v>
-      </c>
-      <c r="E27" s="33">
-        <v>2</v>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="E27" s="32">
+        <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>357</v>
       </c>
       <c r="G27" s="1">
-        <v>0.01</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="34">
-      <c r="A28" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="B28" s="33">
+      <c r="A28" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="B28" s="32">
         <v>6</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="E28" s="33">
-        <v>1</v>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="E28" s="32">
+        <v>2</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>357</v>
       </c>
       <c r="G28" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="34">
-      <c r="A29" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="B29" s="33">
-        <v>6</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="E29" s="33">
-        <v>2</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.8</v>
+      <c r="A29" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="G29">
+        <v>667.69125159867303</v>
+      </c>
+      <c r="H29">
+        <v>621.91596160486597</v>
+      </c>
+      <c r="I29">
+        <v>725.80082818748997</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" t="s">
+        <v>275</v>
+      </c>
+      <c r="L29" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="34">
       <c r="A30" s="27" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="G30">
-        <v>667.69125159867303</v>
+        <v>487.71837360315601</v>
       </c>
       <c r="H30">
-        <v>621.91596160486597</v>
+        <v>436.91669589439499</v>
       </c>
       <c r="I30">
-        <v>725.80082818748997</v>
+        <v>556.03760119042602</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>273</v>
@@ -9014,29 +9168,26 @@
       <c r="K30" t="s">
         <v>275</v>
       </c>
-      <c r="L30" s="30" t="s">
+      <c r="L30" s="29" t="s">
         <v>274</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="34">
       <c r="A31" s="27" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="G31">
-        <v>487.71837360315601</v>
+        <v>353.97451428615199</v>
       </c>
       <c r="H31">
-        <v>436.91669589439499</v>
+        <v>298.14022379823899</v>
       </c>
       <c r="I31">
-        <v>556.03760119042602</v>
+        <v>421.02666012590601</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>273</v>
@@ -9044,8 +9195,8 @@
       <c r="K31" t="s">
         <v>275</v>
       </c>
-      <c r="L31" s="30" t="s">
-        <v>274</v>
+      <c r="L31" s="29" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="34">
@@ -9057,13 +9208,13 @@
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
       <c r="G32">
-        <v>353.97451428615199</v>
+        <v>328.28962708281801</v>
       </c>
       <c r="H32">
-        <v>298.14022379823899</v>
+        <v>275.75168655442201</v>
       </c>
       <c r="I32">
-        <v>421.02666012590601</v>
+        <v>397.64813504226203</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>273</v>
@@ -9071,26 +9222,26 @@
       <c r="K32" t="s">
         <v>275</v>
       </c>
-      <c r="L32" s="30" t="s">
+      <c r="L32" s="29" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="34">
+    <row r="33" spans="1:12" ht="51">
       <c r="A33" s="27" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
       <c r="G33">
-        <v>328.28962708281801</v>
+        <v>270.29685912212301</v>
       </c>
       <c r="H33">
-        <v>275.75168655442201</v>
+        <v>206.97423329835701</v>
       </c>
       <c r="I33">
-        <v>397.64813504226203</v>
+        <v>343.91638639716899</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>273</v>
@@ -9098,26 +9249,26 @@
       <c r="K33" t="s">
         <v>275</v>
       </c>
-      <c r="L33" s="30" t="s">
-        <v>283</v>
+      <c r="L33" s="29" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="51">
       <c r="A34" s="27" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="G34">
-        <v>270.29685912212301</v>
+        <v>264.93621874887299</v>
       </c>
       <c r="H34">
-        <v>206.97423329835701</v>
+        <v>205.62683179700201</v>
       </c>
       <c r="I34">
-        <v>343.91638639716899</v>
+        <v>339.17910941088098</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>273</v>
@@ -9125,26 +9276,26 @@
       <c r="K34" t="s">
         <v>275</v>
       </c>
-      <c r="L34" s="30" t="s">
+      <c r="L34" s="29" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="51">
       <c r="A35" s="27" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="G35">
-        <v>264.93621874887299</v>
+        <v>76.970274789631006</v>
       </c>
       <c r="H35">
-        <v>205.62683179700201</v>
+        <v>48.421027847361103</v>
       </c>
       <c r="I35">
-        <v>339.17910941088098</v>
+        <v>109.456440346139</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>273</v>
@@ -9152,26 +9303,26 @@
       <c r="K35" t="s">
         <v>275</v>
       </c>
-      <c r="L35" s="30" t="s">
-        <v>278</v>
+      <c r="L35" s="29" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="51">
       <c r="A36" s="27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="G36">
-        <v>76.970274789631006</v>
+        <v>58.460988902228898</v>
       </c>
       <c r="H36">
-        <v>48.421027847361103</v>
+        <v>34.611741515461397</v>
       </c>
       <c r="I36">
-        <v>109.456440346139</v>
+        <v>87.602923512240494</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>273</v>
@@ -9179,26 +9330,26 @@
       <c r="K36" t="s">
         <v>275</v>
       </c>
-      <c r="L36" s="30" t="s">
+      <c r="L36" s="29" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="51">
+    <row r="37" spans="1:12" ht="34">
       <c r="A37" s="27" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="G37">
-        <v>58.460988902228898</v>
+        <v>6.5950565310523803</v>
       </c>
       <c r="H37">
-        <v>34.611741515461397</v>
+        <v>2.67155063488859</v>
       </c>
       <c r="I37">
-        <v>87.602923512240494</v>
+        <v>13.136486160221301</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>273</v>
@@ -9206,26 +9357,26 @@
       <c r="K37" t="s">
         <v>275</v>
       </c>
-      <c r="L37" s="30" t="s">
-        <v>284</v>
+      <c r="L37" s="29" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="34">
       <c r="A38" s="27" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
       <c r="G38">
-        <v>6.5950565310523803</v>
+        <v>4.8104961798478998</v>
       </c>
       <c r="H38">
-        <v>2.67155063488859</v>
+        <v>1.8525923964359301</v>
       </c>
       <c r="I38">
-        <v>13.136486160221301</v>
+        <v>10.096949019498</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>273</v>
@@ -9233,26 +9384,26 @@
       <c r="K38" t="s">
         <v>275</v>
       </c>
-      <c r="L38" s="30" t="s">
+      <c r="L38" s="29" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="34">
       <c r="A39" s="27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
       <c r="G39">
-        <v>4.8104961798478998</v>
+        <v>0.112323843345287</v>
       </c>
       <c r="H39">
-        <v>1.8525923964359301</v>
+        <v>4.5985772535474097E-2</v>
       </c>
       <c r="I39">
-        <v>10.096949019498</v>
+        <v>0.22960163575013601</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>273</v>
@@ -9260,26 +9411,26 @@
       <c r="K39" t="s">
         <v>275</v>
       </c>
-      <c r="L39" s="30" t="s">
-        <v>287</v>
+      <c r="L39" s="29" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="34">
       <c r="A40" s="27" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
       <c r="G40">
-        <v>0.112323843345287</v>
+        <v>8.1923251867938002E-2</v>
       </c>
       <c r="H40">
-        <v>4.5985772535474097E-2</v>
+        <v>3.1924496573431098E-2</v>
       </c>
       <c r="I40">
-        <v>0.22960163575013601</v>
+        <v>0.17543715890676301</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>273</v>
@@ -9287,352 +9438,332 @@
       <c r="K40" t="s">
         <v>275</v>
       </c>
-      <c r="L40" s="30" t="s">
+      <c r="L40" s="29" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="34">
       <c r="A41" s="27" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
       <c r="G41">
-        <v>8.1923251867938002E-2</v>
+        <v>32.781908989999998</v>
       </c>
       <c r="H41">
-        <v>3.1924496573431098E-2</v>
+        <v>29.630786910000001</v>
       </c>
       <c r="I41">
-        <v>0.17543715890676301</v>
+        <v>36.915591910000003</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="K41" t="s">
         <v>275</v>
       </c>
-      <c r="L41" s="30" t="s">
-        <v>290</v>
+      <c r="L41" s="29" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="34">
       <c r="A42" s="27" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="G42">
-        <v>32.781908989999998</v>
+        <v>15.92630484</v>
       </c>
       <c r="H42">
-        <v>29.630786910000001</v>
+        <v>13.86750552</v>
       </c>
       <c r="I42">
-        <v>36.915591910000003</v>
+        <v>18.053657309999998</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K42" t="s">
         <v>275</v>
       </c>
-      <c r="L42" s="30" t="s">
+      <c r="L42" s="29" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="34">
+    <row r="43" spans="1:12" ht="51">
       <c r="A43" s="27" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
       <c r="G43">
-        <v>15.92630484</v>
+        <v>30.619318209999999</v>
       </c>
       <c r="H43">
-        <v>13.86750552</v>
+        <v>27.03644954</v>
       </c>
       <c r="I43">
-        <v>18.053657309999998</v>
+        <v>34.821362049999998</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K43" t="s">
         <v>275</v>
       </c>
-      <c r="L43" s="30" t="s">
-        <v>297</v>
+      <c r="L43" s="29" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="51">
       <c r="A44" s="27" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
       <c r="G44">
-        <v>30.619318209999999</v>
+        <v>14.90405754</v>
       </c>
       <c r="H44">
-        <v>27.03644954</v>
+        <v>12.80162367</v>
       </c>
       <c r="I44">
-        <v>34.821362049999998</v>
+        <v>17.08584523</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K44" t="s">
         <v>275</v>
       </c>
-      <c r="L44" s="30" t="s">
+      <c r="L44" s="29" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="51">
+    <row r="45" spans="1:12" ht="34">
       <c r="A45" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="G45">
-        <v>14.90405754</v>
+        <v>2.1263778709999999</v>
       </c>
       <c r="H45">
-        <v>12.80162367</v>
+        <v>0.99031739500000004</v>
       </c>
       <c r="I45">
-        <v>17.08584523</v>
+        <v>3.7960577139999998</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K45" t="s">
         <v>275</v>
       </c>
-      <c r="L45" s="30" t="s">
-        <v>298</v>
+      <c r="L45" s="29" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="34">
       <c r="A46" s="27" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
       <c r="G46">
-        <v>2.1263778709999999</v>
+        <v>1.0051327029999999</v>
       </c>
       <c r="H46">
-        <v>0.99031739500000004</v>
+        <v>0.49495520500000001</v>
       </c>
       <c r="I46">
-        <v>3.7960577139999998</v>
+        <v>1.8558520039999999</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K46" t="s">
         <v>275</v>
       </c>
-      <c r="L46" s="30" t="s">
+      <c r="L46" s="29" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="34">
       <c r="A47" s="27" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
       <c r="G47">
-        <v>1.0051327029999999</v>
+        <v>3.6212901999999998E-2</v>
       </c>
       <c r="H47">
-        <v>0.49495520500000001</v>
+        <v>1.7022888999999999E-2</v>
       </c>
       <c r="I47">
-        <v>1.8558520039999999</v>
+        <v>6.5484691999999997E-2</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K47" t="s">
         <v>275</v>
       </c>
-      <c r="L47" s="30" t="s">
-        <v>299</v>
+      <c r="L47" s="29" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="34">
       <c r="A48" s="27" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
       <c r="G48">
-        <v>3.6212901999999998E-2</v>
+        <v>1.7114595999999999E-2</v>
       </c>
       <c r="H48">
-        <v>1.7022888999999999E-2</v>
+        <v>8.2082219999999994E-3</v>
       </c>
       <c r="I48">
-        <v>6.5484691999999997E-2</v>
+        <v>3.1991639000000002E-2</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K48" t="s">
         <v>275</v>
       </c>
-      <c r="L48" s="30" t="s">
+      <c r="L48" s="29" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="34">
-      <c r="A49" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="G49">
-        <v>1.7114595999999999E-2</v>
-      </c>
-      <c r="H49">
-        <v>8.2082219999999994E-3</v>
-      </c>
-      <c r="I49">
-        <v>3.1991639000000002E-2</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="K49" t="s">
-        <v>275</v>
-      </c>
-      <c r="L49" s="30" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="16">
+    <row r="49" spans="1:5" ht="16">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+    </row>
+    <row r="50" spans="1:5" ht="16">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
     </row>
-    <row r="51" spans="1:12" ht="16">
+    <row r="51" spans="1:5" ht="16">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
     </row>
-    <row r="52" spans="1:12" ht="16">
+    <row r="52" spans="1:5" ht="16">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
     </row>
-    <row r="53" spans="1:12" ht="16">
+    <row r="53" spans="1:5" ht="16">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
     </row>
-    <row r="54" spans="1:12" ht="16">
+    <row r="54" spans="1:5" ht="16">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
     </row>
-    <row r="55" spans="1:12" ht="16">
+    <row r="55" spans="1:5" ht="16">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
     </row>
-    <row r="56" spans="1:12" ht="16">
+    <row r="56" spans="1:5" ht="16">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
     </row>
-    <row r="57" spans="1:12" ht="16">
+    <row r="57" spans="1:5" ht="16">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
     </row>
-    <row r="58" spans="1:12" ht="16">
+    <row r="58" spans="1:5" ht="16">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
     </row>
-    <row r="59" spans="1:12" ht="16">
+    <row r="59" spans="1:5" ht="16">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
     </row>
-    <row r="60" spans="1:12" ht="16">
+    <row r="60" spans="1:5" ht="16">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
     </row>
-    <row r="61" spans="1:12" ht="16">
+    <row r="61" spans="1:5" ht="16">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
     </row>
-    <row r="62" spans="1:12" ht="16">
+    <row r="62" spans="1:5" ht="16">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
     </row>
-    <row r="63" spans="1:12" ht="16">
+    <row r="63" spans="1:5" ht="16">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
     </row>
-    <row r="64" spans="1:12" ht="16">
+    <row r="64" spans="1:5" ht="16">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -9947,15 +10078,8 @@
       <c r="D108" s="18"/>
       <c r="E108" s="18"/>
     </row>
-    <row r="109" spans="1:5" ht="16">
-      <c r="A109" s="18"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9966,8 +10090,8 @@
   <dimension ref="A1:Q194"/>
   <sheetViews>
     <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
@@ -9979,7 +10103,7 @@
     <col min="6" max="6" width="26" style="9" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" style="9" customWidth="1"/>
     <col min="8" max="13" width="22.33203125" style="9" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="1" customWidth="1"/>
     <col min="15" max="15" width="17.83203125" style="1" customWidth="1"/>
     <col min="16" max="17" width="20.5" style="1" customWidth="1"/>
   </cols>
@@ -10003,7 +10127,7 @@
       <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="39" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -10025,7 +10149,7 @@
         <v>328</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>10</v>
+        <v>367</v>
       </c>
       <c r="O1" s="16" t="s">
         <v>11</v>
@@ -10057,12 +10181,12 @@
       <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="G2" s="9" t="str">
+      <c r="G2" s="40" t="str">
         <f t="shared" ref="G2:G33" si="1">CONCATENATE( B2, IF(B2&lt;&gt;"",",",""), C2, IF(C2&lt;&gt;"",",",""),  D2, IF(D2&lt;&gt;"",",",""),  E2, IF(F2&lt;&gt;"",",",""), F2,)</f>
         <v>N,1,1,1,1</v>
       </c>
       <c r="H2" s="9">
-        <f>IF(F2=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F2=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="9">
@@ -10070,20 +10194,20 @@
         <v>1</v>
       </c>
       <c r="J2" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E2,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F2)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E2,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F2) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E2,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F2))</f>
+        <v>0.7</v>
       </c>
       <c r="L2" s="9">
         <f>PRODUCT(H2:J2)</f>
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="M2" s="9">
         <f>L2/SUM($L$2:$L$129)</f>
-        <v>3.9165922514138946E-2</v>
-      </c>
-      <c r="N2" s="28">
+        <v>6.1082024432809787E-2</v>
+      </c>
+      <c r="N2" s="38">
         <f>M2*'Indirect Model Parameters'!$G$10</f>
-        <v>3916.5922514138947</v>
+        <v>6108.2024432809785</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="48">
@@ -10106,12 +10230,12 @@
       <c r="F3" s="9">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="str">
+      <c r="G3" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,1,2,1,1</v>
       </c>
       <c r="H3" s="9">
-        <f>IF(F3=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F3=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="9">
@@ -10119,8 +10243,8 @@
         <v>0</v>
       </c>
       <c r="J3" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E3,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F3)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E3,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F3) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E3,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F3))</f>
+        <v>0.7</v>
       </c>
       <c r="L3" s="9">
         <f t="shared" ref="L3:L66" si="2">PRODUCT(H3:J3)</f>
@@ -10130,7 +10254,7 @@
         <f t="shared" ref="M3:M66" si="3">L3/SUM($L$2:$L$129)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="38">
         <f>M3*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -10155,12 +10279,12 @@
       <c r="F4" s="9">
         <v>2</v>
       </c>
-      <c r="G4" s="9" t="str">
+      <c r="G4" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,1,2,1,2</v>
       </c>
       <c r="H4" s="9">
-        <f>IF(F4=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F4=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I4" s="9">
@@ -10168,8 +10292,8 @@
         <v>0</v>
       </c>
       <c r="J4" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E35,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F35)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E4,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F4) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E4,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F4))</f>
+        <v>0.7</v>
       </c>
       <c r="L4" s="9">
         <f t="shared" si="2"/>
@@ -10179,7 +10303,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="38">
         <f>M4*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -10204,12 +10328,12 @@
       <c r="F5" s="9">
         <v>2</v>
       </c>
-      <c r="G5" s="9" t="str">
+      <c r="G5" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,1,1,1,2</v>
       </c>
       <c r="H5" s="9">
-        <f>IF(F5=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F5=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I5" s="9">
@@ -10217,20 +10341,20 @@
         <v>1</v>
       </c>
       <c r="J5" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E66,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F66)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E5,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F5) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E5,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F5))</f>
+        <v>0.7</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" si="3"/>
-        <v>3.9165922514138946E-2</v>
-      </c>
-      <c r="N5" s="28">
+        <v>6.1082024432809787E-2</v>
+      </c>
+      <c r="N5" s="38">
         <f>M5*'Indirect Model Parameters'!$G$10</f>
-        <v>3916.5922514138947</v>
+        <v>6108.2024432809785</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="48">
@@ -10253,12 +10377,12 @@
       <c r="F6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="9" t="str">
+      <c r="G6" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,1,2,2,1</v>
       </c>
       <c r="H6" s="9">
-        <f>IF(F6=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F6=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I6" s="9">
@@ -10266,8 +10390,8 @@
         <v>0</v>
       </c>
       <c r="J6" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E5,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F5)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E6,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F6) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E6,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F6))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L6" s="9">
         <f t="shared" si="2"/>
@@ -10277,7 +10401,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="38">
         <f>M6*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -10302,12 +10426,12 @@
       <c r="F7" s="9">
         <v>1</v>
       </c>
-      <c r="G7" s="9" t="str">
+      <c r="G7" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,1,1,2,1</v>
       </c>
       <c r="H7" s="9">
-        <f>IF(F7=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F7=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I7" s="9">
@@ -10315,20 +10439,20 @@
         <v>1</v>
       </c>
       <c r="J7" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E18,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F18)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E7,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F7) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E7,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F7))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L7" s="9">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="M7" s="9">
         <f t="shared" si="3"/>
-        <v>3.9165922514138946E-2</v>
-      </c>
-      <c r="N7" s="28">
+        <v>1.4397905759162308E-2</v>
+      </c>
+      <c r="N7" s="38">
         <f>M7*'Indirect Model Parameters'!$G$10</f>
-        <v>3916.5922514138947</v>
+        <v>1439.7905759162309</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48">
@@ -10351,12 +10475,12 @@
       <c r="F8" s="9">
         <v>2</v>
       </c>
-      <c r="G8" s="9" t="str">
+      <c r="G8" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,1,2,2,2</v>
       </c>
       <c r="H8" s="9">
-        <f>IF(F8=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F8=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I8" s="9">
@@ -10364,8 +10488,8 @@
         <v>0</v>
       </c>
       <c r="J8" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E37,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F37)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E8,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F8) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E8,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F8))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" si="2"/>
@@ -10375,7 +10499,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="38">
         <f>M8*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -10400,12 +10524,12 @@
       <c r="F9" s="9">
         <v>2</v>
       </c>
-      <c r="G9" s="9" t="str">
+      <c r="G9" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,1,1,2,2</v>
       </c>
       <c r="H9" s="9">
-        <f>IF(F9=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F9=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I9" s="9">
@@ -10413,20 +10537,20 @@
         <v>1</v>
       </c>
       <c r="J9" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E82,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F82)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E9,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F9) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E9,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F9))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L9" s="9">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="M9" s="9">
         <f t="shared" si="3"/>
-        <v>3.9165922514138946E-2</v>
-      </c>
-      <c r="N9" s="28">
+        <v>1.4397905759162308E-2</v>
+      </c>
+      <c r="N9" s="38">
         <f>M9*'Indirect Model Parameters'!$G$10</f>
-        <v>3916.5922514138947</v>
+        <v>1439.7905759162309</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="48">
@@ -10449,12 +10573,12 @@
       <c r="F10" s="9">
         <v>1</v>
       </c>
-      <c r="G10" s="9" t="str">
+      <c r="G10" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,1,2,3,1</v>
       </c>
       <c r="H10" s="9">
-        <f>IF(F10=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F10=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I10" s="9">
@@ -10462,8 +10586,8 @@
         <v>0</v>
       </c>
       <c r="J10" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E19,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F19)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E10,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F10) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E10,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F10))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L10" s="9">
         <f t="shared" si="2"/>
@@ -10473,7 +10597,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="38">
         <f>M10*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -10498,12 +10622,12 @@
       <c r="F11" s="9">
         <v>1</v>
       </c>
-      <c r="G11" s="9" t="str">
+      <c r="G11" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,1,1,3,1</v>
       </c>
       <c r="H11" s="9">
-        <f>IF(F11=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F11=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I11" s="9">
@@ -10511,20 +10635,20 @@
         <v>1</v>
       </c>
       <c r="J11" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E34,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F34)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E11,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F11) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E11,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F11))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L11" s="9">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>2.6999999999999989E-2</v>
       </c>
       <c r="M11" s="9">
         <f t="shared" si="3"/>
-        <v>3.9165922514138946E-2</v>
-      </c>
-      <c r="N11" s="28">
+        <v>4.712041884816753E-3</v>
+      </c>
+      <c r="N11" s="38">
         <f>M11*'Indirect Model Parameters'!$G$10</f>
-        <v>3916.5922514138947</v>
+        <v>471.20418848167532</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="48">
@@ -10547,12 +10671,12 @@
       <c r="F12" s="9">
         <v>2</v>
       </c>
-      <c r="G12" s="9" t="str">
+      <c r="G12" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,1,2,3,2</v>
       </c>
       <c r="H12" s="9">
-        <f>IF(F12=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F12=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I12" s="9">
@@ -10560,8 +10684,8 @@
         <v>0</v>
       </c>
       <c r="J12" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E51,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F51)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E12,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F12) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E12,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F12))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L12" s="9">
         <f t="shared" si="2"/>
@@ -10571,7 +10695,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="38">
         <f>M12*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -10596,12 +10720,12 @@
       <c r="F13" s="9">
         <v>2</v>
       </c>
-      <c r="G13" s="9" t="str">
+      <c r="G13" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,1,1,3,2</v>
       </c>
       <c r="H13" s="9">
-        <f>IF(F13=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F13=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I13" s="9">
@@ -10609,20 +10733,20 @@
         <v>1</v>
       </c>
       <c r="J13" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E98,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F98)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E13,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F13) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E13,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F13))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L13" s="9">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>2.6999999999999989E-2</v>
       </c>
       <c r="M13" s="9">
         <f t="shared" si="3"/>
-        <v>3.9165922514138946E-2</v>
-      </c>
-      <c r="N13" s="28">
+        <v>4.712041884816753E-3</v>
+      </c>
+      <c r="N13" s="38">
         <f>M13*'Indirect Model Parameters'!$G$10</f>
-        <v>3916.5922514138947</v>
+        <v>471.20418848167532</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="48">
@@ -10645,12 +10769,12 @@
       <c r="F14" s="9">
         <v>1</v>
       </c>
-      <c r="G14" s="9" t="str">
+      <c r="G14" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,1,2,4,1</v>
       </c>
       <c r="H14" s="9">
-        <f>IF(F14=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F14=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I14" s="9">
@@ -10658,8 +10782,8 @@
         <v>0</v>
       </c>
       <c r="J14" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E21,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F21)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E14,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F14) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E14,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F14))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L14" s="9">
         <f t="shared" si="2"/>
@@ -10669,7 +10793,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="38">
         <f>M14*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -10694,12 +10818,12 @@
       <c r="F15" s="9">
         <v>1</v>
       </c>
-      <c r="G15" s="9" t="str">
+      <c r="G15" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,1,1,4,1</v>
       </c>
       <c r="H15" s="9">
-        <f>IF(F15=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F15=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I15" s="9">
@@ -10707,20 +10831,20 @@
         <v>1</v>
       </c>
       <c r="J15" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E50,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F50)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E15,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F15) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E15,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F15))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L15" s="9">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="M15" s="9">
         <f t="shared" si="3"/>
-        <v>3.9165922514138946E-2</v>
-      </c>
-      <c r="N15" s="28">
+        <v>7.068062827225133E-3</v>
+      </c>
+      <c r="N15" s="38">
         <f>M15*'Indirect Model Parameters'!$G$10</f>
-        <v>3916.5922514138947</v>
+        <v>706.80628272251329</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="48">
@@ -10743,12 +10867,12 @@
       <c r="F16" s="9">
         <v>2</v>
       </c>
-      <c r="G16" s="9" t="str">
+      <c r="G16" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,1,2,4,2</v>
       </c>
       <c r="H16" s="9">
-        <f>IF(F16=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F16=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I16" s="9">
@@ -10756,8 +10880,8 @@
         <v>0</v>
       </c>
       <c r="J16" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E53,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F53)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E16,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F16) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E16,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F16))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="2"/>
@@ -10767,7 +10891,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="38">
         <f>M16*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -10792,12 +10916,12 @@
       <c r="F17" s="9">
         <v>2</v>
       </c>
-      <c r="G17" s="9" t="str">
+      <c r="G17" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,1,1,4,2</v>
       </c>
       <c r="H17" s="9">
-        <f>IF(F17=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F17=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I17" s="9">
@@ -10805,20 +10929,20 @@
         <v>1</v>
       </c>
       <c r="J17" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E114,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F114)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E17,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F17) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E17,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F17))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="M17" s="9">
         <f t="shared" si="3"/>
-        <v>3.9165922514138946E-2</v>
-      </c>
-      <c r="N17" s="28">
+        <v>7.068062827225133E-3</v>
+      </c>
+      <c r="N17" s="38">
         <f>M17*'Indirect Model Parameters'!$G$10</f>
-        <v>3916.5922514138947</v>
+        <v>706.80628272251329</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="32">
@@ -10841,12 +10965,12 @@
       <c r="F18" s="9">
         <v>1</v>
       </c>
-      <c r="G18" s="9" t="str">
+      <c r="G18" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,2,1,1,1</v>
       </c>
       <c r="H18" s="9">
-        <f>IF(F18=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F18=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I18" s="9">
@@ -10854,20 +10978,20 @@
         <v>1</v>
       </c>
       <c r="J18" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E4,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F4)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E18,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F18) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E18,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F18))</f>
+        <v>0.7</v>
       </c>
       <c r="L18" s="9">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="M18" s="9">
         <f t="shared" si="3"/>
-        <v>3.9165922514138946E-2</v>
-      </c>
-      <c r="N18" s="28">
+        <v>6.1082024432809787E-2</v>
+      </c>
+      <c r="N18" s="38">
         <f>M18*'Indirect Model Parameters'!$G$10</f>
-        <v>3916.5922514138947</v>
+        <v>6108.2024432809785</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="48">
@@ -10890,12 +11014,12 @@
       <c r="F19" s="9">
         <v>1</v>
       </c>
-      <c r="G19" s="9" t="str">
+      <c r="G19" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,2,2,1,1</v>
       </c>
       <c r="H19" s="9">
-        <f>IF(F19=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F19=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I19" s="9">
@@ -10903,8 +11027,8 @@
         <v>0</v>
       </c>
       <c r="J19" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E67,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F67)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E19,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F19) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E19,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F19))</f>
+        <v>0.7</v>
       </c>
       <c r="L19" s="9">
         <f t="shared" si="2"/>
@@ -10914,7 +11038,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19" s="38">
         <f>M19*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -10939,12 +11063,12 @@
       <c r="F20" s="9">
         <v>2</v>
       </c>
-      <c r="G20" s="9" t="str">
+      <c r="G20" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,2,1,1,2</v>
       </c>
       <c r="H20" s="9">
-        <f>IF(F20=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F20=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I20" s="9">
@@ -10952,20 +11076,20 @@
         <v>1</v>
       </c>
       <c r="J20" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E68,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F68)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E20,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F20) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E20,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F20))</f>
+        <v>0.7</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="M20" s="9">
         <f t="shared" si="3"/>
-        <v>3.9165922514138946E-2</v>
-      </c>
-      <c r="N20" s="28">
+        <v>6.1082024432809787E-2</v>
+      </c>
+      <c r="N20" s="38">
         <f>M20*'Indirect Model Parameters'!$G$10</f>
-        <v>3916.5922514138947</v>
+        <v>6108.2024432809785</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="48">
@@ -10988,12 +11112,12 @@
       <c r="F21" s="9">
         <v>2</v>
       </c>
-      <c r="G21" s="9" t="str">
+      <c r="G21" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,2,2,1,2</v>
       </c>
       <c r="H21" s="9">
-        <f>IF(F21=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F21=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I21" s="9">
@@ -11001,8 +11125,8 @@
         <v>0</v>
       </c>
       <c r="J21" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E99,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F99)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E21,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F21) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E21,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F21))</f>
+        <v>0.7</v>
       </c>
       <c r="L21" s="9">
         <f t="shared" si="2"/>
@@ -11012,7 +11136,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N21" s="28">
+      <c r="N21" s="38">
         <f>M21*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -11037,12 +11161,12 @@
       <c r="F22" s="9">
         <v>1</v>
       </c>
-      <c r="G22" s="9" t="str">
+      <c r="G22" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,2,1,2,1</v>
       </c>
       <c r="H22" s="9">
-        <f>IF(F22=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F22=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I22" s="9">
@@ -11050,20 +11174,20 @@
         <v>1</v>
       </c>
       <c r="J22" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E20,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F20)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E22,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F22) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E22,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F22))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L22" s="9">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="M22" s="9">
         <f t="shared" si="3"/>
-        <v>3.9165922514138946E-2</v>
-      </c>
-      <c r="N22" s="28">
+        <v>1.4397905759162308E-2</v>
+      </c>
+      <c r="N22" s="38">
         <f>M22*'Indirect Model Parameters'!$G$10</f>
-        <v>3916.5922514138947</v>
+        <v>1439.7905759162309</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="48">
@@ -11086,12 +11210,12 @@
       <c r="F23" s="9">
         <v>1</v>
       </c>
-      <c r="G23" s="9" t="str">
+      <c r="G23" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,2,2,2,1</v>
       </c>
       <c r="H23" s="9">
-        <f>IF(F23=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F23=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I23" s="9">
@@ -11099,8 +11223,8 @@
         <v>0</v>
       </c>
       <c r="J23" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E69,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F69)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E23,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F23) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E23,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F23))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L23" s="9">
         <f t="shared" si="2"/>
@@ -11110,7 +11234,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="38">
         <f>M23*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -11135,12 +11259,12 @@
       <c r="F24" s="9">
         <v>2</v>
       </c>
-      <c r="G24" s="9" t="str">
+      <c r="G24" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,2,1,2,2</v>
       </c>
       <c r="H24" s="9">
-        <f>IF(F24=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F24=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I24" s="9">
@@ -11148,20 +11272,20 @@
         <v>1</v>
       </c>
       <c r="J24" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E84,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F84)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E24,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F24) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E24,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F24))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L24" s="9">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="M24" s="9">
         <f t="shared" si="3"/>
-        <v>3.9165922514138946E-2</v>
-      </c>
-      <c r="N24" s="28">
+        <v>1.4397905759162308E-2</v>
+      </c>
+      <c r="N24" s="38">
         <f>M24*'Indirect Model Parameters'!$G$10</f>
-        <v>3916.5922514138947</v>
+        <v>1439.7905759162309</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="48">
@@ -11184,12 +11308,12 @@
       <c r="F25" s="9">
         <v>2</v>
       </c>
-      <c r="G25" s="9" t="str">
+      <c r="G25" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,2,2,2,2</v>
       </c>
       <c r="H25" s="9">
-        <f>IF(F25=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F25=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I25" s="9">
@@ -11197,8 +11321,8 @@
         <v>0</v>
       </c>
       <c r="J25" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E101,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F101)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E25,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F25) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E25,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F25))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="2"/>
@@ -11208,7 +11332,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N25" s="28">
+      <c r="N25" s="38">
         <f>M25*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -11233,12 +11357,12 @@
       <c r="F26" s="9">
         <v>1</v>
       </c>
-      <c r="G26" s="9" t="str">
+      <c r="G26" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,2,1,3,1</v>
       </c>
       <c r="H26" s="9">
-        <f>IF(F26=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F26=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I26" s="9">
@@ -11246,20 +11370,20 @@
         <v>1</v>
       </c>
       <c r="J26" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E36,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F36)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E26,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F26) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E26,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F26))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L26" s="9">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>2.6999999999999989E-2</v>
       </c>
       <c r="M26" s="9">
         <f t="shared" si="3"/>
-        <v>3.9165922514138946E-2</v>
-      </c>
-      <c r="N26" s="28">
+        <v>4.712041884816753E-3</v>
+      </c>
+      <c r="N26" s="38">
         <f>M26*'Indirect Model Parameters'!$G$10</f>
-        <v>3916.5922514138947</v>
+        <v>471.20418848167532</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="48">
@@ -11282,12 +11406,12 @@
       <c r="F27" s="9">
         <v>1</v>
       </c>
-      <c r="G27" s="9" t="str">
+      <c r="G27" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,2,2,3,1</v>
       </c>
       <c r="H27" s="9">
-        <f>IF(F27=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F27=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I27" s="9">
@@ -11295,8 +11419,8 @@
         <v>0</v>
       </c>
       <c r="J27" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E83,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F83)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E27,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F27) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E27,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F27))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L27" s="9">
         <f t="shared" si="2"/>
@@ -11306,7 +11430,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N27" s="28">
+      <c r="N27" s="38">
         <f>M27*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -11331,12 +11455,12 @@
       <c r="F28" s="9">
         <v>2</v>
       </c>
-      <c r="G28" s="9" t="str">
+      <c r="G28" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,2,1,3,2</v>
       </c>
       <c r="H28" s="9">
-        <f>IF(F28=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F28=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I28" s="9">
@@ -11344,20 +11468,20 @@
         <v>1</v>
       </c>
       <c r="J28" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E100,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F100)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E28,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F28) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E28,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F28))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>2.6999999999999989E-2</v>
       </c>
       <c r="M28" s="9">
         <f t="shared" si="3"/>
-        <v>3.9165922514138946E-2</v>
-      </c>
-      <c r="N28" s="28">
+        <v>4.712041884816753E-3</v>
+      </c>
+      <c r="N28" s="38">
         <f>M28*'Indirect Model Parameters'!$G$10</f>
-        <v>3916.5922514138947</v>
+        <v>471.20418848167532</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="48">
@@ -11380,12 +11504,12 @@
       <c r="F29" s="9">
         <v>2</v>
       </c>
-      <c r="G29" s="9" t="str">
+      <c r="G29" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,2,2,3,2</v>
       </c>
       <c r="H29" s="9">
-        <f>IF(F29=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F29=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I29" s="9">
@@ -11393,8 +11517,8 @@
         <v>0</v>
       </c>
       <c r="J29" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E115,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F115)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E29,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F29) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E29,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F29))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L29" s="9">
         <f t="shared" si="2"/>
@@ -11404,7 +11528,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N29" s="28">
+      <c r="N29" s="38">
         <f>M29*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -11429,12 +11553,12 @@
       <c r="F30" s="9">
         <v>1</v>
       </c>
-      <c r="G30" s="9" t="str">
+      <c r="G30" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,2,1,4,1</v>
       </c>
       <c r="H30" s="9">
-        <f>IF(F30=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F30=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I30" s="9">
@@ -11442,20 +11566,20 @@
         <v>1</v>
       </c>
       <c r="J30" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E52,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F52)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E30,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F30) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E30,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F30))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L30" s="9">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="M30" s="9">
         <f t="shared" si="3"/>
-        <v>3.9165922514138946E-2</v>
-      </c>
-      <c r="N30" s="28">
+        <v>7.068062827225133E-3</v>
+      </c>
+      <c r="N30" s="38">
         <f>M30*'Indirect Model Parameters'!$G$10</f>
-        <v>3916.5922514138947</v>
+        <v>706.80628272251329</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="48">
@@ -11478,12 +11602,12 @@
       <c r="F31" s="9">
         <v>1</v>
       </c>
-      <c r="G31" s="9" t="str">
+      <c r="G31" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,2,2,4,1</v>
       </c>
       <c r="H31" s="9">
-        <f>IF(F31=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F31=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I31" s="9">
@@ -11491,8 +11615,8 @@
         <v>0</v>
       </c>
       <c r="J31" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E85,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F85)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E31,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F31) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E31,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F31))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L31" s="9">
         <f t="shared" si="2"/>
@@ -11502,7 +11626,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N31" s="28">
+      <c r="N31" s="38">
         <f>M31*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -11527,12 +11651,12 @@
       <c r="F32" s="9">
         <v>2</v>
       </c>
-      <c r="G32" s="9" t="str">
+      <c r="G32" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,2,1,4,2</v>
       </c>
       <c r="H32" s="9">
-        <f>IF(F32=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F32=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I32" s="9">
@@ -11540,20 +11664,20 @@
         <v>1</v>
       </c>
       <c r="J32" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E116,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F116)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E32,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F32) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E32,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F32))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L32" s="9">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="M32" s="9">
         <f t="shared" si="3"/>
-        <v>3.9165922514138946E-2</v>
-      </c>
-      <c r="N32" s="28">
+        <v>7.068062827225133E-3</v>
+      </c>
+      <c r="N32" s="38">
         <f>M32*'Indirect Model Parameters'!$G$10</f>
-        <v>3916.5922514138947</v>
+        <v>706.80628272251329</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="48">
@@ -11576,12 +11700,12 @@
       <c r="F33" s="9">
         <v>2</v>
       </c>
-      <c r="G33" s="9" t="str">
+      <c r="G33" s="40" t="str">
         <f t="shared" si="1"/>
         <v>N,2,2,4,2</v>
       </c>
       <c r="H33" s="9">
-        <f>IF(F33=1,'Indirect Model Parameters'!$G$20,'Indirect Model Parameters'!$G$21)</f>
+        <f>IF(F33=1,'Indirect Model Parameters'!$G$19,'Indirect Model Parameters'!$G$20)</f>
         <v>0.5</v>
       </c>
       <c r="I33" s="9">
@@ -11589,8 +11713,8 @@
         <v>0</v>
       </c>
       <c r="J33" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E117,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F117)</f>
-        <v>1</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E33,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F33) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E33,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F33))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L33" s="9">
         <f t="shared" si="2"/>
@@ -11600,7 +11724,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N33" s="28">
+      <c r="N33" s="38">
         <f>M33*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -11625,12 +11749,12 @@
       <c r="F34" s="9">
         <v>1</v>
       </c>
-      <c r="G34" s="9" t="str">
+      <c r="G34" s="40" t="str">
         <f t="shared" ref="G34:G65" si="5">CONCATENATE( B34, IF(B34&lt;&gt;"",",",""), C34, IF(C34&lt;&gt;"",",",""),  D34, IF(D34&lt;&gt;"",",",""),  E34, IF(F34&lt;&gt;"",",",""), F34,)</f>
         <v>N,3,1,1,1</v>
       </c>
       <c r="H34" s="9">
-        <f>IF(F34=1,'Indirect Model Parameters'!$G$22,'Indirect Model Parameters'!$G$23)</f>
+        <f>IF(F34=1,'Indirect Model Parameters'!$G$21,'Indirect Model Parameters'!$G$22)</f>
         <v>0.49</v>
       </c>
       <c r="I34" s="9">
@@ -11638,20 +11762,20 @@
         <v>0.7</v>
       </c>
       <c r="J34" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E6,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F6)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E34,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F34) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E34,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F34))</f>
+        <v>0.7</v>
       </c>
       <c r="L34" s="9">
         <f t="shared" si="2"/>
-        <v>0.18865000000000001</v>
+        <v>0.24009999999999995</v>
       </c>
       <c r="M34" s="9">
         <f t="shared" si="3"/>
-        <v>1.4777302564584626E-2</v>
-      </c>
-      <c r="N34" s="28">
+        <v>4.1902268760907503E-2</v>
+      </c>
+      <c r="N34" s="38">
         <f>M34*'Indirect Model Parameters'!$G$10</f>
-        <v>1477.7302564584627</v>
+        <v>4190.22687609075</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="48">
@@ -11674,12 +11798,12 @@
       <c r="F35" s="9">
         <v>1</v>
       </c>
-      <c r="G35" s="9" t="str">
+      <c r="G35" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,3,2,1,1</v>
       </c>
       <c r="H35" s="9">
-        <f>IF(F35=1,'Indirect Model Parameters'!$G$22,'Indirect Model Parameters'!$G$23)</f>
+        <f>IF(F35=1,'Indirect Model Parameters'!$G$21,'Indirect Model Parameters'!$G$22)</f>
         <v>0.49</v>
       </c>
       <c r="I35" s="9">
@@ -11687,20 +11811,20 @@
         <v>0.3</v>
       </c>
       <c r="J35" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E7,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F7)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E35,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F35) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E35,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F35))</f>
+        <v>0.7</v>
       </c>
       <c r="L35" s="9">
         <f t="shared" si="2"/>
-        <v>8.0850000000000005E-2</v>
+        <v>0.10289999999999999</v>
       </c>
       <c r="M35" s="9">
         <f t="shared" si="3"/>
-        <v>6.3331296705362687E-3</v>
-      </c>
-      <c r="N35" s="28">
+        <v>1.7958115183246075E-2</v>
+      </c>
+      <c r="N35" s="38">
         <f>M35*'Indirect Model Parameters'!$G$10</f>
-        <v>633.31296705362683</v>
+        <v>1795.8115183246075</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="48">
@@ -11723,12 +11847,12 @@
       <c r="F36" s="9">
         <v>2</v>
       </c>
-      <c r="G36" s="9" t="str">
+      <c r="G36" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,3,1,1,2</v>
       </c>
       <c r="H36" s="9">
-        <f>IF(F36=1,'Indirect Model Parameters'!$G$22,'Indirect Model Parameters'!$G$23)</f>
+        <f>IF(F36=1,'Indirect Model Parameters'!$G$21,'Indirect Model Parameters'!$G$22)</f>
         <v>0.49</v>
       </c>
       <c r="I36" s="9">
@@ -11736,20 +11860,20 @@
         <v>0.7</v>
       </c>
       <c r="J36" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E70,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F70)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E36,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F36) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E36,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F36))</f>
+        <v>0.7</v>
       </c>
       <c r="L36" s="9">
         <f t="shared" si="2"/>
-        <v>0.18865000000000001</v>
+        <v>0.24009999999999995</v>
       </c>
       <c r="M36" s="9">
         <f t="shared" si="3"/>
-        <v>1.4777302564584626E-2</v>
-      </c>
-      <c r="N36" s="28">
+        <v>4.1902268760907503E-2</v>
+      </c>
+      <c r="N36" s="38">
         <f>M36*'Indirect Model Parameters'!$G$10</f>
-        <v>1477.7302564584627</v>
+        <v>4190.22687609075</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="48">
@@ -11772,12 +11896,12 @@
       <c r="F37" s="9">
         <v>2</v>
       </c>
-      <c r="G37" s="9" t="str">
+      <c r="G37" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,3,2,1,2</v>
       </c>
       <c r="H37" s="9">
-        <f>IF(F37=1,'Indirect Model Parameters'!$G$22,'Indirect Model Parameters'!$G$23)</f>
+        <f>IF(F37=1,'Indirect Model Parameters'!$G$21,'Indirect Model Parameters'!$G$22)</f>
         <v>0.49</v>
       </c>
       <c r="I37" s="9">
@@ -11785,20 +11909,20 @@
         <v>0.3</v>
       </c>
       <c r="J37" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E71,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F71)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E37,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F37) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E37,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F37))</f>
+        <v>0.7</v>
       </c>
       <c r="L37" s="9">
         <f t="shared" si="2"/>
-        <v>8.0850000000000005E-2</v>
+        <v>0.10289999999999999</v>
       </c>
       <c r="M37" s="9">
         <f t="shared" si="3"/>
-        <v>6.3331296705362687E-3</v>
-      </c>
-      <c r="N37" s="28">
+        <v>1.7958115183246075E-2</v>
+      </c>
+      <c r="N37" s="38">
         <f>M37*'Indirect Model Parameters'!$G$10</f>
-        <v>633.31296705362683</v>
+        <v>1795.8115183246075</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="48">
@@ -11821,12 +11945,12 @@
       <c r="F38" s="9">
         <v>1</v>
       </c>
-      <c r="G38" s="9" t="str">
+      <c r="G38" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,3,1,2,1</v>
       </c>
       <c r="H38" s="9">
-        <f>IF(F38=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F38=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I38" s="9">
@@ -11834,20 +11958,20 @@
         <v>0.3</v>
       </c>
       <c r="J38" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E22,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F22)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E38,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F38) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E38,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F38))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L38" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>2.4750000000000001E-2</v>
       </c>
       <c r="M38" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N38" s="28">
+        <v>4.3193717277486927E-3</v>
+      </c>
+      <c r="N38" s="38">
         <f>M38*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>431.93717277486928</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="48">
@@ -11870,12 +11994,12 @@
       <c r="F39" s="9">
         <v>1</v>
       </c>
-      <c r="G39" s="9" t="str">
+      <c r="G39" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,3,2,2,1</v>
       </c>
       <c r="H39" s="9">
-        <f>IF(F39=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F39=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I39" s="9">
@@ -11883,20 +12007,20 @@
         <v>0.3</v>
       </c>
       <c r="J39" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E23,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F23)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E39,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F39) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E39,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F39))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L39" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>2.4750000000000001E-2</v>
       </c>
       <c r="M39" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N39" s="28">
+        <v>4.3193717277486927E-3</v>
+      </c>
+      <c r="N39" s="38">
         <f>M39*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>431.93717277486928</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="48">
@@ -11919,12 +12043,12 @@
       <c r="F40" s="9">
         <v>2</v>
       </c>
-      <c r="G40" s="9" t="str">
+      <c r="G40" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,3,1,2,2</v>
       </c>
       <c r="H40" s="9">
-        <f>IF(F40=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F40=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I40" s="9">
@@ -11932,20 +12056,20 @@
         <v>0.3</v>
       </c>
       <c r="J40" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E86,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F86)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E40,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F40) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E40,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F40))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L40" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>2.4750000000000001E-2</v>
       </c>
       <c r="M40" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N40" s="28">
+        <v>4.3193717277486927E-3</v>
+      </c>
+      <c r="N40" s="38">
         <f>M40*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>431.93717277486928</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="48">
@@ -11968,12 +12092,12 @@
       <c r="F41" s="9">
         <v>2</v>
       </c>
-      <c r="G41" s="9" t="str">
+      <c r="G41" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,3,2,2,2</v>
       </c>
       <c r="H41" s="9">
-        <f>IF(F41=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F41=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I41" s="9">
@@ -11981,20 +12105,20 @@
         <v>0.3</v>
       </c>
       <c r="J41" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E87,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F87)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E41,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F41) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E41,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F41))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L41" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>2.4750000000000001E-2</v>
       </c>
       <c r="M41" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N41" s="28">
+        <v>4.3193717277486927E-3</v>
+      </c>
+      <c r="N41" s="38">
         <f>M41*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>431.93717277486928</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="48">
@@ -12017,12 +12141,12 @@
       <c r="F42" s="9">
         <v>1</v>
       </c>
-      <c r="G42" s="9" t="str">
+      <c r="G42" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,3,1,3,1</v>
       </c>
       <c r="H42" s="9">
-        <f>IF(F42=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F42=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I42" s="9">
@@ -12030,20 +12154,20 @@
         <v>0.3</v>
       </c>
       <c r="J42" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E38,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F38)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E42,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F42) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E42,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F42))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L42" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>8.0999999999999961E-3</v>
       </c>
       <c r="M42" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N42" s="28">
+        <v>1.4136125654450257E-3</v>
+      </c>
+      <c r="N42" s="38">
         <f>M42*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>141.36125654450257</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="48">
@@ -12066,12 +12190,12 @@
       <c r="F43" s="9">
         <v>1</v>
       </c>
-      <c r="G43" s="9" t="str">
+      <c r="G43" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,3,2,3,1</v>
       </c>
       <c r="H43" s="9">
-        <f>IF(F43=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F43=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I43" s="9">
@@ -12079,20 +12203,20 @@
         <v>0.3</v>
       </c>
       <c r="J43" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E39,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F39)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E43,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F43) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E43,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F43))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L43" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>8.0999999999999961E-3</v>
       </c>
       <c r="M43" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N43" s="28">
+        <v>1.4136125654450257E-3</v>
+      </c>
+      <c r="N43" s="38">
         <f>M43*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>141.36125654450257</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="48">
@@ -12115,12 +12239,12 @@
       <c r="F44" s="9">
         <v>2</v>
       </c>
-      <c r="G44" s="9" t="str">
+      <c r="G44" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,3,1,3,2</v>
       </c>
       <c r="H44" s="9">
-        <f>IF(F44=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F44=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I44" s="9">
@@ -12128,20 +12252,20 @@
         <v>0.3</v>
       </c>
       <c r="J44" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E102,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F102)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E44,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F44) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E44,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F44))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L44" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>8.0999999999999961E-3</v>
       </c>
       <c r="M44" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N44" s="28">
+        <v>1.4136125654450257E-3</v>
+      </c>
+      <c r="N44" s="38">
         <f>M44*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>141.36125654450257</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="48">
@@ -12164,12 +12288,12 @@
       <c r="F45" s="9">
         <v>2</v>
       </c>
-      <c r="G45" s="9" t="str">
+      <c r="G45" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,3,2,3,2</v>
       </c>
       <c r="H45" s="9">
-        <f>IF(F45=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F45=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I45" s="9">
@@ -12177,20 +12301,20 @@
         <v>0.3</v>
       </c>
       <c r="J45" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E103,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F103)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E45,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F45) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E45,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F45))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L45" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>8.0999999999999961E-3</v>
       </c>
       <c r="M45" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N45" s="28">
+        <v>1.4136125654450257E-3</v>
+      </c>
+      <c r="N45" s="38">
         <f>M45*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>141.36125654450257</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="48">
@@ -12213,12 +12337,12 @@
       <c r="F46" s="9">
         <v>1</v>
       </c>
-      <c r="G46" s="9" t="str">
+      <c r="G46" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,3,1,4,1</v>
       </c>
       <c r="H46" s="9">
-        <f>IF(F46=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F46=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I46" s="9">
@@ -12226,20 +12350,20 @@
         <v>0.3</v>
       </c>
       <c r="J46" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E54,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F54)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E46,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F46) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E46,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F46))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L46" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>1.2149999999999999E-2</v>
       </c>
       <c r="M46" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N46" s="28">
+        <v>2.1204188481675395E-3</v>
+      </c>
+      <c r="N46" s="38">
         <f>M46*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>212.04188481675394</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="48">
@@ -12262,12 +12386,12 @@
       <c r="F47" s="9">
         <v>1</v>
       </c>
-      <c r="G47" s="9" t="str">
+      <c r="G47" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,3,2,4,1</v>
       </c>
       <c r="H47" s="9">
-        <f>IF(F47=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F47=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I47" s="9">
@@ -12275,20 +12399,20 @@
         <v>0.3</v>
       </c>
       <c r="J47" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E55,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F55)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E47,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F47) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E47,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F47))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L47" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>1.2149999999999999E-2</v>
       </c>
       <c r="M47" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N47" s="28">
+        <v>2.1204188481675395E-3</v>
+      </c>
+      <c r="N47" s="38">
         <f>M47*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>212.04188481675394</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="48">
@@ -12311,12 +12435,12 @@
       <c r="F48" s="9">
         <v>2</v>
       </c>
-      <c r="G48" s="9" t="str">
+      <c r="G48" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,3,1,4,2</v>
       </c>
       <c r="H48" s="9">
-        <f>IF(F48=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F48=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I48" s="9">
@@ -12324,20 +12448,20 @@
         <v>0.3</v>
       </c>
       <c r="J48" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E118,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F118)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E48,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F48) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E48,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F48))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L48" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>1.2149999999999999E-2</v>
       </c>
       <c r="M48" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N48" s="28">
+        <v>2.1204188481675395E-3</v>
+      </c>
+      <c r="N48" s="38">
         <f>M48*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>212.04188481675394</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="48">
@@ -12360,12 +12484,12 @@
       <c r="F49" s="9">
         <v>2</v>
       </c>
-      <c r="G49" s="9" t="str">
+      <c r="G49" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,3,2,4,2</v>
       </c>
       <c r="H49" s="9">
-        <f>IF(F49=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F49=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I49" s="9">
@@ -12373,20 +12497,20 @@
         <v>0.3</v>
       </c>
       <c r="J49" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E119,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F119)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E49,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F49) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E49,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F49))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L49" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>1.2149999999999999E-2</v>
       </c>
       <c r="M49" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N49" s="28">
+        <v>2.1204188481675395E-3</v>
+      </c>
+      <c r="N49" s="38">
         <f>M49*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>212.04188481675394</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="32">
@@ -12409,12 +12533,12 @@
       <c r="F50" s="9">
         <v>1</v>
       </c>
-      <c r="G50" s="9" t="str">
+      <c r="G50" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,4,1,1,1</v>
       </c>
       <c r="H50" s="9">
-        <f>IF(F50=1,'Indirect Model Parameters'!$G$22,'Indirect Model Parameters'!$G$23)</f>
+        <f>IF(F50=1,'Indirect Model Parameters'!$G$21,'Indirect Model Parameters'!$G$22)</f>
         <v>0.49</v>
       </c>
       <c r="I50" s="9">
@@ -12422,20 +12546,20 @@
         <v>0.7</v>
       </c>
       <c r="J50" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E8,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F8)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E50,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F50) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E50,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F50))</f>
+        <v>0.7</v>
       </c>
       <c r="L50" s="9">
         <f t="shared" si="2"/>
-        <v>0.18865000000000001</v>
+        <v>0.24009999999999995</v>
       </c>
       <c r="M50" s="9">
         <f t="shared" si="3"/>
-        <v>1.4777302564584626E-2</v>
-      </c>
-      <c r="N50" s="28">
+        <v>4.1902268760907503E-2</v>
+      </c>
+      <c r="N50" s="38">
         <f>M50*'Indirect Model Parameters'!$G$10</f>
-        <v>1477.7302564584627</v>
+        <v>4190.22687609075</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="48">
@@ -12458,12 +12582,12 @@
       <c r="F51" s="9">
         <v>1</v>
       </c>
-      <c r="G51" s="9" t="str">
+      <c r="G51" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,4,2,1,1</v>
       </c>
       <c r="H51" s="9">
-        <f>IF(F51=1,'Indirect Model Parameters'!$G$22,'Indirect Model Parameters'!$G$23)</f>
+        <f>IF(F51=1,'Indirect Model Parameters'!$G$21,'Indirect Model Parameters'!$G$22)</f>
         <v>0.49</v>
       </c>
       <c r="I51" s="9">
@@ -12471,20 +12595,20 @@
         <v>0.3</v>
       </c>
       <c r="J51" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E9,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F9)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E51,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F51) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E51,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F51))</f>
+        <v>0.7</v>
       </c>
       <c r="L51" s="9">
         <f t="shared" si="2"/>
-        <v>8.0850000000000005E-2</v>
+        <v>0.10289999999999999</v>
       </c>
       <c r="M51" s="9">
         <f t="shared" si="3"/>
-        <v>6.3331296705362687E-3</v>
-      </c>
-      <c r="N51" s="28">
+        <v>1.7958115183246075E-2</v>
+      </c>
+      <c r="N51" s="38">
         <f>M51*'Indirect Model Parameters'!$G$10</f>
-        <v>633.31296705362683</v>
+        <v>1795.8115183246075</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="32">
@@ -12507,12 +12631,12 @@
       <c r="F52" s="9">
         <v>2</v>
       </c>
-      <c r="G52" s="9" t="str">
+      <c r="G52" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,4,1,1,2</v>
       </c>
       <c r="H52" s="9">
-        <f>IF(F52=1,'Indirect Model Parameters'!$G$22,'Indirect Model Parameters'!$G$23)</f>
+        <f>IF(F52=1,'Indirect Model Parameters'!$G$21,'Indirect Model Parameters'!$G$22)</f>
         <v>0.49</v>
       </c>
       <c r="I52" s="9">
@@ -12520,20 +12644,20 @@
         <v>0.7</v>
       </c>
       <c r="J52" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E72,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F72)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E52,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F52) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E52,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F52))</f>
+        <v>0.7</v>
       </c>
       <c r="L52" s="9">
         <f t="shared" si="2"/>
-        <v>0.18865000000000001</v>
+        <v>0.24009999999999995</v>
       </c>
       <c r="M52" s="9">
         <f t="shared" si="3"/>
-        <v>1.4777302564584626E-2</v>
-      </c>
-      <c r="N52" s="28">
+        <v>4.1902268760907503E-2</v>
+      </c>
+      <c r="N52" s="38">
         <f>M52*'Indirect Model Parameters'!$G$10</f>
-        <v>1477.7302564584627</v>
+        <v>4190.22687609075</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="48">
@@ -12556,12 +12680,12 @@
       <c r="F53" s="9">
         <v>2</v>
       </c>
-      <c r="G53" s="9" t="str">
+      <c r="G53" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,4,2,1,2</v>
       </c>
       <c r="H53" s="9">
-        <f>IF(F53=1,'Indirect Model Parameters'!$G$22,'Indirect Model Parameters'!$G$23)</f>
+        <f>IF(F53=1,'Indirect Model Parameters'!$G$21,'Indirect Model Parameters'!$G$22)</f>
         <v>0.49</v>
       </c>
       <c r="I53" s="9">
@@ -12569,20 +12693,20 @@
         <v>0.3</v>
       </c>
       <c r="J53" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E73,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F73)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E53,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F53) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E53,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F53))</f>
+        <v>0.7</v>
       </c>
       <c r="L53" s="9">
         <f t="shared" si="2"/>
-        <v>8.0850000000000005E-2</v>
+        <v>0.10289999999999999</v>
       </c>
       <c r="M53" s="9">
         <f t="shared" si="3"/>
-        <v>6.3331296705362687E-3</v>
-      </c>
-      <c r="N53" s="28">
+        <v>1.7958115183246075E-2</v>
+      </c>
+      <c r="N53" s="38">
         <f>M53*'Indirect Model Parameters'!$G$10</f>
-        <v>633.31296705362683</v>
+        <v>1795.8115183246075</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="48">
@@ -12605,12 +12729,12 @@
       <c r="F54" s="9">
         <v>1</v>
       </c>
-      <c r="G54" s="9" t="str">
+      <c r="G54" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,4,1,2,1</v>
       </c>
       <c r="H54" s="9">
-        <f>IF(F54=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F54=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I54" s="9">
@@ -12618,20 +12742,20 @@
         <v>0.3</v>
       </c>
       <c r="J54" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E24,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F24)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E54,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F54) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E54,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F54))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L54" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>2.4750000000000001E-2</v>
       </c>
       <c r="M54" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N54" s="28">
+        <v>4.3193717277486927E-3</v>
+      </c>
+      <c r="N54" s="38">
         <f>M54*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>431.93717277486928</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="48">
@@ -12654,12 +12778,12 @@
       <c r="F55" s="9">
         <v>1</v>
       </c>
-      <c r="G55" s="9" t="str">
+      <c r="G55" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,4,2,2,1</v>
       </c>
       <c r="H55" s="9">
-        <f>IF(F55=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F55=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I55" s="9">
@@ -12667,20 +12791,20 @@
         <v>0.3</v>
       </c>
       <c r="J55" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E25,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F25)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E55,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F55) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E55,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F55))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L55" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>2.4750000000000001E-2</v>
       </c>
       <c r="M55" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N55" s="28">
+        <v>4.3193717277486927E-3</v>
+      </c>
+      <c r="N55" s="38">
         <f>M55*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>431.93717277486928</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="48">
@@ -12703,12 +12827,12 @@
       <c r="F56" s="9">
         <v>2</v>
       </c>
-      <c r="G56" s="9" t="str">
+      <c r="G56" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,4,1,2,2</v>
       </c>
       <c r="H56" s="9">
-        <f>IF(F56=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F56=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I56" s="9">
@@ -12716,20 +12840,20 @@
         <v>0.3</v>
       </c>
       <c r="J56" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E88,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F88)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E56,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F56) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E56,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F56))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L56" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>2.4750000000000001E-2</v>
       </c>
       <c r="M56" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N56" s="28">
+        <v>4.3193717277486927E-3</v>
+      </c>
+      <c r="N56" s="38">
         <f>M56*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>431.93717277486928</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="48">
@@ -12752,12 +12876,12 @@
       <c r="F57" s="9">
         <v>2</v>
       </c>
-      <c r="G57" s="9" t="str">
+      <c r="G57" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,4,2,2,2</v>
       </c>
       <c r="H57" s="9">
-        <f>IF(F57=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F57=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I57" s="9">
@@ -12765,20 +12889,20 @@
         <v>0.3</v>
       </c>
       <c r="J57" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E89,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F89)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E57,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F57) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E57,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F57))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L57" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>2.4750000000000001E-2</v>
       </c>
       <c r="M57" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N57" s="28">
+        <v>4.3193717277486927E-3</v>
+      </c>
+      <c r="N57" s="38">
         <f>M57*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>431.93717277486928</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="48">
@@ -12801,12 +12925,12 @@
       <c r="F58" s="9">
         <v>1</v>
       </c>
-      <c r="G58" s="9" t="str">
+      <c r="G58" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,4,1,3,1</v>
       </c>
       <c r="H58" s="9">
-        <f>IF(F58=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F58=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I58" s="9">
@@ -12814,20 +12938,20 @@
         <v>0.3</v>
       </c>
       <c r="J58" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E40,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F40)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E58,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F58) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E58,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F58))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L58" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>8.0999999999999961E-3</v>
       </c>
       <c r="M58" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N58" s="28">
+        <v>1.4136125654450257E-3</v>
+      </c>
+      <c r="N58" s="38">
         <f>M58*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>141.36125654450257</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="48">
@@ -12850,12 +12974,12 @@
       <c r="F59" s="9">
         <v>1</v>
       </c>
-      <c r="G59" s="9" t="str">
+      <c r="G59" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,4,2,3,1</v>
       </c>
       <c r="H59" s="9">
-        <f>IF(F59=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F59=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I59" s="9">
@@ -12863,20 +12987,20 @@
         <v>0.3</v>
       </c>
       <c r="J59" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E41,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F41)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E59,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F59) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E59,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F59))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L59" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>8.0999999999999961E-3</v>
       </c>
       <c r="M59" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N59" s="28">
+        <v>1.4136125654450257E-3</v>
+      </c>
+      <c r="N59" s="38">
         <f>M59*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>141.36125654450257</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="48">
@@ -12899,12 +13023,12 @@
       <c r="F60" s="9">
         <v>2</v>
       </c>
-      <c r="G60" s="9" t="str">
+      <c r="G60" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,4,1,3,2</v>
       </c>
       <c r="H60" s="9">
-        <f>IF(F60=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F60=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I60" s="9">
@@ -12912,20 +13036,20 @@
         <v>0.3</v>
       </c>
       <c r="J60" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E104,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F104)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E60,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F60) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E60,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F60))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L60" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>8.0999999999999961E-3</v>
       </c>
       <c r="M60" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N60" s="28">
+        <v>1.4136125654450257E-3</v>
+      </c>
+      <c r="N60" s="38">
         <f>M60*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>141.36125654450257</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="48">
@@ -12948,12 +13072,12 @@
       <c r="F61" s="9">
         <v>2</v>
       </c>
-      <c r="G61" s="9" t="str">
+      <c r="G61" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,4,2,3,2</v>
       </c>
       <c r="H61" s="9">
-        <f>IF(F61=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F61=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I61" s="9">
@@ -12961,20 +13085,20 @@
         <v>0.3</v>
       </c>
       <c r="J61" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E105,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F105)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E61,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F61) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E61,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F61))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L61" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>8.0999999999999961E-3</v>
       </c>
       <c r="M61" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N61" s="28">
+        <v>1.4136125654450257E-3</v>
+      </c>
+      <c r="N61" s="38">
         <f>M61*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>141.36125654450257</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="32">
@@ -12997,12 +13121,12 @@
       <c r="F62" s="9">
         <v>1</v>
       </c>
-      <c r="G62" s="9" t="str">
+      <c r="G62" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,4,1,4,1</v>
       </c>
       <c r="H62" s="9">
-        <f>IF(F62=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F62=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I62" s="9">
@@ -13010,20 +13134,20 @@
         <v>0.3</v>
       </c>
       <c r="J62" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E56,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F56)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E62,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F62) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E62,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F62))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L62" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>1.2149999999999999E-2</v>
       </c>
       <c r="M62" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N62" s="28">
+        <v>2.1204188481675395E-3</v>
+      </c>
+      <c r="N62" s="38">
         <f>M62*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>212.04188481675394</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="48">
@@ -13046,12 +13170,12 @@
       <c r="F63" s="9">
         <v>1</v>
       </c>
-      <c r="G63" s="9" t="str">
+      <c r="G63" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,4,2,4,1</v>
       </c>
       <c r="H63" s="9">
-        <f>IF(F63=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F63=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I63" s="9">
@@ -13059,20 +13183,20 @@
         <v>0.3</v>
       </c>
       <c r="J63" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E57,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F57)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E63,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F63) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E63,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F63))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L63" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>1.2149999999999999E-2</v>
       </c>
       <c r="M63" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N63" s="28">
+        <v>2.1204188481675395E-3</v>
+      </c>
+      <c r="N63" s="38">
         <f>M63*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>212.04188481675394</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="48">
@@ -13095,12 +13219,12 @@
       <c r="F64" s="9">
         <v>2</v>
       </c>
-      <c r="G64" s="9" t="str">
+      <c r="G64" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,4,1,4,2</v>
       </c>
       <c r="H64" s="9">
-        <f>IF(F64=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F64=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I64" s="9">
@@ -13108,20 +13232,20 @@
         <v>0.3</v>
       </c>
       <c r="J64" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E120,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F120)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E64,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F64) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E64,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F64))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L64" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>1.2149999999999999E-2</v>
       </c>
       <c r="M64" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N64" s="28">
+        <v>2.1204188481675395E-3</v>
+      </c>
+      <c r="N64" s="38">
         <f>M64*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>212.04188481675394</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="48">
@@ -13144,12 +13268,12 @@
       <c r="F65" s="9">
         <v>2</v>
       </c>
-      <c r="G65" s="9" t="str">
+      <c r="G65" s="40" t="str">
         <f t="shared" si="5"/>
         <v>N,4,2,4,2</v>
       </c>
       <c r="H65" s="9">
-        <f>IF(F65=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F65=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I65" s="9">
@@ -13157,20 +13281,20 @@
         <v>0.3</v>
       </c>
       <c r="J65" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E121,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F121)</f>
-        <v>0.55000000000000004</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E65,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F65) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E65,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F65))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L65" s="9">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>1.2149999999999999E-2</v>
       </c>
       <c r="M65" s="9">
         <f t="shared" si="3"/>
-        <v>6.4623772148329267E-3</v>
-      </c>
-      <c r="N65" s="28">
+        <v>2.1204188481675395E-3</v>
+      </c>
+      <c r="N65" s="38">
         <f>M65*'Indirect Model Parameters'!$G$10</f>
-        <v>646.23772148329272</v>
+        <v>212.04188481675394</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="32">
@@ -13193,12 +13317,12 @@
       <c r="F66" s="9">
         <v>1</v>
       </c>
-      <c r="G66" s="9" t="str">
+      <c r="G66" s="40" t="str">
         <f t="shared" ref="G66:G97" si="7">CONCATENATE( B66, IF(B66&lt;&gt;"",",",""), C66, IF(C66&lt;&gt;"",",",""),  D66, IF(D66&lt;&gt;"",",",""),  E66, IF(F66&lt;&gt;"",",",""), F66,)</f>
         <v>N,5,1,1,1</v>
       </c>
       <c r="H66" s="9">
-        <f>IF(F66=1,'Indirect Model Parameters'!$G$22,'Indirect Model Parameters'!$G$23)</f>
+        <f>IF(F66=1,'Indirect Model Parameters'!$G$21,'Indirect Model Parameters'!$G$22)</f>
         <v>0.49</v>
       </c>
       <c r="I66" s="9">
@@ -13206,20 +13330,20 @@
         <v>0.7</v>
       </c>
       <c r="J66" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E10,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F10)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E66,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F66) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E66,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F66))</f>
+        <v>0.7</v>
       </c>
       <c r="L66" s="9">
         <f t="shared" si="2"/>
-        <v>6.1739999999999975E-2</v>
+        <v>0.24009999999999995</v>
       </c>
       <c r="M66" s="9">
         <f t="shared" si="3"/>
-        <v>4.836208112045875E-3</v>
-      </c>
-      <c r="N66" s="28">
+        <v>4.1902268760907503E-2</v>
+      </c>
+      <c r="N66" s="38">
         <f>M66*'Indirect Model Parameters'!$G$10</f>
-        <v>483.62081120458748</v>
+        <v>4190.22687609075</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="32">
@@ -13242,12 +13366,12 @@
       <c r="F67" s="9">
         <v>1</v>
       </c>
-      <c r="G67" s="9" t="str">
+      <c r="G67" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,5,2,1,1</v>
       </c>
       <c r="H67" s="9">
-        <f>IF(F67=1,'Indirect Model Parameters'!$G$22,'Indirect Model Parameters'!$G$23)</f>
+        <f>IF(F67=1,'Indirect Model Parameters'!$G$21,'Indirect Model Parameters'!$G$22)</f>
         <v>0.49</v>
       </c>
       <c r="I67" s="9">
@@ -13255,20 +13379,20 @@
         <v>0.3</v>
       </c>
       <c r="J67" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E11,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F11)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E67,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F67) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E67,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F67))</f>
+        <v>0.7</v>
       </c>
       <c r="L67" s="9">
         <f t="shared" ref="L67:L129" si="8">PRODUCT(H67:J67)</f>
-        <v>2.645999999999999E-2</v>
+        <v>0.10289999999999999</v>
       </c>
       <c r="M67" s="9">
         <f t="shared" ref="M67:M129" si="9">L67/SUM($L$2:$L$129)</f>
-        <v>2.0726606194482323E-3</v>
-      </c>
-      <c r="N67" s="28">
+        <v>1.7958115183246075E-2</v>
+      </c>
+      <c r="N67" s="38">
         <f>M67*'Indirect Model Parameters'!$G$10</f>
-        <v>207.26606194482324</v>
+        <v>1795.8115183246075</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="32">
@@ -13291,12 +13415,12 @@
       <c r="F68" s="9">
         <v>2</v>
       </c>
-      <c r="G68" s="9" t="str">
+      <c r="G68" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,5,1,1,2</v>
       </c>
       <c r="H68" s="9">
-        <f>IF(F68=1,'Indirect Model Parameters'!$G$22,'Indirect Model Parameters'!$G$23)</f>
+        <f>IF(F68=1,'Indirect Model Parameters'!$G$21,'Indirect Model Parameters'!$G$22)</f>
         <v>0.49</v>
       </c>
       <c r="I68" s="9">
@@ -13304,20 +13428,20 @@
         <v>0.7</v>
       </c>
       <c r="J68" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E74,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F74)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E68,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F68) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E68,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F68))</f>
+        <v>0.7</v>
       </c>
       <c r="L68" s="9">
         <f t="shared" si="8"/>
-        <v>6.1739999999999975E-2</v>
+        <v>0.24009999999999995</v>
       </c>
       <c r="M68" s="9">
         <f t="shared" si="9"/>
-        <v>4.836208112045875E-3</v>
-      </c>
-      <c r="N68" s="28">
+        <v>4.1902268760907503E-2</v>
+      </c>
+      <c r="N68" s="38">
         <f>M68*'Indirect Model Parameters'!$G$10</f>
-        <v>483.62081120458748</v>
+        <v>4190.22687609075</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="32">
@@ -13340,12 +13464,12 @@
       <c r="F69" s="9">
         <v>2</v>
       </c>
-      <c r="G69" s="9" t="str">
+      <c r="G69" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,5,2,1,2</v>
       </c>
       <c r="H69" s="9">
-        <f>IF(F69=1,'Indirect Model Parameters'!$G$22,'Indirect Model Parameters'!$G$23)</f>
+        <f>IF(F69=1,'Indirect Model Parameters'!$G$21,'Indirect Model Parameters'!$G$22)</f>
         <v>0.49</v>
       </c>
       <c r="I69" s="9">
@@ -13353,20 +13477,20 @@
         <v>0.3</v>
       </c>
       <c r="J69" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E75,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F75)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E69,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F69) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E69,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F69))</f>
+        <v>0.7</v>
       </c>
       <c r="L69" s="9">
         <f t="shared" si="8"/>
-        <v>2.645999999999999E-2</v>
+        <v>0.10289999999999999</v>
       </c>
       <c r="M69" s="9">
         <f t="shared" si="9"/>
-        <v>2.0726606194482323E-3</v>
-      </c>
-      <c r="N69" s="28">
+        <v>1.7958115183246075E-2</v>
+      </c>
+      <c r="N69" s="38">
         <f>M69*'Indirect Model Parameters'!$G$10</f>
-        <v>207.26606194482324</v>
+        <v>1795.8115183246075</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="32">
@@ -13389,12 +13513,12 @@
       <c r="F70" s="9">
         <v>1</v>
       </c>
-      <c r="G70" s="9" t="str">
+      <c r="G70" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,5,1,2,1</v>
       </c>
       <c r="H70" s="9">
-        <f>IF(F70=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F70=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I70" s="9">
@@ -13402,20 +13526,20 @@
         <v>0.3</v>
       </c>
       <c r="J70" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E26,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F26)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E70,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F70) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E70,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F70))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L70" s="9">
         <f t="shared" si="8"/>
-        <v>2.6999999999999989E-2</v>
+        <v>2.4750000000000001E-2</v>
       </c>
       <c r="M70" s="9">
         <f t="shared" si="9"/>
-        <v>2.1149598157635023E-3</v>
-      </c>
-      <c r="N70" s="28">
+        <v>4.3193717277486927E-3</v>
+      </c>
+      <c r="N70" s="38">
         <f>M70*'Indirect Model Parameters'!$G$10</f>
-        <v>211.49598157635023</v>
+        <v>431.93717277486928</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="48">
@@ -13438,12 +13562,12 @@
       <c r="F71" s="9">
         <v>1</v>
       </c>
-      <c r="G71" s="9" t="str">
+      <c r="G71" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,5,2,2,1</v>
       </c>
       <c r="H71" s="9">
-        <f>IF(F71=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F71=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I71" s="9">
@@ -13451,20 +13575,20 @@
         <v>0.3</v>
       </c>
       <c r="J71" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E27,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F27)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E71,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F71) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E71,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F71))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L71" s="9">
         <f t="shared" si="8"/>
-        <v>2.6999999999999989E-2</v>
+        <v>2.4750000000000001E-2</v>
       </c>
       <c r="M71" s="9">
         <f t="shared" si="9"/>
-        <v>2.1149598157635023E-3</v>
-      </c>
-      <c r="N71" s="28">
+        <v>4.3193717277486927E-3</v>
+      </c>
+      <c r="N71" s="38">
         <f>M71*'Indirect Model Parameters'!$G$10</f>
-        <v>211.49598157635023</v>
+        <v>431.93717277486928</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="32">
@@ -13487,12 +13611,12 @@
       <c r="F72" s="9">
         <v>2</v>
       </c>
-      <c r="G72" s="9" t="str">
+      <c r="G72" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,5,1,2,2</v>
       </c>
       <c r="H72" s="9">
-        <f>IF(F72=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F72=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I72" s="9">
@@ -13500,20 +13624,20 @@
         <v>0.3</v>
       </c>
       <c r="J72" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E90,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F90)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E72,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F72) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E72,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F72))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L72" s="9">
         <f t="shared" si="8"/>
-        <v>2.6999999999999989E-2</v>
+        <v>2.4750000000000001E-2</v>
       </c>
       <c r="M72" s="9">
         <f t="shared" si="9"/>
-        <v>2.1149598157635023E-3</v>
-      </c>
-      <c r="N72" s="28">
+        <v>4.3193717277486927E-3</v>
+      </c>
+      <c r="N72" s="38">
         <f>M72*'Indirect Model Parameters'!$G$10</f>
-        <v>211.49598157635023</v>
+        <v>431.93717277486928</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="48">
@@ -13536,12 +13660,12 @@
       <c r="F73" s="9">
         <v>2</v>
       </c>
-      <c r="G73" s="9" t="str">
+      <c r="G73" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,5,2,2,2</v>
       </c>
       <c r="H73" s="9">
-        <f>IF(F73=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F73=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I73" s="9">
@@ -13549,20 +13673,20 @@
         <v>0.3</v>
       </c>
       <c r="J73" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E91,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F91)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E73,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F73) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E73,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F73))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L73" s="9">
         <f t="shared" si="8"/>
-        <v>2.6999999999999989E-2</v>
+        <v>2.4750000000000001E-2</v>
       </c>
       <c r="M73" s="9">
         <f t="shared" si="9"/>
-        <v>2.1149598157635023E-3</v>
-      </c>
-      <c r="N73" s="28">
+        <v>4.3193717277486927E-3</v>
+      </c>
+      <c r="N73" s="38">
         <f>M73*'Indirect Model Parameters'!$G$10</f>
-        <v>211.49598157635023</v>
+        <v>431.93717277486928</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="32">
@@ -13585,12 +13709,12 @@
       <c r="F74" s="9">
         <v>1</v>
       </c>
-      <c r="G74" s="9" t="str">
+      <c r="G74" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,5,1,3,1</v>
       </c>
       <c r="H74" s="9">
-        <f>IF(F74=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F74=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I74" s="9">
@@ -13598,20 +13722,20 @@
         <v>0.3</v>
       </c>
       <c r="J74" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E42,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F42)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E74,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F74) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E74,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F74))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L74" s="9">
         <f t="shared" si="8"/>
-        <v>2.6999999999999989E-2</v>
+        <v>8.0999999999999961E-3</v>
       </c>
       <c r="M74" s="9">
         <f t="shared" si="9"/>
-        <v>2.1149598157635023E-3</v>
-      </c>
-      <c r="N74" s="28">
+        <v>1.4136125654450257E-3</v>
+      </c>
+      <c r="N74" s="38">
         <f>M74*'Indirect Model Parameters'!$G$10</f>
-        <v>211.49598157635023</v>
+        <v>141.36125654450257</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="48">
@@ -13634,12 +13758,12 @@
       <c r="F75" s="9">
         <v>1</v>
       </c>
-      <c r="G75" s="9" t="str">
+      <c r="G75" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,5,2,3,1</v>
       </c>
       <c r="H75" s="9">
-        <f>IF(F75=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F75=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I75" s="9">
@@ -13647,20 +13771,20 @@
         <v>0.3</v>
       </c>
       <c r="J75" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E43,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F43)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E75,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F75) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E75,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F75))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L75" s="9">
         <f t="shared" si="8"/>
-        <v>2.6999999999999989E-2</v>
+        <v>8.0999999999999961E-3</v>
       </c>
       <c r="M75" s="9">
         <f t="shared" si="9"/>
-        <v>2.1149598157635023E-3</v>
-      </c>
-      <c r="N75" s="28">
+        <v>1.4136125654450257E-3</v>
+      </c>
+      <c r="N75" s="38">
         <f>M75*'Indirect Model Parameters'!$G$10</f>
-        <v>211.49598157635023</v>
+        <v>141.36125654450257</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="32">
@@ -13683,12 +13807,12 @@
       <c r="F76" s="9">
         <v>2</v>
       </c>
-      <c r="G76" s="9" t="str">
+      <c r="G76" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,5,1,3,2</v>
       </c>
       <c r="H76" s="9">
-        <f>IF(F76=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F76=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I76" s="9">
@@ -13696,20 +13820,20 @@
         <v>0.3</v>
       </c>
       <c r="J76" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E106,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F106)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E76,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F76) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E76,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F76))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L76" s="9">
         <f t="shared" si="8"/>
-        <v>2.6999999999999989E-2</v>
+        <v>8.0999999999999961E-3</v>
       </c>
       <c r="M76" s="9">
         <f t="shared" si="9"/>
-        <v>2.1149598157635023E-3</v>
-      </c>
-      <c r="N76" s="28">
+        <v>1.4136125654450257E-3</v>
+      </c>
+      <c r="N76" s="38">
         <f>M76*'Indirect Model Parameters'!$G$10</f>
-        <v>211.49598157635023</v>
+        <v>141.36125654450257</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="48">
@@ -13732,12 +13856,12 @@
       <c r="F77" s="9">
         <v>2</v>
       </c>
-      <c r="G77" s="9" t="str">
+      <c r="G77" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,5,2,3,2</v>
       </c>
       <c r="H77" s="9">
-        <f>IF(F77=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F77=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I77" s="9">
@@ -13745,20 +13869,20 @@
         <v>0.3</v>
       </c>
       <c r="J77" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E107,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F107)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E77,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F77) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E77,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F77))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L77" s="9">
         <f t="shared" si="8"/>
-        <v>2.6999999999999989E-2</v>
+        <v>8.0999999999999961E-3</v>
       </c>
       <c r="M77" s="9">
         <f t="shared" si="9"/>
-        <v>2.1149598157635023E-3</v>
-      </c>
-      <c r="N77" s="28">
+        <v>1.4136125654450257E-3</v>
+      </c>
+      <c r="N77" s="38">
         <f>M77*'Indirect Model Parameters'!$G$10</f>
-        <v>211.49598157635023</v>
+        <v>141.36125654450257</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="32">
@@ -13781,12 +13905,12 @@
       <c r="F78" s="9">
         <v>1</v>
       </c>
-      <c r="G78" s="9" t="str">
+      <c r="G78" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,5,1,4,1</v>
       </c>
       <c r="H78" s="9">
-        <f>IF(F78=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F78=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I78" s="9">
@@ -13794,20 +13918,20 @@
         <v>0.3</v>
       </c>
       <c r="J78" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E58,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F58)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E78,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F78) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E78,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F78))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L78" s="9">
         <f t="shared" si="8"/>
-        <v>2.6999999999999989E-2</v>
+        <v>1.2149999999999999E-2</v>
       </c>
       <c r="M78" s="9">
         <f t="shared" si="9"/>
-        <v>2.1149598157635023E-3</v>
-      </c>
-      <c r="N78" s="28">
+        <v>2.1204188481675395E-3</v>
+      </c>
+      <c r="N78" s="38">
         <f>M78*'Indirect Model Parameters'!$G$10</f>
-        <v>211.49598157635023</v>
+        <v>212.04188481675394</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="48">
@@ -13830,12 +13954,12 @@
       <c r="F79" s="9">
         <v>1</v>
       </c>
-      <c r="G79" s="9" t="str">
+      <c r="G79" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,5,2,4,1</v>
       </c>
       <c r="H79" s="9">
-        <f>IF(F79=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F79=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I79" s="9">
@@ -13843,20 +13967,20 @@
         <v>0.3</v>
       </c>
       <c r="J79" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E59,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F59)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E79,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F79) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E79,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F79))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L79" s="9">
         <f t="shared" si="8"/>
-        <v>2.6999999999999989E-2</v>
+        <v>1.2149999999999999E-2</v>
       </c>
       <c r="M79" s="9">
         <f t="shared" si="9"/>
-        <v>2.1149598157635023E-3</v>
-      </c>
-      <c r="N79" s="28">
+        <v>2.1204188481675395E-3</v>
+      </c>
+      <c r="N79" s="38">
         <f>M79*'Indirect Model Parameters'!$G$10</f>
-        <v>211.49598157635023</v>
+        <v>212.04188481675394</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="32">
@@ -13879,12 +14003,12 @@
       <c r="F80" s="9">
         <v>2</v>
       </c>
-      <c r="G80" s="9" t="str">
+      <c r="G80" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,5,1,4,2</v>
       </c>
       <c r="H80" s="9">
-        <f>IF(F80=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F80=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I80" s="9">
@@ -13892,20 +14016,20 @@
         <v>0.3</v>
       </c>
       <c r="J80" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E122,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F122)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E80,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F80) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E80,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F80))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L80" s="9">
         <f t="shared" si="8"/>
-        <v>2.6999999999999989E-2</v>
+        <v>1.2149999999999999E-2</v>
       </c>
       <c r="M80" s="9">
         <f t="shared" si="9"/>
-        <v>2.1149598157635023E-3</v>
-      </c>
-      <c r="N80" s="28">
+        <v>2.1204188481675395E-3</v>
+      </c>
+      <c r="N80" s="38">
         <f>M80*'Indirect Model Parameters'!$G$10</f>
-        <v>211.49598157635023</v>
+        <v>212.04188481675394</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="48">
@@ -13928,12 +14052,12 @@
       <c r="F81" s="9">
         <v>2</v>
       </c>
-      <c r="G81" s="9" t="str">
+      <c r="G81" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,5,2,4,2</v>
       </c>
       <c r="H81" s="9">
-        <f>IF(F81=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F81=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I81" s="9">
@@ -13941,20 +14065,20 @@
         <v>0.3</v>
       </c>
       <c r="J81" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E123,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F123)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E81,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F81) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E81,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F81))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L81" s="9">
         <f t="shared" si="8"/>
-        <v>2.6999999999999989E-2</v>
+        <v>1.2149999999999999E-2</v>
       </c>
       <c r="M81" s="9">
         <f t="shared" si="9"/>
-        <v>2.1149598157635023E-3</v>
-      </c>
-      <c r="N81" s="28">
+        <v>2.1204188481675395E-3</v>
+      </c>
+      <c r="N81" s="38">
         <f>M81*'Indirect Model Parameters'!$G$10</f>
-        <v>211.49598157635023</v>
+        <v>212.04188481675394</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="32">
@@ -13977,12 +14101,12 @@
       <c r="F82" s="9">
         <v>1</v>
       </c>
-      <c r="G82" s="9" t="str">
+      <c r="G82" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,6,1,1,1</v>
       </c>
       <c r="H82" s="9">
-        <f>IF(F82=1,'Indirect Model Parameters'!$G$26,'Indirect Model Parameters'!$G$27)</f>
+        <f>IF(F82=1,'Indirect Model Parameters'!$G$25,'Indirect Model Parameters'!$G$26)</f>
         <v>0.01</v>
       </c>
       <c r="I82" s="9">
@@ -13990,20 +14114,20 @@
         <v>0.7</v>
       </c>
       <c r="J82" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E12,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F12)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E82,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F82) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E82,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F82))</f>
+        <v>0.7</v>
       </c>
       <c r="L82" s="9">
         <f t="shared" si="8"/>
-        <v>1.2599999999999994E-3</v>
+        <v>4.899999999999999E-3</v>
       </c>
       <c r="M82" s="9">
         <f t="shared" si="9"/>
-        <v>9.8698124735630105E-5</v>
-      </c>
-      <c r="N82" s="28">
+        <v>8.5514834205933682E-4</v>
+      </c>
+      <c r="N82" s="38">
         <f>M82*'Indirect Model Parameters'!$G$10</f>
-        <v>9.8698124735630106</v>
+        <v>85.514834205933681</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="32">
@@ -14026,12 +14150,12 @@
       <c r="F83" s="9">
         <v>1</v>
       </c>
-      <c r="G83" s="9" t="str">
+      <c r="G83" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,6,2,1,1</v>
       </c>
       <c r="H83" s="9">
-        <f>IF(F83=1,'Indirect Model Parameters'!$G$26,'Indirect Model Parameters'!$G$27)</f>
+        <f>IF(F83=1,'Indirect Model Parameters'!$G$25,'Indirect Model Parameters'!$G$26)</f>
         <v>0.01</v>
       </c>
       <c r="I83" s="9">
@@ -14039,20 +14163,20 @@
         <v>0.3</v>
       </c>
       <c r="J83" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E13,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F13)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E83,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F83) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E83,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F83))</f>
+        <v>0.7</v>
       </c>
       <c r="L83" s="9">
         <f t="shared" si="8"/>
-        <v>5.3999999999999979E-4</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="M83" s="9">
         <f t="shared" si="9"/>
-        <v>4.2299196315270046E-5</v>
-      </c>
-      <c r="N83" s="28">
+        <v>3.6649214659685868E-4</v>
+      </c>
+      <c r="N83" s="38">
         <f>M83*'Indirect Model Parameters'!$G$10</f>
-        <v>4.2299196315270047</v>
+        <v>36.649214659685867</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="32">
@@ -14075,12 +14199,12 @@
       <c r="F84" s="9">
         <v>2</v>
       </c>
-      <c r="G84" s="9" t="str">
+      <c r="G84" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,6,1,1,2</v>
       </c>
       <c r="H84" s="9">
-        <f>IF(F84=1,'Indirect Model Parameters'!$G$26,'Indirect Model Parameters'!$G$27)</f>
+        <f>IF(F84=1,'Indirect Model Parameters'!$G$25,'Indirect Model Parameters'!$G$26)</f>
         <v>0.01</v>
       </c>
       <c r="I84" s="9">
@@ -14088,20 +14212,20 @@
         <v>0.7</v>
       </c>
       <c r="J84" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E76,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F76)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E84,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F84) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E84,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F84))</f>
+        <v>0.7</v>
       </c>
       <c r="L84" s="9">
         <f t="shared" si="8"/>
-        <v>1.2599999999999994E-3</v>
+        <v>4.899999999999999E-3</v>
       </c>
       <c r="M84" s="9">
         <f t="shared" si="9"/>
-        <v>9.8698124735630105E-5</v>
-      </c>
-      <c r="N84" s="28">
+        <v>8.5514834205933682E-4</v>
+      </c>
+      <c r="N84" s="38">
         <f>M84*'Indirect Model Parameters'!$G$10</f>
-        <v>9.8698124735630106</v>
+        <v>85.514834205933681</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="32">
@@ -14124,12 +14248,12 @@
       <c r="F85" s="9">
         <v>2</v>
       </c>
-      <c r="G85" s="9" t="str">
+      <c r="G85" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,6,2,1,2</v>
       </c>
       <c r="H85" s="9">
-        <f>IF(F85=1,'Indirect Model Parameters'!$G$26,'Indirect Model Parameters'!$G$27)</f>
+        <f>IF(F85=1,'Indirect Model Parameters'!$G$25,'Indirect Model Parameters'!$G$26)</f>
         <v>0.01</v>
       </c>
       <c r="I85" s="9">
@@ -14137,20 +14261,20 @@
         <v>0.3</v>
       </c>
       <c r="J85" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E77,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F77)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E85,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F85) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E85,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F85))</f>
+        <v>0.7</v>
       </c>
       <c r="L85" s="9">
         <f t="shared" si="8"/>
-        <v>5.3999999999999979E-4</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="M85" s="9">
         <f t="shared" si="9"/>
-        <v>4.2299196315270046E-5</v>
-      </c>
-      <c r="N85" s="28">
+        <v>3.6649214659685868E-4</v>
+      </c>
+      <c r="N85" s="38">
         <f>M85*'Indirect Model Parameters'!$G$10</f>
-        <v>4.2299196315270047</v>
+        <v>36.649214659685867</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="32">
@@ -14173,12 +14297,12 @@
       <c r="F86" s="9">
         <v>1</v>
       </c>
-      <c r="G86" s="9" t="str">
+      <c r="G86" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,6,1,2,1</v>
       </c>
       <c r="H86" s="9">
-        <f>IF(F86=1,'Indirect Model Parameters'!$G$28,'Indirect Model Parameters'!$G$29)</f>
+        <f>IF(F86=1,'Indirect Model Parameters'!$G$27,'Indirect Model Parameters'!$G$28)</f>
         <v>0.6</v>
       </c>
       <c r="I86" s="9">
@@ -14186,20 +14310,20 @@
         <v>0.3</v>
       </c>
       <c r="J86" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E28,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F28)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E86,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F86) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E86,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F86))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L86" s="9">
         <f t="shared" si="8"/>
-        <v>3.2399999999999984E-2</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="M86" s="9">
         <f t="shared" si="9"/>
-        <v>2.5379517789162025E-3</v>
-      </c>
-      <c r="N86" s="28">
+        <v>5.1832460732984306E-3</v>
+      </c>
+      <c r="N86" s="38">
         <f>M86*'Indirect Model Parameters'!$G$10</f>
-        <v>253.79517789162026</v>
+        <v>518.32460732984305</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="48">
@@ -14222,12 +14346,12 @@
       <c r="F87" s="9">
         <v>1</v>
       </c>
-      <c r="G87" s="9" t="str">
+      <c r="G87" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,6,2,2,1</v>
       </c>
       <c r="H87" s="9">
-        <f>IF(F87=1,'Indirect Model Parameters'!$G$28,'Indirect Model Parameters'!$G$29)</f>
+        <f>IF(F87=1,'Indirect Model Parameters'!$G$27,'Indirect Model Parameters'!$G$28)</f>
         <v>0.6</v>
       </c>
       <c r="I87" s="9">
@@ -14235,20 +14359,20 @@
         <v>0.3</v>
       </c>
       <c r="J87" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E29,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F29)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E87,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F87) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E87,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F87))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L87" s="9">
         <f t="shared" si="8"/>
-        <v>3.2399999999999984E-2</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="M87" s="9">
         <f t="shared" si="9"/>
-        <v>2.5379517789162025E-3</v>
-      </c>
-      <c r="N87" s="28">
+        <v>5.1832460732984306E-3</v>
+      </c>
+      <c r="N87" s="38">
         <f>M87*'Indirect Model Parameters'!$G$10</f>
-        <v>253.79517789162026</v>
+        <v>518.32460732984305</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="32">
@@ -14271,12 +14395,12 @@
       <c r="F88" s="9">
         <v>2</v>
       </c>
-      <c r="G88" s="9" t="str">
+      <c r="G88" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,6,1,2,2</v>
       </c>
       <c r="H88" s="9">
-        <f>IF(F88=1,'Indirect Model Parameters'!$G$28,'Indirect Model Parameters'!$G$29)</f>
+        <f>IF(F88=1,'Indirect Model Parameters'!$G$27,'Indirect Model Parameters'!$G$28)</f>
         <v>0.8</v>
       </c>
       <c r="I88" s="9">
@@ -14284,20 +14408,20 @@
         <v>0.3</v>
       </c>
       <c r="J88" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E92,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F92)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E88,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F88) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E88,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F88))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L88" s="9">
         <f t="shared" si="8"/>
-        <v>4.3199999999999981E-2</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="M88" s="9">
         <f t="shared" si="9"/>
-        <v>3.3839357052216036E-3</v>
-      </c>
-      <c r="N88" s="28">
+        <v>6.910994764397908E-3</v>
+      </c>
+      <c r="N88" s="38">
         <f>M88*'Indirect Model Parameters'!$G$10</f>
-        <v>338.39357052216036</v>
+        <v>691.09947643979081</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="48">
@@ -14320,12 +14444,12 @@
       <c r="F89" s="9">
         <v>2</v>
       </c>
-      <c r="G89" s="9" t="str">
+      <c r="G89" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,6,2,2,2</v>
       </c>
       <c r="H89" s="9">
-        <f>IF(F89=1,'Indirect Model Parameters'!$G$28,'Indirect Model Parameters'!$G$29)</f>
+        <f>IF(F89=1,'Indirect Model Parameters'!$G$27,'Indirect Model Parameters'!$G$28)</f>
         <v>0.8</v>
       </c>
       <c r="I89" s="9">
@@ -14333,20 +14457,20 @@
         <v>0.3</v>
       </c>
       <c r="J89" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E93,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F93)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E89,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F89) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E89,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F89))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L89" s="9">
         <f t="shared" si="8"/>
-        <v>4.3199999999999981E-2</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="M89" s="9">
         <f t="shared" si="9"/>
-        <v>3.3839357052216036E-3</v>
-      </c>
-      <c r="N89" s="28">
+        <v>6.910994764397908E-3</v>
+      </c>
+      <c r="N89" s="38">
         <f>M89*'Indirect Model Parameters'!$G$10</f>
-        <v>338.39357052216036</v>
+        <v>691.09947643979081</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="32">
@@ -14369,12 +14493,12 @@
       <c r="F90" s="9">
         <v>1</v>
       </c>
-      <c r="G90" s="9" t="str">
+      <c r="G90" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,6,1,3,1</v>
       </c>
       <c r="H90" s="9">
-        <f>IF(F90=1,'Indirect Model Parameters'!$G$28,'Indirect Model Parameters'!$G$29)</f>
+        <f>IF(F90=1,'Indirect Model Parameters'!$G$27,'Indirect Model Parameters'!$G$28)</f>
         <v>0.6</v>
       </c>
       <c r="I90" s="9">
@@ -14382,20 +14506,20 @@
         <v>0.3</v>
       </c>
       <c r="J90" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E44,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F44)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E90,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F90) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E90,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F90))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L90" s="9">
         <f t="shared" si="8"/>
-        <v>3.2399999999999984E-2</v>
+        <v>9.719999999999996E-3</v>
       </c>
       <c r="M90" s="9">
         <f t="shared" si="9"/>
-        <v>2.5379517789162025E-3</v>
-      </c>
-      <c r="N90" s="28">
+        <v>1.696335078534031E-3</v>
+      </c>
+      <c r="N90" s="38">
         <f>M90*'Indirect Model Parameters'!$G$10</f>
-        <v>253.79517789162026</v>
+        <v>169.6335078534031</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="48">
@@ -14418,12 +14542,12 @@
       <c r="F91" s="9">
         <v>1</v>
       </c>
-      <c r="G91" s="9" t="str">
+      <c r="G91" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,6,2,3,1</v>
       </c>
       <c r="H91" s="9">
-        <f>IF(F91=1,'Indirect Model Parameters'!$G$28,'Indirect Model Parameters'!$G$29)</f>
+        <f>IF(F91=1,'Indirect Model Parameters'!$G$27,'Indirect Model Parameters'!$G$28)</f>
         <v>0.6</v>
       </c>
       <c r="I91" s="9">
@@ -14431,20 +14555,20 @@
         <v>0.3</v>
       </c>
       <c r="J91" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E45,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F45)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E91,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F91) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E91,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F91))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L91" s="9">
         <f t="shared" si="8"/>
-        <v>3.2399999999999984E-2</v>
+        <v>9.719999999999996E-3</v>
       </c>
       <c r="M91" s="9">
         <f t="shared" si="9"/>
-        <v>2.5379517789162025E-3</v>
-      </c>
-      <c r="N91" s="28">
+        <v>1.696335078534031E-3</v>
+      </c>
+      <c r="N91" s="38">
         <f>M91*'Indirect Model Parameters'!$G$10</f>
-        <v>253.79517789162026</v>
+        <v>169.6335078534031</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="32">
@@ -14467,12 +14591,12 @@
       <c r="F92" s="9">
         <v>2</v>
       </c>
-      <c r="G92" s="9" t="str">
+      <c r="G92" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,6,1,3,2</v>
       </c>
       <c r="H92" s="9">
-        <f>IF(F92=1,'Indirect Model Parameters'!$G$28,'Indirect Model Parameters'!$G$29)</f>
+        <f>IF(F92=1,'Indirect Model Parameters'!$G$27,'Indirect Model Parameters'!$G$28)</f>
         <v>0.8</v>
       </c>
       <c r="I92" s="9">
@@ -14480,20 +14604,20 @@
         <v>0.3</v>
       </c>
       <c r="J92" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E108,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F108)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E92,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F92) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E92,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F92))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L92" s="9">
         <f t="shared" si="8"/>
-        <v>4.3199999999999981E-2</v>
+        <v>1.2959999999999994E-2</v>
       </c>
       <c r="M92" s="9">
         <f t="shared" si="9"/>
-        <v>3.3839357052216036E-3</v>
-      </c>
-      <c r="N92" s="28">
+        <v>2.2617801047120412E-3</v>
+      </c>
+      <c r="N92" s="38">
         <f>M92*'Indirect Model Parameters'!$G$10</f>
-        <v>338.39357052216036</v>
+        <v>226.17801047120412</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="48">
@@ -14516,12 +14640,12 @@
       <c r="F93" s="9">
         <v>2</v>
       </c>
-      <c r="G93" s="9" t="str">
+      <c r="G93" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,6,2,3,2</v>
       </c>
       <c r="H93" s="9">
-        <f>IF(F93=1,'Indirect Model Parameters'!$G$28,'Indirect Model Parameters'!$G$29)</f>
+        <f>IF(F93=1,'Indirect Model Parameters'!$G$27,'Indirect Model Parameters'!$G$28)</f>
         <v>0.8</v>
       </c>
       <c r="I93" s="9">
@@ -14529,20 +14653,20 @@
         <v>0.3</v>
       </c>
       <c r="J93" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E109,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F109)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E93,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F93) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E93,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F93))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L93" s="9">
         <f t="shared" si="8"/>
-        <v>4.3199999999999981E-2</v>
+        <v>1.2959999999999994E-2</v>
       </c>
       <c r="M93" s="9">
         <f t="shared" si="9"/>
-        <v>3.3839357052216036E-3</v>
-      </c>
-      <c r="N93" s="28">
+        <v>2.2617801047120412E-3</v>
+      </c>
+      <c r="N93" s="38">
         <f>M93*'Indirect Model Parameters'!$G$10</f>
-        <v>338.39357052216036</v>
+        <v>226.17801047120412</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="32">
@@ -14565,12 +14689,12 @@
       <c r="F94" s="9">
         <v>1</v>
       </c>
-      <c r="G94" s="9" t="str">
+      <c r="G94" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,6,1,4,1</v>
       </c>
       <c r="H94" s="9">
-        <f>IF(F94=1,'Indirect Model Parameters'!$G$28,'Indirect Model Parameters'!$G$29)</f>
+        <f>IF(F94=1,'Indirect Model Parameters'!$G$27,'Indirect Model Parameters'!$G$28)</f>
         <v>0.6</v>
       </c>
       <c r="I94" s="9">
@@ -14578,20 +14702,20 @@
         <v>0.3</v>
       </c>
       <c r="J94" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E60,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F60)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E94,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F94) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E94,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F94))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L94" s="9">
         <f t="shared" si="8"/>
-        <v>3.2399999999999984E-2</v>
+        <v>1.4579999999999999E-2</v>
       </c>
       <c r="M94" s="9">
         <f t="shared" si="9"/>
-        <v>2.5379517789162025E-3</v>
-      </c>
-      <c r="N94" s="28">
+        <v>2.5445026178010474E-3</v>
+      </c>
+      <c r="N94" s="38">
         <f>M94*'Indirect Model Parameters'!$G$10</f>
-        <v>253.79517789162026</v>
+        <v>254.45026178010474</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="32">
@@ -14614,12 +14738,12 @@
       <c r="F95" s="9">
         <v>1</v>
       </c>
-      <c r="G95" s="9" t="str">
+      <c r="G95" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,6,2,4,1</v>
       </c>
       <c r="H95" s="9">
-        <f>IF(F95=1,'Indirect Model Parameters'!$G$28,'Indirect Model Parameters'!$G$29)</f>
+        <f>IF(F95=1,'Indirect Model Parameters'!$G$27,'Indirect Model Parameters'!$G$28)</f>
         <v>0.6</v>
       </c>
       <c r="I95" s="9">
@@ -14627,20 +14751,20 @@
         <v>0.3</v>
       </c>
       <c r="J95" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E61,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F61)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E95,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F95) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E95,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F95))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L95" s="9">
         <f t="shared" si="8"/>
-        <v>3.2399999999999984E-2</v>
+        <v>1.4579999999999999E-2</v>
       </c>
       <c r="M95" s="9">
         <f t="shared" si="9"/>
-        <v>2.5379517789162025E-3</v>
-      </c>
-      <c r="N95" s="28">
+        <v>2.5445026178010474E-3</v>
+      </c>
+      <c r="N95" s="38">
         <f>M95*'Indirect Model Parameters'!$G$10</f>
-        <v>253.79517789162026</v>
+        <v>254.45026178010474</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="32">
@@ -14663,12 +14787,12 @@
       <c r="F96" s="9">
         <v>2</v>
       </c>
-      <c r="G96" s="9" t="str">
+      <c r="G96" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,6,1,4,2</v>
       </c>
       <c r="H96" s="9">
-        <f>IF(F96=1,'Indirect Model Parameters'!$G$28,'Indirect Model Parameters'!$G$29)</f>
+        <f>IF(F96=1,'Indirect Model Parameters'!$G$27,'Indirect Model Parameters'!$G$28)</f>
         <v>0.8</v>
       </c>
       <c r="I96" s="9">
@@ -14676,20 +14800,20 @@
         <v>0.3</v>
       </c>
       <c r="J96" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E124,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F124)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E96,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F96) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E96,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F96))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L96" s="9">
         <f t="shared" si="8"/>
-        <v>4.3199999999999981E-2</v>
+        <v>1.9439999999999999E-2</v>
       </c>
       <c r="M96" s="9">
         <f t="shared" si="9"/>
-        <v>3.3839357052216036E-3</v>
-      </c>
-      <c r="N96" s="28">
+        <v>3.3926701570680634E-3</v>
+      </c>
+      <c r="N96" s="38">
         <f>M96*'Indirect Model Parameters'!$G$10</f>
-        <v>338.39357052216036</v>
+        <v>339.26701570680632</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="32">
@@ -14712,12 +14836,12 @@
       <c r="F97" s="9">
         <v>2</v>
       </c>
-      <c r="G97" s="9" t="str">
+      <c r="G97" s="40" t="str">
         <f t="shared" si="7"/>
         <v>N,6,2,4,2</v>
       </c>
       <c r="H97" s="9">
-        <f>IF(F97=1,'Indirect Model Parameters'!$G$28,'Indirect Model Parameters'!$G$29)</f>
+        <f>IF(F97=1,'Indirect Model Parameters'!$G$27,'Indirect Model Parameters'!$G$28)</f>
         <v>0.8</v>
       </c>
       <c r="I97" s="9">
@@ -14725,20 +14849,20 @@
         <v>0.3</v>
       </c>
       <c r="J97" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E125,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F125)</f>
-        <v>0.17999999999999994</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E97,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F97) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E97,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F97))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L97" s="9">
         <f t="shared" si="8"/>
-        <v>4.3199999999999981E-2</v>
+        <v>1.9439999999999999E-2</v>
       </c>
       <c r="M97" s="9">
         <f t="shared" si="9"/>
-        <v>3.3839357052216036E-3</v>
-      </c>
-      <c r="N97" s="28">
+        <v>3.3926701570680634E-3</v>
+      </c>
+      <c r="N97" s="38">
         <f>M97*'Indirect Model Parameters'!$G$10</f>
-        <v>338.39357052216036</v>
+        <v>339.26701570680632</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="32">
@@ -14761,7 +14885,7 @@
       <c r="F98" s="9">
         <v>1</v>
       </c>
-      <c r="G98" s="9" t="str">
+      <c r="G98" s="40" t="str">
         <f t="shared" ref="G98:G129" si="11">CONCATENATE( B98, IF(B98&lt;&gt;"",",",""), C98, IF(C98&lt;&gt;"",",",""),  D98, IF(D98&lt;&gt;"",",",""),  E98, IF(F98&lt;&gt;"",",",""), F98,)</f>
         <v>N,7,1,1,1</v>
       </c>
@@ -14773,8 +14897,8 @@
         <v>0.7</v>
       </c>
       <c r="J98" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E14,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F14)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E98,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F98) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E98,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F98))</f>
+        <v>0.7</v>
       </c>
       <c r="L98" s="9">
         <f t="shared" si="8"/>
@@ -14784,7 +14908,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N98" s="28">
+      <c r="N98" s="38">
         <f>M98*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -14809,7 +14933,7 @@
       <c r="F99" s="9">
         <v>1</v>
       </c>
-      <c r="G99" s="9" t="str">
+      <c r="G99" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,7,2,1,1</v>
       </c>
@@ -14821,8 +14945,8 @@
         <v>0.3</v>
       </c>
       <c r="J99" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E15,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F15)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E99,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F99) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E99,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F99))</f>
+        <v>0.7</v>
       </c>
       <c r="L99" s="9">
         <f t="shared" si="8"/>
@@ -14832,7 +14956,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N99" s="28">
+      <c r="N99" s="38">
         <f>M99*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -14857,7 +14981,7 @@
       <c r="F100" s="9">
         <v>2</v>
       </c>
-      <c r="G100" s="9" t="str">
+      <c r="G100" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,7,1,1,2</v>
       </c>
@@ -14869,8 +14993,8 @@
         <v>0.7</v>
       </c>
       <c r="J100" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E78,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F78)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E100,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F100) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E100,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F100))</f>
+        <v>0.7</v>
       </c>
       <c r="L100" s="9">
         <f t="shared" si="8"/>
@@ -14880,7 +15004,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N100" s="28">
+      <c r="N100" s="38">
         <f>M100*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -14905,7 +15029,7 @@
       <c r="F101" s="9">
         <v>2</v>
       </c>
-      <c r="G101" s="9" t="str">
+      <c r="G101" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,7,2,1,2</v>
       </c>
@@ -14917,8 +15041,8 @@
         <v>0.3</v>
       </c>
       <c r="J101" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E79,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F79)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E101,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F101) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E101,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F101))</f>
+        <v>0.7</v>
       </c>
       <c r="L101" s="9">
         <f t="shared" si="8"/>
@@ -14928,7 +15052,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N101" s="28">
+      <c r="N101" s="38">
         <f>M101*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -14953,7 +15077,7 @@
       <c r="F102" s="9">
         <v>1</v>
       </c>
-      <c r="G102" s="9" t="str">
+      <c r="G102" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,7,1,2,1</v>
       </c>
@@ -14965,8 +15089,8 @@
         <v>0.3</v>
       </c>
       <c r="J102" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E30,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F30)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E102,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F102) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E102,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F102))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L102" s="9">
         <f t="shared" si="8"/>
@@ -14976,7 +15100,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N102" s="28">
+      <c r="N102" s="38">
         <f>M102*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -15001,7 +15125,7 @@
       <c r="F103" s="9">
         <v>1</v>
       </c>
-      <c r="G103" s="9" t="str">
+      <c r="G103" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,7,2,2,1</v>
       </c>
@@ -15013,8 +15137,8 @@
         <v>0.3</v>
       </c>
       <c r="J103" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E31,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F31)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E103,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F103) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E103,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F103))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L103" s="9">
         <f t="shared" si="8"/>
@@ -15024,7 +15148,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N103" s="28">
+      <c r="N103" s="38">
         <f>M103*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -15049,7 +15173,7 @@
       <c r="F104" s="9">
         <v>2</v>
       </c>
-      <c r="G104" s="9" t="str">
+      <c r="G104" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,7,1,2,2</v>
       </c>
@@ -15061,8 +15185,8 @@
         <v>0.3</v>
       </c>
       <c r="J104" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E94,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F94)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E104,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F104) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E104,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F104))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L104" s="9">
         <f t="shared" si="8"/>
@@ -15072,7 +15196,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N104" s="28">
+      <c r="N104" s="38">
         <f>M104*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -15097,7 +15221,7 @@
       <c r="F105" s="9">
         <v>2</v>
       </c>
-      <c r="G105" s="9" t="str">
+      <c r="G105" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,7,2,2,2</v>
       </c>
@@ -15109,8 +15233,8 @@
         <v>0.3</v>
       </c>
       <c r="J105" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E95,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F95)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E105,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F105) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E105,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F105))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L105" s="9">
         <f t="shared" si="8"/>
@@ -15120,7 +15244,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N105" s="28">
+      <c r="N105" s="38">
         <f>M105*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -15145,7 +15269,7 @@
       <c r="F106" s="9">
         <v>1</v>
       </c>
-      <c r="G106" s="9" t="str">
+      <c r="G106" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,7,1,3,1</v>
       </c>
@@ -15157,8 +15281,8 @@
         <v>0.3</v>
       </c>
       <c r="J106" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E46,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F46)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E106,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F106) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E106,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F106))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L106" s="9">
         <f t="shared" si="8"/>
@@ -15168,7 +15292,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N106" s="28">
+      <c r="N106" s="38">
         <f>M106*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -15193,7 +15317,7 @@
       <c r="F107" s="9">
         <v>1</v>
       </c>
-      <c r="G107" s="9" t="str">
+      <c r="G107" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,7,2,3,1</v>
       </c>
@@ -15205,8 +15329,8 @@
         <v>0.3</v>
       </c>
       <c r="J107" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E47,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F47)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E107,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F107) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E107,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F107))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L107" s="9">
         <f t="shared" si="8"/>
@@ -15216,7 +15340,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N107" s="28">
+      <c r="N107" s="38">
         <f>M107*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -15241,7 +15365,7 @@
       <c r="F108" s="9">
         <v>2</v>
       </c>
-      <c r="G108" s="9" t="str">
+      <c r="G108" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,7,1,3,2</v>
       </c>
@@ -15253,8 +15377,8 @@
         <v>0.3</v>
       </c>
       <c r="J108" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E110,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F110)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E108,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F108) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E108,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F108))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L108" s="9">
         <f t="shared" si="8"/>
@@ -15264,7 +15388,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N108" s="28">
+      <c r="N108" s="38">
         <f>M108*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -15289,7 +15413,7 @@
       <c r="F109" s="9">
         <v>2</v>
       </c>
-      <c r="G109" s="9" t="str">
+      <c r="G109" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,7,2,3,2</v>
       </c>
@@ -15301,8 +15425,8 @@
         <v>0.3</v>
       </c>
       <c r="J109" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E111,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F111)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E109,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F109) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E109,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F109))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L109" s="9">
         <f t="shared" si="8"/>
@@ -15312,7 +15436,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N109" s="28">
+      <c r="N109" s="38">
         <f>M109*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -15337,7 +15461,7 @@
       <c r="F110" s="9">
         <v>1</v>
       </c>
-      <c r="G110" s="9" t="str">
+      <c r="G110" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,7,1,4,1</v>
       </c>
@@ -15349,8 +15473,8 @@
         <v>0.3</v>
       </c>
       <c r="J110" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E62,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F62)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E110,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F110) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E110,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F110))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L110" s="9">
         <f t="shared" si="8"/>
@@ -15360,7 +15484,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N110" s="28">
+      <c r="N110" s="38">
         <f>M110*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -15385,7 +15509,7 @@
       <c r="F111" s="9">
         <v>1</v>
       </c>
-      <c r="G111" s="9" t="str">
+      <c r="G111" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,7,2,4,1</v>
       </c>
@@ -15397,8 +15521,8 @@
         <v>0.3</v>
       </c>
       <c r="J111" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E63,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F63)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E111,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F111) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E111,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F111))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L111" s="9">
         <f t="shared" si="8"/>
@@ -15408,7 +15532,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N111" s="28">
+      <c r="N111" s="38">
         <f>M111*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -15433,7 +15557,7 @@
       <c r="F112" s="9">
         <v>2</v>
       </c>
-      <c r="G112" s="9" t="str">
+      <c r="G112" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,7,1,4,2</v>
       </c>
@@ -15445,8 +15569,8 @@
         <v>0.3</v>
       </c>
       <c r="J112" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E126,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F126)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E112,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F112) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E112,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F112))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L112" s="9">
         <f t="shared" si="8"/>
@@ -15456,7 +15580,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N112" s="28">
+      <c r="N112" s="38">
         <f>M112*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -15481,7 +15605,7 @@
       <c r="F113" s="9">
         <v>2</v>
       </c>
-      <c r="G113" s="9" t="str">
+      <c r="G113" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,7,2,4,2</v>
       </c>
@@ -15493,8 +15617,8 @@
         <v>0.3</v>
       </c>
       <c r="J113" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E127,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F127)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E113,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F113) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E113,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F113))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L113" s="9">
         <f t="shared" si="8"/>
@@ -15504,7 +15628,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N113" s="28">
+      <c r="N113" s="38">
         <f>M113*'Indirect Model Parameters'!$G$10</f>
         <v>0</v>
       </c>
@@ -15529,12 +15653,12 @@
       <c r="F114" s="9">
         <v>1</v>
       </c>
-      <c r="G114" s="9" t="str">
+      <c r="G114" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,8,1,1,1</v>
       </c>
       <c r="H114" s="9">
-        <f>IF(F114=1,'Indirect Model Parameters'!$G$22,'Indirect Model Parameters'!$G$23)</f>
+        <f>IF(F114=1,'Indirect Model Parameters'!$G$21,'Indirect Model Parameters'!$G$22)</f>
         <v>0.49</v>
       </c>
       <c r="I114" s="9">
@@ -15542,20 +15666,20 @@
         <v>0.7</v>
       </c>
       <c r="J114" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E16,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F16)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E114,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F114) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E114,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F114))</f>
+        <v>0.7</v>
       </c>
       <c r="L114" s="9">
         <f t="shared" si="8"/>
-        <v>9.2609999999999998E-2</v>
+        <v>0.24009999999999995</v>
       </c>
       <c r="M114" s="9">
         <f t="shared" si="9"/>
-        <v>7.2543121680688155E-3</v>
-      </c>
-      <c r="N114" s="28">
+        <v>4.1902268760907503E-2</v>
+      </c>
+      <c r="N114" s="38">
         <f>M114*'Indirect Model Parameters'!$G$10</f>
-        <v>725.43121680688159</v>
+        <v>4190.22687609075</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="32">
@@ -15578,12 +15702,12 @@
       <c r="F115" s="9">
         <v>1</v>
       </c>
-      <c r="G115" s="9" t="str">
+      <c r="G115" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,8,2,1,1</v>
       </c>
       <c r="H115" s="9">
-        <f>IF(F115=1,'Indirect Model Parameters'!$G$22,'Indirect Model Parameters'!$G$23)</f>
+        <f>IF(F115=1,'Indirect Model Parameters'!$G$21,'Indirect Model Parameters'!$G$22)</f>
         <v>0.49</v>
       </c>
       <c r="I115" s="9">
@@ -15591,20 +15715,20 @@
         <v>0.3</v>
       </c>
       <c r="J115" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E17,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F17)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E115,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F115) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E115,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F115))</f>
+        <v>0.7</v>
       </c>
       <c r="L115" s="9">
         <f t="shared" si="8"/>
-        <v>3.9690000000000003E-2</v>
+        <v>0.10289999999999999</v>
       </c>
       <c r="M115" s="9">
         <f t="shared" si="9"/>
-        <v>3.10899092917235E-3</v>
-      </c>
-      <c r="N115" s="28">
+        <v>1.7958115183246075E-2</v>
+      </c>
+      <c r="N115" s="38">
         <f>M115*'Indirect Model Parameters'!$G$10</f>
-        <v>310.89909291723501</v>
+        <v>1795.8115183246075</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="32">
@@ -15627,12 +15751,12 @@
       <c r="F116" s="9">
         <v>2</v>
       </c>
-      <c r="G116" s="9" t="str">
+      <c r="G116" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,8,1,1,2</v>
       </c>
       <c r="H116" s="9">
-        <f>IF(F116=1,'Indirect Model Parameters'!$G$22,'Indirect Model Parameters'!$G$23)</f>
+        <f>IF(F116=1,'Indirect Model Parameters'!$G$21,'Indirect Model Parameters'!$G$22)</f>
         <v>0.49</v>
       </c>
       <c r="I116" s="9">
@@ -15640,20 +15764,20 @@
         <v>0.7</v>
       </c>
       <c r="J116" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E80,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F80)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E116,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F116) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E116,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F116))</f>
+        <v>0.7</v>
       </c>
       <c r="L116" s="9">
         <f t="shared" si="8"/>
-        <v>9.2609999999999998E-2</v>
+        <v>0.24009999999999995</v>
       </c>
       <c r="M116" s="9">
         <f t="shared" si="9"/>
-        <v>7.2543121680688155E-3</v>
-      </c>
-      <c r="N116" s="28">
+        <v>4.1902268760907503E-2</v>
+      </c>
+      <c r="N116" s="38">
         <f>M116*'Indirect Model Parameters'!$G$10</f>
-        <v>725.43121680688159</v>
+        <v>4190.22687609075</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="32">
@@ -15676,12 +15800,12 @@
       <c r="F117" s="9">
         <v>2</v>
       </c>
-      <c r="G117" s="9" t="str">
+      <c r="G117" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,8,2,1,2</v>
       </c>
       <c r="H117" s="9">
-        <f>IF(F117=1,'Indirect Model Parameters'!$G$22,'Indirect Model Parameters'!$G$23)</f>
+        <f>IF(F117=1,'Indirect Model Parameters'!$G$21,'Indirect Model Parameters'!$G$22)</f>
         <v>0.49</v>
       </c>
       <c r="I117" s="9">
@@ -15689,20 +15813,20 @@
         <v>0.3</v>
       </c>
       <c r="J117" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E81,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F81)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E117,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F117) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E117,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F117))</f>
+        <v>0.7</v>
       </c>
       <c r="L117" s="9">
         <f t="shared" si="8"/>
-        <v>3.9690000000000003E-2</v>
+        <v>0.10289999999999999</v>
       </c>
       <c r="M117" s="9">
         <f t="shared" si="9"/>
-        <v>3.10899092917235E-3</v>
-      </c>
-      <c r="N117" s="28">
+        <v>1.7958115183246075E-2</v>
+      </c>
+      <c r="N117" s="38">
         <f>M117*'Indirect Model Parameters'!$G$10</f>
-        <v>310.89909291723501</v>
+        <v>1795.8115183246075</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="48">
@@ -15725,12 +15849,12 @@
       <c r="F118" s="9">
         <v>1</v>
       </c>
-      <c r="G118" s="9" t="str">
+      <c r="G118" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,8,1,2,1</v>
       </c>
       <c r="H118" s="9">
-        <f>IF(F118=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F118=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I118" s="9">
@@ -15738,20 +15862,20 @@
         <v>0.3</v>
       </c>
       <c r="J118" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E32,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F32)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E118,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F118) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E118,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F118))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L118" s="9">
         <f t="shared" si="8"/>
-        <v>4.0500000000000001E-2</v>
+        <v>2.4750000000000001E-2</v>
       </c>
       <c r="M118" s="9">
         <f t="shared" si="9"/>
-        <v>3.1724397236452548E-3</v>
-      </c>
-      <c r="N118" s="28">
+        <v>4.3193717277486927E-3</v>
+      </c>
+      <c r="N118" s="38">
         <f>M118*'Indirect Model Parameters'!$G$10</f>
-        <v>317.24397236452546</v>
+        <v>431.93717277486928</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="48">
@@ -15774,12 +15898,12 @@
       <c r="F119" s="9">
         <v>1</v>
       </c>
-      <c r="G119" s="9" t="str">
+      <c r="G119" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,8,2,2,1</v>
       </c>
       <c r="H119" s="9">
-        <f>IF(F119=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F119=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I119" s="9">
@@ -15787,20 +15911,20 @@
         <v>0.3</v>
       </c>
       <c r="J119" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E33,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F33)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E119,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F119) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E119,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F119))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L119" s="9">
         <f t="shared" si="8"/>
-        <v>4.0500000000000001E-2</v>
+        <v>2.4750000000000001E-2</v>
       </c>
       <c r="M119" s="9">
         <f t="shared" si="9"/>
-        <v>3.1724397236452548E-3</v>
-      </c>
-      <c r="N119" s="28">
+        <v>4.3193717277486927E-3</v>
+      </c>
+      <c r="N119" s="38">
         <f>M119*'Indirect Model Parameters'!$G$10</f>
-        <v>317.24397236452546</v>
+        <v>431.93717277486928</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="48">
@@ -15823,12 +15947,12 @@
       <c r="F120" s="9">
         <v>2</v>
       </c>
-      <c r="G120" s="9" t="str">
+      <c r="G120" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,8,1,2,2</v>
       </c>
       <c r="H120" s="9">
-        <f>IF(F120=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F120=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I120" s="9">
@@ -15836,20 +15960,20 @@
         <v>0.3</v>
       </c>
       <c r="J120" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E96,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F96)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E120,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F120) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E120,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F120))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L120" s="9">
         <f t="shared" si="8"/>
-        <v>4.0500000000000001E-2</v>
+        <v>2.4750000000000001E-2</v>
       </c>
       <c r="M120" s="9">
         <f t="shared" si="9"/>
-        <v>3.1724397236452548E-3</v>
-      </c>
-      <c r="N120" s="28">
+        <v>4.3193717277486927E-3</v>
+      </c>
+      <c r="N120" s="38">
         <f>M120*'Indirect Model Parameters'!$G$10</f>
-        <v>317.24397236452546</v>
+        <v>431.93717277486928</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="48">
@@ -15872,12 +15996,12 @@
       <c r="F121" s="9">
         <v>2</v>
       </c>
-      <c r="G121" s="9" t="str">
+      <c r="G121" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,8,2,2,2</v>
       </c>
       <c r="H121" s="9">
-        <f>IF(F121=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F121=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I121" s="9">
@@ -15885,20 +16009,20 @@
         <v>0.3</v>
       </c>
       <c r="J121" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E97,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F97)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E121,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F121) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E121,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F121))</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L121" s="9">
         <f t="shared" si="8"/>
-        <v>4.0500000000000001E-2</v>
+        <v>2.4750000000000001E-2</v>
       </c>
       <c r="M121" s="9">
         <f t="shared" si="9"/>
-        <v>3.1724397236452548E-3</v>
-      </c>
-      <c r="N121" s="28">
+        <v>4.3193717277486927E-3</v>
+      </c>
+      <c r="N121" s="38">
         <f>M121*'Indirect Model Parameters'!$G$10</f>
-        <v>317.24397236452546</v>
+        <v>431.93717277486928</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="48">
@@ -15921,12 +16045,12 @@
       <c r="F122" s="9">
         <v>1</v>
       </c>
-      <c r="G122" s="9" t="str">
+      <c r="G122" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,8,1,3,1</v>
       </c>
       <c r="H122" s="9">
-        <f>IF(F122=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F122=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I122" s="9">
@@ -15934,20 +16058,20 @@
         <v>0.3</v>
       </c>
       <c r="J122" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E48,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F48)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E122,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F122) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E122,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F122))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L122" s="9">
         <f t="shared" si="8"/>
-        <v>4.0500000000000001E-2</v>
+        <v>8.0999999999999961E-3</v>
       </c>
       <c r="M122" s="9">
         <f t="shared" si="9"/>
-        <v>3.1724397236452548E-3</v>
-      </c>
-      <c r="N122" s="28">
+        <v>1.4136125654450257E-3</v>
+      </c>
+      <c r="N122" s="38">
         <f>M122*'Indirect Model Parameters'!$G$10</f>
-        <v>317.24397236452546</v>
+        <v>141.36125654450257</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="48">
@@ -15970,12 +16094,12 @@
       <c r="F123" s="9">
         <v>1</v>
       </c>
-      <c r="G123" s="9" t="str">
+      <c r="G123" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,8,2,3,1</v>
       </c>
       <c r="H123" s="9">
-        <f>IF(F123=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F123=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I123" s="9">
@@ -15983,20 +16107,20 @@
         <v>0.3</v>
       </c>
       <c r="J123" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E49,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F49)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E123,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F123) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E123,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F123))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L123" s="9">
         <f t="shared" si="8"/>
-        <v>4.0500000000000001E-2</v>
+        <v>8.0999999999999961E-3</v>
       </c>
       <c r="M123" s="9">
         <f t="shared" si="9"/>
-        <v>3.1724397236452548E-3</v>
-      </c>
-      <c r="N123" s="28">
+        <v>1.4136125654450257E-3</v>
+      </c>
+      <c r="N123" s="38">
         <f>M123*'Indirect Model Parameters'!$G$10</f>
-        <v>317.24397236452546</v>
+        <v>141.36125654450257</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="48">
@@ -16019,12 +16143,12 @@
       <c r="F124" s="9">
         <v>2</v>
       </c>
-      <c r="G124" s="9" t="str">
+      <c r="G124" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,8,1,3,2</v>
       </c>
       <c r="H124" s="9">
-        <f>IF(F124=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F124=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I124" s="9">
@@ -16032,20 +16156,20 @@
         <v>0.3</v>
       </c>
       <c r="J124" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E112,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F112)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E124,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F124) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E124,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F124))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L124" s="9">
         <f t="shared" si="8"/>
-        <v>4.0500000000000001E-2</v>
+        <v>8.0999999999999961E-3</v>
       </c>
       <c r="M124" s="9">
         <f t="shared" si="9"/>
-        <v>3.1724397236452548E-3</v>
-      </c>
-      <c r="N124" s="28">
+        <v>1.4136125654450257E-3</v>
+      </c>
+      <c r="N124" s="38">
         <f>M124*'Indirect Model Parameters'!$G$10</f>
-        <v>317.24397236452546</v>
+        <v>141.36125654450257</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="48">
@@ -16068,12 +16192,12 @@
       <c r="F125" s="9">
         <v>2</v>
       </c>
-      <c r="G125" s="9" t="str">
+      <c r="G125" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,8,2,3,2</v>
       </c>
       <c r="H125" s="9">
-        <f>IF(F125=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F125=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I125" s="9">
@@ -16081,20 +16205,20 @@
         <v>0.3</v>
       </c>
       <c r="J125" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E113,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F113)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E125,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F125) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E125,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F125))</f>
+        <v>5.3999999999999979E-2</v>
       </c>
       <c r="L125" s="9">
         <f t="shared" si="8"/>
-        <v>4.0500000000000001E-2</v>
+        <v>8.0999999999999961E-3</v>
       </c>
       <c r="M125" s="9">
         <f t="shared" si="9"/>
-        <v>3.1724397236452548E-3</v>
-      </c>
-      <c r="N125" s="28">
+        <v>1.4136125654450257E-3</v>
+      </c>
+      <c r="N125" s="38">
         <f>M125*'Indirect Model Parameters'!$G$10</f>
-        <v>317.24397236452546</v>
+        <v>141.36125654450257</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="32">
@@ -16117,12 +16241,12 @@
       <c r="F126" s="9">
         <v>1</v>
       </c>
-      <c r="G126" s="9" t="str">
+      <c r="G126" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,8,1,4,1</v>
       </c>
       <c r="H126" s="9">
-        <f>IF(F126=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F126=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I126" s="9">
@@ -16130,20 +16254,20 @@
         <v>0.3</v>
       </c>
       <c r="J126" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E64,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F64)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E126,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F126) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E126,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F126))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L126" s="9">
         <f t="shared" si="8"/>
-        <v>4.0500000000000001E-2</v>
+        <v>1.2149999999999999E-2</v>
       </c>
       <c r="M126" s="9">
         <f t="shared" si="9"/>
-        <v>3.1724397236452548E-3</v>
-      </c>
-      <c r="N126" s="28">
+        <v>2.1204188481675395E-3</v>
+      </c>
+      <c r="N126" s="38">
         <f>M126*'Indirect Model Parameters'!$G$10</f>
-        <v>317.24397236452546</v>
+        <v>212.04188481675394</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="48">
@@ -16166,12 +16290,12 @@
       <c r="F127" s="9">
         <v>1</v>
       </c>
-      <c r="G127" s="9" t="str">
+      <c r="G127" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,8,2,4,1</v>
       </c>
       <c r="H127" s="9">
-        <f>IF(F127=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F127=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I127" s="9">
@@ -16179,20 +16303,20 @@
         <v>0.3</v>
       </c>
       <c r="J127" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E65,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F65)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E127,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F127) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E127,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F127))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L127" s="9">
         <f t="shared" si="8"/>
-        <v>4.0500000000000001E-2</v>
+        <v>1.2149999999999999E-2</v>
       </c>
       <c r="M127" s="9">
         <f t="shared" si="9"/>
-        <v>3.1724397236452548E-3</v>
-      </c>
-      <c r="N127" s="28">
+        <v>2.1204188481675395E-3</v>
+      </c>
+      <c r="N127" s="38">
         <f>M127*'Indirect Model Parameters'!$G$10</f>
-        <v>317.24397236452546</v>
+        <v>212.04188481675394</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="48">
@@ -16215,12 +16339,12 @@
       <c r="F128" s="9">
         <v>2</v>
       </c>
-      <c r="G128" s="9" t="str">
+      <c r="G128" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,8,1,4,2</v>
       </c>
       <c r="H128" s="9">
-        <f>IF(F128=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F128=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I128" s="9">
@@ -16228,20 +16352,20 @@
         <v>0.3</v>
       </c>
       <c r="J128" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E128,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F128)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E128,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F128) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E128,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F128))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L128" s="9">
         <f t="shared" si="8"/>
-        <v>4.0500000000000001E-2</v>
+        <v>1.2149999999999999E-2</v>
       </c>
       <c r="M128" s="9">
         <f t="shared" si="9"/>
-        <v>3.1724397236452548E-3</v>
-      </c>
-      <c r="N128" s="28">
+        <v>2.1204188481675395E-3</v>
+      </c>
+      <c r="N128" s="38">
         <f>M128*'Indirect Model Parameters'!$G$10</f>
-        <v>317.24397236452546</v>
+        <v>212.04188481675394</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="48">
@@ -16264,12 +16388,12 @@
       <c r="F129" s="9">
         <v>2</v>
       </c>
-      <c r="G129" s="9" t="str">
+      <c r="G129" s="40" t="str">
         <f t="shared" si="11"/>
         <v>N,8,2,4,2</v>
       </c>
       <c r="H129" s="9">
-        <f>IF(F129=1,'Indirect Model Parameters'!$G$24,'Indirect Model Parameters'!$G$25)</f>
+        <f>IF(F129=1,'Indirect Model Parameters'!$G$23,'Indirect Model Parameters'!$G$24)</f>
         <v>0.5</v>
       </c>
       <c r="I129" s="9">
@@ -16277,20 +16401,20 @@
         <v>0.3</v>
       </c>
       <c r="J129" s="9">
-        <f>SUMIFS('Indirect Model Parameters'!$G$11:$G$29,'Indirect Model Parameters'!$D$11:$D$29,Pop_Init!E129,'Indirect Model Parameters'!$E$11:$E$29,Pop_Init!F129)</f>
-        <v>0.27</v>
+        <f>IF(SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E129,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F129) = 0,'Indirect Model Parameters'!$G$17,'Indirect Model Parameters'!$G$18*SUMIFS('Indirect Model Parameters'!$G$11:$G$16,'Indirect Model Parameters'!$D$11:$D$16,Pop_Init!E129,'Indirect Model Parameters'!$E$11:$E$16,Pop_Init!F129))</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L129" s="9">
         <f t="shared" si="8"/>
-        <v>4.0500000000000001E-2</v>
+        <v>1.2149999999999999E-2</v>
       </c>
       <c r="M129" s="9">
         <f t="shared" si="9"/>
-        <v>3.1724397236452548E-3</v>
-      </c>
-      <c r="N129" s="28">
+        <v>2.1204188481675395E-3</v>
+      </c>
+      <c r="N129" s="38">
         <f>M129*'Indirect Model Parameters'!$G$10</f>
-        <v>317.24397236452546</v>
+        <v>212.04188481675394</v>
       </c>
     </row>
     <row r="130" spans="1:14">

--- a/param_files/Epi_model_parameters.xlsx
+++ b/param_files/Epi_model_parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/ws/github/ws.epi_model_HIV_TB/epi_model_HIV_TB/param_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44E8778-1567-D846-AB69-DD88740F21CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96B570A-E970-4D45-AD19-CD936B1E7D14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33480" yWindow="3940" windowWidth="30260" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="366">
   <si>
     <t>Epidemiological data point (description)</t>
   </si>
@@ -1225,22 +1225,16 @@
     <t>varpi</t>
   </si>
   <si>
-    <t>IPT Adherence for gender compartment Male under policy Community ART</t>
-  </si>
-  <si>
-    <t>IPT Adherence for gender compartment Female under policy Community ART</t>
-  </si>
-  <si>
-    <t>IPT Adherence for gender compartment Male under policy Standard (baseline)</t>
-  </si>
-  <si>
-    <t>IPT Adherence for gender compartment Female under policy Standard (baseline)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Percentage HIV - </t>
   </si>
   <si>
     <t>Reference-Expected Value</t>
+  </si>
+  <si>
+    <t>IPT Adherence  under policy Community ART</t>
+  </si>
+  <si>
+    <t>IPT Adherence  under policy Standard (baseline)</t>
   </si>
 </sst>
 </file>
@@ -1807,13 +1801,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O195"/>
+  <dimension ref="A1:O192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K172" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M173" sqref="M173"/>
+      <selection pane="bottomRight" activeCell="K190" sqref="K190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8349,7 +8343,7 @@
         <v>2</v>
       </c>
       <c r="J189" s="9" t="str">
-        <f t="shared" ref="J189:J195" si="20">CONCATENATE(C189, "_", E189, IF(E189&lt;&gt;"",",",""), F189, IF(F189&lt;&gt;"",",",""),  G189, IF(G189&lt;&gt;"",",",""),  H189, IF(I189&lt;&gt;"","(",""), I189, IF(I189&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J189:J192" si="20">CONCATENATE(C189, "_", E189, IF(E189&lt;&gt;"",",",""), F189, IF(F189&lt;&gt;"",",",""),  G189, IF(G189&lt;&gt;"",",",""),  H189, IF(I189&lt;&gt;"","(",""), I189, IF(I189&lt;&gt;"",")",""))</f>
         <v>rho_6,2,2</v>
       </c>
       <c r="K189" s="23">
@@ -8359,11 +8353,11 @@
     </row>
     <row r="190" spans="1:11" ht="32">
       <c r="A190" s="11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B190" s="9" t="str">
-        <f>CONCATENATE("IPT Adherence for gender compartment ", VLOOKUP(H190, G_SET, 2),  " under policy ", VLOOKUP(I60, P_SET,2))</f>
-        <v>IPT Adherence for gender compartment Male under policy Community ART</v>
+        <f>CONCATENATE("IPT Adherence  under policy ", VLOOKUP(I60, P_SET,2))</f>
+        <v>IPT Adherence  under policy Community ART</v>
       </c>
       <c r="C190" s="9" t="s">
         <v>361</v>
@@ -8371,15 +8365,12 @@
       <c r="D190" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H190" s="9">
-        <v>1</v>
-      </c>
       <c r="I190" s="9">
         <v>1</v>
       </c>
       <c r="J190" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>varpi_1(1)</v>
+        <v>varpi_(1)</v>
       </c>
       <c r="K190" s="35">
         <v>0.2</v>
@@ -8387,11 +8378,11 @@
     </row>
     <row r="191" spans="1:11" ht="32">
       <c r="A191" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B191" s="9" t="str">
-        <f>CONCATENATE("IPT Adherence for gender compartment ", VLOOKUP(H191, G_SET, 2),  " under policy ", VLOOKUP(I61, P_SET,2))</f>
-        <v>IPT Adherence for gender compartment Female under policy Community ART</v>
+        <f>CONCATENATE("IPT Adherence  under policy ", VLOOKUP(I61, P_SET,2))</f>
+        <v>IPT Adherence  under policy Community ART</v>
       </c>
       <c r="C191" s="9" t="s">
         <v>361</v>
@@ -8399,15 +8390,12 @@
       <c r="D191" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H191" s="9">
-        <v>2</v>
-      </c>
       <c r="I191" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J191" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>varpi_2(1)</v>
+        <v>varpi_(2)</v>
       </c>
       <c r="K191" s="35">
         <v>0.2</v>
@@ -8415,11 +8403,11 @@
     </row>
     <row r="192" spans="1:11" ht="32">
       <c r="A192" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B192" s="9" t="str">
-        <f>CONCATENATE("IPT Adherence for gender compartment ", VLOOKUP(H192, G_SET, 2),  " under policy ", VLOOKUP(I62, P_SET,2))</f>
-        <v>IPT Adherence for gender compartment Male under policy Standard (baseline)</v>
+        <f>CONCATENATE("IPT Adherence  under policy ", VLOOKUP(I62, P_SET,2))</f>
+        <v>IPT Adherence  under policy Standard (baseline)</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>361</v>
@@ -8427,101 +8415,14 @@
       <c r="D192" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H192" s="9">
-        <v>1</v>
-      </c>
       <c r="I192" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J192" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>varpi_1(2)</v>
+        <v>varpi_(3)</v>
       </c>
       <c r="K192" s="35">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" ht="32">
-      <c r="A193" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="B193" s="9" t="str">
-        <f>CONCATENATE("IPT Adherence for gender compartment ", VLOOKUP(H193, G_SET, 2),  " under policy ", VLOOKUP(I63, P_SET,2))</f>
-        <v>IPT Adherence for gender compartment Female under policy Standard (baseline)</v>
-      </c>
-      <c r="C193" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D193" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H193" s="9">
-        <v>2</v>
-      </c>
-      <c r="I193" s="9">
-        <v>2</v>
-      </c>
-      <c r="J193" s="9" t="str">
-        <f t="shared" si="20"/>
-        <v>varpi_2(2)</v>
-      </c>
-      <c r="K193" s="35">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" ht="32">
-      <c r="A194" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B194" s="9" t="str">
-        <f>CONCATENATE("IPT Adherence for gender compartment ", VLOOKUP(H194, G_SET, 2),  " under policy ", VLOOKUP(I64, P_SET,2))</f>
-        <v>IPT Adherence for gender compartment Male under policy Standard (baseline)</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D194" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H194" s="9">
-        <v>1</v>
-      </c>
-      <c r="I194" s="9">
-        <v>3</v>
-      </c>
-      <c r="J194" s="9" t="str">
-        <f t="shared" si="20"/>
-        <v>varpi_1(3)</v>
-      </c>
-      <c r="K194" s="35">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" ht="32">
-      <c r="A195" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="B195" s="9" t="str">
-        <f>CONCATENATE("IPT Adherence for gender compartment ", VLOOKUP(H195, G_SET, 2),  " under policy ", VLOOKUP(I65, P_SET,2))</f>
-        <v>IPT Adherence for gender compartment Female under policy Standard (baseline)</v>
-      </c>
-      <c r="C195" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D195" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H195" s="9">
-        <v>2</v>
-      </c>
-      <c r="I195" s="9">
-        <v>3</v>
-      </c>
-      <c r="J195" s="9" t="str">
-        <f t="shared" si="20"/>
-        <v>varpi_2(3)</v>
-      </c>
-      <c r="K195" s="35">
         <v>0.8</v>
       </c>
     </row>
@@ -8862,7 +8763,7 @@
     </row>
     <row r="17" spans="1:13" ht="17">
       <c r="A17" s="37" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -10149,7 +10050,7 @@
         <v>328</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="O1" s="16" t="s">
         <v>11</v>

--- a/param_files/Epi_model_parameters.xlsx
+++ b/param_files/Epi_model_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/ws/github/epi_model_HIV_TB/param_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD4AAF4-64C9-B94D-9B14-05463EE78F2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DB38D1-57A9-DB4C-AF2A-D7286B8B42A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38260" yWindow="2580" windowWidth="37440" windowHeight="18600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22887,7 +22887,7 @@
   <dimension ref="A3:M132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/param_files/Epi_model_parameters.xlsx
+++ b/param_files/Epi_model_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/ws/github/epi_model_HIV_TB/param_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654B578B-7DB9-834A-91BF-1CE6924810F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE6BF6C-88E0-1548-891A-147FCA35CCA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="580" windowWidth="27880" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Set Ref" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">indirect_model_parameters!$A$1:$M$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">indirect_model_parameters!$A$1:$M$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model_matched_parameters!$A$1:$Q$224</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pop_init!$A$1:$Q$129</definedName>
     <definedName name="Epidemiological_data_point__description">model_matched_parameters!$A$1:$Q$224</definedName>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="653">
   <si>
     <t>Epidemiological data point (description)</t>
   </si>
@@ -1273,12 +1273,6 @@
     <t>Model Matched Param</t>
   </si>
   <si>
-    <t>PMID: 25377332</t>
-  </si>
-  <si>
-    <t>Accounts for Moratlity Rate 5-14 years</t>
-  </si>
-  <si>
     <t>N,6,1,1,1</t>
   </si>
   <si>
@@ -1303,9 +1297,6 @@
     <t>N,6,2,2,2</t>
   </si>
   <si>
-    <t>Total birth rate</t>
-  </si>
-  <si>
     <t>Country Specific?</t>
   </si>
   <si>
@@ -1879,18 +1870,6 @@
     <t>alpha^in_4,1,2,2</t>
   </si>
   <si>
-    <t>alpha^in_5,1,1,1</t>
-  </si>
-  <si>
-    <t>alpha^in_5,1,1,2</t>
-  </si>
-  <si>
-    <t>alpha^in_5,1,2,1</t>
-  </si>
-  <si>
-    <t>alpha^in_5,1,2,2</t>
-  </si>
-  <si>
     <t>alpha^in_1,2,1,1</t>
   </si>
   <si>
@@ -1927,18 +1906,6 @@
     <t>alpha^in_4,2,2,2</t>
   </si>
   <si>
-    <t>alpha^in_5,2,1,1</t>
-  </si>
-  <si>
-    <t>alpha^in_5,2,1,2</t>
-  </si>
-  <si>
-    <t>alpha^in_5,2,2,1</t>
-  </si>
-  <si>
-    <t>alpha^in_5,2,2,2</t>
-  </si>
-  <si>
     <t>mu_1,1,1</t>
   </si>
   <si>
@@ -2147,6 +2114,30 @@
   </si>
   <si>
     <t>evaluate populations between 15 and 59 that age out at 60 and age in at 15</t>
+  </si>
+  <si>
+    <t>alpha^in_6,1,1,1</t>
+  </si>
+  <si>
+    <t>alpha^in_6,1,1,2</t>
+  </si>
+  <si>
+    <t>alpha^in_6,1,2,1</t>
+  </si>
+  <si>
+    <t>alpha^in_6,1,2,2</t>
+  </si>
+  <si>
+    <t>alpha^in_6,2,1,1</t>
+  </si>
+  <si>
+    <t>alpha^in_6,2,1,2</t>
+  </si>
+  <si>
+    <t>alpha^in_6,2,2,1</t>
+  </si>
+  <si>
+    <t>alpha^in_6,2,2,2</t>
   </si>
 </sst>
 </file>
@@ -2159,16 +2150,9 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2402,28 +2386,28 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2438,66 +2422,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2506,13 +2490,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2526,14 +2510,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2555,20 +2535,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5907,10 +5887,10 @@
   <dimension ref="A1:Q224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A130" sqref="A130"/>
+      <selection pane="bottomRight" activeCell="K224" sqref="K224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5962,7 +5942,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>9</v>
@@ -5983,7 +5963,7 @@
         <v>14</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17" hidden="1">
@@ -6008,17 +5988,17 @@
         <v>beta_1</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L2" s="9">
         <v>6.5440000000000003E-3</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="O2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="55" t="s">
-        <v>376</v>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="17" hidden="1">
@@ -6043,17 +6023,17 @@
         <v>beta_2</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L3" s="9">
         <v>5.5440000000000003E-3</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="O3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="55" t="s">
-        <v>376</v>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="34" hidden="1">
@@ -6078,17 +6058,17 @@
         <v>iota_1,</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L4" s="34">
         <v>0</v>
       </c>
-      <c r="O4" s="53" t="s">
+      <c r="O4" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="55" t="s">
-        <v>377</v>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="34" hidden="1">
@@ -6113,17 +6093,17 @@
         <v>iota_2,</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L5" s="34">
         <v>0.15</v>
       </c>
-      <c r="O5" s="53" t="s">
+      <c r="O5" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="55" t="s">
-        <v>377</v>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="17" hidden="1">
@@ -6148,19 +6128,19 @@
         <v>phi_1,</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L6" s="9">
         <v>0.7</v>
       </c>
-      <c r="O6" s="53" t="s">
+      <c r="O6" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="54" t="s">
+      <c r="P6" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="55" t="s">
-        <v>377</v>
+      <c r="Q6" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="51" hidden="1" customHeight="1">
@@ -6185,20 +6165,20 @@
         <v>phi_2,</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP("phi_1,", model_matched_parameters,3, FALSE)*VLOOKUP(K7,indirect_model_params,2)</f>
         <v>0.7</v>
       </c>
-      <c r="O7" s="53" t="s">
+      <c r="O7" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="54" t="s">
+      <c r="P7" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="55" t="s">
-        <v>377</v>
+      <c r="Q7" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="51" hidden="1" customHeight="1">
@@ -6223,20 +6203,20 @@
         <v>phi_3,</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP("phi_1,", model_matched_parameters,3, FALSE)*VLOOKUP(K8,indirect_model_params,2)</f>
         <v>0.77</v>
       </c>
-      <c r="O8" s="53" t="s">
+      <c r="O8" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="54" t="s">
+      <c r="P8" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="55" t="s">
-        <v>377</v>
+      <c r="Q8" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="51" hidden="1" customHeight="1">
@@ -6261,20 +6241,20 @@
         <v>phi_4,</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP("phi_1,", model_matched_parameters,3, FALSE)*VLOOKUP(K9,indirect_model_params,2)</f>
         <v>0.7</v>
       </c>
-      <c r="O9" s="53" t="s">
+      <c r="O9" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="54" t="s">
+      <c r="P9" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="55" t="s">
-        <v>377</v>
+      <c r="Q9" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="48" hidden="1" customHeight="1">
@@ -6296,19 +6276,19 @@
         <v>upsilon_</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L10" s="34">
         <v>0.3</v>
       </c>
-      <c r="O10" s="53" t="s">
+      <c r="O10" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="54" t="s">
+      <c r="P10" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="55" t="s">
-        <v>377</v>
+      <c r="Q10" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="32" hidden="1">
@@ -6333,17 +6313,17 @@
         <v>varepsilon_1</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L11" s="9">
         <v>0.3</v>
       </c>
-      <c r="O11" s="53" t="s">
+      <c r="O11" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55" t="s">
-        <v>376</v>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="32" hidden="1">
@@ -6368,17 +6348,17 @@
         <v>varepsilon_2</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L12" s="9">
         <v>0.3</v>
       </c>
-      <c r="O12" s="53" t="s">
+      <c r="O12" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55" t="s">
-        <v>376</v>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="51" hidden="1">
@@ -6400,15 +6380,15 @@
         <v>zeta_</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L13" s="34">
         <v>0.1</v>
       </c>
-      <c r="O13" s="53"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55" t="s">
-        <v>377</v>
+      <c r="O13" s="51"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="17" hidden="1">
@@ -6433,15 +6413,15 @@
         <v>gamma_1,</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L14" s="9">
         <v>1</v>
       </c>
-      <c r="O14" s="53"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55" t="s">
-        <v>377</v>
+      <c r="O14" s="51"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="17" hidden="1">
@@ -6466,15 +6446,15 @@
         <v>gamma_2,</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L15" s="9">
         <v>0</v>
       </c>
-      <c r="O15" s="53"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55" t="s">
-        <v>377</v>
+      <c r="O15" s="51"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="51" hidden="1">
@@ -6508,17 +6488,17 @@
         <v>kappa_1,1,1(1)</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
       </c>
-      <c r="O16" s="53"/>
-      <c r="P16" s="54" t="s">
+      <c r="O16" s="51"/>
+      <c r="P16" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="Q16" s="55" t="s">
-        <v>376</v>
+      <c r="Q16" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="51" hidden="1">
@@ -6552,17 +6532,17 @@
         <v>kappa_1,1,1(2)</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L17" s="9">
         <v>0</v>
       </c>
-      <c r="O17" s="53"/>
-      <c r="P17" s="54" t="s">
+      <c r="O17" s="51"/>
+      <c r="P17" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="Q17" s="55" t="s">
-        <v>376</v>
+      <c r="Q17" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="51" hidden="1">
@@ -6596,17 +6576,17 @@
         <v>kappa_1,1,1(3)</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L18" s="27">
         <v>0</v>
       </c>
-      <c r="O18" s="53"/>
-      <c r="P18" s="54" t="s">
+      <c r="O18" s="51"/>
+      <c r="P18" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="Q18" s="55" t="s">
-        <v>376</v>
+      <c r="Q18" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="51" hidden="1" customHeight="1">
@@ -6640,17 +6620,17 @@
         <v>kappa_1,1,2(1)</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L19" s="9">
         <v>0</v>
       </c>
-      <c r="O19" s="53"/>
-      <c r="P19" s="54" t="s">
+      <c r="O19" s="51"/>
+      <c r="P19" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="Q19" s="55" t="s">
-        <v>376</v>
+      <c r="Q19" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="51" hidden="1" customHeight="1">
@@ -6684,17 +6664,17 @@
         <v>kappa_1,1,2(2)</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L20" s="9">
         <v>0</v>
       </c>
-      <c r="O20" s="53"/>
-      <c r="P20" s="54" t="s">
+      <c r="O20" s="51"/>
+      <c r="P20" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="Q20" s="55" t="s">
-        <v>376</v>
+      <c r="Q20" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="51" hidden="1" customHeight="1">
@@ -6728,17 +6708,17 @@
         <v>kappa_1,1,2(3)</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L21" s="27">
         <v>0</v>
       </c>
-      <c r="O21" s="53"/>
-      <c r="P21" s="54" t="s">
+      <c r="O21" s="51"/>
+      <c r="P21" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="Q21" s="55" t="s">
-        <v>376</v>
+      <c r="Q21" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="51" hidden="1">
@@ -6772,17 +6752,17 @@
         <v>kappa_1,2,1(1)</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L22" s="9">
         <v>0.06</v>
       </c>
-      <c r="O22" s="53" t="s">
+      <c r="O22" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="55" t="s">
-        <v>376</v>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="112" hidden="1">
@@ -6816,19 +6796,19 @@
         <v>kappa_1,2,1(2)</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L23" s="9">
         <v>0.06</v>
       </c>
-      <c r="O23" s="53" t="s">
+      <c r="O23" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P23" s="54" t="s">
+      <c r="P23" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="Q23" s="55" t="s">
-        <v>376</v>
+      <c r="Q23" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="51" hidden="1">
@@ -6862,19 +6842,19 @@
         <v>kappa_1,2,1(3)</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L24" s="9">
         <v>0.91</v>
       </c>
-      <c r="O24" s="53" t="s">
+      <c r="O24" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P24" s="54" t="s">
+      <c r="P24" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="Q24" s="55" t="s">
-        <v>376</v>
+      <c r="Q24" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="51" hidden="1">
@@ -6908,17 +6888,17 @@
         <v>kappa_1,2,2(1)</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L25" s="9">
         <v>0.06</v>
       </c>
-      <c r="O25" s="53" t="s">
+      <c r="O25" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="55" t="s">
-        <v>376</v>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="112" hidden="1">
@@ -6952,19 +6932,19 @@
         <v>kappa_1,2,2(2)</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L26" s="9">
         <v>0.06</v>
       </c>
-      <c r="O26" s="53" t="s">
+      <c r="O26" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P26" s="54" t="s">
+      <c r="P26" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="Q26" s="55" t="s">
-        <v>376</v>
+      <c r="Q26" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="51" hidden="1">
@@ -6998,19 +6978,19 @@
         <v>kappa_1,2,2(3)</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L27" s="9">
         <v>0.91</v>
       </c>
-      <c r="O27" s="53" t="s">
+      <c r="O27" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P27" s="54" t="s">
+      <c r="P27" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="Q27" s="55" t="s">
-        <v>376</v>
+      <c r="Q27" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="51" hidden="1">
@@ -7044,17 +7024,17 @@
         <v>kappa_1,3,1(1)</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L28" s="9">
         <v>0.06</v>
       </c>
-      <c r="O28" s="53" t="s">
+      <c r="O28" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="55" t="s">
-        <v>376</v>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="112" hidden="1">
@@ -7088,19 +7068,19 @@
         <v>kappa_1,3,1(2)</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L29" s="9">
         <v>0.06</v>
       </c>
-      <c r="O29" s="53" t="s">
+      <c r="O29" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P29" s="54" t="s">
+      <c r="P29" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="Q29" s="55" t="s">
-        <v>376</v>
+      <c r="Q29" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="51" hidden="1">
@@ -7134,19 +7114,19 @@
         <v>kappa_1,3,1(3)</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L30" s="9">
         <v>0.91</v>
       </c>
-      <c r="O30" s="53" t="s">
+      <c r="O30" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P30" s="54" t="s">
+      <c r="P30" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="Q30" s="55" t="s">
-        <v>376</v>
+      <c r="Q30" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="51" hidden="1">
@@ -7180,17 +7160,17 @@
         <v>kappa_1,3,2(1)</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L31" s="9">
         <v>0.06</v>
       </c>
-      <c r="O31" s="53" t="s">
+      <c r="O31" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="55" t="s">
-        <v>376</v>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="112" hidden="1">
@@ -7224,19 +7204,19 @@
         <v>kappa_1,3,2(2)</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L32" s="9">
         <v>0.06</v>
       </c>
-      <c r="O32" s="53" t="s">
+      <c r="O32" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P32" s="54" t="s">
+      <c r="P32" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="Q32" s="55" t="s">
-        <v>376</v>
+      <c r="Q32" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="51" hidden="1">
@@ -7270,19 +7250,19 @@
         <v>kappa_1,3,2(3)</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L33" s="9">
         <v>0.91</v>
       </c>
-      <c r="O33" s="53" t="s">
+      <c r="O33" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P33" s="54" t="s">
+      <c r="P33" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="Q33" s="55" t="s">
-        <v>376</v>
+      <c r="Q33" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="51" hidden="1">
@@ -7316,17 +7296,17 @@
         <v>kappa_1,4,1(1)</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L34" s="9">
         <v>0.06</v>
       </c>
-      <c r="O34" s="53" t="s">
+      <c r="O34" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="55" t="s">
-        <v>376</v>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="112" hidden="1">
@@ -7360,19 +7340,19 @@
         <v>kappa_1,4,1(2)</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L35" s="9">
         <v>0.06</v>
       </c>
-      <c r="O35" s="53" t="s">
+      <c r="O35" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P35" s="54" t="s">
+      <c r="P35" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="Q35" s="55" t="s">
-        <v>376</v>
+      <c r="Q35" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="51" hidden="1">
@@ -7406,19 +7386,19 @@
         <v>kappa_1,4,1(3)</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L36" s="9">
         <v>0.91</v>
       </c>
-      <c r="O36" s="53" t="s">
+      <c r="O36" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P36" s="54" t="s">
+      <c r="P36" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="Q36" s="55" t="s">
-        <v>376</v>
+      <c r="Q36" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="51" hidden="1">
@@ -7452,17 +7432,17 @@
         <v>kappa_1,4,2(1)</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L37" s="9">
         <v>0.06</v>
       </c>
-      <c r="O37" s="53" t="s">
+      <c r="O37" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="55" t="s">
-        <v>376</v>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="112" hidden="1">
@@ -7496,19 +7476,19 @@
         <v>kappa_1,4,2(2)</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L38" s="9">
         <v>0.06</v>
       </c>
-      <c r="O38" s="53" t="s">
+      <c r="O38" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P38" s="54" t="s">
+      <c r="P38" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="Q38" s="55" t="s">
-        <v>376</v>
+      <c r="Q38" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="51" hidden="1">
@@ -7542,19 +7522,19 @@
         <v>kappa_1,4,2(3)</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L39" s="9">
         <v>0.91</v>
       </c>
-      <c r="O39" s="53" t="s">
+      <c r="O39" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P39" s="54" t="s">
+      <c r="P39" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="Q39" s="55" t="s">
-        <v>376</v>
+      <c r="Q39" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="68" hidden="1">
@@ -7588,17 +7568,17 @@
         <v>kappa_3,1,1(1)</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L40" s="9">
         <v>0</v>
       </c>
-      <c r="O40" s="53"/>
-      <c r="P40" s="54" t="s">
+      <c r="O40" s="51"/>
+      <c r="P40" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="Q40" s="55" t="s">
-        <v>376</v>
+      <c r="Q40" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="51" hidden="1">
@@ -7632,17 +7612,17 @@
         <v>kappa_3,1,1(2)</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L41" s="9">
         <v>0</v>
       </c>
-      <c r="O41" s="53"/>
-      <c r="P41" s="54" t="s">
+      <c r="O41" s="51"/>
+      <c r="P41" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="Q41" s="55" t="s">
-        <v>376</v>
+      <c r="Q41" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="68" hidden="1">
@@ -7676,17 +7656,17 @@
         <v>kappa_3,1,1(3)</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L42" s="9">
         <v>0</v>
       </c>
-      <c r="O42" s="53"/>
-      <c r="P42" s="54" t="s">
+      <c r="O42" s="51"/>
+      <c r="P42" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="Q42" s="55" t="s">
-        <v>376</v>
+      <c r="Q42" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="68" hidden="1">
@@ -7720,17 +7700,17 @@
         <v>kappa_3,1,2(1)</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L43" s="9">
         <v>0</v>
       </c>
-      <c r="O43" s="53"/>
-      <c r="P43" s="54" t="s">
+      <c r="O43" s="51"/>
+      <c r="P43" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="Q43" s="55" t="s">
-        <v>376</v>
+      <c r="Q43" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="51" hidden="1">
@@ -7764,17 +7744,17 @@
         <v>kappa_3,1,2(2)</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L44" s="9">
         <v>0</v>
       </c>
-      <c r="O44" s="53"/>
-      <c r="P44" s="54" t="s">
+      <c r="O44" s="51"/>
+      <c r="P44" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="Q44" s="55" t="s">
-        <v>376</v>
+      <c r="Q44" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="68" hidden="1">
@@ -7808,17 +7788,17 @@
         <v>kappa_3,1,2(3)</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L45" s="9">
         <v>0</v>
       </c>
-      <c r="O45" s="53"/>
-      <c r="P45" s="54" t="s">
+      <c r="O45" s="51"/>
+      <c r="P45" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="Q45" s="55" t="s">
-        <v>376</v>
+      <c r="Q45" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="68" hidden="1">
@@ -7852,17 +7832,17 @@
         <v>kappa_3,2,1(1)</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L46" s="9">
         <v>0.06</v>
       </c>
-      <c r="O46" s="53" t="s">
+      <c r="O46" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="55" t="s">
-        <v>376</v>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="68" hidden="1">
@@ -7896,17 +7876,17 @@
         <v>kappa_3,2,1(2)</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L47" s="9">
         <v>0.06</v>
       </c>
-      <c r="O47" s="53" t="s">
+      <c r="O47" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="55" t="s">
-        <v>376</v>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="68" hidden="1">
@@ -7940,19 +7920,19 @@
         <v>kappa_3,2,1(3)</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L48" s="9">
         <v>0.91</v>
       </c>
-      <c r="O48" s="53" t="s">
+      <c r="O48" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P48" s="54" t="s">
+      <c r="P48" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="Q48" s="55" t="s">
-        <v>376</v>
+      <c r="Q48" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="68" hidden="1">
@@ -7986,17 +7966,17 @@
         <v>kappa_3,2,2(1)</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L49" s="9">
         <v>0.06</v>
       </c>
-      <c r="O49" s="53" t="s">
+      <c r="O49" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="55" t="s">
-        <v>376</v>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="68" hidden="1">
@@ -8030,17 +8010,17 @@
         <v>kappa_3,2,2(2)</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L50" s="9">
         <v>0.06</v>
       </c>
-      <c r="O50" s="53" t="s">
+      <c r="O50" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="55" t="s">
-        <v>376</v>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="68" hidden="1">
@@ -8074,19 +8054,19 @@
         <v>kappa_3,2,2(3)</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L51" s="9">
         <v>0.91</v>
       </c>
-      <c r="O51" s="53" t="s">
+      <c r="O51" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P51" s="54" t="s">
+      <c r="P51" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="Q51" s="55" t="s">
-        <v>376</v>
+      <c r="Q51" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="68" hidden="1">
@@ -8120,17 +8100,17 @@
         <v>kappa_3,3,1(1)</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L52" s="9">
         <v>0.06</v>
       </c>
-      <c r="O52" s="53" t="s">
+      <c r="O52" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="55" t="s">
-        <v>376</v>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="68" hidden="1">
@@ -8164,17 +8144,17 @@
         <v>kappa_3,3,1(2)</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L53" s="9">
         <v>0.06</v>
       </c>
-      <c r="O53" s="53" t="s">
+      <c r="O53" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="55" t="s">
-        <v>376</v>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="68" hidden="1">
@@ -8208,19 +8188,19 @@
         <v>kappa_3,3,1(3)</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L54" s="9">
         <v>0.91</v>
       </c>
-      <c r="O54" s="53" t="s">
+      <c r="O54" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P54" s="54" t="s">
+      <c r="P54" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="Q54" s="55" t="s">
-        <v>376</v>
+      <c r="Q54" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="68" hidden="1">
@@ -8254,17 +8234,17 @@
         <v>kappa_3,3,2(1)</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L55" s="9">
         <v>0.06</v>
       </c>
-      <c r="O55" s="53" t="s">
+      <c r="O55" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="55" t="s">
-        <v>376</v>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="68" hidden="1">
@@ -8298,17 +8278,17 @@
         <v>kappa_3,3,2(2)</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L56" s="9">
         <v>0.06</v>
       </c>
-      <c r="O56" s="53" t="s">
+      <c r="O56" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="55" t="s">
-        <v>376</v>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="68" hidden="1">
@@ -8342,19 +8322,19 @@
         <v>kappa_3,3,2(3)</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L57" s="9">
         <v>0.91</v>
       </c>
-      <c r="O57" s="53" t="s">
+      <c r="O57" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P57" s="54" t="s">
+      <c r="P57" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="Q57" s="55" t="s">
-        <v>376</v>
+      <c r="Q57" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="68" hidden="1">
@@ -8388,17 +8368,17 @@
         <v>kappa_3,4,1(1)</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L58" s="9">
         <v>0.06</v>
       </c>
-      <c r="O58" s="53" t="s">
+      <c r="O58" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="55" t="s">
-        <v>376</v>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="68" hidden="1">
@@ -8432,17 +8412,17 @@
         <v>kappa_3,4,1(2)</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="L59" s="9">
         <v>0.06</v>
       </c>
-      <c r="O59" s="53" t="s">
+      <c r="O59" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="55" t="s">
-        <v>376</v>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="68" hidden="1">
@@ -8476,17 +8456,17 @@
         <v>kappa_3,4,1(3)</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L60" s="9">
         <v>0.91</v>
       </c>
-      <c r="O60" s="53" t="s">
+      <c r="O60" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="55" t="s">
-        <v>376</v>
+      <c r="P60" s="52"/>
+      <c r="Q60" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="68" hidden="1">
@@ -8520,17 +8500,17 @@
         <v>kappa_3,4,2(1)</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L61" s="9">
         <v>0.06</v>
       </c>
-      <c r="O61" s="53" t="s">
+      <c r="O61" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="55" t="s">
-        <v>376</v>
+      <c r="P61" s="52"/>
+      <c r="Q61" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="68" hidden="1">
@@ -8564,17 +8544,17 @@
         <v>kappa_3,4,2(2)</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L62" s="9">
         <v>0.06</v>
       </c>
-      <c r="O62" s="53" t="s">
+      <c r="O62" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="55" t="s">
-        <v>376</v>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="68" hidden="1">
@@ -8608,17 +8588,17 @@
         <v>kappa_3,4,2(3)</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L63" s="9">
         <v>0.91</v>
       </c>
-      <c r="O63" s="53" t="s">
+      <c r="O63" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="55" t="s">
-        <v>376</v>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="51" hidden="1">
@@ -8652,17 +8632,17 @@
         <v>kappa_4,1,1(1)</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L64" s="9">
         <v>0</v>
       </c>
-      <c r="O64" s="53"/>
-      <c r="P64" s="54" t="s">
+      <c r="O64" s="51"/>
+      <c r="P64" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="Q64" s="55" t="s">
-        <v>376</v>
+      <c r="Q64" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="51" hidden="1">
@@ -8696,17 +8676,17 @@
         <v>kappa_4,1,1(2)</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="L65" s="9">
         <v>0</v>
       </c>
-      <c r="O65" s="53"/>
-      <c r="P65" s="54" t="s">
+      <c r="O65" s="51"/>
+      <c r="P65" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="Q65" s="55" t="s">
-        <v>376</v>
+      <c r="Q65" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="51" hidden="1">
@@ -8736,21 +8716,21 @@
         <v>3</v>
       </c>
       <c r="J66" s="9" t="str">
-        <f t="shared" ref="J66:J129" si="3">CONCATENATE(C66, "_", E66, IF(E66&lt;&gt;"",",",""), F66, IF(F66&lt;&gt;"",",",""),  G66, IF(G66&lt;&gt;"",",",""),  H66, IF(I66&lt;&gt;"","(",""), I66, IF(I66&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J66:K129" si="3">CONCATENATE(C66, "_", E66, IF(E66&lt;&gt;"",",",""), F66, IF(F66&lt;&gt;"",",",""),  G66, IF(G66&lt;&gt;"",",",""),  H66, IF(I66&lt;&gt;"","(",""), I66, IF(I66&lt;&gt;"",")",""))</f>
         <v>kappa_4,1,1(3)</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="L66" s="9">
         <v>0</v>
       </c>
-      <c r="O66" s="53"/>
-      <c r="P66" s="54" t="s">
+      <c r="O66" s="51"/>
+      <c r="P66" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="Q66" s="55" t="s">
-        <v>376</v>
+      <c r="Q66" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="51" hidden="1">
@@ -8784,17 +8764,17 @@
         <v>kappa_4,1,2(1)</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="L67" s="9">
         <v>0</v>
       </c>
-      <c r="O67" s="53"/>
-      <c r="P67" s="54" t="s">
+      <c r="O67" s="51"/>
+      <c r="P67" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="Q67" s="55" t="s">
-        <v>376</v>
+      <c r="Q67" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="51" hidden="1">
@@ -8828,17 +8808,17 @@
         <v>kappa_4,1,2(2)</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L68" s="9">
         <v>0</v>
       </c>
-      <c r="O68" s="53"/>
-      <c r="P68" s="54" t="s">
+      <c r="O68" s="51"/>
+      <c r="P68" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="Q68" s="55" t="s">
-        <v>376</v>
+      <c r="Q68" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="51" hidden="1">
@@ -8872,17 +8852,17 @@
         <v>kappa_4,1,2(3)</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L69" s="9">
         <v>0</v>
       </c>
-      <c r="O69" s="53"/>
-      <c r="P69" s="54" t="s">
+      <c r="O69" s="51"/>
+      <c r="P69" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="Q69" s="55" t="s">
-        <v>376</v>
+      <c r="Q69" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="51" hidden="1">
@@ -8916,17 +8896,17 @@
         <v>kappa_4,2,1(1)</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L70" s="9">
         <v>0.06</v>
       </c>
-      <c r="O70" s="53" t="s">
+      <c r="O70" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P70" s="54"/>
-      <c r="Q70" s="55" t="s">
-        <v>376</v>
+      <c r="P70" s="52"/>
+      <c r="Q70" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="51" hidden="1">
@@ -8960,17 +8940,17 @@
         <v>kappa_4,2,1(2)</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L71" s="9">
         <v>0.06</v>
       </c>
-      <c r="O71" s="53" t="s">
+      <c r="O71" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="55" t="s">
-        <v>376</v>
+      <c r="P71" s="52"/>
+      <c r="Q71" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="51" hidden="1">
@@ -9004,17 +8984,17 @@
         <v>kappa_4,2,1(3)</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="L72" s="9">
         <v>0.91</v>
       </c>
-      <c r="O72" s="53" t="s">
+      <c r="O72" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P72" s="54"/>
-      <c r="Q72" s="55" t="s">
-        <v>376</v>
+      <c r="P72" s="52"/>
+      <c r="Q72" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="51" hidden="1">
@@ -9048,17 +9028,17 @@
         <v>kappa_4,2,2(1)</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="L73" s="9">
         <v>0.06</v>
       </c>
-      <c r="O73" s="53" t="s">
+      <c r="O73" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P73" s="54"/>
-      <c r="Q73" s="55" t="s">
-        <v>376</v>
+      <c r="P73" s="52"/>
+      <c r="Q73" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="51" hidden="1">
@@ -9092,17 +9072,17 @@
         <v>kappa_4,2,2(2)</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="L74" s="9">
         <v>0.06</v>
       </c>
-      <c r="O74" s="53" t="s">
+      <c r="O74" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P74" s="54"/>
-      <c r="Q74" s="55" t="s">
-        <v>376</v>
+      <c r="P74" s="52"/>
+      <c r="Q74" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="51" hidden="1">
@@ -9136,17 +9116,17 @@
         <v>kappa_4,2,2(3)</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L75" s="9">
         <v>0.91</v>
       </c>
-      <c r="O75" s="53" t="s">
+      <c r="O75" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P75" s="54"/>
-      <c r="Q75" s="55" t="s">
-        <v>376</v>
+      <c r="P75" s="52"/>
+      <c r="Q75" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="51" hidden="1">
@@ -9180,17 +9160,17 @@
         <v>kappa_4,3,1(1)</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="L76" s="9">
         <v>0.06</v>
       </c>
-      <c r="O76" s="53" t="s">
+      <c r="O76" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P76" s="54"/>
-      <c r="Q76" s="55" t="s">
-        <v>376</v>
+      <c r="P76" s="52"/>
+      <c r="Q76" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="51" hidden="1">
@@ -9224,17 +9204,17 @@
         <v>kappa_4,3,1(2)</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L77" s="9">
         <v>0.06</v>
       </c>
-      <c r="O77" s="53" t="s">
+      <c r="O77" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P77" s="54"/>
-      <c r="Q77" s="55" t="s">
-        <v>376</v>
+      <c r="P77" s="52"/>
+      <c r="Q77" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="51" hidden="1">
@@ -9268,17 +9248,17 @@
         <v>kappa_4,3,1(3)</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L78" s="9">
         <v>0.91</v>
       </c>
-      <c r="O78" s="53" t="s">
+      <c r="O78" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P78" s="54"/>
-      <c r="Q78" s="55" t="s">
-        <v>376</v>
+      <c r="P78" s="52"/>
+      <c r="Q78" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="51" hidden="1">
@@ -9312,17 +9292,17 @@
         <v>kappa_4,3,2(1)</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="L79" s="9">
         <v>0.06</v>
       </c>
-      <c r="O79" s="53" t="s">
+      <c r="O79" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P79" s="54"/>
-      <c r="Q79" s="55" t="s">
-        <v>376</v>
+      <c r="P79" s="52"/>
+      <c r="Q79" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="51" hidden="1">
@@ -9356,17 +9336,17 @@
         <v>kappa_4,3,2(2)</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="L80" s="9">
         <v>0.06</v>
       </c>
-      <c r="O80" s="53" t="s">
+      <c r="O80" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P80" s="54"/>
-      <c r="Q80" s="55" t="s">
-        <v>376</v>
+      <c r="P80" s="52"/>
+      <c r="Q80" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="51" hidden="1">
@@ -9400,17 +9380,17 @@
         <v>kappa_4,3,2(3)</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L81" s="9">
         <v>0.91</v>
       </c>
-      <c r="O81" s="53" t="s">
+      <c r="O81" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P81" s="54"/>
-      <c r="Q81" s="55" t="s">
-        <v>376</v>
+      <c r="P81" s="52"/>
+      <c r="Q81" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="51" hidden="1">
@@ -9444,17 +9424,17 @@
         <v>kappa_4,4,1(1)</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="L82" s="9">
         <v>0.06</v>
       </c>
-      <c r="O82" s="53" t="s">
+      <c r="O82" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P82" s="54"/>
-      <c r="Q82" s="55" t="s">
-        <v>376</v>
+      <c r="P82" s="52"/>
+      <c r="Q82" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="51" hidden="1">
@@ -9488,17 +9468,17 @@
         <v>kappa_4,4,1(2)</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L83" s="9">
         <v>0.06</v>
       </c>
-      <c r="O83" s="53" t="s">
+      <c r="O83" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P83" s="54"/>
-      <c r="Q83" s="55" t="s">
-        <v>376</v>
+      <c r="P83" s="52"/>
+      <c r="Q83" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="51" hidden="1">
@@ -9532,17 +9512,17 @@
         <v>kappa_4,4,1(3)</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L84" s="9">
         <v>0.91</v>
       </c>
-      <c r="O84" s="53" t="s">
+      <c r="O84" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P84" s="54"/>
-      <c r="Q84" s="55" t="s">
-        <v>376</v>
+      <c r="P84" s="52"/>
+      <c r="Q84" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="51" hidden="1">
@@ -9576,17 +9556,17 @@
         <v>kappa_4,4,2(1)</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="L85" s="9">
         <v>0.06</v>
       </c>
-      <c r="O85" s="53" t="s">
+      <c r="O85" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P85" s="54"/>
-      <c r="Q85" s="55" t="s">
-        <v>376</v>
+      <c r="P85" s="52"/>
+      <c r="Q85" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="51" hidden="1">
@@ -9620,17 +9600,17 @@
         <v>kappa_4,4,2(2)</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="L86" s="9">
         <v>0.06</v>
       </c>
-      <c r="O86" s="53" t="s">
+      <c r="O86" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P86" s="54"/>
-      <c r="Q86" s="55" t="s">
-        <v>376</v>
+      <c r="P86" s="52"/>
+      <c r="Q86" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="51" hidden="1">
@@ -9664,17 +9644,17 @@
         <v>kappa_4,4,2(3)</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="L87" s="9">
         <v>0.91</v>
       </c>
-      <c r="O87" s="53" t="s">
+      <c r="O87" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P87" s="54"/>
-      <c r="Q87" s="55" t="s">
-        <v>376</v>
+      <c r="P87" s="52"/>
+      <c r="Q87" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="32" hidden="1">
@@ -9693,17 +9673,17 @@
         <v>omega_</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="L88" s="9">
         <v>2</v>
       </c>
-      <c r="O88" s="53"/>
-      <c r="P88" s="54" t="s">
+      <c r="O88" s="51"/>
+      <c r="P88" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="Q88" s="55" t="s">
-        <v>377</v>
+      <c r="Q88" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="48" hidden="1">
@@ -9727,17 +9707,17 @@
         <v>pi_34,</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="L89" s="23">
         <v>0.5</v>
       </c>
-      <c r="O89" s="53"/>
-      <c r="P89" s="54" t="s">
+      <c r="O89" s="51"/>
+      <c r="P89" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="Q89" s="55" t="s">
-        <v>377</v>
+      <c r="Q89" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="17" hidden="1">
@@ -9761,17 +9741,17 @@
         <v>pi_36,</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L90" s="23">
         <v>0.05</v>
       </c>
-      <c r="O90" s="53"/>
-      <c r="P90" s="54" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q90" s="55" t="s">
-        <v>377</v>
+      <c r="O90" s="51"/>
+      <c r="P90" s="52" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q90" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="17" hidden="1">
@@ -9795,17 +9775,17 @@
         <v>pi_46,</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L91" s="23">
         <v>1E-3</v>
       </c>
-      <c r="O91" s="53"/>
-      <c r="P91" s="54" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q91" s="55" t="s">
-        <v>377</v>
+      <c r="O91" s="51"/>
+      <c r="P91" s="52" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q91" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="17" hidden="1">
@@ -9829,15 +9809,15 @@
         <v>pi_56,</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="L92" s="23">
         <v>0.02</v>
       </c>
-      <c r="O92" s="53"/>
-      <c r="P92" s="54"/>
-      <c r="Q92" s="55" t="s">
-        <v>377</v>
+      <c r="O92" s="51"/>
+      <c r="P92" s="52"/>
+      <c r="Q92" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="34" hidden="1">
@@ -9861,15 +9841,15 @@
         <v>pi_67,</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="L93" s="23">
         <v>2</v>
       </c>
-      <c r="O93" s="53"/>
-      <c r="P93" s="54"/>
-      <c r="Q93" s="55" t="s">
-        <v>377</v>
+      <c r="O93" s="51"/>
+      <c r="P93" s="52"/>
+      <c r="Q93" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="34" hidden="1">
@@ -9895,17 +9875,17 @@
         <v>theta_1,</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="L94" s="9">
         <v>1</v>
       </c>
-      <c r="O94" s="53"/>
-      <c r="P94" s="54" t="s">
+      <c r="O94" s="51"/>
+      <c r="P94" s="52" t="s">
         <v>329</v>
       </c>
-      <c r="Q94" s="55" t="s">
-        <v>377</v>
+      <c r="Q94" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="34" hidden="1">
@@ -9931,17 +9911,17 @@
         <v>theta_2,</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L95" s="9">
         <v>6</v>
       </c>
-      <c r="O95" s="53"/>
-      <c r="P95" s="54" t="s">
+      <c r="O95" s="51"/>
+      <c r="P95" s="52" t="s">
         <v>329</v>
       </c>
-      <c r="Q95" s="55" t="s">
-        <v>377</v>
+      <c r="Q95" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="34" hidden="1">
@@ -9967,17 +9947,17 @@
         <v>theta_3,</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="L96" s="9">
         <v>10</v>
       </c>
-      <c r="O96" s="53"/>
-      <c r="P96" s="54" t="s">
+      <c r="O96" s="51"/>
+      <c r="P96" s="52" t="s">
         <v>329</v>
       </c>
-      <c r="Q96" s="55" t="s">
-        <v>377</v>
+      <c r="Q96" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="34" hidden="1">
@@ -10003,25 +9983,25 @@
         <v>theta_4,</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L97" s="40">
         <f>AVERAGE(VLOOKUP("theta_2,",model_matched_parameters,3,FALSE),VLOOKUP("theta_3,",model_matched_parameters,3,FALSE))*(1/3)</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="O97" s="53" t="s">
+      <c r="O97" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="P97" s="54" t="s">
+      <c r="P97" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="Q97" s="55" t="s">
-        <v>377</v>
+      <c r="Q97" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="32" hidden="1">
       <c r="A98" s="11" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B98" s="9" t="str">
         <f t="shared" ref="B98:B103" si="5">CONCATENATE("IPT Adherence  under policy ", VLOOKUP(I98, P_SET,2), " for gender ", VLOOKUP(H98,G_SET,2))</f>
@@ -10044,20 +10024,20 @@
         <v>varpi_1(1)</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L98" s="34">
         <v>0.2</v>
       </c>
-      <c r="O98" s="53"/>
-      <c r="P98" s="54"/>
-      <c r="Q98" s="55" t="s">
-        <v>376</v>
+      <c r="O98" s="51"/>
+      <c r="P98" s="52"/>
+      <c r="Q98" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="32" hidden="1">
       <c r="A99" s="11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B99" s="9" t="str">
         <f t="shared" si="5"/>
@@ -10080,20 +10060,20 @@
         <v>varpi_1(2)</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L99" s="34">
         <v>0.2</v>
       </c>
-      <c r="O99" s="53"/>
-      <c r="P99" s="54"/>
-      <c r="Q99" s="55" t="s">
-        <v>376</v>
+      <c r="O99" s="51"/>
+      <c r="P99" s="52"/>
+      <c r="Q99" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="32" hidden="1">
       <c r="A100" s="11" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B100" s="9" t="str">
         <f t="shared" si="5"/>
@@ -10116,20 +10096,20 @@
         <v>varpi_1(3)</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="L100" s="34">
         <v>0.8</v>
       </c>
-      <c r="O100" s="53"/>
-      <c r="P100" s="54"/>
-      <c r="Q100" s="55" t="s">
-        <v>376</v>
+      <c r="O100" s="51"/>
+      <c r="P100" s="52"/>
+      <c r="Q100" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="32" hidden="1">
       <c r="A101" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B101" s="9" t="str">
         <f t="shared" si="5"/>
@@ -10152,21 +10132,21 @@
         <v>varpi_2(1)</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="L101" s="34">
         <v>0.2</v>
       </c>
       <c r="N101" s="10"/>
-      <c r="O101" s="55"/>
-      <c r="P101" s="54"/>
-      <c r="Q101" s="55" t="s">
-        <v>376</v>
+      <c r="O101" s="53"/>
+      <c r="P101" s="52"/>
+      <c r="Q101" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="32" hidden="1">
       <c r="A102" s="11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B102" s="9" t="str">
         <f t="shared" si="5"/>
@@ -10189,21 +10169,21 @@
         <v>varpi_2(2)</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L102" s="34">
         <v>0.2</v>
       </c>
       <c r="N102" s="10"/>
-      <c r="O102" s="55"/>
-      <c r="P102" s="54"/>
-      <c r="Q102" s="55" t="s">
-        <v>376</v>
+      <c r="O102" s="53"/>
+      <c r="P102" s="52"/>
+      <c r="Q102" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="32" hidden="1">
       <c r="A103" s="11" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B103" s="9" t="str">
         <f t="shared" si="5"/>
@@ -10226,21 +10206,21 @@
         <v>varpi_2(3)</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="L103" s="34">
         <v>0.8</v>
       </c>
       <c r="N103" s="10"/>
-      <c r="O103" s="55"/>
-      <c r="P103" s="54"/>
-      <c r="Q103" s="55" t="s">
-        <v>376</v>
+      <c r="O103" s="53"/>
+      <c r="P103" s="52"/>
+      <c r="Q103" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="80" hidden="1">
       <c r="A104" s="20" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B104" s="9" t="str">
         <f t="shared" ref="B104:B127" si="6">CONCATENATE("Rate of populations moving from HIV compartment ",VLOOKUP(ROUND(G104/10,2),HIV_SET,2)," to ", VLOOKUP(MOD(G104,10),HIV_SET,2), " for gender ", VLOOKUP(H104,G_SET,2), " per year under policy ", VLOOKUP(I104, P_SET,2))</f>
@@ -10267,24 +10247,24 @@
         <v>eta_12,1(1)</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="L104" s="11">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="O104" s="56" t="s">
-        <v>409</v>
-      </c>
-      <c r="P104" s="57" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q104" s="55" t="s">
-        <v>376</v>
+      <c r="O104" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="P104" s="55" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q104" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="80" hidden="1">
       <c r="A105" s="20" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B105" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10311,24 +10291,24 @@
         <v>eta_12,1(2)</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="L105" s="11">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="O105" s="56" t="s">
-        <v>409</v>
-      </c>
-      <c r="P105" s="57" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q105" s="55" t="s">
-        <v>376</v>
+      <c r="O105" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="P105" s="55" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q105" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="80" hidden="1">
       <c r="A106" s="20" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B106" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10355,24 +10335,24 @@
         <v>eta_12,1(3)</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="L106" s="11">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="O106" s="56" t="s">
-        <v>409</v>
-      </c>
-      <c r="P106" s="57" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q106" s="55" t="s">
-        <v>376</v>
+      <c r="O106" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="P106" s="55" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q106" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="51" hidden="1" customHeight="1">
       <c r="A107" s="20" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B107" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10399,24 +10379,25 @@
         <v>eta_23,1(1)</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L107" s="23">
+        <f>1/(0.25+1.71+1.05+4.71)</f>
         <v>0.1295336787564767</v>
       </c>
-      <c r="O107" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="P107" s="54" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q107" s="55" t="s">
-        <v>377</v>
+      <c r="O107" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="P107" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q107" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="51" hidden="1" customHeight="1">
       <c r="A108" s="20" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B108" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10443,24 +10424,25 @@
         <v>eta_23,1(2)</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L108" s="23">
+        <f t="shared" ref="L108:L109" si="7">1/(0.25+1.71+1.05+4.71)</f>
         <v>0.1295336787564767</v>
       </c>
-      <c r="O108" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="P108" s="54" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q108" s="55" t="s">
-        <v>377</v>
+      <c r="O108" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="P108" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q108" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="51" hidden="1" customHeight="1">
       <c r="A109" s="20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B109" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10487,24 +10469,25 @@
         <v>eta_23,1(3)</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L109" s="23">
+        <f t="shared" si="7"/>
         <v>0.1295336787564767</v>
       </c>
-      <c r="O109" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="P109" s="54" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q109" s="55" t="s">
-        <v>377</v>
+      <c r="O109" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="P109" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q109" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="48" hidden="1" customHeight="1">
       <c r="A110" s="20" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B110" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10531,20 +10514,20 @@
         <v>eta_24,1(1)</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="L110" s="23">
         <v>0.4</v>
       </c>
-      <c r="O110" s="58"/>
-      <c r="P110" s="54"/>
-      <c r="Q110" s="55" t="s">
-        <v>376</v>
+      <c r="O110" s="56"/>
+      <c r="P110" s="52"/>
+      <c r="Q110" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="48" hidden="1">
       <c r="A111" s="20" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B111" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10571,25 +10554,25 @@
         <v>eta_24,1(2)</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="L111" s="23">
         <f>VLOOKUP("eta_24,1(1)",model_matched_parameters,3, FALSE)*VLOOKUP("eta_2,4(2)",indirect_model_parameters,2,FALSE)</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="O111" s="59" t="s">
-        <v>413</v>
-      </c>
-      <c r="P111" s="54" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q111" s="55" t="s">
-        <v>376</v>
+      <c r="O111" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="P111" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q111" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="51" hidden="1">
       <c r="A112" s="20" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B112" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10616,25 +10599,25 @@
         <v>eta_24,1(3)</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L112" s="23">
         <f>VLOOKUP("eta_24,1(1)",model_matched_parameters,3, FALSE)*VLOOKUP("eta_2,4(2)",indirect_model_parameters,2,FALSE)</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="O112" s="53" t="s">
-        <v>651</v>
-      </c>
-      <c r="P112" s="54" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q112" s="55" t="s">
-        <v>376</v>
+      <c r="O112" s="51" t="s">
+        <v>640</v>
+      </c>
+      <c r="P112" s="52" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q112" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="48" hidden="1">
       <c r="A113" s="20" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B113" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10661,20 +10644,20 @@
         <v>eta_34,1(1)</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="L113" s="49">
+        <v>536</v>
+      </c>
+      <c r="L113" s="47">
         <v>0.4</v>
       </c>
-      <c r="O113" s="53"/>
-      <c r="P113" s="54"/>
-      <c r="Q113" s="55" t="s">
-        <v>376</v>
+      <c r="O113" s="51"/>
+      <c r="P113" s="52"/>
+      <c r="Q113" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="48" hidden="1">
       <c r="A114" s="20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B114" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10701,23 +10684,23 @@
         <v>eta_34,1(2)</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L114" s="23">
         <f>L113*indirect_model_parameters!$G$6</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="O114" s="53" t="s">
-        <v>426</v>
-      </c>
-      <c r="P114" s="54"/>
-      <c r="Q114" s="55" t="s">
-        <v>376</v>
+      <c r="O114" s="51" t="s">
+        <v>423</v>
+      </c>
+      <c r="P114" s="52"/>
+      <c r="Q114" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="51" hidden="1">
       <c r="A115" s="20" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B115" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10744,25 +10727,25 @@
         <v>eta_34,1(3)</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="L115" s="23">
         <f>L113*indirect_model_parameters!$G$7</f>
         <v>0.48</v>
       </c>
-      <c r="O115" s="53" t="s">
-        <v>426</v>
-      </c>
-      <c r="P115" s="54" t="s">
+      <c r="O115" s="51" t="s">
+        <v>423</v>
+      </c>
+      <c r="P115" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="Q115" s="55" t="s">
-        <v>376</v>
+      <c r="Q115" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="80" hidden="1">
       <c r="A116" s="20" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B116" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10789,24 +10772,24 @@
         <v>eta_12,2(1)</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="L116" s="11">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="O116" s="56" t="s">
-        <v>409</v>
-      </c>
-      <c r="P116" s="57" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q116" s="55" t="s">
-        <v>376</v>
+      <c r="O116" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="P116" s="55" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q116" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="80" hidden="1">
       <c r="A117" s="20" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B117" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10833,24 +10816,24 @@
         <v>eta_12,2(2)</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="L117" s="11">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="O117" s="56" t="s">
-        <v>409</v>
-      </c>
-      <c r="P117" s="57" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q117" s="55" t="s">
-        <v>376</v>
+      <c r="O117" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="P117" s="55" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q117" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="80" hidden="1">
       <c r="A118" s="20" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B118" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10877,24 +10860,24 @@
         <v>eta_12,2(3)</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="L118" s="11">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="O118" s="56" t="s">
-        <v>409</v>
-      </c>
-      <c r="P118" s="57" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q118" s="55" t="s">
-        <v>376</v>
+      <c r="O118" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="P118" s="55" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q118" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="48" hidden="1" customHeight="1">
       <c r="A119" s="20" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B119" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10921,24 +10904,24 @@
         <v>eta_23,2(1)</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="L119" s="11">
         <v>9.7560975609756101E-2</v>
       </c>
-      <c r="O119" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="P119" s="54" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q119" s="55" t="s">
-        <v>377</v>
+      <c r="O119" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="P119" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q119" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="51" hidden="1" customHeight="1">
       <c r="A120" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B120" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10965,24 +10948,24 @@
         <v>eta_23,2(2)</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="L120" s="11">
         <v>9.7560975609756101E-2</v>
       </c>
-      <c r="O120" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="P120" s="54" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q120" s="55" t="s">
-        <v>377</v>
+      <c r="O120" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="P120" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q120" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="51" hidden="1" customHeight="1">
       <c r="A121" s="20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B121" s="9" t="str">
         <f t="shared" si="6"/>
@@ -11009,24 +10992,24 @@
         <v>eta_23,2(3)</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L121" s="11">
         <v>9.7560975609756101E-2</v>
       </c>
-      <c r="O121" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="P121" s="54" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q121" s="55" t="s">
-        <v>377</v>
+      <c r="O121" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="P121" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q121" s="53" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="51" hidden="1">
       <c r="A122" s="20" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B122" s="9" t="str">
         <f t="shared" si="6"/>
@@ -11053,20 +11036,20 @@
         <v>eta_24,2(1)</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L122" s="23">
         <v>0.4</v>
       </c>
-      <c r="O122" s="53"/>
-      <c r="P122" s="54"/>
-      <c r="Q122" s="55" t="s">
-        <v>376</v>
+      <c r="O122" s="51"/>
+      <c r="P122" s="52"/>
+      <c r="Q122" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="48" hidden="1">
       <c r="A123" s="20" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B123" s="9" t="str">
         <f t="shared" si="6"/>
@@ -11093,21 +11076,21 @@
         <v>eta_24,2(2)</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L123" s="23">
         <f>L122*indirect_model_parameters!$G$6</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="O123" s="53"/>
-      <c r="P123" s="54"/>
-      <c r="Q123" s="55" t="s">
-        <v>376</v>
+      <c r="O123" s="51"/>
+      <c r="P123" s="52"/>
+      <c r="Q123" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="124" spans="1:17" ht="51" hidden="1">
       <c r="A124" s="20" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B124" s="9" t="str">
         <f t="shared" si="6"/>
@@ -11134,23 +11117,23 @@
         <v>eta_24,2(3)</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L124" s="23">
         <f>L122*indirect_model_parameters!$G$7</f>
         <v>0.48</v>
       </c>
-      <c r="O124" s="53"/>
-      <c r="P124" s="54" t="s">
+      <c r="O124" s="51"/>
+      <c r="P124" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="Q124" s="55" t="s">
-        <v>376</v>
+      <c r="Q124" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="51" hidden="1">
       <c r="A125" s="20" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B125" s="9" t="str">
         <f t="shared" si="6"/>
@@ -11177,20 +11160,20 @@
         <v>eta_34,2(1)</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="L125" s="23">
         <v>0.4</v>
       </c>
-      <c r="O125" s="53"/>
-      <c r="P125" s="54"/>
-      <c r="Q125" s="55" t="s">
-        <v>376</v>
+      <c r="O125" s="51"/>
+      <c r="P125" s="52"/>
+      <c r="Q125" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="126" spans="1:17" ht="48" hidden="1">
       <c r="A126" s="20" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B126" s="9" t="str">
         <f t="shared" si="6"/>
@@ -11217,21 +11200,21 @@
         <v>eta_34,2(2)</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L126" s="23">
         <f>L125*indirect_model_parameters!$G$6</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="O126" s="53"/>
-      <c r="P126" s="54"/>
-      <c r="Q126" s="55" t="s">
-        <v>376</v>
+      <c r="O126" s="51"/>
+      <c r="P126" s="52"/>
+      <c r="Q126" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="51" hidden="1">
       <c r="A127" s="20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B127" s="9" t="str">
         <f t="shared" si="6"/>
@@ -11258,30 +11241,30 @@
         <v>eta_34,2(3)</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L127" s="23">
         <f>L125*indirect_model_parameters!$G$7</f>
         <v>0.48</v>
       </c>
-      <c r="O127" s="53"/>
-      <c r="P127" s="54" t="s">
+      <c r="O127" s="51"/>
+      <c r="P127" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="Q127" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" ht="34">
+      <c r="Q127" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" ht="34" hidden="1">
       <c r="A128" s="20" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B128" s="9" t="str">
-        <f t="shared" ref="B128:B159" si="7">CONCATENATE("Rate of entry due to aging into HIV compartment ", VLOOKUP(G128, HIV_SET, 2), " and gender compartment ", VLOOKUP(H128, G_SET, 2), ", per year")</f>
+        <f t="shared" ref="B128:B159" si="8">CONCATENATE("Rate of entry due to aging into HIV compartment ", VLOOKUP(G128, HIV_SET, 2), " and gender compartment ", VLOOKUP(H128, G_SET, 2), ", per year")</f>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>144</v>
@@ -11303,30 +11286,30 @@
         <v>alpha^in_1,1,1,1</v>
       </c>
       <c r="K128" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="L128" s="52">
-        <f>VLOOKUP(J128,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>3.443411627560873E-3</v>
-      </c>
-      <c r="O128" s="53"/>
-      <c r="P128" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q128" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" ht="34">
+        <v>551</v>
+      </c>
+      <c r="L128" s="50">
+        <f>VLOOKUP(J128,aging_in!$G$5:$H$37,2)</f>
+        <v>0.15495352324023928</v>
+      </c>
+      <c r="O128" s="51"/>
+      <c r="P128" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q128" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" ht="34" hidden="1">
       <c r="A129" s="20" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B129" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>144</v>
@@ -11348,30 +11331,30 @@
         <v>alpha^in_1,1,1,2</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="L129" s="52">
-        <f>VLOOKUP(J129,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>3.443411627560873E-3</v>
-      </c>
-      <c r="O129" s="53"/>
-      <c r="P129" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q129" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" ht="34">
+        <v>552</v>
+      </c>
+      <c r="L129" s="50">
+        <f>VLOOKUP(J129,aging_in!$G$5:$H$37,2)</f>
+        <v>0.15495352324023928</v>
+      </c>
+      <c r="O129" s="51"/>
+      <c r="P129" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q129" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="34" hidden="1">
       <c r="A130" s="20" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B130" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>144</v>
@@ -11389,34 +11372,34 @@
         <v>1</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f t="shared" ref="J130:J193" si="8">CONCATENATE(C130, "_", E130, IF(E130&lt;&gt;"",",",""), F130, IF(F130&lt;&gt;"",",",""),  G130, IF(G130&lt;&gt;"",",",""),  H130, IF(I130&lt;&gt;"","(",""), I130, IF(I130&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J130:K159" si="9">CONCATENATE(C130, "_", E130, IF(E130&lt;&gt;"",",",""), F130, IF(F130&lt;&gt;"",",",""),  G130, IF(G130&lt;&gt;"",",",""),  H130, IF(I130&lt;&gt;"","(",""), I130, IF(I130&lt;&gt;"",")",""))</f>
         <v>alpha^in_1,1,2,1</v>
       </c>
       <c r="K130" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="L130" s="52">
-        <f>VLOOKUP(J130,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>8.1166131221077739E-4</v>
-      </c>
-      <c r="O130" s="53"/>
-      <c r="P130" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q130" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" ht="34">
+        <v>553</v>
+      </c>
+      <c r="L130" s="50">
+        <f>VLOOKUP(J130,aging_in!$G$5:$H$37,2)</f>
+        <v>3.6524759049484982E-2</v>
+      </c>
+      <c r="O130" s="51"/>
+      <c r="P130" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q130" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="34" hidden="1">
       <c r="A131" s="20" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B131" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>144</v>
@@ -11434,34 +11417,34 @@
         <v>2</v>
       </c>
       <c r="J131" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_1,1,2,2</v>
+      </c>
+      <c r="K131" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="L131" s="50">
+        <f>VLOOKUP(J131,aging_in!$G$5:$H$37,2)</f>
+        <v>3.6524759049484982E-2</v>
+      </c>
+      <c r="O131" s="51"/>
+      <c r="P131" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q131" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="34" hidden="1">
+      <c r="A132" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B132" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_1,1,2,2</v>
-      </c>
-      <c r="K131" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="L131" s="52">
-        <f>VLOOKUP(J131,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>8.1166131221077739E-4</v>
-      </c>
-      <c r="O131" s="53"/>
-      <c r="P131" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q131" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" ht="34">
-      <c r="A132" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="B132" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>144</v>
@@ -11479,34 +11462,34 @@
         <v>1</v>
       </c>
       <c r="J132" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_3,1,1,1</v>
+      </c>
+      <c r="K132" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="L132" s="50">
+        <f>VLOOKUP(J132,aging_in!$G$5:$H$37,2)</f>
+        <v>0.15080665705128402</v>
+      </c>
+      <c r="O132" s="51"/>
+      <c r="P132" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q132" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="34" hidden="1">
+      <c r="A133" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="B133" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_3,1,1,1</v>
-      </c>
-      <c r="K132" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="L132" s="52">
-        <f>VLOOKUP(J132,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>3.3512590455840895E-3</v>
-      </c>
-      <c r="O132" s="53"/>
-      <c r="P132" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q132" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" ht="34">
-      <c r="A133" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="B133" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>144</v>
@@ -11524,34 +11507,34 @@
         <v>2</v>
       </c>
       <c r="J133" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_3,1,1,2</v>
+      </c>
+      <c r="K133" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="L133" s="50">
+        <f>VLOOKUP(J133,aging_in!$G$5:$H$37,2)</f>
+        <v>0.15080665705128402</v>
+      </c>
+      <c r="O133" s="51"/>
+      <c r="P133" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q133" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" ht="34" hidden="1">
+      <c r="A134" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="B134" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_3,1,1,2</v>
-      </c>
-      <c r="K133" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="L133" s="52">
-        <f>VLOOKUP(J133,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>3.3512590455840895E-3</v>
-      </c>
-      <c r="O133" s="53"/>
-      <c r="P133" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q133" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" ht="34">
-      <c r="A134" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="B134" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>144</v>
@@ -11569,34 +11552,34 @@
         <v>1</v>
       </c>
       <c r="J134" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_3,1,2,1</v>
+      </c>
+      <c r="K134" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="L134" s="50">
+        <f>VLOOKUP(J134,aging_in!$G$5:$H$37,2)</f>
+        <v>2.5202083744144636E-4</v>
+      </c>
+      <c r="O134" s="51"/>
+      <c r="P134" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q134" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" ht="34" hidden="1">
+      <c r="A135" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="B135" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_3,1,2,1</v>
-      </c>
-      <c r="K134" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="L134" s="52">
-        <f>VLOOKUP(J134,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>5.600463054254364E-6</v>
-      </c>
-      <c r="O134" s="53"/>
-      <c r="P134" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q134" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" ht="34">
-      <c r="A135" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="B135" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>144</v>
@@ -11614,34 +11597,34 @@
         <v>2</v>
       </c>
       <c r="J135" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_3,1,2,2</v>
+      </c>
+      <c r="K135" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="L135" s="50">
+        <f>VLOOKUP(J135,aging_in!$G$5:$H$37,2)</f>
+        <v>2.5202083744144636E-4</v>
+      </c>
+      <c r="O135" s="51"/>
+      <c r="P135" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q135" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" ht="34" hidden="1">
+      <c r="A136" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B136" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_3,1,2,2</v>
-      </c>
-      <c r="K135" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="L135" s="52">
-        <f>VLOOKUP(J135,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>5.600463054254364E-6</v>
-      </c>
-      <c r="O135" s="53"/>
-      <c r="P135" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q135" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" ht="34">
-      <c r="A136" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="B136" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>144</v>
@@ -11659,34 +11642,34 @@
         <v>1</v>
       </c>
       <c r="J136" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_4,1,1,1</v>
+      </c>
+      <c r="K136" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="L136" s="50">
+        <f>VLOOKUP(J136,aging_in!$G$5:$H$37,2)</f>
+        <v>0.15080665705128402</v>
+      </c>
+      <c r="O136" s="51"/>
+      <c r="P136" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q136" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" ht="34" hidden="1">
+      <c r="A137" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="B137" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_4,1,1,1</v>
-      </c>
-      <c r="K136" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="L136" s="52">
-        <f>VLOOKUP(J136,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>3.3512590455840895E-3</v>
-      </c>
-      <c r="O136" s="53"/>
-      <c r="P136" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q136" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" ht="34">
-      <c r="A137" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="B137" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>144</v>
@@ -11704,34 +11687,34 @@
         <v>2</v>
       </c>
       <c r="J137" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_4,1,1,2</v>
+      </c>
+      <c r="K137" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="L137" s="50">
+        <f>VLOOKUP(J137,aging_in!$G$5:$H$37,2)</f>
+        <v>0.15080665705128402</v>
+      </c>
+      <c r="O137" s="51"/>
+      <c r="P137" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q137" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" ht="34" hidden="1">
+      <c r="A138" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="B138" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_4,1,1,2</v>
-      </c>
-      <c r="K137" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="L137" s="52">
-        <f>VLOOKUP(J137,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>3.3512590455840895E-3</v>
-      </c>
-      <c r="O137" s="53"/>
-      <c r="P137" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q137" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" ht="34">
-      <c r="A138" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="B138" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>144</v>
@@ -11749,34 +11732,34 @@
         <v>1</v>
       </c>
       <c r="J138" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_4,1,2,1</v>
+      </c>
+      <c r="K138" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="L138" s="50">
+        <f>VLOOKUP(J138,aging_in!$G$5:$H$37,2)</f>
+        <v>2.5202083744144636E-4</v>
+      </c>
+      <c r="O138" s="51"/>
+      <c r="P138" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q138" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" ht="34" hidden="1">
+      <c r="A139" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="B139" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_4,1,2,1</v>
-      </c>
-      <c r="K138" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="L138" s="52">
-        <f>VLOOKUP(J138,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>5.600463054254364E-6</v>
-      </c>
-      <c r="O138" s="53"/>
-      <c r="P138" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q138" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" ht="34">
-      <c r="A139" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="B139" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>144</v>
@@ -11794,40 +11777,40 @@
         <v>2</v>
       </c>
       <c r="J139" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_4,1,2,2</v>
+      </c>
+      <c r="K139" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="L139" s="50">
+        <f>VLOOKUP(J139,aging_in!$G$5:$H$37,2)</f>
+        <v>2.5202083744144636E-4</v>
+      </c>
+      <c r="O139" s="51"/>
+      <c r="P139" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q139" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" ht="34" hidden="1">
+      <c r="A140" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B140" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_4,1,2,2</v>
-      </c>
-      <c r="K139" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="L139" s="52">
-        <f>VLOOKUP(J139,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>5.600463054254364E-6</v>
-      </c>
-      <c r="O139" s="53"/>
-      <c r="P139" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q139" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" ht="34">
-      <c r="A140" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="B140" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>144</v>
       </c>
       <c r="E140" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F140" s="9">
         <v>1</v>
@@ -11839,40 +11822,40 @@
         <v>1</v>
       </c>
       <c r="J140" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_6,1,1,1</v>
+      </c>
+      <c r="K140" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="L140" s="50">
+        <f>VLOOKUP(J140,aging_in!$G$5:$H$37,2)</f>
+        <v>3.0776868785976331E-3</v>
+      </c>
+      <c r="O140" s="51"/>
+      <c r="P140" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q140" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" ht="34" hidden="1">
+      <c r="A141" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="B141" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_5,1,1,1</v>
-      </c>
-      <c r="K140" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="L140" s="52">
-        <f>VLOOKUP(J140,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>5.600463054254364E-6</v>
-      </c>
-      <c r="O140" s="53"/>
-      <c r="P140" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q140" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" ht="34">
-      <c r="A141" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="B141" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>144</v>
       </c>
       <c r="E141" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F141" s="9">
         <v>1</v>
@@ -11884,40 +11867,40 @@
         <v>2</v>
       </c>
       <c r="J141" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_6,1,1,2</v>
+      </c>
+      <c r="K141" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="L141" s="50">
+        <f>VLOOKUP(J141,aging_in!$G$5:$H$37,2)</f>
+        <v>3.0776868785976331E-3</v>
+      </c>
+      <c r="O141" s="51"/>
+      <c r="P141" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q141" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" ht="34" hidden="1">
+      <c r="A142" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="B142" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_5,1,1,2</v>
-      </c>
-      <c r="K141" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="L141" s="52">
-        <f>VLOOKUP(J141,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>5.600463054254364E-6</v>
-      </c>
-      <c r="O141" s="53"/>
-      <c r="P141" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q141" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" ht="34">
-      <c r="A142" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="B142" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>144</v>
       </c>
       <c r="E142" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F142" s="9">
         <v>1</v>
@@ -11929,40 +11912,40 @@
         <v>1</v>
       </c>
       <c r="J142" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_6,1,2,1</v>
+      </c>
+      <c r="K142" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="L142" s="50">
+        <f>VLOOKUP(J142,aging_in!$G$5:$H$37,2)</f>
+        <v>3.0242500492973565E-4</v>
+      </c>
+      <c r="O142" s="51"/>
+      <c r="P142" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q142" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" ht="34" hidden="1">
+      <c r="A143" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="B143" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_5,1,2,1</v>
-      </c>
-      <c r="K142" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="L142" s="52">
-        <f>VLOOKUP(J142,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>5.600463054254364E-6</v>
-      </c>
-      <c r="O142" s="53"/>
-      <c r="P142" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q142" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" ht="34">
-      <c r="A143" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="B143" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>144</v>
       </c>
       <c r="E143" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F143" s="9">
         <v>1</v>
@@ -11974,34 +11957,34 @@
         <v>2</v>
       </c>
       <c r="J143" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_6,1,2,2</v>
+      </c>
+      <c r="K143" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="L143" s="50">
+        <f>VLOOKUP(J143,aging_in!$G$5:$H$37,2)</f>
+        <v>4.0323333990631427E-4</v>
+      </c>
+      <c r="O143" s="51"/>
+      <c r="P143" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q143" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" ht="34" hidden="1">
+      <c r="A144" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B144" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_5,1,2,2</v>
-      </c>
-      <c r="K143" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="L143" s="52">
-        <f>VLOOKUP(J143,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>5.600463054254364E-6</v>
-      </c>
-      <c r="O143" s="53"/>
-      <c r="P143" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q143" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" ht="34">
-      <c r="A144" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="B144" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>144</v>
@@ -12019,34 +12002,34 @@
         <v>1</v>
       </c>
       <c r="J144" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_1,2,1,1</v>
+      </c>
+      <c r="K144" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="L144" s="50">
+        <f>VLOOKUP(J144,aging_in!$G$5:$H$37,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O144" s="51"/>
+      <c r="P144" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q144" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" ht="34" hidden="1">
+      <c r="A145" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="B145" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_1,2,1,1</v>
-      </c>
-      <c r="K144" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="L144" s="52">
-        <f>VLOOKUP(J144,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>0</v>
-      </c>
-      <c r="O144" s="53"/>
-      <c r="P144" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q144" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" ht="34">
-      <c r="A145" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="B145" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>144</v>
@@ -12064,34 +12047,34 @@
         <v>2</v>
       </c>
       <c r="J145" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_1,2,1,2</v>
+      </c>
+      <c r="K145" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="L145" s="50">
+        <f>VLOOKUP(J145,aging_in!$G$5:$H$37,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O145" s="51"/>
+      <c r="P145" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q145" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" ht="34" hidden="1">
+      <c r="A146" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="B146" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_1,2,1,2</v>
-      </c>
-      <c r="K145" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="L145" s="52">
-        <f>VLOOKUP(J145,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>0</v>
-      </c>
-      <c r="O145" s="53"/>
-      <c r="P145" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q145" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" ht="34">
-      <c r="A146" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="B146" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>144</v>
@@ -12109,34 +12092,34 @@
         <v>1</v>
       </c>
       <c r="J146" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_1,2,2,1</v>
+      </c>
+      <c r="K146" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="L146" s="50">
+        <f>VLOOKUP(J146,aging_in!$G$5:$H$37,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O146" s="51"/>
+      <c r="P146" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q146" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" ht="34" hidden="1">
+      <c r="A147" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="B147" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_1,2,2,1</v>
-      </c>
-      <c r="K146" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="L146" s="52">
-        <f>VLOOKUP(J146,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>0</v>
-      </c>
-      <c r="O146" s="53"/>
-      <c r="P146" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q146" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" ht="34">
-      <c r="A147" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="B147" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>144</v>
@@ -12154,34 +12137,34 @@
         <v>2</v>
       </c>
       <c r="J147" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_1,2,2,2</v>
+      </c>
+      <c r="K147" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="L147" s="50">
+        <f>VLOOKUP(J147,aging_in!$G$5:$H$37,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O147" s="51"/>
+      <c r="P147" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q147" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" ht="34" hidden="1">
+      <c r="A148" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B148" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_1,2,2,2</v>
-      </c>
-      <c r="K147" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="L147" s="52">
-        <f>VLOOKUP(J147,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>0</v>
-      </c>
-      <c r="O147" s="53"/>
-      <c r="P147" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q147" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" ht="34">
-      <c r="A148" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="B148" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>144</v>
@@ -12199,34 +12182,34 @@
         <v>1</v>
       </c>
       <c r="J148" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_3,2,1,1</v>
+      </c>
+      <c r="K148" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="L148" s="50">
+        <f>VLOOKUP(J148,aging_in!$G$5:$H$37,2)</f>
+        <v>1.0477957241504983E-3</v>
+      </c>
+      <c r="O148" s="51"/>
+      <c r="P148" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q148" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" ht="34" hidden="1">
+      <c r="A149" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="B149" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_3,2,1,1</v>
-      </c>
-      <c r="K148" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="L148" s="52">
-        <f>VLOOKUP(J148,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>2.3284349425566629E-5</v>
-      </c>
-      <c r="O148" s="53"/>
-      <c r="P148" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q148" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" ht="34">
-      <c r="A149" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="B149" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>144</v>
@@ -12244,34 +12227,34 @@
         <v>2</v>
       </c>
       <c r="J149" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_3,2,1,2</v>
+      </c>
+      <c r="K149" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="L149" s="50">
+        <f>VLOOKUP(J149,aging_in!$G$5:$H$37,2)</f>
+        <v>1.0477957241504983E-3</v>
+      </c>
+      <c r="O149" s="51"/>
+      <c r="P149" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q149" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" ht="34" hidden="1">
+      <c r="A150" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="B150" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_3,2,1,2</v>
-      </c>
-      <c r="K149" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="L149" s="52">
-        <f>VLOOKUP(J149,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>2.3284349425566629E-5</v>
-      </c>
-      <c r="O149" s="53"/>
-      <c r="P149" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q149" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" ht="34">
-      <c r="A150" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="B150" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>144</v>
@@ -12289,34 +12272,34 @@
         <v>1</v>
       </c>
       <c r="J150" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_3,2,2,1</v>
+      </c>
+      <c r="K150" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="L150" s="50">
+        <f>VLOOKUP(J150,aging_in!$G$5:$H$37,2)</f>
+        <v>2.5202083744144636E-4</v>
+      </c>
+      <c r="O150" s="51"/>
+      <c r="P150" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q150" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" ht="34" hidden="1">
+      <c r="A151" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="B151" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_3,2,2,1</v>
-      </c>
-      <c r="K150" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="L150" s="52">
-        <f>VLOOKUP(J150,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>5.600463054254364E-6</v>
-      </c>
-      <c r="O150" s="53"/>
-      <c r="P150" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q150" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" ht="34">
-      <c r="A151" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="B151" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>144</v>
@@ -12334,34 +12317,34 @@
         <v>2</v>
       </c>
       <c r="J151" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_3,2,2,2</v>
+      </c>
+      <c r="K151" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="L151" s="50">
+        <f>VLOOKUP(J151,aging_in!$G$5:$H$37,2)</f>
+        <v>2.5202083744144636E-4</v>
+      </c>
+      <c r="O151" s="51"/>
+      <c r="P151" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q151" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" ht="34" hidden="1">
+      <c r="A152" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B152" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_3,2,2,2</v>
-      </c>
-      <c r="K151" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="L151" s="52">
-        <f>VLOOKUP(J151,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>5.600463054254364E-6</v>
-      </c>
-      <c r="O151" s="53"/>
-      <c r="P151" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q151" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17" ht="34">
-      <c r="A152" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="B152" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>144</v>
@@ -12379,34 +12362,34 @@
         <v>1</v>
       </c>
       <c r="J152" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_4,2,1,1</v>
+      </c>
+      <c r="K152" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="L152" s="50">
+        <f>VLOOKUP(J152,aging_in!$G$5:$H$37,2)</f>
+        <v>1.0477957241504983E-3</v>
+      </c>
+      <c r="O152" s="51"/>
+      <c r="P152" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q152" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" ht="34" hidden="1">
+      <c r="A153" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="B153" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_4,2,1,1</v>
-      </c>
-      <c r="K152" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="L152" s="52">
-        <f>VLOOKUP(J152,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>2.3284349425566629E-5</v>
-      </c>
-      <c r="O152" s="53"/>
-      <c r="P152" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q152" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" ht="34">
-      <c r="A153" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="B153" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>144</v>
@@ -12424,34 +12407,34 @@
         <v>2</v>
       </c>
       <c r="J153" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_4,2,1,2</v>
+      </c>
+      <c r="K153" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="L153" s="50">
+        <f>VLOOKUP(J153,aging_in!$G$5:$H$37,2)</f>
+        <v>1.0477957241504983E-3</v>
+      </c>
+      <c r="O153" s="51"/>
+      <c r="P153" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q153" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" ht="34" hidden="1">
+      <c r="A154" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="B154" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_4,2,1,2</v>
-      </c>
-      <c r="K153" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="L153" s="52">
-        <f>VLOOKUP(J153,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>2.3284349425566629E-5</v>
-      </c>
-      <c r="O153" s="53"/>
-      <c r="P153" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q153" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" ht="34">
-      <c r="A154" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="B154" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D154" s="8" t="s">
         <v>144</v>
@@ -12469,34 +12452,34 @@
         <v>1</v>
       </c>
       <c r="J154" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_4,2,2,1</v>
+      </c>
+      <c r="K154" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="L154" s="50">
+        <f>VLOOKUP(J154,aging_in!$G$5:$H$37,2)</f>
+        <v>2.5202083744144636E-4</v>
+      </c>
+      <c r="O154" s="51"/>
+      <c r="P154" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q154" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" ht="34" hidden="1">
+      <c r="A155" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="B155" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_4,2,2,1</v>
-      </c>
-      <c r="K154" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="L154" s="52">
-        <f>VLOOKUP(J154,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>5.600463054254364E-6</v>
-      </c>
-      <c r="O154" s="53"/>
-      <c r="P154" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q154" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" ht="34">
-      <c r="A155" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="B155" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>144</v>
@@ -12514,40 +12497,40 @@
         <v>2</v>
       </c>
       <c r="J155" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_4,2,2,2</v>
+      </c>
+      <c r="K155" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="L155" s="50">
+        <f>VLOOKUP(J155,aging_in!$G$5:$H$37,2)</f>
+        <v>2.5202083744144636E-4</v>
+      </c>
+      <c r="O155" s="51"/>
+      <c r="P155" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q155" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" ht="34" hidden="1">
+      <c r="A156" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B156" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_4,2,2,2</v>
-      </c>
-      <c r="K155" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="L155" s="52">
-        <f>VLOOKUP(J155,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>5.600463054254364E-6</v>
-      </c>
-      <c r="O155" s="53"/>
-      <c r="P155" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q155" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" ht="34">
-      <c r="A156" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="B156" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D156" s="8" t="s">
         <v>144</v>
       </c>
       <c r="E156" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F156" s="9">
         <v>2</v>
@@ -12559,40 +12542,40 @@
         <v>1</v>
       </c>
       <c r="J156" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_6,2,1,1</v>
+      </c>
+      <c r="K156" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="L156" s="50">
+        <f>VLOOKUP(J156,aging_in!$G$5:$H$37,2)</f>
+        <v>2.1383586207153025E-5</v>
+      </c>
+      <c r="O156" s="51"/>
+      <c r="P156" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q156" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" ht="34" hidden="1">
+      <c r="A157" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="B157" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_5,2,1,1</v>
-      </c>
-      <c r="K156" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="L156" s="52">
-        <f>VLOOKUP(J156,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>5.600463054254364E-6</v>
-      </c>
-      <c r="O156" s="53"/>
-      <c r="P156" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q156" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" ht="34">
-      <c r="A157" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="B157" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>144</v>
       </c>
       <c r="E157" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F157" s="9">
         <v>2</v>
@@ -12604,40 +12587,40 @@
         <v>2</v>
       </c>
       <c r="J157" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_6,2,1,2</v>
+      </c>
+      <c r="K157" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="L157" s="50">
+        <f>VLOOKUP(J157,aging_in!$G$5:$H$37,2)</f>
+        <v>2.1383586207153025E-5</v>
+      </c>
+      <c r="O157" s="51"/>
+      <c r="P157" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q157" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" ht="34" hidden="1">
+      <c r="A158" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="B158" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_5,2,1,2</v>
-      </c>
-      <c r="K157" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="L157" s="52">
-        <f>VLOOKUP(J157,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>5.600463054254364E-6</v>
-      </c>
-      <c r="O157" s="53"/>
-      <c r="P157" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q157" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" ht="34">
-      <c r="A158" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="B158" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>144</v>
       </c>
       <c r="E158" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F158" s="9">
         <v>2</v>
@@ -12649,40 +12632,40 @@
         <v>1</v>
       </c>
       <c r="J158" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>alpha^in_6,2,2,1</v>
+      </c>
+      <c r="K158" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="L158" s="50">
+        <f>VLOOKUP(J158,aging_in!$G$5:$H$37,2)</f>
+        <v>3.0242500492973565E-4</v>
+      </c>
+      <c r="O158" s="51"/>
+      <c r="P158" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q158" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" ht="34" hidden="1">
+      <c r="A159" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="B159" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>alpha^in_5,2,2,1</v>
-      </c>
-      <c r="K158" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="L158" s="52">
-        <f>VLOOKUP(J158,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>5.600463054254364E-6</v>
-      </c>
-      <c r="O158" s="53"/>
-      <c r="P158" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q158" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" ht="34">
-      <c r="A159" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="B159" s="9" t="str">
-        <f t="shared" si="7"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>144</v>
       </c>
       <c r="E159" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F159" s="9">
         <v>2</v>
@@ -12694,22 +12677,22 @@
         <v>2</v>
       </c>
       <c r="J159" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>alpha^in_5,2,2,2</v>
+        <f t="shared" si="9"/>
+        <v>alpha^in_6,2,2,2</v>
       </c>
       <c r="K159" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="L159" s="52">
-        <f>VLOOKUP(J159,aging_in!$G$5:$H$37,2)*indirect_model_parameters!$G$48</f>
-        <v>5.600463054254364E-6</v>
-      </c>
-      <c r="O159" s="53"/>
-      <c r="P159" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q159" s="55" t="s">
-        <v>376</v>
+        <v>652</v>
+      </c>
+      <c r="L159" s="50">
+        <f>VLOOKUP(J159,aging_in!$G$5:$H$37,2)</f>
+        <v>4.0323333990631427E-4</v>
+      </c>
+      <c r="O159" s="51"/>
+      <c r="P159" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q159" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="160" spans="1:17" ht="48" hidden="1">
@@ -12717,7 +12700,7 @@
         <v>142</v>
       </c>
       <c r="B160" s="9" t="str">
-        <f t="shared" ref="B160:B191" si="9">CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E160,TB_SET,2)," and HIV compartment ",VLOOKUP(G160,HIV_SET,2)," and gender compartment ",VLOOKUP(H160,G_SET,2)," per year")</f>
+        <f t="shared" ref="B160:B191" si="10">CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E160,TB_SET,2)," and HIV compartment ",VLOOKUP(G160,HIV_SET,2)," and gender compartment ",VLOOKUP(H160,G_SET,2)," per year")</f>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C160" s="8" t="s">
@@ -12736,21 +12719,21 @@
         <v>1</v>
       </c>
       <c r="J160" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J130:J193" si="11">CONCATENATE(C160, "_", E160, IF(E160&lt;&gt;"",",",""), F160, IF(F160&lt;&gt;"",",",""),  G160, IF(G160&lt;&gt;"",",",""),  H160, IF(I160&lt;&gt;"","(",""), I160, IF(I160&lt;&gt;"",")",""))</f>
         <v>mu_1,1,1</v>
       </c>
       <c r="K160" s="9" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="L160" s="11">
         <v>3.3E-3</v>
       </c>
-      <c r="O160" s="53"/>
-      <c r="P160" s="54" t="s">
+      <c r="O160" s="51"/>
+      <c r="P160" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="Q160" s="55" t="s">
-        <v>376</v>
+      <c r="Q160" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="161" spans="1:17" ht="48" hidden="1">
@@ -12758,7 +12741,7 @@
         <v>145</v>
       </c>
       <c r="B161" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C161" s="8" t="s">
@@ -12777,22 +12760,22 @@
         <v>2</v>
       </c>
       <c r="J161" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_1,1,2</v>
       </c>
       <c r="K161" s="9" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="L161" s="11">
         <f>0.0019</f>
         <v>1.9E-3</v>
       </c>
-      <c r="O161" s="53"/>
-      <c r="P161" s="54" t="s">
+      <c r="O161" s="51"/>
+      <c r="P161" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="Q161" s="55" t="s">
-        <v>376</v>
+      <c r="Q161" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="162" spans="1:17" ht="51" hidden="1">
@@ -12800,7 +12783,7 @@
         <v>146</v>
       </c>
       <c r="B162" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C162" s="8" t="s">
@@ -12819,22 +12802,22 @@
         <v>1</v>
       </c>
       <c r="J162" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_1,2,1</v>
       </c>
       <c r="K162" s="9" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="L162" s="11">
         <f>L160*5</f>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="O162" s="53"/>
-      <c r="P162" s="54" t="s">
+      <c r="O162" s="51"/>
+      <c r="P162" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="Q162" s="55" t="s">
-        <v>376</v>
+      <c r="Q162" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="163" spans="1:17" ht="51" hidden="1">
@@ -12842,7 +12825,7 @@
         <v>147</v>
       </c>
       <c r="B163" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C163" s="8" t="s">
@@ -12861,22 +12844,22 @@
         <v>2</v>
       </c>
       <c r="J163" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_1,2,2</v>
       </c>
       <c r="K163" s="9" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="L163" s="11">
         <f>L161*5</f>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="O163" s="53"/>
-      <c r="P163" s="54" t="s">
+      <c r="O163" s="51"/>
+      <c r="P163" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="Q163" s="55" t="s">
-        <v>376</v>
+      <c r="Q163" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="164" spans="1:17" ht="51" hidden="1">
@@ -12884,7 +12867,7 @@
         <v>148</v>
       </c>
       <c r="B164" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C164" s="8" t="s">
@@ -12903,22 +12886,22 @@
         <v>1</v>
       </c>
       <c r="J164" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_1,3,1</v>
       </c>
       <c r="K164" s="9" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="L164" s="11">
         <f>L160*10</f>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="O164" s="53"/>
-      <c r="P164" s="54" t="s">
+      <c r="O164" s="51"/>
+      <c r="P164" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="Q164" s="55" t="s">
-        <v>376</v>
+      <c r="Q164" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="165" spans="1:17" ht="51" hidden="1">
@@ -12926,7 +12909,7 @@
         <v>149</v>
       </c>
       <c r="B165" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C165" s="8" t="s">
@@ -12945,22 +12928,22 @@
         <v>2</v>
       </c>
       <c r="J165" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_1,3,2</v>
       </c>
       <c r="K165" s="9" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="L165" s="11">
         <f>L161*10</f>
         <v>1.9E-2</v>
       </c>
-      <c r="O165" s="53"/>
-      <c r="P165" s="54" t="s">
+      <c r="O165" s="51"/>
+      <c r="P165" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="Q165" s="55" t="s">
-        <v>376</v>
+      <c r="Q165" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="166" spans="1:17" ht="48" hidden="1">
@@ -12968,7 +12951,7 @@
         <v>150</v>
       </c>
       <c r="B166" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C166" s="8" t="s">
@@ -12987,22 +12970,22 @@
         <v>1</v>
       </c>
       <c r="J166" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_1,4,1</v>
       </c>
       <c r="K166" s="9" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="L166" s="11">
         <f>L160*1.2</f>
         <v>3.96E-3</v>
       </c>
-      <c r="O166" s="53"/>
-      <c r="P166" s="54" t="s">
+      <c r="O166" s="51"/>
+      <c r="P166" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="Q166" s="55" t="s">
-        <v>376</v>
+      <c r="Q166" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="167" spans="1:17" ht="48" hidden="1">
@@ -13010,7 +12993,7 @@
         <v>151</v>
       </c>
       <c r="B167" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C167" s="8" t="s">
@@ -13029,22 +13012,22 @@
         <v>2</v>
       </c>
       <c r="J167" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_1,4,2</v>
       </c>
       <c r="K167" s="9" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="L167" s="11">
         <f>L161*1.2</f>
         <v>2.2799999999999999E-3</v>
       </c>
-      <c r="O167" s="53"/>
-      <c r="P167" s="54" t="s">
+      <c r="O167" s="51"/>
+      <c r="P167" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="Q167" s="55" t="s">
-        <v>376</v>
+      <c r="Q167" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="168" spans="1:17" ht="48" hidden="1">
@@ -13052,7 +13035,7 @@
         <v>152</v>
       </c>
       <c r="B168" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C168" s="8" t="s">
@@ -13071,22 +13054,22 @@
         <v>1</v>
       </c>
       <c r="J168" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_2,1,1</v>
       </c>
       <c r="K168" s="9" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="L168" s="11">
-        <f t="shared" ref="L168:L175" si="10">L160</f>
+        <f t="shared" ref="L168:L175" si="12">L160</f>
         <v>3.3E-3</v>
       </c>
-      <c r="O168" s="53"/>
-      <c r="P168" s="54" t="s">
+      <c r="O168" s="51"/>
+      <c r="P168" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="Q168" s="55" t="s">
-        <v>376</v>
+      <c r="Q168" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="169" spans="1:17" ht="48" hidden="1">
@@ -13094,7 +13077,7 @@
         <v>153</v>
       </c>
       <c r="B169" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C169" s="8" t="s">
@@ -13113,22 +13096,22 @@
         <v>2</v>
       </c>
       <c r="J169" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_2,1,2</v>
       </c>
       <c r="K169" s="9" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="L169" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9E-3</v>
       </c>
-      <c r="O169" s="53"/>
-      <c r="P169" s="54" t="s">
+      <c r="O169" s="51"/>
+      <c r="P169" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="Q169" s="55" t="s">
-        <v>376</v>
+      <c r="Q169" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="170" spans="1:17" ht="51" hidden="1">
@@ -13136,7 +13119,7 @@
         <v>154</v>
       </c>
       <c r="B170" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C170" s="8" t="s">
@@ -13155,22 +13138,22 @@
         <v>1</v>
       </c>
       <c r="J170" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_2,2,1</v>
       </c>
       <c r="K170" s="9" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="L170" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="O170" s="53"/>
-      <c r="P170" s="54" t="s">
+      <c r="O170" s="51"/>
+      <c r="P170" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="Q170" s="55" t="s">
-        <v>376</v>
+      <c r="Q170" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="171" spans="1:17" ht="51" hidden="1">
@@ -13178,7 +13161,7 @@
         <v>155</v>
       </c>
       <c r="B171" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C171" s="8" t="s">
@@ -13197,22 +13180,22 @@
         <v>2</v>
       </c>
       <c r="J171" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_2,2,2</v>
       </c>
       <c r="K171" s="9" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="L171" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="O171" s="53"/>
-      <c r="P171" s="54" t="s">
+      <c r="O171" s="51"/>
+      <c r="P171" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="Q171" s="55" t="s">
-        <v>376</v>
+      <c r="Q171" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="172" spans="1:17" ht="51" hidden="1">
@@ -13220,7 +13203,7 @@
         <v>156</v>
       </c>
       <c r="B172" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C172" s="8" t="s">
@@ -13239,22 +13222,22 @@
         <v>1</v>
       </c>
       <c r="J172" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_2,3,1</v>
       </c>
       <c r="K172" s="9" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="L172" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="O172" s="53"/>
-      <c r="P172" s="54" t="s">
+      <c r="O172" s="51"/>
+      <c r="P172" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="Q172" s="55" t="s">
-        <v>376</v>
+      <c r="Q172" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="173" spans="1:17" ht="51" hidden="1">
@@ -13262,7 +13245,7 @@
         <v>157</v>
       </c>
       <c r="B173" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C173" s="8" t="s">
@@ -13281,22 +13264,22 @@
         <v>2</v>
       </c>
       <c r="J173" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_2,3,2</v>
       </c>
       <c r="K173" s="9" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="L173" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9E-2</v>
       </c>
-      <c r="O173" s="53"/>
-      <c r="P173" s="54" t="s">
+      <c r="O173" s="51"/>
+      <c r="P173" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="Q173" s="55" t="s">
-        <v>376</v>
+      <c r="Q173" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="174" spans="1:17" ht="48" hidden="1">
@@ -13304,7 +13287,7 @@
         <v>158</v>
       </c>
       <c r="B174" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C174" s="8" t="s">
@@ -13323,22 +13306,22 @@
         <v>1</v>
       </c>
       <c r="J174" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_2,4,1</v>
       </c>
       <c r="K174" s="9" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="L174" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.96E-3</v>
       </c>
-      <c r="O174" s="53"/>
-      <c r="P174" s="54" t="s">
+      <c r="O174" s="51"/>
+      <c r="P174" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="Q174" s="55" t="s">
-        <v>376</v>
+      <c r="Q174" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="175" spans="1:17" ht="48" hidden="1">
@@ -13346,7 +13329,7 @@
         <v>159</v>
       </c>
       <c r="B175" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C175" s="8" t="s">
@@ -13365,22 +13348,22 @@
         <v>2</v>
       </c>
       <c r="J175" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_2,4,2</v>
       </c>
       <c r="K175" s="9" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="L175" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.2799999999999999E-3</v>
       </c>
-      <c r="O175" s="53"/>
-      <c r="P175" s="54" t="s">
+      <c r="O175" s="51"/>
+      <c r="P175" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="Q175" s="55" t="s">
-        <v>376</v>
+      <c r="Q175" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="176" spans="1:17" ht="51" hidden="1">
@@ -13388,7 +13371,7 @@
         <v>160</v>
       </c>
       <c r="B176" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C176" s="8" t="s">
@@ -13407,22 +13390,22 @@
         <v>1</v>
       </c>
       <c r="J176" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_3,1,1</v>
       </c>
       <c r="K176" s="9" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="L176" s="11">
-        <f t="shared" ref="L176:L183" si="11">L160</f>
+        <f t="shared" ref="L176:L183" si="13">L160</f>
         <v>3.3E-3</v>
       </c>
-      <c r="O176" s="53"/>
-      <c r="P176" s="54" t="s">
+      <c r="O176" s="51"/>
+      <c r="P176" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="Q176" s="55" t="s">
-        <v>376</v>
+      <c r="Q176" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="177" spans="1:17" ht="51" hidden="1">
@@ -13430,7 +13413,7 @@
         <v>161</v>
       </c>
       <c r="B177" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C177" s="8" t="s">
@@ -13449,22 +13432,22 @@
         <v>2</v>
       </c>
       <c r="J177" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_3,1,2</v>
       </c>
       <c r="K177" s="9" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="L177" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.9E-3</v>
       </c>
-      <c r="O177" s="53"/>
-      <c r="P177" s="54" t="s">
+      <c r="O177" s="51"/>
+      <c r="P177" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="Q177" s="55" t="s">
-        <v>376</v>
+      <c r="Q177" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="178" spans="1:17" ht="51" hidden="1">
@@ -13472,7 +13455,7 @@
         <v>162</v>
       </c>
       <c r="B178" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C178" s="8" t="s">
@@ -13491,22 +13474,22 @@
         <v>1</v>
       </c>
       <c r="J178" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_3,2,1</v>
       </c>
       <c r="K178" s="9" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="L178" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="O178" s="53"/>
-      <c r="P178" s="54" t="s">
+      <c r="O178" s="51"/>
+      <c r="P178" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="Q178" s="55" t="s">
-        <v>376</v>
+      <c r="Q178" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="179" spans="1:17" ht="51" hidden="1">
@@ -13514,7 +13497,7 @@
         <v>163</v>
       </c>
       <c r="B179" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C179" s="8" t="s">
@@ -13533,22 +13516,22 @@
         <v>2</v>
       </c>
       <c r="J179" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_3,2,2</v>
       </c>
       <c r="K179" s="9" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="L179" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="O179" s="53"/>
-      <c r="P179" s="54" t="s">
+      <c r="O179" s="51"/>
+      <c r="P179" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="Q179" s="55" t="s">
-        <v>376</v>
+      <c r="Q179" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="180" spans="1:17" ht="51" hidden="1">
@@ -13556,7 +13539,7 @@
         <v>164</v>
       </c>
       <c r="B180" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C180" s="8" t="s">
@@ -13575,22 +13558,22 @@
         <v>1</v>
       </c>
       <c r="J180" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_3,3,1</v>
       </c>
       <c r="K180" s="9" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="L180" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="O180" s="53"/>
-      <c r="P180" s="54" t="s">
+      <c r="O180" s="51"/>
+      <c r="P180" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="Q180" s="55" t="s">
-        <v>376</v>
+      <c r="Q180" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="181" spans="1:17" ht="51" hidden="1">
@@ -13598,7 +13581,7 @@
         <v>165</v>
       </c>
       <c r="B181" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C181" s="8" t="s">
@@ -13617,22 +13600,22 @@
         <v>2</v>
       </c>
       <c r="J181" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_3,3,2</v>
       </c>
       <c r="K181" s="9" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="L181" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.9E-2</v>
       </c>
-      <c r="O181" s="53"/>
-      <c r="P181" s="54" t="s">
+      <c r="O181" s="51"/>
+      <c r="P181" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="Q181" s="55" t="s">
-        <v>376</v>
+      <c r="Q181" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="182" spans="1:17" ht="51" hidden="1">
@@ -13640,7 +13623,7 @@
         <v>166</v>
       </c>
       <c r="B182" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C182" s="8" t="s">
@@ -13659,22 +13642,22 @@
         <v>1</v>
       </c>
       <c r="J182" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_3,4,1</v>
       </c>
       <c r="K182" s="9" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="L182" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.96E-3</v>
       </c>
-      <c r="O182" s="53"/>
-      <c r="P182" s="54" t="s">
+      <c r="O182" s="51"/>
+      <c r="P182" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="Q182" s="55" t="s">
-        <v>376</v>
+      <c r="Q182" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="183" spans="1:17" ht="51" hidden="1">
@@ -13682,7 +13665,7 @@
         <v>167</v>
       </c>
       <c r="B183" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C183" s="8" t="s">
@@ -13701,22 +13684,22 @@
         <v>2</v>
       </c>
       <c r="J183" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_3,4,2</v>
       </c>
       <c r="K183" s="9" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="L183" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.2799999999999999E-3</v>
       </c>
-      <c r="O183" s="53"/>
-      <c r="P183" s="54" t="s">
+      <c r="O183" s="51"/>
+      <c r="P183" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="Q183" s="55" t="s">
-        <v>376</v>
+      <c r="Q183" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="184" spans="1:17" ht="48" hidden="1">
@@ -13724,7 +13707,7 @@
         <v>168</v>
       </c>
       <c r="B184" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C184" s="8" t="s">
@@ -13743,22 +13726,22 @@
         <v>1</v>
       </c>
       <c r="J184" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_4,1,1</v>
       </c>
       <c r="K184" s="9" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="L184" s="11">
-        <f t="shared" ref="L184:L191" si="12">L160</f>
+        <f t="shared" ref="L184:L191" si="14">L160</f>
         <v>3.3E-3</v>
       </c>
-      <c r="O184" s="53"/>
-      <c r="P184" s="54" t="s">
+      <c r="O184" s="51"/>
+      <c r="P184" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="Q184" s="55" t="s">
-        <v>376</v>
+      <c r="Q184" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="185" spans="1:17" ht="48" hidden="1">
@@ -13766,7 +13749,7 @@
         <v>169</v>
       </c>
       <c r="B185" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C185" s="8" t="s">
@@ -13785,22 +13768,22 @@
         <v>2</v>
       </c>
       <c r="J185" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_4,1,2</v>
       </c>
       <c r="K185" s="9" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="L185" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.9E-3</v>
       </c>
-      <c r="O185" s="53"/>
-      <c r="P185" s="54" t="s">
+      <c r="O185" s="51"/>
+      <c r="P185" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="Q185" s="55" t="s">
-        <v>376</v>
+      <c r="Q185" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="186" spans="1:17" ht="51" hidden="1">
@@ -13808,7 +13791,7 @@
         <v>170</v>
       </c>
       <c r="B186" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C186" s="8" t="s">
@@ -13827,22 +13810,22 @@
         <v>1</v>
       </c>
       <c r="J186" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_4,2,1</v>
       </c>
       <c r="K186" s="9" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="L186" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="O186" s="53"/>
-      <c r="P186" s="54" t="s">
+      <c r="O186" s="51"/>
+      <c r="P186" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="Q186" s="55" t="s">
-        <v>376</v>
+      <c r="Q186" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="187" spans="1:17" ht="51" hidden="1">
@@ -13850,7 +13833,7 @@
         <v>171</v>
       </c>
       <c r="B187" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C187" s="8" t="s">
@@ -13869,22 +13852,22 @@
         <v>2</v>
       </c>
       <c r="J187" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_4,2,2</v>
       </c>
       <c r="K187" s="9" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="L187" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="O187" s="53"/>
-      <c r="P187" s="54" t="s">
+      <c r="O187" s="51"/>
+      <c r="P187" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="Q187" s="55" t="s">
-        <v>376</v>
+      <c r="Q187" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="188" spans="1:17" ht="51" hidden="1">
@@ -13892,7 +13875,7 @@
         <v>172</v>
       </c>
       <c r="B188" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C188" s="8" t="s">
@@ -13911,22 +13894,22 @@
         <v>1</v>
       </c>
       <c r="J188" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_4,3,1</v>
       </c>
       <c r="K188" s="9" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="L188" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="O188" s="53"/>
-      <c r="P188" s="54" t="s">
+      <c r="O188" s="51"/>
+      <c r="P188" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="Q188" s="55" t="s">
-        <v>376</v>
+      <c r="Q188" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="189" spans="1:17" ht="51" hidden="1">
@@ -13934,7 +13917,7 @@
         <v>173</v>
       </c>
       <c r="B189" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C189" s="8" t="s">
@@ -13953,22 +13936,22 @@
         <v>2</v>
       </c>
       <c r="J189" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_4,3,2</v>
       </c>
       <c r="K189" s="9" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="L189" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.9E-2</v>
       </c>
-      <c r="O189" s="53"/>
-      <c r="P189" s="54" t="s">
+      <c r="O189" s="51"/>
+      <c r="P189" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="Q189" s="55" t="s">
-        <v>376</v>
+      <c r="Q189" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="190" spans="1:17" ht="51" hidden="1">
@@ -13976,7 +13959,7 @@
         <v>174</v>
       </c>
       <c r="B190" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C190" s="8" t="s">
@@ -13995,22 +13978,22 @@
         <v>1</v>
       </c>
       <c r="J190" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_4,4,1</v>
       </c>
       <c r="K190" s="9" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="L190" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.96E-3</v>
       </c>
-      <c r="O190" s="53"/>
-      <c r="P190" s="54" t="s">
+      <c r="O190" s="51"/>
+      <c r="P190" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="Q190" s="55" t="s">
-        <v>376</v>
+      <c r="Q190" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="191" spans="1:17" ht="51" hidden="1">
@@ -14018,7 +14001,7 @@
         <v>175</v>
       </c>
       <c r="B191" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C191" s="8" t="s">
@@ -14037,22 +14020,22 @@
         <v>2</v>
       </c>
       <c r="J191" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_4,4,2</v>
       </c>
       <c r="K191" s="9" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="L191" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.2799999999999999E-3</v>
       </c>
-      <c r="O191" s="53"/>
-      <c r="P191" s="54" t="s">
+      <c r="O191" s="51"/>
+      <c r="P191" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="Q191" s="55" t="s">
-        <v>376</v>
+      <c r="Q191" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="192" spans="1:17" ht="48" hidden="1">
@@ -14060,7 +14043,7 @@
         <v>176</v>
       </c>
       <c r="B192" s="9" t="str">
-        <f t="shared" ref="B192:B223" si="13">CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E192,TB_SET,2)," and HIV compartment ",VLOOKUP(G192,HIV_SET,2)," and gender compartment ",VLOOKUP(H192,G_SET,2)," per year")</f>
+        <f t="shared" ref="B192:B223" si="15">CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E192,TB_SET,2)," and HIV compartment ",VLOOKUP(G192,HIV_SET,2)," and gender compartment ",VLOOKUP(H192,G_SET,2)," per year")</f>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C192" s="8" t="s">
@@ -14079,22 +14062,22 @@
         <v>1</v>
       </c>
       <c r="J192" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_5,1,1</v>
       </c>
       <c r="K192" s="9" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="L192" s="11">
-        <f t="shared" ref="L192:L199" si="14">L160</f>
+        <f t="shared" ref="L192:L199" si="16">L160</f>
         <v>3.3E-3</v>
       </c>
-      <c r="O192" s="53"/>
-      <c r="P192" s="54" t="s">
+      <c r="O192" s="51"/>
+      <c r="P192" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="Q192" s="55" t="s">
-        <v>376</v>
+      <c r="Q192" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="193" spans="1:17" ht="48" hidden="1">
@@ -14102,7 +14085,7 @@
         <v>177</v>
       </c>
       <c r="B193" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C193" s="8" t="s">
@@ -14121,22 +14104,22 @@
         <v>2</v>
       </c>
       <c r="J193" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mu_5,1,2</v>
       </c>
       <c r="K193" s="9" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="L193" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.9E-3</v>
       </c>
-      <c r="O193" s="53"/>
-      <c r="P193" s="54" t="s">
+      <c r="O193" s="51"/>
+      <c r="P193" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="Q193" s="55" t="s">
-        <v>376</v>
+      <c r="Q193" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="194" spans="1:17" ht="51" hidden="1">
@@ -14144,7 +14127,7 @@
         <v>178</v>
       </c>
       <c r="B194" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C194" s="8" t="s">
@@ -14163,22 +14146,22 @@
         <v>1</v>
       </c>
       <c r="J194" s="9" t="str">
-        <f t="shared" ref="J194:J223" si="15">CONCATENATE(C194, "_", E194, IF(E194&lt;&gt;"",",",""), F194, IF(F194&lt;&gt;"",",",""),  G194, IF(G194&lt;&gt;"",",",""),  H194, IF(I194&lt;&gt;"","(",""), I194, IF(I194&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J194:J223" si="17">CONCATENATE(C194, "_", E194, IF(E194&lt;&gt;"",",",""), F194, IF(F194&lt;&gt;"",",",""),  G194, IF(G194&lt;&gt;"",",",""),  H194, IF(I194&lt;&gt;"","(",""), I194, IF(I194&lt;&gt;"",")",""))</f>
         <v>mu_5,2,1</v>
       </c>
       <c r="K194" s="9" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="L194" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="O194" s="53"/>
-      <c r="P194" s="54" t="s">
+      <c r="O194" s="51"/>
+      <c r="P194" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="Q194" s="55" t="s">
-        <v>376</v>
+      <c r="Q194" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="195" spans="1:17" ht="51" hidden="1">
@@ -14186,7 +14169,7 @@
         <v>179</v>
       </c>
       <c r="B195" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C195" s="8" t="s">
@@ -14205,22 +14188,22 @@
         <v>2</v>
       </c>
       <c r="J195" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_5,2,2</v>
       </c>
       <c r="K195" s="9" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="L195" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="O195" s="53"/>
-      <c r="P195" s="54" t="s">
+      <c r="O195" s="51"/>
+      <c r="P195" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="Q195" s="55" t="s">
-        <v>376</v>
+      <c r="Q195" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="196" spans="1:17" ht="51" hidden="1">
@@ -14228,7 +14211,7 @@
         <v>180</v>
       </c>
       <c r="B196" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C196" s="8" t="s">
@@ -14247,22 +14230,22 @@
         <v>1</v>
       </c>
       <c r="J196" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_5,3,1</v>
       </c>
       <c r="K196" s="9" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="L196" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="O196" s="53"/>
-      <c r="P196" s="54" t="s">
+      <c r="O196" s="51"/>
+      <c r="P196" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="Q196" s="55" t="s">
-        <v>376</v>
+      <c r="Q196" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="197" spans="1:17" ht="51" hidden="1">
@@ -14270,7 +14253,7 @@
         <v>181</v>
       </c>
       <c r="B197" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C197" s="8" t="s">
@@ -14289,22 +14272,22 @@
         <v>2</v>
       </c>
       <c r="J197" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_5,3,2</v>
       </c>
       <c r="K197" s="9" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="L197" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.9E-2</v>
       </c>
-      <c r="O197" s="53"/>
-      <c r="P197" s="54" t="s">
+      <c r="O197" s="51"/>
+      <c r="P197" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="Q197" s="55" t="s">
-        <v>376</v>
+      <c r="Q197" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="198" spans="1:17" ht="48" hidden="1">
@@ -14312,7 +14295,7 @@
         <v>182</v>
       </c>
       <c r="B198" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C198" s="8" t="s">
@@ -14331,22 +14314,22 @@
         <v>1</v>
       </c>
       <c r="J198" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_5,4,1</v>
       </c>
       <c r="K198" s="9" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="L198" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.96E-3</v>
       </c>
-      <c r="O198" s="53"/>
-      <c r="P198" s="54" t="s">
+      <c r="O198" s="51"/>
+      <c r="P198" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="Q198" s="55" t="s">
-        <v>376</v>
+      <c r="Q198" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="199" spans="1:17" ht="48" hidden="1">
@@ -14354,7 +14337,7 @@
         <v>183</v>
       </c>
       <c r="B199" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C199" s="8" t="s">
@@ -14373,22 +14356,22 @@
         <v>2</v>
       </c>
       <c r="J199" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_5,4,2</v>
       </c>
       <c r="K199" s="9" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="L199" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.2799999999999999E-3</v>
       </c>
-      <c r="O199" s="53"/>
-      <c r="P199" s="54" t="s">
+      <c r="O199" s="51"/>
+      <c r="P199" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="Q199" s="55" t="s">
-        <v>376</v>
+      <c r="Q199" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="200" spans="1:17" ht="48" hidden="1">
@@ -14396,7 +14379,7 @@
         <v>184</v>
       </c>
       <c r="B200" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C200" s="8" t="s">
@@ -14415,22 +14398,22 @@
         <v>1</v>
       </c>
       <c r="J200" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_6,1,1</v>
       </c>
       <c r="K200" s="9" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="L200" s="11">
         <f>L160*20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="O200" s="53"/>
-      <c r="P200" s="54" t="s">
+      <c r="O200" s="51"/>
+      <c r="P200" s="52" t="s">
         <v>287</v>
       </c>
-      <c r="Q200" s="55" t="s">
-        <v>376</v>
+      <c r="Q200" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="201" spans="1:17" ht="48" hidden="1">
@@ -14438,7 +14421,7 @@
         <v>185</v>
       </c>
       <c r="B201" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C201" s="8" t="s">
@@ -14457,22 +14440,22 @@
         <v>2</v>
       </c>
       <c r="J201" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_6,1,2</v>
       </c>
       <c r="K201" s="9" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="L201" s="11">
         <f>L161*20</f>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="O201" s="53"/>
-      <c r="P201" s="54" t="s">
+      <c r="O201" s="51"/>
+      <c r="P201" s="52" t="s">
         <v>287</v>
       </c>
-      <c r="Q201" s="55" t="s">
-        <v>376</v>
+      <c r="Q201" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="202" spans="1:17" ht="51" hidden="1">
@@ -14480,7 +14463,7 @@
         <v>186</v>
       </c>
       <c r="B202" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C202" s="8" t="s">
@@ -14499,22 +14482,22 @@
         <v>1</v>
       </c>
       <c r="J202" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_6,2,1</v>
       </c>
       <c r="K202" s="9" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="L202" s="11">
         <f>L160*50</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="O202" s="53"/>
-      <c r="P202" s="54" t="s">
+      <c r="O202" s="51"/>
+      <c r="P202" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="Q202" s="55" t="s">
-        <v>376</v>
+      <c r="Q202" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="203" spans="1:17" ht="51" hidden="1">
@@ -14522,7 +14505,7 @@
         <v>187</v>
       </c>
       <c r="B203" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C203" s="8" t="s">
@@ -14541,22 +14524,22 @@
         <v>2</v>
       </c>
       <c r="J203" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_6,2,2</v>
       </c>
       <c r="K203" s="9" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="L203" s="11">
         <f>L161*50</f>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="O203" s="53"/>
-      <c r="P203" s="54" t="s">
+      <c r="O203" s="51"/>
+      <c r="P203" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="Q203" s="55" t="s">
-        <v>376</v>
+      <c r="Q203" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="204" spans="1:17" ht="51" hidden="1">
@@ -14564,7 +14547,7 @@
         <v>188</v>
       </c>
       <c r="B204" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C204" s="8" t="s">
@@ -14583,22 +14566,22 @@
         <v>1</v>
       </c>
       <c r="J204" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_6,3,1</v>
       </c>
       <c r="K204" s="9" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="L204" s="11">
         <f>L160*100</f>
         <v>0.33</v>
       </c>
-      <c r="O204" s="53"/>
-      <c r="P204" s="54" t="s">
+      <c r="O204" s="51"/>
+      <c r="P204" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="Q204" s="55" t="s">
-        <v>376</v>
+      <c r="Q204" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="205" spans="1:17" ht="51" hidden="1">
@@ -14606,7 +14589,7 @@
         <v>189</v>
       </c>
       <c r="B205" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C205" s="8" t="s">
@@ -14625,22 +14608,22 @@
         <v>2</v>
       </c>
       <c r="J205" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_6,3,2</v>
       </c>
       <c r="K205" s="9" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="L205" s="11">
         <f>L161*100</f>
         <v>0.19</v>
       </c>
-      <c r="O205" s="53"/>
-      <c r="P205" s="54" t="s">
+      <c r="O205" s="51"/>
+      <c r="P205" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="Q205" s="55" t="s">
-        <v>376</v>
+      <c r="Q205" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="206" spans="1:17" ht="48" hidden="1">
@@ -14648,7 +14631,7 @@
         <v>190</v>
       </c>
       <c r="B206" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C206" s="8" t="s">
@@ -14667,22 +14650,22 @@
         <v>1</v>
       </c>
       <c r="J206" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_6,4,1</v>
       </c>
       <c r="K206" s="9" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="L206" s="11">
         <f>L160*30</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="O206" s="53"/>
-      <c r="P206" s="54" t="s">
+      <c r="O206" s="51"/>
+      <c r="P206" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="Q206" s="55" t="s">
-        <v>376</v>
+      <c r="Q206" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="207" spans="1:17" ht="48" hidden="1">
@@ -14690,7 +14673,7 @@
         <v>191</v>
       </c>
       <c r="B207" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C207" s="8" t="s">
@@ -14709,22 +14692,22 @@
         <v>2</v>
       </c>
       <c r="J207" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_6,4,2</v>
       </c>
       <c r="K207" s="9" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="L207" s="11">
         <f>L161*30</f>
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="O207" s="53"/>
-      <c r="P207" s="54" t="s">
+      <c r="O207" s="51"/>
+      <c r="P207" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="Q207" s="55" t="s">
-        <v>376</v>
+      <c r="Q207" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="208" spans="1:17" ht="48" hidden="1">
@@ -14732,7 +14715,7 @@
         <v>192</v>
       </c>
       <c r="B208" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C208" s="8" t="s">
@@ -14751,22 +14734,22 @@
         <v>1</v>
       </c>
       <c r="J208" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_7,1,1</v>
       </c>
       <c r="K208" s="9" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="L208" s="11">
-        <f t="shared" ref="L208:L215" si="16">L160</f>
+        <f t="shared" ref="L208:L215" si="18">L160</f>
         <v>3.3E-3</v>
       </c>
-      <c r="O208" s="53"/>
-      <c r="P208" s="54" t="s">
+      <c r="O208" s="51"/>
+      <c r="P208" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="Q208" s="55" t="s">
-        <v>376</v>
+      <c r="Q208" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="209" spans="1:17" ht="48" hidden="1">
@@ -14774,7 +14757,7 @@
         <v>193</v>
       </c>
       <c r="B209" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C209" s="8" t="s">
@@ -14793,22 +14776,22 @@
         <v>2</v>
       </c>
       <c r="J209" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_7,1,2</v>
       </c>
       <c r="K209" s="9" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="L209" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.9E-3</v>
       </c>
-      <c r="O209" s="53"/>
-      <c r="P209" s="54" t="s">
+      <c r="O209" s="51"/>
+      <c r="P209" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="Q209" s="55" t="s">
-        <v>376</v>
+      <c r="Q209" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="210" spans="1:17" ht="51" hidden="1">
@@ -14816,7 +14799,7 @@
         <v>194</v>
       </c>
       <c r="B210" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C210" s="8" t="s">
@@ -14835,22 +14818,22 @@
         <v>1</v>
       </c>
       <c r="J210" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_7,2,1</v>
       </c>
       <c r="K210" s="9" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="L210" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="O210" s="53"/>
-      <c r="P210" s="54" t="s">
+      <c r="O210" s="51"/>
+      <c r="P210" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="Q210" s="55" t="s">
-        <v>376</v>
+      <c r="Q210" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="211" spans="1:17" ht="51" hidden="1">
@@ -14858,7 +14841,7 @@
         <v>195</v>
       </c>
       <c r="B211" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C211" s="8" t="s">
@@ -14877,22 +14860,22 @@
         <v>2</v>
       </c>
       <c r="J211" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_7,2,2</v>
       </c>
       <c r="K211" s="9" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="L211" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="O211" s="53"/>
-      <c r="P211" s="54" t="s">
+      <c r="O211" s="51"/>
+      <c r="P211" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="Q211" s="55" t="s">
-        <v>376</v>
+      <c r="Q211" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="212" spans="1:17" ht="51" hidden="1">
@@ -14900,7 +14883,7 @@
         <v>196</v>
       </c>
       <c r="B212" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C212" s="8" t="s">
@@ -14919,22 +14902,22 @@
         <v>1</v>
       </c>
       <c r="J212" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_7,3,1</v>
       </c>
       <c r="K212" s="9" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="L212" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="O212" s="53"/>
-      <c r="P212" s="54" t="s">
+      <c r="O212" s="51"/>
+      <c r="P212" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="Q212" s="55" t="s">
-        <v>376</v>
+      <c r="Q212" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="213" spans="1:17" ht="51" hidden="1">
@@ -14942,7 +14925,7 @@
         <v>197</v>
       </c>
       <c r="B213" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C213" s="8" t="s">
@@ -14961,22 +14944,22 @@
         <v>2</v>
       </c>
       <c r="J213" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_7,3,2</v>
       </c>
       <c r="K213" s="9" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="L213" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.9E-2</v>
       </c>
-      <c r="O213" s="53"/>
-      <c r="P213" s="54" t="s">
+      <c r="O213" s="51"/>
+      <c r="P213" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="Q213" s="55" t="s">
-        <v>376</v>
+      <c r="Q213" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="214" spans="1:17" ht="48" hidden="1">
@@ -14984,7 +14967,7 @@
         <v>198</v>
       </c>
       <c r="B214" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C214" s="8" t="s">
@@ -15003,22 +14986,22 @@
         <v>1</v>
       </c>
       <c r="J214" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_7,4,1</v>
       </c>
       <c r="K214" s="9" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="L214" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.96E-3</v>
       </c>
-      <c r="O214" s="53"/>
-      <c r="P214" s="54" t="s">
+      <c r="O214" s="51"/>
+      <c r="P214" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="Q214" s="55" t="s">
-        <v>376</v>
+      <c r="Q214" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="215" spans="1:17" ht="48" hidden="1">
@@ -15026,7 +15009,7 @@
         <v>199</v>
       </c>
       <c r="B215" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C215" s="8" t="s">
@@ -15045,22 +15028,22 @@
         <v>2</v>
       </c>
       <c r="J215" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_7,4,2</v>
       </c>
       <c r="K215" s="9" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="L215" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.2799999999999999E-3</v>
       </c>
-      <c r="O215" s="53"/>
-      <c r="P215" s="54" t="s">
+      <c r="O215" s="51"/>
+      <c r="P215" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="Q215" s="55" t="s">
-        <v>376</v>
+      <c r="Q215" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="216" spans="1:17" ht="48" hidden="1">
@@ -15068,7 +15051,7 @@
         <v>200</v>
       </c>
       <c r="B216" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C216" s="8" t="s">
@@ -15087,22 +15070,22 @@
         <v>1</v>
       </c>
       <c r="J216" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_8,1,1</v>
       </c>
       <c r="K216" s="9" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="L216" s="11">
-        <f t="shared" ref="L216:L223" si="17">L160</f>
+        <f t="shared" ref="L216:L223" si="19">L160</f>
         <v>3.3E-3</v>
       </c>
-      <c r="O216" s="53"/>
-      <c r="P216" s="54" t="s">
+      <c r="O216" s="51"/>
+      <c r="P216" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="Q216" s="55" t="s">
-        <v>376</v>
+      <c r="Q216" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="217" spans="1:17" ht="48" hidden="1">
@@ -15110,7 +15093,7 @@
         <v>201</v>
       </c>
       <c r="B217" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C217" s="8" t="s">
@@ -15129,22 +15112,22 @@
         <v>2</v>
       </c>
       <c r="J217" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_8,1,2</v>
       </c>
       <c r="K217" s="9" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="L217" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.9E-3</v>
       </c>
-      <c r="O217" s="53"/>
-      <c r="P217" s="54" t="s">
+      <c r="O217" s="51"/>
+      <c r="P217" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="Q217" s="55" t="s">
-        <v>376</v>
+      <c r="Q217" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="218" spans="1:17" ht="51" hidden="1">
@@ -15152,7 +15135,7 @@
         <v>202</v>
       </c>
       <c r="B218" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C218" s="8" t="s">
@@ -15171,22 +15154,22 @@
         <v>1</v>
       </c>
       <c r="J218" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_8,2,1</v>
       </c>
       <c r="K218" s="9" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="L218" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="O218" s="53"/>
-      <c r="P218" s="54" t="s">
+      <c r="O218" s="51"/>
+      <c r="P218" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="Q218" s="55" t="s">
-        <v>376</v>
+      <c r="Q218" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="219" spans="1:17" ht="51" hidden="1">
@@ -15194,7 +15177,7 @@
         <v>203</v>
       </c>
       <c r="B219" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C219" s="8" t="s">
@@ -15213,22 +15196,22 @@
         <v>2</v>
       </c>
       <c r="J219" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_8,2,2</v>
       </c>
       <c r="K219" s="9" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="L219" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="O219" s="53"/>
-      <c r="P219" s="54" t="s">
+      <c r="O219" s="51"/>
+      <c r="P219" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="Q219" s="55" t="s">
-        <v>376</v>
+      <c r="Q219" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="220" spans="1:17" ht="51" hidden="1">
@@ -15236,7 +15219,7 @@
         <v>204</v>
       </c>
       <c r="B220" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C220" s="8" t="s">
@@ -15255,22 +15238,22 @@
         <v>1</v>
       </c>
       <c r="J220" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_8,3,1</v>
       </c>
       <c r="K220" s="9" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="L220" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="O220" s="53"/>
-      <c r="P220" s="54" t="s">
+      <c r="O220" s="51"/>
+      <c r="P220" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="Q220" s="55" t="s">
-        <v>376</v>
+      <c r="Q220" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="221" spans="1:17" ht="51" hidden="1">
@@ -15278,7 +15261,7 @@
         <v>205</v>
       </c>
       <c r="B221" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C221" s="8" t="s">
@@ -15297,22 +15280,22 @@
         <v>2</v>
       </c>
       <c r="J221" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_8,3,2</v>
       </c>
       <c r="K221" s="9" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="L221" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.9E-2</v>
       </c>
-      <c r="O221" s="53"/>
-      <c r="P221" s="54" t="s">
+      <c r="O221" s="51"/>
+      <c r="P221" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="Q221" s="55" t="s">
-        <v>376</v>
+      <c r="Q221" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="222" spans="1:17" ht="48" hidden="1">
@@ -15320,7 +15303,7 @@
         <v>206</v>
       </c>
       <c r="B222" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C222" s="8" t="s">
@@ -15339,22 +15322,22 @@
         <v>1</v>
       </c>
       <c r="J222" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_8,4,1</v>
       </c>
       <c r="K222" s="9" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="L222" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.96E-3</v>
       </c>
-      <c r="O222" s="53"/>
-      <c r="P222" s="54" t="s">
+      <c r="O222" s="51"/>
+      <c r="P222" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="Q222" s="55" t="s">
-        <v>376</v>
+      <c r="Q222" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="223" spans="1:17" ht="48" hidden="1">
@@ -15362,7 +15345,7 @@
         <v>207</v>
       </c>
       <c r="B223" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C223" s="8" t="s">
@@ -15381,82 +15364,53 @@
         <v>2</v>
       </c>
       <c r="J223" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>mu_8,4,2</v>
       </c>
       <c r="K223" s="9" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="L223" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.2799999999999999E-3</v>
       </c>
-      <c r="O223" s="53"/>
-      <c r="P223" s="54" t="s">
+      <c r="O223" s="51"/>
+      <c r="P223" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="Q223" s="55" t="s">
-        <v>376</v>
+      <c r="Q223" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="224" spans="1:17" ht="48">
       <c r="A224" s="11" t="s">
-        <v>419</v>
+        <v>416</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>418</v>
       </c>
       <c r="J224" s="9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K224" s="9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L224" s="11">
         <f>1/(60-15)</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="O224" s="53"/>
-      <c r="P224" s="54" t="s">
-        <v>655</v>
-      </c>
-      <c r="Q224" s="55" t="s">
-        <v>376</v>
+      <c r="O224" s="51"/>
+      <c r="P224" s="52" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q224" s="53" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q224" xr:uid="{093E33DD-831A-9040-8961-DE49C4992F6F}">
+  <autoFilter ref="A1:Q224" xr:uid="{ABB22A19-0B7C-C44D-9B40-0C0855780013}">
     <filterColumn colId="10">
       <filters>
-        <filter val="alpha^in_1,1,1,1"/>
-        <filter val="alpha^in_1,1,1,2"/>
-        <filter val="alpha^in_1,1,2,1"/>
-        <filter val="alpha^in_1,1,2,2"/>
-        <filter val="alpha^in_1,2,1,1"/>
-        <filter val="alpha^in_1,2,1,2"/>
-        <filter val="alpha^in_1,2,2,1"/>
-        <filter val="alpha^in_1,2,2,2"/>
-        <filter val="alpha^in_3,1,1,1"/>
-        <filter val="alpha^in_3,1,1,2"/>
-        <filter val="alpha^in_3,1,2,1"/>
-        <filter val="alpha^in_3,1,2,2"/>
-        <filter val="alpha^in_3,2,1,1"/>
-        <filter val="alpha^in_3,2,1,2"/>
-        <filter val="alpha^in_3,2,2,1"/>
-        <filter val="alpha^in_3,2,2,2"/>
-        <filter val="alpha^in_4,1,1,1"/>
-        <filter val="alpha^in_4,1,1,2"/>
-        <filter val="alpha^in_4,1,2,1"/>
-        <filter val="alpha^in_4,1,2,2"/>
-        <filter val="alpha^in_4,2,1,1"/>
-        <filter val="alpha^in_4,2,1,2"/>
-        <filter val="alpha^in_4,2,2,1"/>
-        <filter val="alpha^in_4,2,2,2"/>
-        <filter val="alpha^in_5,1,1,1"/>
-        <filter val="alpha^in_5,1,1,2"/>
-        <filter val="alpha^in_5,1,2,1"/>
-        <filter val="alpha^in_5,1,2,2"/>
-        <filter val="alpha^in_5,2,1,1"/>
-        <filter val="alpha^in_5,2,1,2"/>
-        <filter val="alpha^in_5,2,2,1"/>
-        <filter val="alpha^in_5,2,2,2"/>
         <filter val="alpha^out"/>
       </filters>
     </filterColumn>
@@ -15476,13 +15430,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD4AF83-5BDA-B246-9A8F-C4F47C31E1D4}">
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -15537,8 +15491,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="17">
-      <c r="A2" s="65" t="s">
-        <v>654</v>
+      <c r="A2" s="63" t="s">
+        <v>643</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -15547,7 +15501,7 @@
       <c r="F2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G2" s="51">
+      <c r="G2" s="49">
         <v>100000</v>
       </c>
     </row>
@@ -15560,7 +15514,7 @@
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G3" s="19">
         <v>1</v>
@@ -15575,7 +15529,7 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G4" s="19">
         <v>1.1000000000000001</v>
@@ -15590,7 +15544,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G5" s="19">
         <v>1</v>
@@ -16582,24 +16536,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="17">
-      <c r="A48" s="46" t="s">
-        <v>374</v>
-      </c>
+    <row r="48" spans="1:12" ht="16">
+      <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
-      <c r="G48" s="35">
-        <f>1/(60-15)</f>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="K48" t="s">
-        <v>365</v>
-      </c>
-      <c r="L48" s="44" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="49" spans="1:5" ht="16">
       <c r="A49" s="18"/>
@@ -16972,20 +16914,10 @@
       <c r="D101" s="18"/>
       <c r="E101" s="18"/>
     </row>
-    <row r="102" spans="1:5" ht="16">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="L48" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/pubmed/25377332" xr:uid="{5009A675-89BA-0C48-97F8-67F0507A4AB0}"/>
-  </hyperlinks>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17013,7 +16945,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="51">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="58" t="s">
         <v>328</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -17050,18 +16982,18 @@
         <v>293</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="N1" s="61" t="s">
-        <v>424</v>
-      </c>
-      <c r="O1" s="62" t="s">
+        <v>420</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="O1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="61" t="s">
         <v>210</v>
       </c>
     </row>
@@ -23591,8 +23523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2ED316-4799-9048-A287-F9D29ABF9595}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H37" sqref="H6:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -23642,31 +23574,31 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="51">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
+        <v>419</v>
+      </c>
+      <c r="B5" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="B5" s="64" t="s">
-        <v>425</v>
-      </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="62" t="s">
         <v>361</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="62" t="s">
         <v>360</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="62" t="s">
         <v>362</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="62" t="s">
         <v>363</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="J5" s="51"/>
+      <c r="J5" s="49"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="42" t="s">
@@ -23695,11 +23627,11 @@
         <f>CONCATENATE("alpha^in_",C6,",",D6,",",E6,",",F6)</f>
         <v>alpha^in_1,1,1,1</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="48">
         <f>B6/$B$38</f>
         <v>0.15495352324023928</v>
       </c>
-      <c r="J6" s="45"/>
+      <c r="J6" s="44"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="42" t="s">
@@ -23728,11 +23660,11 @@
         <f t="shared" ref="G7:G37" si="4">CONCATENATE("alpha^in_",C7,",",D7,",",E7,",",F7)</f>
         <v>alpha^in_1,1,1,2</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="48">
         <f t="shared" ref="H7:H37" si="5">B7/$B$38</f>
         <v>0.15495352324023928</v>
       </c>
-      <c r="J7" s="45"/>
+      <c r="J7" s="44"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="42" t="s">
@@ -23761,11 +23693,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_1,1,2,1</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="48">
         <f t="shared" si="5"/>
         <v>3.6524759049484982E-2</v>
       </c>
-      <c r="J8" s="45"/>
+      <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="42" t="s">
@@ -23794,11 +23726,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_1,1,2,2</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="48">
         <f t="shared" si="5"/>
         <v>3.6524759049484982E-2</v>
       </c>
-      <c r="J9" s="45"/>
+      <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="42" t="s">
@@ -23827,11 +23759,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_1,2,1,1</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J10" s="45"/>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="42" t="s">
@@ -23860,11 +23792,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_1,2,1,2</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="42" t="s">
@@ -23893,11 +23825,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_1,2,2,1</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J12" s="45"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="42" t="s">
@@ -23926,11 +23858,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_1,2,2,2</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J13" s="45"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="42" t="s">
@@ -23959,11 +23891,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_3,1,1,1</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="48">
         <f t="shared" si="5"/>
         <v>0.15080665705128402</v>
       </c>
-      <c r="J14" s="45"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="42" t="s">
@@ -23992,11 +23924,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_3,1,1,2</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="48">
         <f t="shared" si="5"/>
         <v>0.15080665705128402</v>
       </c>
-      <c r="J15" s="45"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="42" t="s">
@@ -24025,11 +23957,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_3,1,2,1</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="48">
         <f t="shared" si="5"/>
         <v>2.5202083744144636E-4</v>
       </c>
-      <c r="J16" s="45"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="42" t="s">
@@ -24058,11 +23990,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_3,1,2,2</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="48">
         <f t="shared" si="5"/>
         <v>2.5202083744144636E-4</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="42" t="s">
@@ -24091,11 +24023,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_3,2,1,1</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="48">
         <f t="shared" si="5"/>
         <v>1.0477957241504983E-3</v>
       </c>
-      <c r="J18" s="45"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="42" t="s">
@@ -24124,11 +24056,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_3,2,1,2</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="48">
         <f t="shared" si="5"/>
         <v>1.0477957241504983E-3</v>
       </c>
-      <c r="J19" s="45"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="42" t="s">
@@ -24157,11 +24089,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_3,2,2,1</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="48">
         <f t="shared" si="5"/>
         <v>2.5202083744144636E-4</v>
       </c>
-      <c r="J20" s="45"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="42" t="s">
@@ -24190,11 +24122,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_3,2,2,2</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="48">
         <f t="shared" si="5"/>
         <v>2.5202083744144636E-4</v>
       </c>
-      <c r="J21" s="45"/>
+      <c r="J21" s="44"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="42" t="s">
@@ -24223,11 +24155,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_4,1,1,1</v>
       </c>
-      <c r="H22" s="50">
+      <c r="H22" s="48">
         <f t="shared" si="5"/>
         <v>0.15080665705128402</v>
       </c>
-      <c r="J22" s="45"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="42" t="s">
@@ -24256,11 +24188,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_4,1,1,2</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23" s="48">
         <f t="shared" si="5"/>
         <v>0.15080665705128402</v>
       </c>
-      <c r="J23" s="45"/>
+      <c r="J23" s="44"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="42" t="s">
@@ -24289,11 +24221,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_4,1,2,1</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24" s="48">
         <f t="shared" si="5"/>
         <v>2.5202083744144636E-4</v>
       </c>
-      <c r="J24" s="45"/>
+      <c r="J24" s="44"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="42" t="s">
@@ -24322,11 +24254,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_4,1,2,2</v>
       </c>
-      <c r="H25" s="50">
+      <c r="H25" s="48">
         <f t="shared" si="5"/>
         <v>2.5202083744144636E-4</v>
       </c>
-      <c r="J25" s="45"/>
+      <c r="J25" s="44"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="42" t="s">
@@ -24355,11 +24287,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_4,2,1,1</v>
       </c>
-      <c r="H26" s="50">
+      <c r="H26" s="48">
         <f t="shared" si="5"/>
         <v>1.0477957241504983E-3</v>
       </c>
-      <c r="J26" s="45"/>
+      <c r="J26" s="44"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="42" t="s">
@@ -24388,11 +24320,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_4,2,1,2</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="48">
         <f t="shared" si="5"/>
         <v>1.0477957241504983E-3</v>
       </c>
-      <c r="J27" s="45"/>
+      <c r="J27" s="44"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="42" t="s">
@@ -24421,11 +24353,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_4,2,2,1</v>
       </c>
-      <c r="H28" s="50">
+      <c r="H28" s="48">
         <f t="shared" si="5"/>
         <v>2.5202083744144636E-4</v>
       </c>
-      <c r="J28" s="45"/>
+      <c r="J28" s="44"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="42" t="s">
@@ -24454,15 +24386,15 @@
         <f t="shared" si="4"/>
         <v>alpha^in_4,2,2,2</v>
       </c>
-      <c r="H29" s="50">
+      <c r="H29" s="48">
         <f t="shared" si="5"/>
         <v>2.5202083744144636E-4</v>
       </c>
-      <c r="J29" s="45"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="42" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B30" s="43">
         <v>1.4542222378417012E-3</v>
@@ -24487,15 +24419,15 @@
         <f t="shared" si="4"/>
         <v>alpha^in_6,1,1,1</v>
       </c>
-      <c r="H30" s="50">
+      <c r="H30" s="48">
         <f t="shared" si="5"/>
         <v>3.0776868785976331E-3</v>
       </c>
-      <c r="J30" s="45"/>
+      <c r="J30" s="44"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="42" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B31" s="43">
         <v>1.4542222378417012E-3</v>
@@ -24520,15 +24452,15 @@
         <f t="shared" si="4"/>
         <v>alpha^in_6,1,1,2</v>
       </c>
-      <c r="H31" s="50">
+      <c r="H31" s="48">
         <f t="shared" si="5"/>
         <v>3.0776868785976331E-3</v>
       </c>
-      <c r="J31" s="45"/>
+      <c r="J31" s="44"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="42" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B32" s="43">
         <v>1.4289730722983818E-4</v>
@@ -24553,15 +24485,15 @@
         <f t="shared" si="4"/>
         <v>alpha^in_6,1,2,1</v>
       </c>
-      <c r="H32" s="50">
+      <c r="H32" s="48">
         <f t="shared" si="5"/>
         <v>3.0242500492973565E-4</v>
       </c>
-      <c r="J32" s="45"/>
+      <c r="J32" s="44"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="42" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B33" s="43">
         <v>1.9052974297311762E-4</v>
@@ -24586,15 +24518,15 @@
         <f t="shared" si="4"/>
         <v>alpha^in_6,1,2,2</v>
       </c>
-      <c r="H33" s="50">
+      <c r="H33" s="48">
         <f t="shared" si="5"/>
         <v>4.0323333990631427E-4</v>
       </c>
-      <c r="J33" s="45"/>
+      <c r="J33" s="44"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="42" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B34" s="43">
         <v>1.0103850006150174E-5</v>
@@ -24619,15 +24551,15 @@
         <f t="shared" si="4"/>
         <v>alpha^in_6,2,1,1</v>
       </c>
-      <c r="H34" s="50">
+      <c r="H34" s="48">
         <f t="shared" si="5"/>
         <v>2.1383586207153025E-5</v>
       </c>
-      <c r="J34" s="45"/>
+      <c r="J34" s="44"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="42" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B35" s="43">
         <v>1.0103850006150174E-5</v>
@@ -24652,15 +24584,15 @@
         <f t="shared" si="4"/>
         <v>alpha^in_6,2,1,2</v>
       </c>
-      <c r="H35" s="50">
+      <c r="H35" s="48">
         <f t="shared" si="5"/>
         <v>2.1383586207153025E-5</v>
       </c>
-      <c r="J35" s="45"/>
+      <c r="J35" s="44"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="42" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B36" s="43">
         <v>1.4289730722983818E-4</v>
@@ -24685,15 +24617,15 @@
         <f t="shared" si="4"/>
         <v>alpha^in_6,2,2,1</v>
       </c>
-      <c r="H36" s="50">
+      <c r="H36" s="48">
         <f t="shared" si="5"/>
         <v>3.0242500492973565E-4</v>
       </c>
-      <c r="J36" s="45"/>
+      <c r="J36" s="44"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="42" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B37" s="43">
         <v>1.9052974297311762E-4</v>
@@ -24718,11 +24650,11 @@
         <f t="shared" si="4"/>
         <v>alpha^in_6,2,2,2</v>
       </c>
-      <c r="H37" s="50">
+      <c r="H37" s="48">
         <f t="shared" si="5"/>
         <v>4.0323333990631427E-4</v>
       </c>
-      <c r="J37" s="45"/>
+      <c r="J37" s="44"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="42" t="s">
@@ -24733,8 +24665,8 @@
       </c>
     </row>
     <row r="51" spans="12:13">
-      <c r="L51" s="48"/>
-      <c r="M51" s="47"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/param_files/Epi_model_parameters.xlsx
+++ b/param_files/Epi_model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/github/epi_model_HIV_TB/param_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AECCAE-4503-8E4D-B215-EE91778F6F1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FA5DD7-056D-0247-8C1E-AFE5E98D987B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="500" windowWidth="28980" windowHeight="20200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6860" yWindow="500" windowWidth="28980" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model_matched_parameters" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="43" r:id="rId7"/>
+    <pivotCache cacheId="45" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2415,7 +2415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2488,6 +2488,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2505,7 +2511,7 @@
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2690,6 +2696,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2698,127 +2707,7 @@
     <cellStyle name="Normal 2" xfId="4" xr:uid="{5D97DEA6-68C3-8249-A243-040086A711B9}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <sz val="12"/>
@@ -5528,7 +5417,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{60C37B3B-DBC2-EC45-B48A-E32E0A44E25E}" name="PivotTable3" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{60C37B3B-DBC2-EC45-B48A-E32E0A44E25E}" name="PivotTable3" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -5636,7 +5525,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B7C60F3-EC28-E44D-AFB7-6EDCF76FFED2}" name="PivotTable1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Compartment">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B7C60F3-EC28-E44D-AFB7-6EDCF76FFED2}" name="PivotTable1" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Compartment">
   <location ref="A5:B38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -5931,28 +5820,28 @@
     <dataField name="Sum of Proportion in compartment" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="31">
+    <format dxfId="7">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="5">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="3">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="1">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -13803,7 +13692,7 @@
         <v>585</v>
       </c>
       <c r="L177" s="11">
-        <f t="shared" ref="L176:L183" si="13">L161</f>
+        <f t="shared" ref="L177:L183" si="13">L161</f>
         <v>1.9E-3</v>
       </c>
       <c r="O177" s="51"/>
@@ -15859,11 +15748,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD4AF83-5BDA-B246-9A8F-C4F47C31E1D4}">
   <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16066,7 +15955,7 @@
       </c>
       <c r="G10" s="1">
         <f>G11</f>
-        <v>0.17999999999999994</v>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -16086,7 +15975,7 @@
       </c>
       <c r="G11" s="1">
         <f>1-G15-G13</f>
-        <v>0.17999999999999994</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="K11" t="s">
         <v>290</v>
@@ -16148,8 +16037,8 @@
       <c r="F14" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G14" s="1">
-        <v>0.27</v>
+      <c r="G14" s="72">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -16167,8 +16056,8 @@
       <c r="F15" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G15" s="35">
-        <v>0.27</v>
+      <c r="G15" s="72">
+        <v>0</v>
       </c>
       <c r="K15" t="s">
         <v>289</v>
@@ -17504,7 +17393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840406DF-E237-2443-A207-5C19A8ABA677}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -17628,8 +17517,8 @@
   <dimension ref="A1:Q194"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N79" sqref="N79"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2:N129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17830,7 +17719,7 @@
       </c>
       <c r="J4" s="9">
         <f>IF(E4=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E4=2,indirect_model_parameters!$G$10,IF(E4=3,indirect_model_parameters!$G$12,IF(E4=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L4" s="9">
         <f t="shared" si="3"/>
@@ -17879,19 +17768,19 @@
       </c>
       <c r="J5" s="9">
         <f>IF(E5=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E5=2,indirect_model_parameters!$G$10,IF(E5=3,indirect_model_parameters!$G$12,IF(E5=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="3"/>
-        <v>5.345999999999998E-2</v>
+        <v>0.13364999999999999</v>
       </c>
       <c r="M5" s="9">
         <f>(L5/SUM($L$2:$L$33))*indirect_model_parameters!$G$22</f>
-        <v>1.3364999999999998E-2</v>
+        <v>3.3412500000000005E-2</v>
       </c>
       <c r="N5" s="37">
         <f>M5*indirect_model_parameters!$G$9</f>
-        <v>1336.4999999999998</v>
+        <v>3341.2500000000005</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -18026,7 +17915,7 @@
       </c>
       <c r="J8" s="9">
         <f>IF(E8=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E8=2,indirect_model_parameters!$G$10,IF(E8=3,indirect_model_parameters!$G$12,IF(E8=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" si="3"/>
@@ -18075,19 +17964,19 @@
       </c>
       <c r="J9" s="9">
         <f>IF(E9=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E9=2,indirect_model_parameters!$G$10,IF(E9=3,indirect_model_parameters!$G$12,IF(E9=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L9" s="9">
         <f t="shared" si="3"/>
-        <v>8.0189999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="M9" s="9">
         <f>(L9/SUM($L$2:$L$33))*indirect_model_parameters!$G$22</f>
-        <v>2.0047500000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="N9" s="37">
         <f>M9*indirect_model_parameters!$G$9</f>
-        <v>2004.7500000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -18222,7 +18111,7 @@
       </c>
       <c r="J12" s="9">
         <f>IF(E12=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E12=2,indirect_model_parameters!$G$10,IF(E12=3,indirect_model_parameters!$G$12,IF(E12=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
@@ -18271,19 +18160,19 @@
       </c>
       <c r="J13" s="9">
         <f>IF(E13=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E13=2,indirect_model_parameters!$G$10,IF(E13=3,indirect_model_parameters!$G$12,IF(E13=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L13" s="9">
         <f t="shared" si="3"/>
-        <v>5.345999999999998E-2</v>
+        <v>0.13364999999999999</v>
       </c>
       <c r="M13" s="9">
         <f>(L13/SUM($L$2:$L$33))*indirect_model_parameters!$G$22</f>
-        <v>1.3364999999999998E-2</v>
+        <v>3.3412500000000005E-2</v>
       </c>
       <c r="N13" s="37">
         <f>M13*indirect_model_parameters!$G$9</f>
-        <v>1336.4999999999998</v>
+        <v>3341.2500000000005</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -18418,7 +18307,7 @@
       </c>
       <c r="J16" s="9">
         <f>IF(E16=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E16=2,indirect_model_parameters!$G$10,IF(E16=3,indirect_model_parameters!$G$12,IF(E16=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="3"/>
@@ -18467,19 +18356,19 @@
       </c>
       <c r="J17" s="9">
         <f>IF(E17=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E17=2,indirect_model_parameters!$G$10,IF(E17=3,indirect_model_parameters!$G$12,IF(E17=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" si="3"/>
-        <v>8.0189999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="M17" s="9">
         <f>(L17/SUM($L$2:$L$33))*indirect_model_parameters!$G$22</f>
-        <v>2.0047500000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="N17" s="37">
         <f>M17*indirect_model_parameters!$G$9</f>
-        <v>2004.7500000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -18614,19 +18503,19 @@
       </c>
       <c r="J20" s="9">
         <f>IF(E20=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E20=2,indirect_model_parameters!$G$10,IF(E20=3,indirect_model_parameters!$G$12,IF(E20=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" si="3"/>
-        <v>5.3999999999999979E-4</v>
+        <v>1.3499999999999999E-3</v>
       </c>
       <c r="M20" s="9">
         <f>(L20/SUM($L$2:$L$33))*indirect_model_parameters!$G$22</f>
-        <v>1.3499999999999997E-4</v>
+        <v>3.3750000000000002E-4</v>
       </c>
       <c r="N20" s="37">
         <f>M20*indirect_model_parameters!$G$9</f>
-        <v>13.499999999999998</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -18663,7 +18552,7 @@
       </c>
       <c r="J21" s="9">
         <f>IF(E21=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E21=2,indirect_model_parameters!$G$10,IF(E21=3,indirect_model_parameters!$G$12,IF(E21=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L21" s="9">
         <f t="shared" si="3"/>
@@ -18810,19 +18699,19 @@
       </c>
       <c r="J24" s="9">
         <f>IF(E24=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E24=2,indirect_model_parameters!$G$10,IF(E24=3,indirect_model_parameters!$G$12,IF(E24=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="9">
         <f t="shared" si="3"/>
-        <v>8.1000000000000006E-4</v>
+        <v>0</v>
       </c>
       <c r="M24" s="9">
         <f>(L24/SUM($L$2:$L$33))*indirect_model_parameters!$G$22</f>
-        <v>2.0250000000000007E-4</v>
+        <v>0</v>
       </c>
       <c r="N24" s="37">
         <f>M24*indirect_model_parameters!$G$9</f>
-        <v>20.250000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -18859,7 +18748,7 @@
       </c>
       <c r="J25" s="9">
         <f>IF(E25=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E25=2,indirect_model_parameters!$G$10,IF(E25=3,indirect_model_parameters!$G$12,IF(E25=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="3"/>
@@ -19006,19 +18895,19 @@
       </c>
       <c r="J28" s="9">
         <f>IF(E28=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E28=2,indirect_model_parameters!$G$10,IF(E28=3,indirect_model_parameters!$G$12,IF(E28=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" si="3"/>
-        <v>5.3999999999999979E-4</v>
+        <v>1.3499999999999999E-3</v>
       </c>
       <c r="M28" s="9">
         <f>(L28/SUM($L$2:$L$33))*indirect_model_parameters!$G$22</f>
-        <v>1.3499999999999997E-4</v>
+        <v>3.3750000000000002E-4</v>
       </c>
       <c r="N28" s="37">
         <f>M28*indirect_model_parameters!$G$9</f>
-        <v>13.499999999999998</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -19055,7 +18944,7 @@
       </c>
       <c r="J29" s="9">
         <f>IF(E29=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E29=2,indirect_model_parameters!$G$10,IF(E29=3,indirect_model_parameters!$G$12,IF(E29=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L29" s="9">
         <f t="shared" si="3"/>
@@ -19202,19 +19091,19 @@
       </c>
       <c r="J32" s="9">
         <f>IF(E32=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E32=2,indirect_model_parameters!$G$10,IF(E32=3,indirect_model_parameters!$G$12,IF(E32=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L32" s="9">
         <f t="shared" si="3"/>
-        <v>8.1000000000000006E-4</v>
+        <v>0</v>
       </c>
       <c r="M32" s="9">
         <f>(L32/SUM($L$2:$L$33))*indirect_model_parameters!$G$22</f>
-        <v>2.0250000000000007E-4</v>
+        <v>0</v>
       </c>
       <c r="N32" s="37">
         <f>M32*indirect_model_parameters!$G$9</f>
-        <v>20.250000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -19251,7 +19140,7 @@
       </c>
       <c r="J33" s="9">
         <f>IF(E33=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E33=2,indirect_model_parameters!$G$10,IF(E33=3,indirect_model_parameters!$G$12,IF(E33=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L33" s="9">
         <f t="shared" si="3"/>
@@ -19308,11 +19197,11 @@
       </c>
       <c r="M34" s="9">
         <f>(L34/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>8.0203870168483703E-3</v>
+        <v>8.0203870168483668E-3</v>
       </c>
       <c r="N34" s="37">
         <f>M34*indirect_model_parameters!$G$9</f>
-        <v>802.03870168483706</v>
+        <v>802.03870168483672</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -19357,11 +19246,11 @@
       </c>
       <c r="M35" s="9">
         <f>(L35/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>3.0815609514370679E-4</v>
+        <v>3.0815609514370668E-4</v>
       </c>
       <c r="N35" s="37">
         <f>M35*indirect_model_parameters!$G$9</f>
-        <v>30.815609514370678</v>
+        <v>30.815609514370667</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -19398,19 +19287,19 @@
       </c>
       <c r="J36" s="9">
         <f>IF(E36=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E36=2,indirect_model_parameters!$G$10,IF(E36=3,indirect_model_parameters!$G$12,IF(E36=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L36" s="9">
         <f t="shared" si="6"/>
-        <v>2.5480979999999991E-3</v>
+        <v>6.3702449999999992E-3</v>
       </c>
       <c r="M36" s="9">
         <f>(L36/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>6.1871556987115985E-4</v>
+        <v>1.546788924677899E-3</v>
       </c>
       <c r="N36" s="37">
         <f>M36*indirect_model_parameters!$G$9</f>
-        <v>61.871556987115987</v>
+        <v>154.67889246778989</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -19447,19 +19336,19 @@
       </c>
       <c r="J37" s="9">
         <f>IF(E37=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E37=2,indirect_model_parameters!$G$10,IF(E37=3,indirect_model_parameters!$G$12,IF(E37=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L37" s="9">
         <f t="shared" si="6"/>
-        <v>9.7901999999999958E-5</v>
+        <v>2.4475499999999998E-4</v>
       </c>
       <c r="M37" s="9">
         <f>(L37/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>2.3772041625371663E-5</v>
+        <v>5.9430104063429151E-5</v>
       </c>
       <c r="N37" s="37">
         <f>M37*indirect_model_parameters!$G$9</f>
-        <v>2.3772041625371663</v>
+        <v>5.943010406342915</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -19504,11 +19393,11 @@
       </c>
       <c r="M38" s="9">
         <f>(L38/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>1.8905197968285446E-3</v>
+        <v>1.8905197968285437E-3</v>
       </c>
       <c r="N38" s="37">
         <f>M38*indirect_model_parameters!$G$9</f>
-        <v>189.05197968285447</v>
+        <v>189.05197968285438</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -19553,11 +19442,11 @@
       </c>
       <c r="M39" s="9">
         <f>(L39/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>7.2636793855302337E-5</v>
+        <v>7.2636793855302309E-5</v>
       </c>
       <c r="N39" s="37">
         <f>M39*indirect_model_parameters!$G$9</f>
-        <v>7.2636793855302333</v>
+        <v>7.2636793855302306</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -19594,19 +19483,19 @@
       </c>
       <c r="J40" s="9">
         <f>IF(E40=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E40=2,indirect_model_parameters!$G$10,IF(E40=3,indirect_model_parameters!$G$12,IF(E40=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L40" s="9">
         <f t="shared" si="6"/>
-        <v>3.8221470000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="M40" s="9">
         <f>(L40/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>9.2807335480674005E-4</v>
+        <v>0</v>
       </c>
       <c r="N40" s="37">
         <f>M40*indirect_model_parameters!$G$9</f>
-        <v>92.807335480673999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -19643,19 +19532,19 @@
       </c>
       <c r="J41" s="9">
         <f>IF(E41=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E41=2,indirect_model_parameters!$G$10,IF(E41=3,indirect_model_parameters!$G$12,IF(E41=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L41" s="9">
         <f t="shared" si="6"/>
-        <v>1.4685300000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="M41" s="9">
         <f>(L41/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>3.5658062438057508E-5</v>
+        <v>0</v>
       </c>
       <c r="N41" s="37">
         <f>M41*indirect_model_parameters!$G$9</f>
-        <v>3.565806243805751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -19700,11 +19589,11 @@
       </c>
       <c r="M42" s="9">
         <f>(L42/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>8.0203870168483703E-3</v>
+        <v>8.0203870168483668E-3</v>
       </c>
       <c r="N42" s="37">
         <f>M42*indirect_model_parameters!$G$9</f>
-        <v>802.03870168483706</v>
+        <v>802.03870168483672</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -19749,11 +19638,11 @@
       </c>
       <c r="M43" s="9">
         <f>(L43/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>3.0815609514370679E-4</v>
+        <v>3.0815609514370668E-4</v>
       </c>
       <c r="N43" s="37">
         <f>M43*indirect_model_parameters!$G$9</f>
-        <v>30.815609514370678</v>
+        <v>30.815609514370667</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -19790,19 +19679,19 @@
       </c>
       <c r="J44" s="9">
         <f>IF(E44=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E44=2,indirect_model_parameters!$G$10,IF(E44=3,indirect_model_parameters!$G$12,IF(E44=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L44" s="9">
         <f t="shared" si="6"/>
-        <v>2.5480979999999991E-3</v>
+        <v>6.3702449999999992E-3</v>
       </c>
       <c r="M44" s="9">
         <f>(L44/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>6.1871556987115985E-4</v>
+        <v>1.546788924677899E-3</v>
       </c>
       <c r="N44" s="37">
         <f>M44*indirect_model_parameters!$G$9</f>
-        <v>61.871556987115987</v>
+        <v>154.67889246778989</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -19839,19 +19728,19 @@
       </c>
       <c r="J45" s="9">
         <f>IF(E45=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E45=2,indirect_model_parameters!$G$10,IF(E45=3,indirect_model_parameters!$G$12,IF(E45=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L45" s="9">
         <f t="shared" si="6"/>
-        <v>9.7901999999999958E-5</v>
+        <v>2.4475499999999998E-4</v>
       </c>
       <c r="M45" s="9">
         <f>(L45/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>2.3772041625371663E-5</v>
+        <v>5.9430104063429151E-5</v>
       </c>
       <c r="N45" s="37">
         <f>M45*indirect_model_parameters!$G$9</f>
-        <v>2.3772041625371663</v>
+        <v>5.943010406342915</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -19896,11 +19785,11 @@
       </c>
       <c r="M46" s="9">
         <f>(L46/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>1.8905197968285446E-3</v>
+        <v>1.8905197968285437E-3</v>
       </c>
       <c r="N46" s="37">
         <f>M46*indirect_model_parameters!$G$9</f>
-        <v>189.05197968285447</v>
+        <v>189.05197968285438</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -19945,11 +19834,11 @@
       </c>
       <c r="M47" s="9">
         <f>(L47/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>7.2636793855302337E-5</v>
+        <v>7.2636793855302309E-5</v>
       </c>
       <c r="N47" s="37">
         <f>M47*indirect_model_parameters!$G$9</f>
-        <v>7.2636793855302333</v>
+        <v>7.2636793855302306</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -19986,19 +19875,19 @@
       </c>
       <c r="J48" s="9">
         <f>IF(E48=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E48=2,indirect_model_parameters!$G$10,IF(E48=3,indirect_model_parameters!$G$12,IF(E48=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L48" s="9">
         <f t="shared" si="6"/>
-        <v>3.8221470000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="M48" s="9">
         <f>(L48/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>9.2807335480674005E-4</v>
+        <v>0</v>
       </c>
       <c r="N48" s="37">
         <f>M48*indirect_model_parameters!$G$9</f>
-        <v>92.807335480673999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -20035,19 +19924,19 @@
       </c>
       <c r="J49" s="9">
         <f>IF(E49=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E49=2,indirect_model_parameters!$G$10,IF(E49=3,indirect_model_parameters!$G$12,IF(E49=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L49" s="9">
         <f t="shared" si="6"/>
-        <v>1.4685300000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="M49" s="9">
         <f>(L49/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>3.5658062438057508E-5</v>
+        <v>0</v>
       </c>
       <c r="N49" s="37">
         <f>M49*indirect_model_parameters!$G$9</f>
-        <v>3.565806243805751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -20092,11 +19981,11 @@
       </c>
       <c r="M50" s="9">
         <f>(L50/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>0.1554972993062439</v>
+        <v>0.15549729930624381</v>
       </c>
       <c r="N50" s="37">
         <f>M50*indirect_model_parameters!$G$9</f>
-        <v>15549.729930624389</v>
+        <v>15549.729930624382</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -20141,11 +20030,11 @@
       </c>
       <c r="M51" s="9">
         <f>(L51/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>5.9744549058473768E-3</v>
+        <v>5.9744549058473742E-3</v>
       </c>
       <c r="N51" s="37">
         <f>M51*indirect_model_parameters!$G$9</f>
-        <v>597.44549058473774</v>
+        <v>597.4454905847374</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -20182,19 +20071,19 @@
       </c>
       <c r="J52" s="9">
         <f>IF(E52=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E52=2,indirect_model_parameters!$G$10,IF(E52=3,indirect_model_parameters!$G$12,IF(E52=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L52" s="9">
         <f t="shared" si="6"/>
-        <v>4.9401899999999978E-2</v>
+        <v>0.12350474999999997</v>
       </c>
       <c r="M52" s="9">
         <f>(L52/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>1.1995505946481669E-2</v>
+        <v>2.9988764866204165E-2</v>
       </c>
       <c r="N52" s="37">
         <f>M52*indirect_model_parameters!$G$9</f>
-        <v>1199.5505946481669</v>
+        <v>2998.8764866204165</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -20231,19 +20120,19 @@
       </c>
       <c r="J53" s="9">
         <f>IF(E53=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E53=2,indirect_model_parameters!$G$10,IF(E53=3,indirect_model_parameters!$G$12,IF(E53=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L53" s="9">
         <f t="shared" si="6"/>
-        <v>1.8980999999999989E-3</v>
+        <v>4.7452499999999986E-3</v>
       </c>
       <c r="M53" s="9">
         <f>(L53/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>4.6088652130822606E-4</v>
+        <v>1.1522163032705651E-3</v>
       </c>
       <c r="N53" s="37">
         <f>M53*indirect_model_parameters!$G$9</f>
-        <v>46.088652130822602</v>
+        <v>115.2216303270565</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -20288,11 +20177,11 @@
       </c>
       <c r="M54" s="9">
         <f>(L54/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>3.6652934836471779E-2</v>
+        <v>3.6652934836471765E-2</v>
       </c>
       <c r="N54" s="37">
         <f>M54*indirect_model_parameters!$G$9</f>
-        <v>3665.2934836471777</v>
+        <v>3665.2934836471763</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -20337,11 +20226,11 @@
       </c>
       <c r="M55" s="9">
         <f>(L55/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>1.4082643706640246E-3</v>
+        <v>1.408264370664024E-3</v>
       </c>
       <c r="N55" s="37">
         <f>M55*indirect_model_parameters!$G$9</f>
-        <v>140.82643706640246</v>
+        <v>140.82643706640241</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -20378,19 +20267,19 @@
       </c>
       <c r="J56" s="9">
         <f>IF(E56=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E56=2,indirect_model_parameters!$G$10,IF(E56=3,indirect_model_parameters!$G$12,IF(E56=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L56" s="9">
         <f t="shared" si="6"/>
-        <v>7.4102849999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="M56" s="9">
         <f>(L56/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>1.7993258919722512E-2</v>
+        <v>0</v>
       </c>
       <c r="N56" s="37">
         <f>M56*indirect_model_parameters!$G$9</f>
-        <v>1799.3258919722512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -20427,19 +20316,19 @@
       </c>
       <c r="J57" s="9">
         <f>IF(E57=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E57=2,indirect_model_parameters!$G$10,IF(E57=3,indirect_model_parameters!$G$12,IF(E57=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L57" s="9">
         <f t="shared" si="6"/>
-        <v>2.8471499999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="M57" s="9">
         <f>(L57/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>6.9132978196233936E-4</v>
+        <v>0</v>
       </c>
       <c r="N57" s="37">
         <f>M57*indirect_model_parameters!$G$9</f>
-        <v>69.132978196233935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -20484,11 +20373,11 @@
       </c>
       <c r="M58" s="9">
         <f>(L58/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>0.1554972993062439</v>
+        <v>0.15549729930624381</v>
       </c>
       <c r="N58" s="37">
         <f>M58*indirect_model_parameters!$G$9</f>
-        <v>15549.729930624389</v>
+        <v>15549.729930624382</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -20533,11 +20422,11 @@
       </c>
       <c r="M59" s="9">
         <f>(L59/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>5.9744549058473768E-3</v>
+        <v>5.9744549058473742E-3</v>
       </c>
       <c r="N59" s="37">
         <f>M59*indirect_model_parameters!$G$9</f>
-        <v>597.44549058473774</v>
+        <v>597.4454905847374</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -20574,19 +20463,19 @@
       </c>
       <c r="J60" s="9">
         <f>IF(E60=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E60=2,indirect_model_parameters!$G$10,IF(E60=3,indirect_model_parameters!$G$12,IF(E60=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L60" s="9">
         <f t="shared" si="6"/>
-        <v>4.9401899999999978E-2</v>
+        <v>0.12350474999999997</v>
       </c>
       <c r="M60" s="9">
         <f>(L60/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>1.1995505946481669E-2</v>
+        <v>2.9988764866204165E-2</v>
       </c>
       <c r="N60" s="37">
         <f>M60*indirect_model_parameters!$G$9</f>
-        <v>1199.5505946481669</v>
+        <v>2998.8764866204165</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -20623,19 +20512,19 @@
       </c>
       <c r="J61" s="9">
         <f>IF(E61=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E61=2,indirect_model_parameters!$G$10,IF(E61=3,indirect_model_parameters!$G$12,IF(E61=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L61" s="9">
         <f t="shared" si="6"/>
-        <v>1.8980999999999989E-3</v>
+        <v>4.7452499999999986E-3</v>
       </c>
       <c r="M61" s="9">
         <f>(L61/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>4.6088652130822606E-4</v>
+        <v>1.1522163032705651E-3</v>
       </c>
       <c r="N61" s="37">
         <f>M61*indirect_model_parameters!$G$9</f>
-        <v>46.088652130822602</v>
+        <v>115.2216303270565</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -20680,11 +20569,11 @@
       </c>
       <c r="M62" s="9">
         <f>(L62/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>3.6652934836471779E-2</v>
+        <v>3.6652934836471765E-2</v>
       </c>
       <c r="N62" s="37">
         <f>M62*indirect_model_parameters!$G$9</f>
-        <v>3665.2934836471777</v>
+        <v>3665.2934836471763</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -20729,11 +20618,11 @@
       </c>
       <c r="M63" s="9">
         <f>(L63/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>1.4082643706640246E-3</v>
+        <v>1.408264370664024E-3</v>
       </c>
       <c r="N63" s="37">
         <f>M63*indirect_model_parameters!$G$9</f>
-        <v>140.82643706640246</v>
+        <v>140.82643706640241</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -20770,19 +20659,19 @@
       </c>
       <c r="J64" s="9">
         <f>IF(E64=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E64=2,indirect_model_parameters!$G$10,IF(E64=3,indirect_model_parameters!$G$12,IF(E64=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L64" s="9">
         <f t="shared" si="6"/>
-        <v>7.4102849999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="M64" s="9">
         <f>(L64/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>1.7993258919722512E-2</v>
+        <v>0</v>
       </c>
       <c r="N64" s="37">
         <f>M64*indirect_model_parameters!$G$9</f>
-        <v>1799.3258919722512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -20819,19 +20708,19 @@
       </c>
       <c r="J65" s="9">
         <f>IF(E65=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E65=2,indirect_model_parameters!$G$10,IF(E65=3,indirect_model_parameters!$G$12,IF(E65=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L65" s="9">
         <f t="shared" si="6"/>
-        <v>2.8471499999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="M65" s="9">
         <f>(L65/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>6.9132978196233936E-4</v>
+        <v>0</v>
       </c>
       <c r="N65" s="37">
         <f>M65*indirect_model_parameters!$G$9</f>
-        <v>69.132978196233935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -20876,11 +20765,11 @@
       </c>
       <c r="M66" s="9">
         <f>(L66/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>1.6368136769078308E-3</v>
+        <v>1.6368136769078299E-3</v>
       </c>
       <c r="N66" s="37">
         <f>M66*indirect_model_parameters!$G$9</f>
-        <v>163.68136769078308</v>
+        <v>163.68136769078299</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -20925,11 +20814,11 @@
       </c>
       <c r="M67" s="9">
         <f>(L67/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>6.2888999008919763E-5</v>
+        <v>6.2888999008919736E-5</v>
       </c>
       <c r="N67" s="37">
         <f>M67*indirect_model_parameters!$G$9</f>
-        <v>6.2888999008919759</v>
+        <v>6.2888999008919733</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -20966,19 +20855,19 @@
       </c>
       <c r="J68" s="9">
         <f>IF(E68=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E68=2,indirect_model_parameters!$G$10,IF(E68=3,indirect_model_parameters!$G$12,IF(E68=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L68" s="9">
         <f t="shared" si="9"/>
-        <v>5.2001999999999973E-4</v>
+        <v>1.3000499999999999E-3</v>
       </c>
       <c r="M68" s="9">
         <f>(L68/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>1.2626848364717547E-4</v>
+        <v>3.1567120911793863E-4</v>
       </c>
       <c r="N68" s="37">
         <f>M68*indirect_model_parameters!$G$9</f>
-        <v>12.626848364717548</v>
+        <v>31.567120911793864</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -21015,19 +20904,19 @@
       </c>
       <c r="J69" s="9">
         <f>IF(E69=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E69=2,indirect_model_parameters!$G$10,IF(E69=3,indirect_model_parameters!$G$12,IF(E69=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L69" s="9">
         <f t="shared" si="9"/>
-        <v>1.9979999999999992E-5</v>
+        <v>4.9949999999999994E-5</v>
       </c>
       <c r="M69" s="9">
         <f>(L69/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>4.8514370664023799E-6</v>
+        <v>1.2128592666005949E-5</v>
       </c>
       <c r="N69" s="37">
         <f>M69*indirect_model_parameters!$G$9</f>
-        <v>0.48514370664023798</v>
+        <v>1.2128592666005948</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -21072,11 +20961,11 @@
       </c>
       <c r="M70" s="9">
         <f>(L70/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>3.8582036669970298E-4</v>
+        <v>3.8582036669970276E-4</v>
       </c>
       <c r="N70" s="37">
         <f>M70*indirect_model_parameters!$G$9</f>
-        <v>38.5820366699703</v>
+        <v>38.582036669970279</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -21121,11 +21010,11 @@
       </c>
       <c r="M71" s="9">
         <f>(L71/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>1.4823835480673948E-5</v>
+        <v>1.4823835480673941E-5</v>
       </c>
       <c r="N71" s="37">
         <f>M71*indirect_model_parameters!$G$9</f>
-        <v>1.4823835480673948</v>
+        <v>1.4823835480673941</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -21162,19 +21051,19 @@
       </c>
       <c r="J72" s="9">
         <f>IF(E72=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E72=2,indirect_model_parameters!$G$10,IF(E72=3,indirect_model_parameters!$G$12,IF(E72=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L72" s="9">
         <f t="shared" si="9"/>
-        <v>7.8003000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="M72" s="9">
         <f>(L72/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>1.8940272547076327E-4</v>
+        <v>0</v>
       </c>
       <c r="N72" s="37">
         <f>M72*indirect_model_parameters!$G$9</f>
-        <v>18.940272547076326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -21211,19 +21100,19 @@
       </c>
       <c r="J73" s="9">
         <f>IF(E73=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E73=2,indirect_model_parameters!$G$10,IF(E73=3,indirect_model_parameters!$G$12,IF(E73=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L73" s="9">
         <f t="shared" si="9"/>
-        <v>2.9969999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="M73" s="9">
         <f>(L73/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>7.2771555996035736E-6</v>
+        <v>0</v>
       </c>
       <c r="N73" s="37">
         <f>M73*indirect_model_parameters!$G$9</f>
-        <v>0.72771555996035731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -21268,11 +21157,11 @@
       </c>
       <c r="M74" s="9">
         <f>(L74/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>1.6368136769078308E-3</v>
+        <v>1.6368136769078299E-3</v>
       </c>
       <c r="N74" s="37">
         <f>M74*indirect_model_parameters!$G$9</f>
-        <v>163.68136769078308</v>
+        <v>163.68136769078299</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -21317,11 +21206,11 @@
       </c>
       <c r="M75" s="9">
         <f>(L75/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>6.2888999008919763E-5</v>
+        <v>6.2888999008919736E-5</v>
       </c>
       <c r="N75" s="37">
         <f>M75*indirect_model_parameters!$G$9</f>
-        <v>6.2888999008919759</v>
+        <v>6.2888999008919733</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -21358,19 +21247,19 @@
       </c>
       <c r="J76" s="9">
         <f>IF(E76=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E76=2,indirect_model_parameters!$G$10,IF(E76=3,indirect_model_parameters!$G$12,IF(E76=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L76" s="9">
         <f t="shared" si="9"/>
-        <v>5.2001999999999973E-4</v>
+        <v>1.3000499999999999E-3</v>
       </c>
       <c r="M76" s="9">
         <f>(L76/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>1.2626848364717547E-4</v>
+        <v>3.1567120911793863E-4</v>
       </c>
       <c r="N76" s="37">
         <f>M76*indirect_model_parameters!$G$9</f>
-        <v>12.626848364717548</v>
+        <v>31.567120911793864</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -21407,19 +21296,19 @@
       </c>
       <c r="J77" s="9">
         <f>IF(E77=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E77=2,indirect_model_parameters!$G$10,IF(E77=3,indirect_model_parameters!$G$12,IF(E77=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L77" s="9">
         <f t="shared" si="9"/>
-        <v>1.9979999999999992E-5</v>
+        <v>4.9949999999999994E-5</v>
       </c>
       <c r="M77" s="9">
         <f>(L77/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>4.8514370664023799E-6</v>
+        <v>1.2128592666005949E-5</v>
       </c>
       <c r="N77" s="37">
         <f>M77*indirect_model_parameters!$G$9</f>
-        <v>0.48514370664023798</v>
+        <v>1.2128592666005948</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -21464,11 +21353,11 @@
       </c>
       <c r="M78" s="9">
         <f>(L78/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>3.8582036669970298E-4</v>
+        <v>3.8582036669970276E-4</v>
       </c>
       <c r="N78" s="37">
         <f>M78*indirect_model_parameters!$G$9</f>
-        <v>38.5820366699703</v>
+        <v>38.582036669970279</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -21513,11 +21402,11 @@
       </c>
       <c r="M79" s="9">
         <f>(L79/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>1.4823835480673948E-5</v>
+        <v>1.4823835480673941E-5</v>
       </c>
       <c r="N79" s="37">
         <f>M79*indirect_model_parameters!$G$9</f>
-        <v>1.4823835480673948</v>
+        <v>1.4823835480673941</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -21554,19 +21443,19 @@
       </c>
       <c r="J80" s="9">
         <f>IF(E80=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E80=2,indirect_model_parameters!$G$10,IF(E80=3,indirect_model_parameters!$G$12,IF(E80=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L80" s="9">
         <f t="shared" si="9"/>
-        <v>7.8003000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="M80" s="9">
         <f>(L80/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>1.8940272547076327E-4</v>
+        <v>0</v>
       </c>
       <c r="N80" s="37">
         <f>M80*indirect_model_parameters!$G$9</f>
-        <v>18.940272547076326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -21603,19 +21492,19 @@
       </c>
       <c r="J81" s="9">
         <f>IF(E81=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E81=2,indirect_model_parameters!$G$10,IF(E81=3,indirect_model_parameters!$G$12,IF(E81=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L81" s="9">
         <f t="shared" si="9"/>
-        <v>2.9969999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="M81" s="9">
         <f>(L81/SUM($L$34:$L$81))*indirect_model_parameters!$G$20</f>
-        <v>7.2771555996035736E-6</v>
+        <v>0</v>
       </c>
       <c r="N81" s="37">
         <f>M81*indirect_model_parameters!$G$9</f>
-        <v>0.72771555996035731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -21848,19 +21737,19 @@
       </c>
       <c r="J86" s="9">
         <f>IF(E86=2,indirect_model_parameters!$G$12,IF(E86=3,indirect_model_parameters!$G$10,IF(E86=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>0.17999999999999994</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="L86" s="9">
         <f t="shared" si="9"/>
-        <v>0.10400399999999996</v>
+        <v>0.26000999999999996</v>
       </c>
       <c r="M86" s="9">
         <f>(L86/SUM($L$82:$L$97))*indirect_model_parameters!$G$24</f>
-        <v>5.2001999999999984E-4</v>
+        <v>1.3000499999999999E-3</v>
       </c>
       <c r="N86" s="37">
         <f>M86*indirect_model_parameters!$G$9</f>
-        <v>52.001999999999981</v>
+        <v>130.005</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -21897,19 +21786,19 @@
       </c>
       <c r="J87" s="9">
         <f>IF(E87=2,indirect_model_parameters!$G$12,IF(E87=3,indirect_model_parameters!$G$10,IF(E87=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>0.17999999999999994</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="L87" s="9">
         <f t="shared" si="9"/>
-        <v>3.9959999999999978E-3</v>
+        <v>9.9899999999999971E-3</v>
       </c>
       <c r="M87" s="9">
         <f>(L87/SUM($L$82:$L$97))*indirect_model_parameters!$G$24</f>
-        <v>1.9979999999999988E-5</v>
+        <v>4.9949999999999988E-5</v>
       </c>
       <c r="N87" s="37">
         <f>M87*indirect_model_parameters!$G$9</f>
-        <v>1.9979999999999989</v>
+        <v>4.9949999999999983</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -21946,19 +21835,19 @@
       </c>
       <c r="J88" s="9">
         <f>IF(E88=2,indirect_model_parameters!$G$12,IF(E88=3,indirect_model_parameters!$G$10,IF(E88=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="L88" s="9">
         <f t="shared" si="9"/>
-        <v>0.15600600000000001</v>
+        <v>0</v>
       </c>
       <c r="M88" s="9">
         <f>(L88/SUM($L$82:$L$97))*indirect_model_parameters!$G$24</f>
-        <v>7.8003000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="N88" s="37">
         <f>M88*indirect_model_parameters!$G$9</f>
-        <v>78.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -21995,19 +21884,19 @@
       </c>
       <c r="J89" s="9">
         <f>IF(E89=2,indirect_model_parameters!$G$12,IF(E89=3,indirect_model_parameters!$G$10,IF(E89=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="L89" s="9">
         <f t="shared" si="9"/>
-        <v>5.9939999999999993E-3</v>
+        <v>0</v>
       </c>
       <c r="M89" s="9">
         <f>(L89/SUM($L$82:$L$97))*indirect_model_parameters!$G$24</f>
-        <v>2.9969999999999996E-5</v>
+        <v>0</v>
       </c>
       <c r="N89" s="37">
         <f>M89*indirect_model_parameters!$G$9</f>
-        <v>2.9969999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -22240,19 +22129,19 @@
       </c>
       <c r="J94" s="9">
         <f>IF(E94=2,indirect_model_parameters!$G$12,IF(E94=3,indirect_model_parameters!$G$10,IF(E94=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>0.17999999999999994</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="L94" s="9">
         <f t="shared" si="9"/>
-        <v>0.13867199999999993</v>
+        <v>0.34667999999999993</v>
       </c>
       <c r="M94" s="9">
         <f>(L94/SUM($L$82:$L$97))*indirect_model_parameters!$G$24</f>
-        <v>6.9335999999999964E-4</v>
+        <v>1.7333999999999997E-3</v>
       </c>
       <c r="N94" s="37">
         <f>M94*indirect_model_parameters!$G$9</f>
-        <v>69.33599999999997</v>
+        <v>173.33999999999997</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -22289,19 +22178,19 @@
       </c>
       <c r="J95" s="9">
         <f>IF(E95=2,indirect_model_parameters!$G$12,IF(E95=3,indirect_model_parameters!$G$10,IF(E95=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>0.17999999999999994</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="L95" s="9">
         <f t="shared" si="9"/>
-        <v>5.3279999999999985E-3</v>
+        <v>1.3319999999999999E-2</v>
       </c>
       <c r="M95" s="9">
         <f>(L95/SUM($L$82:$L$97))*indirect_model_parameters!$G$24</f>
-        <v>2.6639999999999992E-5</v>
+        <v>6.6599999999999993E-5</v>
       </c>
       <c r="N95" s="37">
         <f>M95*indirect_model_parameters!$G$9</f>
-        <v>2.6639999999999993</v>
+        <v>6.6599999999999993</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -22338,19 +22227,19 @@
       </c>
       <c r="J96" s="9">
         <f>IF(E96=2,indirect_model_parameters!$G$12,IF(E96=3,indirect_model_parameters!$G$10,IF(E96=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="L96" s="9">
         <f t="shared" si="9"/>
-        <v>0.208008</v>
+        <v>0</v>
       </c>
       <c r="M96" s="9">
         <f>(L96/SUM($L$82:$L$97))*indirect_model_parameters!$G$24</f>
-        <v>1.0400400000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="N96" s="37">
         <f>M96*indirect_model_parameters!$G$9</f>
-        <v>104.004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -22387,19 +22276,19 @@
       </c>
       <c r="J97" s="9">
         <f>IF(E97=2,indirect_model_parameters!$G$12,IF(E97=3,indirect_model_parameters!$G$10,IF(E97=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="L97" s="9">
         <f t="shared" si="9"/>
-        <v>7.9920000000000008E-3</v>
+        <v>0</v>
       </c>
       <c r="M97" s="9">
         <f>(L97/SUM($L$82:$L$97))*indirect_model_parameters!$G$24</f>
-        <v>3.9960000000000004E-5</v>
+        <v>0</v>
       </c>
       <c r="N97" s="37">
         <f>M97*indirect_model_parameters!$G$9</f>
-        <v>3.9960000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -22529,7 +22418,7 @@
       </c>
       <c r="J100" s="9">
         <f>IF(E100=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E100=2,indirect_model_parameters!$G$10,IF(E100=3,indirect_model_parameters!$G$12,IF(E100=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L100" s="9">
         <f t="shared" si="12"/>
@@ -22576,7 +22465,7 @@
       </c>
       <c r="J101" s="9">
         <f>IF(E101=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E101=2,indirect_model_parameters!$G$10,IF(E101=3,indirect_model_parameters!$G$12,IF(E101=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L101" s="9">
         <f t="shared" si="12"/>
@@ -22717,7 +22606,7 @@
       </c>
       <c r="J104" s="9">
         <f>IF(E104=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E104=2,indirect_model_parameters!$G$10,IF(E104=3,indirect_model_parameters!$G$12,IF(E104=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L104" s="9">
         <f t="shared" si="12"/>
@@ -22764,7 +22653,7 @@
       </c>
       <c r="J105" s="9">
         <f>IF(E105=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E105=2,indirect_model_parameters!$G$10,IF(E105=3,indirect_model_parameters!$G$12,IF(E105=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L105" s="9">
         <f t="shared" si="12"/>
@@ -22905,7 +22794,7 @@
       </c>
       <c r="J108" s="9">
         <f>IF(E108=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E108=2,indirect_model_parameters!$G$10,IF(E108=3,indirect_model_parameters!$G$12,IF(E108=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L108" s="9">
         <f t="shared" si="12"/>
@@ -22952,7 +22841,7 @@
       </c>
       <c r="J109" s="9">
         <f>IF(E109=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E109=2,indirect_model_parameters!$G$10,IF(E109=3,indirect_model_parameters!$G$12,IF(E109=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L109" s="9">
         <f t="shared" si="12"/>
@@ -23093,7 +22982,7 @@
       </c>
       <c r="J112" s="9">
         <f>IF(E112=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E112=2,indirect_model_parameters!$G$10,IF(E112=3,indirect_model_parameters!$G$12,IF(E112=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L112" s="9">
         <f t="shared" si="12"/>
@@ -23140,7 +23029,7 @@
       </c>
       <c r="J113" s="9">
         <f>IF(E113=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E113=2,indirect_model_parameters!$G$10,IF(E113=3,indirect_model_parameters!$G$12,IF(E113=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L113" s="9">
         <f t="shared" si="12"/>
@@ -23281,7 +23170,7 @@
       </c>
       <c r="J116" s="9">
         <f>IF(E116=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E116=2,indirect_model_parameters!$G$10,IF(E116=3,indirect_model_parameters!$G$12,IF(E116=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L116" s="9">
         <f t="shared" si="12"/>
@@ -23328,7 +23217,7 @@
       </c>
       <c r="J117" s="9">
         <f>IF(E117=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E117=2,indirect_model_parameters!$G$10,IF(E117=3,indirect_model_parameters!$G$12,IF(E117=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L117" s="9">
         <f t="shared" si="12"/>
@@ -23469,7 +23358,7 @@
       </c>
       <c r="J120" s="9">
         <f>IF(E120=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E120=2,indirect_model_parameters!$G$10,IF(E120=3,indirect_model_parameters!$G$12,IF(E120=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L120" s="9">
         <f t="shared" si="12"/>
@@ -23516,7 +23405,7 @@
       </c>
       <c r="J121" s="9">
         <f>IF(E121=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E121=2,indirect_model_parameters!$G$10,IF(E121=3,indirect_model_parameters!$G$12,IF(E121=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L121" s="9">
         <f t="shared" si="12"/>
@@ -23657,7 +23546,7 @@
       </c>
       <c r="J124" s="9">
         <f>IF(E124=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E124=2,indirect_model_parameters!$G$10,IF(E124=3,indirect_model_parameters!$G$12,IF(E124=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L124" s="9">
         <f t="shared" si="12"/>
@@ -23704,7 +23593,7 @@
       </c>
       <c r="J125" s="9">
         <f>IF(E125=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E125=2,indirect_model_parameters!$G$10,IF(E125=3,indirect_model_parameters!$G$12,IF(E125=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>5.3999999999999979E-2</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="L125" s="9">
         <f t="shared" si="12"/>
@@ -23845,7 +23734,7 @@
       </c>
       <c r="J128" s="9">
         <f>IF(E128=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E128=2,indirect_model_parameters!$G$10,IF(E128=3,indirect_model_parameters!$G$12,IF(E128=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L128" s="9">
         <f t="shared" si="12"/>
@@ -23892,7 +23781,7 @@
       </c>
       <c r="J129" s="9">
         <f>IF(E129=1,indirect_model_parameters!$G$16,indirect_model_parameters!$G$17)*IF(E129=2,indirect_model_parameters!$G$10,IF(E129=3,indirect_model_parameters!$G$12,IF(E129=4,indirect_model_parameters!$G$14,1)))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L129" s="9">
         <f t="shared" si="12"/>

--- a/param_files/Epi_model_parameters.xlsx
+++ b/param_files/Epi_model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jross\repos\epi_model_HIV_TB\param_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5648F66D-C867-4EC0-AAA9-30E3E845FCF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851B150B-C286-4E93-A77D-184FD7A47D65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41475" yWindow="-8505" windowWidth="33480" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46515" yWindow="-7920" windowWidth="24840" windowHeight="16875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model_matched_parameters" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="678">
   <si>
     <t>Epidemiological data point (description)</t>
   </si>
@@ -1058,9 +1058,6 @@
     <t>TB-specific baseline</t>
   </si>
   <si>
-    <t>Handwavy</t>
-  </si>
-  <si>
     <t>DR adj</t>
   </si>
   <si>
@@ -2228,16 +2225,22 @@
     <t>Updated by Jen 1-15-21. Translates to 5% of adult LTBI population were infected within past two years, which may still be high.</t>
   </si>
   <si>
-    <t xml:space="preserve">Stratememans PMID 21738585. </t>
-  </si>
-  <si>
     <t>TB specific mortality among people with TB across CD4 and ART categories is 9% vs 3% in HIV neg. Should be 3x across H 2-4.</t>
   </si>
   <si>
     <t>Note estimate of 25x mortality in CD4 &lt;200 relative to HIV neg WITH TB in pre-ART era DRC.</t>
   </si>
   <si>
-    <t>Ackah PMID 7898177</t>
+    <t>Stratememans PMID 21738585. Abdool Karim PMID 20181971.</t>
+  </si>
+  <si>
+    <t>Ackah PMID 7898177. Abdool Karim PMID 20181971.</t>
+  </si>
+  <si>
+    <t>Abdool Karim PMID 20181971.</t>
+  </si>
+  <si>
+    <t>Per Abdool Karim should be 1/3 of CD4&lt;200 and not on ART</t>
   </si>
 </sst>
 </file>
@@ -6147,7 +6150,7 @@
       <pane xSplit="11" ySplit="1" topLeftCell="L199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R206" sqref="R206"/>
+      <selection pane="bottomRight" activeCell="L202" sqref="L202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
@@ -6199,7 +6202,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>9</v>
@@ -6220,7 +6223,7 @@
         <v>14</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" hidden="1">
@@ -6245,7 +6248,7 @@
         <v>beta_1</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L2" s="9">
         <v>6.5440000000000003E-3</v>
@@ -6255,7 +6258,7 @@
       </c>
       <c r="P2" s="52"/>
       <c r="Q2" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" hidden="1">
@@ -6280,7 +6283,7 @@
         <v>beta_2</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L3" s="9">
         <v>5.5440000000000003E-3</v>
@@ -6290,7 +6293,7 @@
       </c>
       <c r="P3" s="52"/>
       <c r="Q3" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="31.5" hidden="1">
@@ -6315,17 +6318,17 @@
         <v>iota_1,</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L4" s="34">
         <v>0</v>
       </c>
       <c r="O4" s="51" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P4" s="52"/>
       <c r="Q4" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="31.5" hidden="1">
@@ -6350,19 +6353,19 @@
         <v>iota_2,</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L5" s="34">
         <v>0.15</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="P5" s="64" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q5" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="42.75" hidden="1">
@@ -6387,19 +6390,19 @@
         <v>phi_1,</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L6" s="9">
         <v>1</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="P6" s="52" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Q6" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="51" hidden="1" customHeight="1">
@@ -6424,20 +6427,20 @@
         <v>phi_2,</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP("phi_1,", model_matched_parameters,3, FALSE)*VLOOKUP(K7,indirect_model_params,2)</f>
         <v>0.9</v>
       </c>
       <c r="O7" s="51" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Q7" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="51" hidden="1" customHeight="1">
@@ -6462,20 +6465,20 @@
         <v>phi_3,</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP("phi_1,", model_matched_parameters,3, FALSE)*VLOOKUP(K8,indirect_model_params,2)</f>
         <v>0.6</v>
       </c>
       <c r="O8" s="51" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="P8" s="52" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Q8" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="51" hidden="1" customHeight="1">
@@ -6500,20 +6503,20 @@
         <v>phi_4,</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP("phi_1,", model_matched_parameters,3, FALSE)*VLOOKUP(K9,indirect_model_params,2)</f>
         <v>0.9</v>
       </c>
       <c r="O9" s="51" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="P9" s="52" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Q9" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="48" hidden="1" customHeight="1">
@@ -6535,7 +6538,7 @@
         <v>upsilon_</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L10" s="34">
         <v>0.3</v>
@@ -6547,7 +6550,7 @@
         <v>36</v>
       </c>
       <c r="Q10" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="57" hidden="1">
@@ -6572,7 +6575,7 @@
         <v>varepsilon_1</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L11" s="9">
         <v>3.6999999999999998E-2</v>
@@ -6581,10 +6584,10 @@
         <v>22</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Q11" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="28.5" hidden="1">
@@ -6609,7 +6612,7 @@
         <v>varepsilon_2</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L12" s="9">
         <v>3.6999999999999998E-2</v>
@@ -6619,7 +6622,7 @@
       </c>
       <c r="P12" s="52"/>
       <c r="Q12" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="52.5" hidden="1">
@@ -6641,19 +6644,19 @@
         <v>zeta_</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L13" s="34">
         <v>0.21</v>
       </c>
       <c r="O13" s="51" t="s">
+        <v>654</v>
+      </c>
+      <c r="P13" s="65" t="s">
         <v>655</v>
       </c>
-      <c r="P13" s="65" t="s">
-        <v>656</v>
-      </c>
       <c r="Q13" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="28.5" hidden="1">
@@ -6678,7 +6681,7 @@
         <v>gamma_1,</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L14" s="9">
         <v>1</v>
@@ -6686,7 +6689,7 @@
       <c r="O14" s="51"/>
       <c r="P14" s="52"/>
       <c r="Q14" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="28.5" hidden="1">
@@ -6711,7 +6714,7 @@
         <v>gamma_2,</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L15" s="9">
         <v>0</v>
@@ -6719,7 +6722,7 @@
       <c r="O15" s="51"/>
       <c r="P15" s="52"/>
       <c r="Q15" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="47.25" hidden="1">
@@ -6753,7 +6756,7 @@
         <v>kappa_1,1,1(1)</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
@@ -6763,7 +6766,7 @@
         <v>88</v>
       </c>
       <c r="Q16" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="47.25" hidden="1">
@@ -6797,7 +6800,7 @@
         <v>kappa_1,1,1(2)</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L17" s="9">
         <v>0</v>
@@ -6807,7 +6810,7 @@
         <v>70</v>
       </c>
       <c r="Q17" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="47.25" hidden="1">
@@ -6841,7 +6844,7 @@
         <v>kappa_1,1,1(3)</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L18" s="27">
         <v>0</v>
@@ -6851,7 +6854,7 @@
         <v>42</v>
       </c>
       <c r="Q18" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="51" hidden="1" customHeight="1">
@@ -6885,7 +6888,7 @@
         <v>kappa_1,1,2(1)</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L19" s="9">
         <v>0</v>
@@ -6895,7 +6898,7 @@
         <v>88</v>
       </c>
       <c r="Q19" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="51" hidden="1" customHeight="1">
@@ -6929,7 +6932,7 @@
         <v>kappa_1,1,2(2)</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L20" s="9">
         <v>0</v>
@@ -6939,7 +6942,7 @@
         <v>70</v>
       </c>
       <c r="Q20" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="51" hidden="1" customHeight="1">
@@ -6973,7 +6976,7 @@
         <v>kappa_1,1,2(3)</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L21" s="27">
         <v>0</v>
@@ -6983,7 +6986,7 @@
         <v>42</v>
       </c>
       <c r="Q21" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="47.25" hidden="1">
@@ -7017,7 +7020,7 @@
         <v>kappa_1,2,1(1)</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L22" s="9">
         <v>0.06</v>
@@ -7027,7 +7030,7 @@
       </c>
       <c r="P22" s="52"/>
       <c r="Q22" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="99.75" hidden="1">
@@ -7061,7 +7064,7 @@
         <v>kappa_1,2,1(2)</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L23" s="9">
         <v>0.06</v>
@@ -7073,7 +7076,7 @@
         <v>73</v>
       </c>
       <c r="Q23" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="63" hidden="1">
@@ -7107,7 +7110,7 @@
         <v>kappa_1,2,1(3)</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L24" s="9">
         <v>0.91</v>
@@ -7119,7 +7122,7 @@
         <v>46</v>
       </c>
       <c r="Q24" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="63" hidden="1">
@@ -7153,7 +7156,7 @@
         <v>kappa_1,2,2(1)</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L25" s="9">
         <v>0.06</v>
@@ -7163,7 +7166,7 @@
       </c>
       <c r="P25" s="52"/>
       <c r="Q25" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="99.75" hidden="1">
@@ -7197,7 +7200,7 @@
         <v>kappa_1,2,2(2)</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L26" s="9">
         <v>0.06</v>
@@ -7209,7 +7212,7 @@
         <v>73</v>
       </c>
       <c r="Q26" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="63" hidden="1">
@@ -7243,7 +7246,7 @@
         <v>kappa_1,2,2(3)</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L27" s="9">
         <v>0.91</v>
@@ -7255,7 +7258,7 @@
         <v>46</v>
       </c>
       <c r="Q27" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="47.25" hidden="1">
@@ -7289,7 +7292,7 @@
         <v>kappa_1,3,1(1)</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L28" s="9">
         <v>0.06</v>
@@ -7299,7 +7302,7 @@
       </c>
       <c r="P28" s="52"/>
       <c r="Q28" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="99.75" hidden="1">
@@ -7333,7 +7336,7 @@
         <v>kappa_1,3,1(2)</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L29" s="9">
         <v>0.06</v>
@@ -7345,7 +7348,7 @@
         <v>73</v>
       </c>
       <c r="Q29" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="63" hidden="1">
@@ -7379,7 +7382,7 @@
         <v>kappa_1,3,1(3)</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L30" s="9">
         <v>0.91</v>
@@ -7391,7 +7394,7 @@
         <v>46</v>
       </c>
       <c r="Q30" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="63" hidden="1">
@@ -7425,7 +7428,7 @@
         <v>kappa_1,3,2(1)</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L31" s="9">
         <v>0.06</v>
@@ -7435,7 +7438,7 @@
       </c>
       <c r="P31" s="52"/>
       <c r="Q31" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="99.75" hidden="1">
@@ -7469,7 +7472,7 @@
         <v>kappa_1,3,2(2)</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L32" s="9">
         <v>0.06</v>
@@ -7481,7 +7484,7 @@
         <v>73</v>
       </c>
       <c r="Q32" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="63" hidden="1">
@@ -7515,7 +7518,7 @@
         <v>kappa_1,3,2(3)</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L33" s="9">
         <v>0.91</v>
@@ -7527,7 +7530,7 @@
         <v>46</v>
       </c>
       <c r="Q33" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="47.25" hidden="1">
@@ -7561,7 +7564,7 @@
         <v>kappa_1,4,1(1)</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L34" s="9">
         <v>0.06</v>
@@ -7571,7 +7574,7 @@
       </c>
       <c r="P34" s="52"/>
       <c r="Q34" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="99.75" hidden="1">
@@ -7605,7 +7608,7 @@
         <v>kappa_1,4,1(2)</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L35" s="9">
         <v>0.06</v>
@@ -7617,7 +7620,7 @@
         <v>73</v>
       </c>
       <c r="Q35" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="47.25" hidden="1">
@@ -7651,7 +7654,7 @@
         <v>kappa_1,4,1(3)</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L36" s="9">
         <v>0.91</v>
@@ -7663,7 +7666,7 @@
         <v>46</v>
       </c>
       <c r="Q36" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="47.25" hidden="1">
@@ -7697,7 +7700,7 @@
         <v>kappa_1,4,2(1)</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L37" s="9">
         <v>0.06</v>
@@ -7707,7 +7710,7 @@
       </c>
       <c r="P37" s="52"/>
       <c r="Q37" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="99.75" hidden="1">
@@ -7741,7 +7744,7 @@
         <v>kappa_1,4,2(2)</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L38" s="9">
         <v>0.06</v>
@@ -7753,7 +7756,7 @@
         <v>73</v>
       </c>
       <c r="Q38" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="47.25" hidden="1">
@@ -7787,7 +7790,7 @@
         <v>kappa_1,4,2(3)</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L39" s="9">
         <v>0.91</v>
@@ -7799,7 +7802,7 @@
         <v>46</v>
       </c>
       <c r="Q39" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="63" hidden="1">
@@ -7833,7 +7836,7 @@
         <v>kappa_3,1,1(1)</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L40" s="9">
         <v>0</v>
@@ -7843,7 +7846,7 @@
         <v>88</v>
       </c>
       <c r="Q40" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="63" hidden="1">
@@ -7877,7 +7880,7 @@
         <v>kappa_3,1,1(2)</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L41" s="9">
         <v>0</v>
@@ -7887,7 +7890,7 @@
         <v>70</v>
       </c>
       <c r="Q41" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="63" hidden="1">
@@ -7921,7 +7924,7 @@
         <v>kappa_3,1,1(3)</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L42" s="9">
         <v>0</v>
@@ -7931,7 +7934,7 @@
         <v>42</v>
       </c>
       <c r="Q42" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="63" hidden="1">
@@ -7965,7 +7968,7 @@
         <v>kappa_3,1,2(1)</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L43" s="9">
         <v>0</v>
@@ -7975,7 +7978,7 @@
         <v>88</v>
       </c>
       <c r="Q43" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="63" hidden="1">
@@ -8009,7 +8012,7 @@
         <v>kappa_3,1,2(2)</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L44" s="9">
         <v>0</v>
@@ -8019,7 +8022,7 @@
         <v>70</v>
       </c>
       <c r="Q44" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="63" hidden="1">
@@ -8053,7 +8056,7 @@
         <v>kappa_3,1,2(3)</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L45" s="9">
         <v>0</v>
@@ -8063,7 +8066,7 @@
         <v>42</v>
       </c>
       <c r="Q45" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="63" hidden="1">
@@ -8097,7 +8100,7 @@
         <v>kappa_3,2,1(1)</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L46" s="9">
         <v>0.06</v>
@@ -8107,7 +8110,7 @@
       </c>
       <c r="P46" s="52"/>
       <c r="Q46" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="63" hidden="1">
@@ -8141,7 +8144,7 @@
         <v>kappa_3,2,1(2)</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L47" s="9">
         <v>0.06</v>
@@ -8151,7 +8154,7 @@
       </c>
       <c r="P47" s="52"/>
       <c r="Q47" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="63" hidden="1">
@@ -8185,7 +8188,7 @@
         <v>kappa_3,2,1(3)</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L48" s="9">
         <v>0.91</v>
@@ -8197,7 +8200,7 @@
         <v>55</v>
       </c>
       <c r="Q48" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="63" hidden="1">
@@ -8231,7 +8234,7 @@
         <v>kappa_3,2,2(1)</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L49" s="9">
         <v>0.06</v>
@@ -8241,7 +8244,7 @@
       </c>
       <c r="P49" s="52"/>
       <c r="Q49" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="63" hidden="1">
@@ -8275,7 +8278,7 @@
         <v>kappa_3,2,2(2)</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L50" s="9">
         <v>0.06</v>
@@ -8285,7 +8288,7 @@
       </c>
       <c r="P50" s="52"/>
       <c r="Q50" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="63" hidden="1">
@@ -8319,7 +8322,7 @@
         <v>kappa_3,2,2(3)</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L51" s="9">
         <v>0.91</v>
@@ -8331,7 +8334,7 @@
         <v>55</v>
       </c>
       <c r="Q51" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="63" hidden="1">
@@ -8365,7 +8368,7 @@
         <v>kappa_3,3,1(1)</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L52" s="9">
         <v>0.06</v>
@@ -8375,7 +8378,7 @@
       </c>
       <c r="P52" s="52"/>
       <c r="Q52" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="63" hidden="1">
@@ -8409,7 +8412,7 @@
         <v>kappa_3,3,1(2)</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L53" s="9">
         <v>0.06</v>
@@ -8419,7 +8422,7 @@
       </c>
       <c r="P53" s="52"/>
       <c r="Q53" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="63" hidden="1">
@@ -8453,7 +8456,7 @@
         <v>kappa_3,3,1(3)</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L54" s="9">
         <v>0.91</v>
@@ -8465,7 +8468,7 @@
         <v>55</v>
       </c>
       <c r="Q54" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="63" hidden="1">
@@ -8499,7 +8502,7 @@
         <v>kappa_3,3,2(1)</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L55" s="9">
         <v>0.06</v>
@@ -8509,7 +8512,7 @@
       </c>
       <c r="P55" s="52"/>
       <c r="Q55" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="63" hidden="1">
@@ -8543,7 +8546,7 @@
         <v>kappa_3,3,2(2)</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L56" s="9">
         <v>0.06</v>
@@ -8553,7 +8556,7 @@
       </c>
       <c r="P56" s="52"/>
       <c r="Q56" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="63" hidden="1">
@@ -8587,7 +8590,7 @@
         <v>kappa_3,3,2(3)</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L57" s="9">
         <v>0.91</v>
@@ -8599,7 +8602,7 @@
         <v>55</v>
       </c>
       <c r="Q57" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="63" hidden="1">
@@ -8633,7 +8636,7 @@
         <v>kappa_3,4,1(1)</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L58" s="9">
         <v>0.06</v>
@@ -8643,7 +8646,7 @@
       </c>
       <c r="P58" s="52"/>
       <c r="Q58" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="63" hidden="1">
@@ -8677,7 +8680,7 @@
         <v>kappa_3,4,1(2)</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L59" s="9">
         <v>0.06</v>
@@ -8687,7 +8690,7 @@
       </c>
       <c r="P59" s="52"/>
       <c r="Q59" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="63" hidden="1">
@@ -8721,7 +8724,7 @@
         <v>kappa_3,4,1(3)</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L60" s="9">
         <v>0.91</v>
@@ -8731,7 +8734,7 @@
       </c>
       <c r="P60" s="52"/>
       <c r="Q60" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="63" hidden="1">
@@ -8765,7 +8768,7 @@
         <v>kappa_3,4,2(1)</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L61" s="9">
         <v>0.06</v>
@@ -8775,7 +8778,7 @@
       </c>
       <c r="P61" s="52"/>
       <c r="Q61" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="63" hidden="1">
@@ -8809,7 +8812,7 @@
         <v>kappa_3,4,2(2)</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L62" s="9">
         <v>0.06</v>
@@ -8819,7 +8822,7 @@
       </c>
       <c r="P62" s="52"/>
       <c r="Q62" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="63" hidden="1">
@@ -8853,7 +8856,7 @@
         <v>kappa_3,4,2(3)</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L63" s="9">
         <v>0.91</v>
@@ -8863,7 +8866,7 @@
       </c>
       <c r="P63" s="52"/>
       <c r="Q63" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="47.25" hidden="1">
@@ -8897,7 +8900,7 @@
         <v>kappa_4,1,1(1)</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L64" s="9">
         <v>0</v>
@@ -8907,7 +8910,7 @@
         <v>88</v>
       </c>
       <c r="Q64" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="47.25" hidden="1">
@@ -8941,7 +8944,7 @@
         <v>kappa_4,1,1(2)</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L65" s="9">
         <v>0</v>
@@ -8951,7 +8954,7 @@
         <v>88</v>
       </c>
       <c r="Q65" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="47.25" hidden="1">
@@ -8985,7 +8988,7 @@
         <v>kappa_4,1,1(3)</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L66" s="9">
         <v>0</v>
@@ -8995,7 +8998,7 @@
         <v>42</v>
       </c>
       <c r="Q66" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="47.25" hidden="1">
@@ -9029,7 +9032,7 @@
         <v>kappa_4,1,2(1)</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L67" s="9">
         <v>0</v>
@@ -9039,7 +9042,7 @@
         <v>88</v>
       </c>
       <c r="Q67" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="47.25" hidden="1">
@@ -9073,7 +9076,7 @@
         <v>kappa_4,1,2(2)</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L68" s="9">
         <v>0</v>
@@ -9083,7 +9086,7 @@
         <v>88</v>
       </c>
       <c r="Q68" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="47.25" hidden="1">
@@ -9117,7 +9120,7 @@
         <v>kappa_4,1,2(3)</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L69" s="9">
         <v>0</v>
@@ -9127,7 +9130,7 @@
         <v>42</v>
       </c>
       <c r="Q69" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="47.25" hidden="1">
@@ -9161,7 +9164,7 @@
         <v>kappa_4,2,1(1)</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L70" s="9">
         <v>0.06</v>
@@ -9171,7 +9174,7 @@
       </c>
       <c r="P70" s="52"/>
       <c r="Q70" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="47.25" hidden="1">
@@ -9205,7 +9208,7 @@
         <v>kappa_4,2,1(2)</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L71" s="9">
         <v>0.06</v>
@@ -9215,7 +9218,7 @@
       </c>
       <c r="P71" s="52"/>
       <c r="Q71" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="63" hidden="1">
@@ -9249,7 +9252,7 @@
         <v>kappa_4,2,1(3)</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L72" s="9">
         <v>0.91</v>
@@ -9259,7 +9262,7 @@
       </c>
       <c r="P72" s="52"/>
       <c r="Q72" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="63" hidden="1">
@@ -9293,7 +9296,7 @@
         <v>kappa_4,2,2(1)</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L73" s="9">
         <v>0.06</v>
@@ -9303,7 +9306,7 @@
       </c>
       <c r="P73" s="52"/>
       <c r="Q73" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="47.25" hidden="1">
@@ -9337,7 +9340,7 @@
         <v>kappa_4,2,2(2)</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L74" s="9">
         <v>0.06</v>
@@ -9347,7 +9350,7 @@
       </c>
       <c r="P74" s="52"/>
       <c r="Q74" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="63" hidden="1">
@@ -9381,7 +9384,7 @@
         <v>kappa_4,2,2(3)</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L75" s="9">
         <v>0.91</v>
@@ -9391,7 +9394,7 @@
       </c>
       <c r="P75" s="52"/>
       <c r="Q75" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="47.25" hidden="1">
@@ -9425,7 +9428,7 @@
         <v>kappa_4,3,1(1)</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L76" s="9">
         <v>0.06</v>
@@ -9435,7 +9438,7 @@
       </c>
       <c r="P76" s="52"/>
       <c r="Q76" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="47.25" hidden="1">
@@ -9469,7 +9472,7 @@
         <v>kappa_4,3,1(2)</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L77" s="9">
         <v>0.06</v>
@@ -9479,7 +9482,7 @@
       </c>
       <c r="P77" s="52"/>
       <c r="Q77" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="63" hidden="1">
@@ -9513,7 +9516,7 @@
         <v>kappa_4,3,1(3)</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L78" s="9">
         <v>0.91</v>
@@ -9523,7 +9526,7 @@
       </c>
       <c r="P78" s="52"/>
       <c r="Q78" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="63" hidden="1">
@@ -9557,7 +9560,7 @@
         <v>kappa_4,3,2(1)</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L79" s="9">
         <v>0.06</v>
@@ -9567,7 +9570,7 @@
       </c>
       <c r="P79" s="52"/>
       <c r="Q79" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="47.25" hidden="1">
@@ -9601,7 +9604,7 @@
         <v>kappa_4,3,2(2)</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L80" s="9">
         <v>0.06</v>
@@ -9611,7 +9614,7 @@
       </c>
       <c r="P80" s="52"/>
       <c r="Q80" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="63" hidden="1">
@@ -9645,7 +9648,7 @@
         <v>kappa_4,3,2(3)</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L81" s="9">
         <v>0.91</v>
@@ -9655,7 +9658,7 @@
       </c>
       <c r="P81" s="52"/>
       <c r="Q81" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="47.25" hidden="1">
@@ -9689,7 +9692,7 @@
         <v>kappa_4,4,1(1)</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L82" s="9">
         <v>0.06</v>
@@ -9699,7 +9702,7 @@
       </c>
       <c r="P82" s="52"/>
       <c r="Q82" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="47.25" hidden="1">
@@ -9733,7 +9736,7 @@
         <v>kappa_4,4,1(2)</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L83" s="9">
         <v>0.06</v>
@@ -9743,7 +9746,7 @@
       </c>
       <c r="P83" s="52"/>
       <c r="Q83" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="47.25" hidden="1">
@@ -9777,7 +9780,7 @@
         <v>kappa_4,4,1(3)</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L84" s="9">
         <v>0.91</v>
@@ -9787,7 +9790,7 @@
       </c>
       <c r="P84" s="52"/>
       <c r="Q84" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="47.25" hidden="1">
@@ -9821,7 +9824,7 @@
         <v>kappa_4,4,2(1)</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L85" s="9">
         <v>0.06</v>
@@ -9831,7 +9834,7 @@
       </c>
       <c r="P85" s="52"/>
       <c r="Q85" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="47.25" hidden="1">
@@ -9865,7 +9868,7 @@
         <v>kappa_4,4,2(2)</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L86" s="9">
         <v>0.06</v>
@@ -9875,7 +9878,7 @@
       </c>
       <c r="P86" s="52"/>
       <c r="Q86" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="47.25" hidden="1">
@@ -9909,7 +9912,7 @@
         <v>kappa_4,4,2(3)</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L87" s="9">
         <v>0.91</v>
@@ -9919,12 +9922,12 @@
       </c>
       <c r="P87" s="52"/>
       <c r="Q87" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="28.5" hidden="1">
       <c r="A88" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>122</v>
@@ -9938,7 +9941,7 @@
         <v>omega_</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L88" s="9">
         <v>2</v>
@@ -9948,7 +9951,7 @@
         <v>123</v>
       </c>
       <c r="Q88" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="42.75" hidden="1">
@@ -9972,7 +9975,7 @@
         <v>pi_34,</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L89" s="23">
         <v>0.5</v>
@@ -9982,7 +9985,7 @@
         <v>127</v>
       </c>
       <c r="Q89" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="15.75" hidden="1">
@@ -10006,17 +10009,17 @@
         <v>pi_36,</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L90" s="23">
         <v>0.05</v>
       </c>
       <c r="O90" s="51"/>
       <c r="P90" s="52" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Q90" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="15.75" hidden="1">
@@ -10040,17 +10043,17 @@
         <v>pi_46,</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L91" s="23">
         <v>1E-3</v>
       </c>
       <c r="O91" s="51"/>
       <c r="P91" s="52" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Q91" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="15.75" hidden="1">
@@ -10074,7 +10077,7 @@
         <v>pi_56,</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L92" s="23">
         <v>0.02</v>
@@ -10082,7 +10085,7 @@
       <c r="O92" s="51"/>
       <c r="P92" s="52"/>
       <c r="Q92" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="31.5" hidden="1">
@@ -10106,7 +10109,7 @@
         <v>pi_67,</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L93" s="23">
         <v>2</v>
@@ -10114,7 +10117,7 @@
       <c r="O93" s="51"/>
       <c r="P93" s="52"/>
       <c r="Q93" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="31.5" hidden="1">
@@ -10140,17 +10143,17 @@
         <v>theta_1,</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L94" s="9">
         <v>1</v>
       </c>
       <c r="O94" s="51"/>
       <c r="P94" s="52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q94" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="31.5" hidden="1">
@@ -10176,17 +10179,17 @@
         <v>theta_2,</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L95" s="9">
         <v>6</v>
       </c>
       <c r="O95" s="51"/>
       <c r="P95" s="52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q95" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="31.5" hidden="1">
@@ -10212,17 +10215,17 @@
         <v>theta_3,</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L96" s="9">
         <v>10</v>
       </c>
       <c r="O96" s="51"/>
       <c r="P96" s="52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q96" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="31.5" hidden="1">
@@ -10248,32 +10251,32 @@
         <v>theta_4,</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L97" s="40">
         <f>AVERAGE(VLOOKUP("theta_2,",model_matched_parameters,3,FALSE),VLOOKUP("theta_3,",model_matched_parameters,3,FALSE))*(1/3)</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="O97" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P97" s="52" t="s">
         <v>29</v>
       </c>
       <c r="Q97" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="28.5" hidden="1">
       <c r="A98" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B98" s="9" t="str">
         <f t="shared" ref="B98:B103" si="5">CONCATENATE("IPT Adherence  under policy ", VLOOKUP(I98, P_SET,2), " for gender ", VLOOKUP(H98,G_SET,2))</f>
         <v>IPT Adherence  under policy Standard (baseline) for gender Male</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>41</v>
@@ -10289,7 +10292,7 @@
         <v>varpi_1(1)</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L98" s="34">
         <v>0.2</v>
@@ -10297,19 +10300,19 @@
       <c r="O98" s="51"/>
       <c r="P98" s="52"/>
       <c r="Q98" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="28.5" hidden="1">
       <c r="A99" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B99" s="9" t="str">
         <f t="shared" si="5"/>
         <v>IPT Adherence  under policy Community ART for gender Male</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>41</v>
@@ -10325,7 +10328,7 @@
         <v>varpi_1(2)</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L99" s="34">
         <v>0.2</v>
@@ -10333,19 +10336,19 @@
       <c r="O99" s="51"/>
       <c r="P99" s="52"/>
       <c r="Q99" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="28.5" hidden="1">
       <c r="A100" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B100" s="9" t="str">
         <f t="shared" si="5"/>
         <v>IPT Adherence  under policy Community ART + IPT for gender Male</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>41</v>
@@ -10361,7 +10364,7 @@
         <v>varpi_1(3)</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L100" s="34">
         <v>0.8</v>
@@ -10369,19 +10372,19 @@
       <c r="O100" s="51"/>
       <c r="P100" s="52"/>
       <c r="Q100" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="28.5" hidden="1">
       <c r="A101" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B101" s="9" t="str">
         <f t="shared" si="5"/>
         <v>IPT Adherence  under policy Standard (baseline) for gender Female</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>41</v>
@@ -10397,7 +10400,7 @@
         <v>varpi_2(1)</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L101" s="34">
         <v>0.2</v>
@@ -10406,19 +10409,19 @@
       <c r="O101" s="53"/>
       <c r="P101" s="52"/>
       <c r="Q101" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="28.5" hidden="1">
       <c r="A102" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B102" s="9" t="str">
         <f t="shared" si="5"/>
         <v>IPT Adherence  under policy Community ART for gender Female</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>41</v>
@@ -10434,7 +10437,7 @@
         <v>varpi_2(2)</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L102" s="34">
         <v>0.2</v>
@@ -10443,19 +10446,19 @@
       <c r="O102" s="53"/>
       <c r="P102" s="52"/>
       <c r="Q102" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="28.5" hidden="1">
       <c r="A103" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B103" s="9" t="str">
         <f t="shared" si="5"/>
         <v>IPT Adherence  under policy Community ART + IPT for gender Female</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>41</v>
@@ -10471,7 +10474,7 @@
         <v>varpi_2(3)</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L103" s="34">
         <v>0.8</v>
@@ -10480,12 +10483,12 @@
       <c r="O103" s="53"/>
       <c r="P103" s="52"/>
       <c r="Q103" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="71.25" hidden="1">
       <c r="A104" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B104" s="9" t="str">
         <f t="shared" ref="B104:B127" si="6">CONCATENATE("Rate of populations moving from HIV compartment ",VLOOKUP(ROUND(G104/10,2),HIV_SET,2)," to ", VLOOKUP(MOD(G104,10),HIV_SET,2), " for gender ", VLOOKUP(H104,G_SET,2), " per year under policy ", VLOOKUP(I104, P_SET,2))</f>
@@ -10512,24 +10515,24 @@
         <v>eta_12,1(1)</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L104" s="11">
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="O104" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P104" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q104" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="71.25" hidden="1">
       <c r="A105" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B105" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10556,24 +10559,24 @@
         <v>eta_12,1(2)</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L105" s="11">
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="O105" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P105" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q105" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="71.25" hidden="1">
       <c r="A106" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B106" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10600,24 +10603,24 @@
         <v>eta_12,1(3)</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L106" s="11">
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="O106" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P106" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q106" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="51" hidden="1" customHeight="1">
       <c r="A107" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B107" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10644,25 +10647,25 @@
         <v>eta_23,1(1)</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L107" s="23">
         <f>1/(0.25+1.71+1.05+4.71)</f>
         <v>0.1295336787564767</v>
       </c>
       <c r="O107" s="56" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P107" s="52" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q107" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="51" hidden="1" customHeight="1">
       <c r="A108" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B108" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10689,25 +10692,25 @@
         <v>eta_23,1(2)</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L108" s="23">
         <f t="shared" ref="L108:L109" si="7">1/(0.25+1.71+1.05+4.71)</f>
         <v>0.1295336787564767</v>
       </c>
       <c r="O108" s="56" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P108" s="52" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q108" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="51" hidden="1" customHeight="1">
       <c r="A109" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B109" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10734,25 +10737,25 @@
         <v>eta_23,1(3)</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L109" s="23">
         <f t="shared" si="7"/>
         <v>0.1295336787564767</v>
       </c>
       <c r="O109" s="56" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P109" s="52" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q109" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="48" hidden="1" customHeight="1">
       <c r="A110" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B110" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10779,7 +10782,7 @@
         <v>eta_24,1(1)</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L110" s="23">
         <v>0.4</v>
@@ -10787,12 +10790,12 @@
       <c r="O110" s="56"/>
       <c r="P110" s="52"/>
       <c r="Q110" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="47.25" hidden="1">
       <c r="A111" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B111" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10819,25 +10822,25 @@
         <v>eta_24,1(2)</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L111" s="23">
         <f>VLOOKUP("eta_24,1(1)",model_matched_parameters,3, FALSE)*VLOOKUP("eta_2,4(2)",indirect_model_parameters,2,FALSE)</f>
         <v>0.44000000000000006</v>
       </c>
       <c r="O111" s="57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P111" s="52" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q111" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="57" hidden="1">
       <c r="A112" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B112" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10864,25 +10867,25 @@
         <v>eta_24,1(3)</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L112" s="23">
         <f>VLOOKUP("eta_24,1(1)",model_matched_parameters,3, FALSE)*VLOOKUP("eta_2,4(2)",indirect_model_parameters,2,FALSE)</f>
         <v>0.44000000000000006</v>
       </c>
       <c r="O112" s="51" t="s">
+        <v>631</v>
+      </c>
+      <c r="P112" s="52" t="s">
         <v>632</v>
       </c>
-      <c r="P112" s="52" t="s">
-        <v>633</v>
-      </c>
       <c r="Q112" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="47.25" hidden="1">
       <c r="A113" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B113" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10909,7 +10912,7 @@
         <v>eta_34,1(1)</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L113" s="47">
         <v>0.4</v>
@@ -10917,12 +10920,12 @@
       <c r="O113" s="51"/>
       <c r="P113" s="52"/>
       <c r="Q113" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="47.25" hidden="1">
       <c r="A114" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B114" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10949,23 +10952,23 @@
         <v>eta_34,1(2)</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L114" s="23">
         <f>L113*indirect_model_parameters!$G$6</f>
         <v>0.44000000000000006</v>
       </c>
       <c r="O114" s="51" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P114" s="52"/>
       <c r="Q114" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="47.25" hidden="1">
       <c r="A115" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B115" s="9" t="str">
         <f t="shared" si="6"/>
@@ -10992,25 +10995,25 @@
         <v>eta_34,1(3)</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L115" s="23">
         <f>L113*indirect_model_parameters!$G$7</f>
         <v>0.48</v>
       </c>
       <c r="O115" s="51" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P115" s="52" t="s">
         <v>138</v>
       </c>
       <c r="Q115" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="71.25" hidden="1">
       <c r="A116" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B116" s="9" t="str">
         <f t="shared" si="6"/>
@@ -11037,24 +11040,24 @@
         <v>eta_12,2(1)</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L116" s="11">
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="O116" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P116" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q116" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="71.25" hidden="1">
       <c r="A117" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B117" s="9" t="str">
         <f t="shared" si="6"/>
@@ -11081,24 +11084,24 @@
         <v>eta_12,2(2)</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L117" s="11">
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="O117" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P117" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q117" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="71.25" hidden="1">
       <c r="A118" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B118" s="9" t="str">
         <f t="shared" si="6"/>
@@ -11125,24 +11128,24 @@
         <v>eta_12,2(3)</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L118" s="11">
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="O118" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P118" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q118" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="48" hidden="1" customHeight="1">
       <c r="A119" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B119" s="9" t="str">
         <f t="shared" si="6"/>
@@ -11169,24 +11172,24 @@
         <v>eta_23,2(1)</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L119" s="11">
         <v>9.7560975609756101E-2</v>
       </c>
       <c r="O119" s="56" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P119" s="52" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Q119" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="51" hidden="1" customHeight="1">
       <c r="A120" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B120" s="9" t="str">
         <f t="shared" si="6"/>
@@ -11213,24 +11216,24 @@
         <v>eta_23,2(2)</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L120" s="11">
         <v>9.7560975609756101E-2</v>
       </c>
       <c r="O120" s="56" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P120" s="52" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Q120" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="51" hidden="1" customHeight="1">
       <c r="A121" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B121" s="9" t="str">
         <f t="shared" si="6"/>
@@ -11257,24 +11260,24 @@
         <v>eta_23,2(3)</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L121" s="11">
         <v>9.7560975609756101E-2</v>
       </c>
       <c r="O121" s="56" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P121" s="52" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Q121" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="47.25" hidden="1">
       <c r="A122" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B122" s="9" t="str">
         <f t="shared" si="6"/>
@@ -11301,7 +11304,7 @@
         <v>eta_24,2(1)</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L122" s="23">
         <v>0.4</v>
@@ -11309,12 +11312,12 @@
       <c r="O122" s="51"/>
       <c r="P122" s="52"/>
       <c r="Q122" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="47.25" hidden="1">
       <c r="A123" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B123" s="9" t="str">
         <f t="shared" si="6"/>
@@ -11341,7 +11344,7 @@
         <v>eta_24,2(2)</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L123" s="23">
         <f>L122*indirect_model_parameters!$G$6</f>
@@ -11350,12 +11353,12 @@
       <c r="O123" s="51"/>
       <c r="P123" s="52"/>
       <c r="Q123" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="124" spans="1:17" ht="47.25" hidden="1">
       <c r="A124" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B124" s="9" t="str">
         <f t="shared" si="6"/>
@@ -11382,7 +11385,7 @@
         <v>eta_24,2(3)</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L124" s="23">
         <f>L122*indirect_model_parameters!$G$7</f>
@@ -11393,12 +11396,12 @@
         <v>139</v>
       </c>
       <c r="Q124" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="47.25" hidden="1">
       <c r="A125" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B125" s="9" t="str">
         <f t="shared" si="6"/>
@@ -11425,7 +11428,7 @@
         <v>eta_34,2(1)</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L125" s="23">
         <v>0.4</v>
@@ -11433,12 +11436,12 @@
       <c r="O125" s="51"/>
       <c r="P125" s="52"/>
       <c r="Q125" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="126" spans="1:17" ht="47.25" hidden="1">
       <c r="A126" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B126" s="9" t="str">
         <f t="shared" si="6"/>
@@ -11465,7 +11468,7 @@
         <v>eta_34,2(2)</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L126" s="23">
         <f>L125*indirect_model_parameters!$G$6</f>
@@ -11474,12 +11477,12 @@
       <c r="O126" s="51"/>
       <c r="P126" s="52"/>
       <c r="Q126" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="47.25" hidden="1">
       <c r="A127" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B127" s="9" t="str">
         <f t="shared" si="6"/>
@@ -11506,7 +11509,7 @@
         <v>eta_34,2(3)</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L127" s="23">
         <f>L125*indirect_model_parameters!$G$7</f>
@@ -11517,19 +11520,19 @@
         <v>138</v>
       </c>
       <c r="Q127" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="128" spans="1:17" ht="31.5" hidden="1">
       <c r="A128" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B128" s="9" t="str">
         <f t="shared" ref="B128:B159" si="8">CONCATENATE("Rate of entry due to aging into HIV compartment ", VLOOKUP(G128, HIV_SET, 2), " and gender compartment ", VLOOKUP(H128, G_SET, 2), ", per year")</f>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>142</v>
@@ -11551,7 +11554,7 @@
         <v>alpha^in_1,1,1,1</v>
       </c>
       <c r="K128" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L128" s="50">
         <f>VLOOKUP(J128,aging_in!$G$5:$H$37,2)</f>
@@ -11559,22 +11562,22 @@
       </c>
       <c r="O128" s="51"/>
       <c r="P128" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q128" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="129" spans="1:17" ht="31.5" hidden="1">
       <c r="A129" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B129" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>142</v>
@@ -11596,7 +11599,7 @@
         <v>alpha^in_1,1,1,2</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L129" s="50">
         <f>VLOOKUP(J129,aging_in!$G$5:$H$37,2)</f>
@@ -11604,22 +11607,22 @@
       </c>
       <c r="O129" s="51"/>
       <c r="P129" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q129" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="130" spans="1:17" ht="31.5" hidden="1">
       <c r="A130" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B130" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>142</v>
@@ -11641,7 +11644,7 @@
         <v>alpha^in_1,1,2,1</v>
       </c>
       <c r="K130" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L130" s="50">
         <f>VLOOKUP(J130,aging_in!$G$5:$H$37,2)</f>
@@ -11649,22 +11652,22 @@
       </c>
       <c r="O130" s="51"/>
       <c r="P130" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q130" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="31.5" hidden="1">
       <c r="A131" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B131" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>142</v>
@@ -11686,7 +11689,7 @@
         <v>alpha^in_1,1,2,2</v>
       </c>
       <c r="K131" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L131" s="50">
         <f>VLOOKUP(J131,aging_in!$G$5:$H$37,2)</f>
@@ -11694,22 +11697,22 @@
       </c>
       <c r="O131" s="51"/>
       <c r="P131" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q131" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="132" spans="1:17" ht="31.5" hidden="1">
       <c r="A132" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B132" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>142</v>
@@ -11731,7 +11734,7 @@
         <v>alpha^in_3,1,1,1</v>
       </c>
       <c r="K132" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L132" s="50">
         <f>VLOOKUP(J132,aging_in!$G$5:$H$37,2)</f>
@@ -11739,22 +11742,22 @@
       </c>
       <c r="O132" s="51"/>
       <c r="P132" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q132" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="133" spans="1:17" ht="31.5" hidden="1">
       <c r="A133" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B133" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>142</v>
@@ -11776,7 +11779,7 @@
         <v>alpha^in_3,1,1,2</v>
       </c>
       <c r="K133" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L133" s="50">
         <f>VLOOKUP(J133,aging_in!$G$5:$H$37,2)</f>
@@ -11784,22 +11787,22 @@
       </c>
       <c r="O133" s="51"/>
       <c r="P133" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q133" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="134" spans="1:17" ht="31.5" hidden="1">
       <c r="A134" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B134" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>142</v>
@@ -11821,7 +11824,7 @@
         <v>alpha^in_3,1,2,1</v>
       </c>
       <c r="K134" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L134" s="50">
         <f>VLOOKUP(J134,aging_in!$G$5:$H$37,2)</f>
@@ -11829,22 +11832,22 @@
       </c>
       <c r="O134" s="51"/>
       <c r="P134" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q134" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="31.5" hidden="1">
       <c r="A135" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B135" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>142</v>
@@ -11866,7 +11869,7 @@
         <v>alpha^in_3,1,2,2</v>
       </c>
       <c r="K135" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L135" s="50">
         <f>VLOOKUP(J135,aging_in!$G$5:$H$37,2)</f>
@@ -11874,22 +11877,22 @@
       </c>
       <c r="O135" s="51"/>
       <c r="P135" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q135" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="136" spans="1:17" ht="31.5" hidden="1">
       <c r="A136" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B136" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>142</v>
@@ -11911,7 +11914,7 @@
         <v>alpha^in_4,1,1,1</v>
       </c>
       <c r="K136" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L136" s="50">
         <f>VLOOKUP(J136,aging_in!$G$5:$H$37,2)</f>
@@ -11919,22 +11922,22 @@
       </c>
       <c r="O136" s="51"/>
       <c r="P136" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q136" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="137" spans="1:17" ht="31.5" hidden="1">
       <c r="A137" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B137" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>142</v>
@@ -11956,7 +11959,7 @@
         <v>alpha^in_4,1,1,2</v>
       </c>
       <c r="K137" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L137" s="50">
         <f>VLOOKUP(J137,aging_in!$G$5:$H$37,2)</f>
@@ -11964,22 +11967,22 @@
       </c>
       <c r="O137" s="51"/>
       <c r="P137" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q137" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="138" spans="1:17" ht="31.5" hidden="1">
       <c r="A138" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B138" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>142</v>
@@ -12001,7 +12004,7 @@
         <v>alpha^in_4,1,2,1</v>
       </c>
       <c r="K138" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L138" s="50">
         <f>VLOOKUP(J138,aging_in!$G$5:$H$37,2)</f>
@@ -12009,22 +12012,22 @@
       </c>
       <c r="O138" s="51"/>
       <c r="P138" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q138" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="31.5" hidden="1">
       <c r="A139" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B139" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>142</v>
@@ -12046,7 +12049,7 @@
         <v>alpha^in_4,1,2,2</v>
       </c>
       <c r="K139" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L139" s="50">
         <f>VLOOKUP(J139,aging_in!$G$5:$H$37,2)</f>
@@ -12054,22 +12057,22 @@
       </c>
       <c r="O139" s="51"/>
       <c r="P139" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q139" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="31.5" hidden="1">
       <c r="A140" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B140" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>142</v>
@@ -12091,7 +12094,7 @@
         <v>alpha^in_6,1,1,1</v>
       </c>
       <c r="K140" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L140" s="50">
         <f>VLOOKUP(J140,aging_in!$G$5:$H$37,2)</f>
@@ -12099,22 +12102,22 @@
       </c>
       <c r="O140" s="51"/>
       <c r="P140" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q140" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="141" spans="1:17" ht="31.5" hidden="1">
       <c r="A141" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B141" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>142</v>
@@ -12136,7 +12139,7 @@
         <v>alpha^in_6,1,1,2</v>
       </c>
       <c r="K141" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L141" s="50">
         <f>VLOOKUP(J141,aging_in!$G$5:$H$37,2)</f>
@@ -12144,22 +12147,22 @@
       </c>
       <c r="O141" s="51"/>
       <c r="P141" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q141" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="142" spans="1:17" ht="31.5" hidden="1">
       <c r="A142" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B142" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>142</v>
@@ -12181,7 +12184,7 @@
         <v>alpha^in_6,1,2,1</v>
       </c>
       <c r="K142" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L142" s="50">
         <f>VLOOKUP(J142,aging_in!$G$5:$H$37,2)</f>
@@ -12189,22 +12192,22 @@
       </c>
       <c r="O142" s="51"/>
       <c r="P142" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q142" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="143" spans="1:17" ht="31.5" hidden="1">
       <c r="A143" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B143" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>142</v>
@@ -12226,7 +12229,7 @@
         <v>alpha^in_6,1,2,2</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L143" s="50">
         <f>VLOOKUP(J143,aging_in!$G$5:$H$37,2)</f>
@@ -12234,22 +12237,22 @@
       </c>
       <c r="O143" s="51"/>
       <c r="P143" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q143" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="144" spans="1:17" ht="31.5" hidden="1">
       <c r="A144" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B144" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>142</v>
@@ -12271,7 +12274,7 @@
         <v>alpha^in_1,2,1,1</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L144" s="50">
         <f>VLOOKUP(J144,aging_in!$G$5:$H$37,2)</f>
@@ -12279,22 +12282,22 @@
       </c>
       <c r="O144" s="51"/>
       <c r="P144" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q144" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="145" spans="1:17" ht="31.5" hidden="1">
       <c r="A145" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B145" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>142</v>
@@ -12316,7 +12319,7 @@
         <v>alpha^in_1,2,1,2</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L145" s="50">
         <f>VLOOKUP(J145,aging_in!$G$5:$H$37,2)</f>
@@ -12324,22 +12327,22 @@
       </c>
       <c r="O145" s="51"/>
       <c r="P145" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q145" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="146" spans="1:17" ht="31.5" hidden="1">
       <c r="A146" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B146" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>142</v>
@@ -12361,7 +12364,7 @@
         <v>alpha^in_1,2,2,1</v>
       </c>
       <c r="K146" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L146" s="50">
         <f>VLOOKUP(J146,aging_in!$G$5:$H$37,2)</f>
@@ -12369,22 +12372,22 @@
       </c>
       <c r="O146" s="51"/>
       <c r="P146" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q146" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="147" spans="1:17" ht="31.5" hidden="1">
       <c r="A147" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B147" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>142</v>
@@ -12406,7 +12409,7 @@
         <v>alpha^in_1,2,2,2</v>
       </c>
       <c r="K147" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L147" s="50">
         <f>VLOOKUP(J147,aging_in!$G$5:$H$37,2)</f>
@@ -12414,22 +12417,22 @@
       </c>
       <c r="O147" s="51"/>
       <c r="P147" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q147" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="148" spans="1:17" ht="31.5" hidden="1">
       <c r="A148" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B148" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>142</v>
@@ -12451,7 +12454,7 @@
         <v>alpha^in_3,2,1,1</v>
       </c>
       <c r="K148" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L148" s="50">
         <f>VLOOKUP(J148,aging_in!$G$5:$H$37,2)</f>
@@ -12459,22 +12462,22 @@
       </c>
       <c r="O148" s="51"/>
       <c r="P148" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q148" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="149" spans="1:17" ht="31.5" hidden="1">
       <c r="A149" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B149" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>142</v>
@@ -12496,7 +12499,7 @@
         <v>alpha^in_3,2,1,2</v>
       </c>
       <c r="K149" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L149" s="50">
         <f>VLOOKUP(J149,aging_in!$G$5:$H$37,2)</f>
@@ -12504,22 +12507,22 @@
       </c>
       <c r="O149" s="51"/>
       <c r="P149" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q149" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="150" spans="1:17" ht="31.5" hidden="1">
       <c r="A150" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B150" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>142</v>
@@ -12541,7 +12544,7 @@
         <v>alpha^in_3,2,2,1</v>
       </c>
       <c r="K150" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L150" s="50">
         <f>VLOOKUP(J150,aging_in!$G$5:$H$37,2)</f>
@@ -12549,22 +12552,22 @@
       </c>
       <c r="O150" s="51"/>
       <c r="P150" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q150" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="151" spans="1:17" ht="31.5" hidden="1">
       <c r="A151" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B151" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>142</v>
@@ -12586,7 +12589,7 @@
         <v>alpha^in_3,2,2,2</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L151" s="50">
         <f>VLOOKUP(J151,aging_in!$G$5:$H$37,2)</f>
@@ -12594,22 +12597,22 @@
       </c>
       <c r="O151" s="51"/>
       <c r="P151" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q151" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="152" spans="1:17" ht="31.5" hidden="1">
       <c r="A152" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B152" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>142</v>
@@ -12631,7 +12634,7 @@
         <v>alpha^in_4,2,1,1</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L152" s="50">
         <f>VLOOKUP(J152,aging_in!$G$5:$H$37,2)</f>
@@ -12639,22 +12642,22 @@
       </c>
       <c r="O152" s="51"/>
       <c r="P152" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q152" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="153" spans="1:17" ht="31.5" hidden="1">
       <c r="A153" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B153" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>142</v>
@@ -12676,7 +12679,7 @@
         <v>alpha^in_4,2,1,2</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L153" s="50">
         <f>VLOOKUP(J153,aging_in!$G$5:$H$37,2)</f>
@@ -12684,22 +12687,22 @@
       </c>
       <c r="O153" s="51"/>
       <c r="P153" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q153" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="154" spans="1:17" ht="31.5" hidden="1">
       <c r="A154" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B154" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D154" s="8" t="s">
         <v>142</v>
@@ -12721,7 +12724,7 @@
         <v>alpha^in_4,2,2,1</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L154" s="50">
         <f>VLOOKUP(J154,aging_in!$G$5:$H$37,2)</f>
@@ -12729,22 +12732,22 @@
       </c>
       <c r="O154" s="51"/>
       <c r="P154" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q154" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="155" spans="1:17" ht="31.5" hidden="1">
       <c r="A155" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B155" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>142</v>
@@ -12766,7 +12769,7 @@
         <v>alpha^in_4,2,2,2</v>
       </c>
       <c r="K155" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L155" s="50">
         <f>VLOOKUP(J155,aging_in!$G$5:$H$37,2)</f>
@@ -12774,22 +12777,22 @@
       </c>
       <c r="O155" s="51"/>
       <c r="P155" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q155" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="156" spans="1:17" ht="31.5" hidden="1">
       <c r="A156" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B156" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D156" s="8" t="s">
         <v>142</v>
@@ -12811,7 +12814,7 @@
         <v>alpha^in_6,2,1,1</v>
       </c>
       <c r="K156" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L156" s="50">
         <f>VLOOKUP(J156,aging_in!$G$5:$H$37,2)</f>
@@ -12819,22 +12822,22 @@
       </c>
       <c r="O156" s="51"/>
       <c r="P156" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q156" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="157" spans="1:17" ht="31.5" hidden="1">
       <c r="A157" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B157" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>142</v>
@@ -12856,7 +12859,7 @@
         <v>alpha^in_6,2,1,2</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L157" s="50">
         <f>VLOOKUP(J157,aging_in!$G$5:$H$37,2)</f>
@@ -12864,22 +12867,22 @@
       </c>
       <c r="O157" s="51"/>
       <c r="P157" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q157" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="158" spans="1:17" ht="31.5" hidden="1">
       <c r="A158" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B158" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>142</v>
@@ -12901,7 +12904,7 @@
         <v>alpha^in_6,2,2,1</v>
       </c>
       <c r="K158" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L158" s="50">
         <f>VLOOKUP(J158,aging_in!$G$5:$H$37,2)</f>
@@ -12909,22 +12912,22 @@
       </c>
       <c r="O158" s="51"/>
       <c r="P158" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q158" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="159" spans="1:17" ht="31.5" hidden="1">
       <c r="A159" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B159" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>142</v>
@@ -12946,7 +12949,7 @@
         <v>alpha^in_6,2,2,2</v>
       </c>
       <c r="K159" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L159" s="50">
         <f>VLOOKUP(J159,aging_in!$G$5:$H$37,2)</f>
@@ -12954,10 +12957,10 @@
       </c>
       <c r="O159" s="51"/>
       <c r="P159" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q159" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="160" spans="1:17" ht="42.75">
@@ -12988,7 +12991,7 @@
         <v>mu_1,1,1</v>
       </c>
       <c r="K160" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L160" s="11">
         <v>3.3E-3</v>
@@ -12998,7 +13001,7 @@
         <v>280</v>
       </c>
       <c r="Q160" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="161" spans="1:17" ht="47.25">
@@ -13029,7 +13032,7 @@
         <v>mu_1,1,2</v>
       </c>
       <c r="K161" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L161" s="11">
         <f>0.0019</f>
@@ -13040,7 +13043,7 @@
         <v>281</v>
       </c>
       <c r="Q161" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="162" spans="1:17" ht="47.25">
@@ -13071,7 +13074,7 @@
         <v>mu_1,2,1</v>
       </c>
       <c r="K162" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L162" s="11">
         <f>L160*5</f>
@@ -13082,7 +13085,7 @@
         <v>274</v>
       </c>
       <c r="Q162" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="163" spans="1:17" ht="47.25">
@@ -13113,7 +13116,7 @@
         <v>mu_1,2,2</v>
       </c>
       <c r="K163" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L163" s="11">
         <f>L161*5</f>
@@ -13124,7 +13127,7 @@
         <v>274</v>
       </c>
       <c r="Q163" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="164" spans="1:17" ht="47.25">
@@ -13155,7 +13158,7 @@
         <v>mu_1,3,1</v>
       </c>
       <c r="K164" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L164" s="11">
         <f>L160*10</f>
@@ -13166,7 +13169,7 @@
         <v>276</v>
       </c>
       <c r="Q164" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="165" spans="1:17" ht="47.25">
@@ -13197,7 +13200,7 @@
         <v>mu_1,3,2</v>
       </c>
       <c r="K165" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L165" s="11">
         <f>L161*10</f>
@@ -13208,7 +13211,7 @@
         <v>276</v>
       </c>
       <c r="Q165" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="166" spans="1:17" ht="47.25">
@@ -13239,7 +13242,7 @@
         <v>mu_1,4,1</v>
       </c>
       <c r="K166" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L166" s="11">
         <f>L160*1.2</f>
@@ -13250,7 +13253,7 @@
         <v>275</v>
       </c>
       <c r="Q166" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="167" spans="1:17" ht="47.25">
@@ -13281,7 +13284,7 @@
         <v>mu_1,4,2</v>
       </c>
       <c r="K167" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L167" s="11">
         <f>L161*1.2</f>
@@ -13292,7 +13295,7 @@
         <v>275</v>
       </c>
       <c r="Q167" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="168" spans="1:17" ht="42.75">
@@ -13323,7 +13326,7 @@
         <v>mu_2,1,1</v>
       </c>
       <c r="K168" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L168" s="11">
         <f t="shared" ref="L168:L175" si="12">L160</f>
@@ -13334,7 +13337,7 @@
         <v>273</v>
       </c>
       <c r="Q168" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="169" spans="1:17" ht="42.75">
@@ -13365,7 +13368,7 @@
         <v>mu_2,1,2</v>
       </c>
       <c r="K169" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L169" s="11">
         <f t="shared" si="12"/>
@@ -13376,7 +13379,7 @@
         <v>273</v>
       </c>
       <c r="Q169" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="170" spans="1:17" ht="47.25">
@@ -13407,7 +13410,7 @@
         <v>mu_2,2,1</v>
       </c>
       <c r="K170" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L170" s="11">
         <f t="shared" si="12"/>
@@ -13418,7 +13421,7 @@
         <v>277</v>
       </c>
       <c r="Q170" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="171" spans="1:17" ht="47.25">
@@ -13449,7 +13452,7 @@
         <v>mu_2,2,2</v>
       </c>
       <c r="K171" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L171" s="11">
         <f t="shared" si="12"/>
@@ -13460,7 +13463,7 @@
         <v>277</v>
       </c>
       <c r="Q171" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="172" spans="1:17" ht="47.25">
@@ -13491,7 +13494,7 @@
         <v>mu_2,3,1</v>
       </c>
       <c r="K172" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L172" s="11">
         <f t="shared" si="12"/>
@@ -13502,7 +13505,7 @@
         <v>278</v>
       </c>
       <c r="Q172" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="173" spans="1:17" ht="47.25">
@@ -13533,7 +13536,7 @@
         <v>mu_2,3,2</v>
       </c>
       <c r="K173" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L173" s="11">
         <f t="shared" si="12"/>
@@ -13544,7 +13547,7 @@
         <v>278</v>
       </c>
       <c r="Q173" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="174" spans="1:17" ht="42.75">
@@ -13575,7 +13578,7 @@
         <v>mu_2,4,1</v>
       </c>
       <c r="K174" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L174" s="11">
         <f t="shared" si="12"/>
@@ -13586,7 +13589,7 @@
         <v>279</v>
       </c>
       <c r="Q174" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="175" spans="1:17" ht="47.25">
@@ -13617,7 +13620,7 @@
         <v>mu_2,4,2</v>
       </c>
       <c r="K175" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L175" s="11">
         <f t="shared" si="12"/>
@@ -13628,7 +13631,7 @@
         <v>279</v>
       </c>
       <c r="Q175" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="176" spans="1:17" ht="57">
@@ -13659,7 +13662,7 @@
         <v>mu_3,1,1</v>
       </c>
       <c r="K176" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L176" s="11">
         <f>L160</f>
@@ -13670,7 +13673,7 @@
         <v>273</v>
       </c>
       <c r="Q176" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="177" spans="1:17" ht="57">
@@ -13701,7 +13704,7 @@
         <v>mu_3,1,2</v>
       </c>
       <c r="K177" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L177" s="11">
         <f t="shared" ref="L177:L183" si="13">L161</f>
@@ -13712,7 +13715,7 @@
         <v>273</v>
       </c>
       <c r="Q177" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="178" spans="1:17" ht="57">
@@ -13743,7 +13746,7 @@
         <v>mu_3,2,1</v>
       </c>
       <c r="K178" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L178" s="11">
         <f t="shared" si="13"/>
@@ -13754,7 +13757,7 @@
         <v>277</v>
       </c>
       <c r="Q178" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="179" spans="1:17" ht="57">
@@ -13785,7 +13788,7 @@
         <v>mu_3,2,2</v>
       </c>
       <c r="K179" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L179" s="11">
         <f t="shared" si="13"/>
@@ -13796,7 +13799,7 @@
         <v>277</v>
       </c>
       <c r="Q179" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="180" spans="1:17" ht="57">
@@ -13827,7 +13830,7 @@
         <v>mu_3,3,1</v>
       </c>
       <c r="K180" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L180" s="11">
         <f t="shared" si="13"/>
@@ -13838,7 +13841,7 @@
         <v>278</v>
       </c>
       <c r="Q180" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="181" spans="1:17" ht="57">
@@ -13869,7 +13872,7 @@
         <v>mu_3,3,2</v>
       </c>
       <c r="K181" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L181" s="11">
         <f t="shared" si="13"/>
@@ -13880,7 +13883,7 @@
         <v>278</v>
       </c>
       <c r="Q181" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="182" spans="1:17" ht="57">
@@ -13911,7 +13914,7 @@
         <v>mu_3,4,1</v>
       </c>
       <c r="K182" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L182" s="11">
         <f t="shared" si="13"/>
@@ -13922,7 +13925,7 @@
         <v>279</v>
       </c>
       <c r="Q182" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="183" spans="1:17" ht="57">
@@ -13953,7 +13956,7 @@
         <v>mu_3,4,2</v>
       </c>
       <c r="K183" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L183" s="11">
         <f t="shared" si="13"/>
@@ -13964,7 +13967,7 @@
         <v>279</v>
       </c>
       <c r="Q183" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="184" spans="1:17" ht="42.75">
@@ -13995,7 +13998,7 @@
         <v>mu_4,1,1</v>
       </c>
       <c r="K184" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L184" s="11">
         <f t="shared" ref="L184:L191" si="14">L160</f>
@@ -14006,7 +14009,7 @@
         <v>273</v>
       </c>
       <c r="Q184" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:17" ht="47.25">
@@ -14037,7 +14040,7 @@
         <v>mu_4,1,2</v>
       </c>
       <c r="K185" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L185" s="11">
         <f t="shared" si="14"/>
@@ -14048,7 +14051,7 @@
         <v>273</v>
       </c>
       <c r="Q185" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:17" ht="47.25">
@@ -14079,7 +14082,7 @@
         <v>mu_4,2,1</v>
       </c>
       <c r="K186" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L186" s="11">
         <f t="shared" si="14"/>
@@ -14090,7 +14093,7 @@
         <v>277</v>
       </c>
       <c r="Q186" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="187" spans="1:17" ht="47.25">
@@ -14121,7 +14124,7 @@
         <v>mu_4,2,2</v>
       </c>
       <c r="K187" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L187" s="11">
         <f t="shared" si="14"/>
@@ -14132,7 +14135,7 @@
         <v>277</v>
       </c>
       <c r="Q187" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="188" spans="1:17" ht="47.25">
@@ -14163,7 +14166,7 @@
         <v>mu_4,3,1</v>
       </c>
       <c r="K188" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L188" s="11">
         <f t="shared" si="14"/>
@@ -14174,7 +14177,7 @@
         <v>278</v>
       </c>
       <c r="Q188" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="189" spans="1:17" ht="47.25">
@@ -14205,7 +14208,7 @@
         <v>mu_4,3,2</v>
       </c>
       <c r="K189" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L189" s="11">
         <f t="shared" si="14"/>
@@ -14216,7 +14219,7 @@
         <v>278</v>
       </c>
       <c r="Q189" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="190" spans="1:17" ht="47.25">
@@ -14247,7 +14250,7 @@
         <v>mu_4,4,1</v>
       </c>
       <c r="K190" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L190" s="11">
         <f t="shared" si="14"/>
@@ -14258,7 +14261,7 @@
         <v>279</v>
       </c>
       <c r="Q190" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="191" spans="1:17" ht="47.25">
@@ -14289,7 +14292,7 @@
         <v>mu_4,4,2</v>
       </c>
       <c r="K191" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L191" s="11">
         <f t="shared" si="14"/>
@@ -14300,7 +14303,7 @@
         <v>279</v>
       </c>
       <c r="Q191" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="192" spans="1:17" ht="42.75">
@@ -14331,7 +14334,7 @@
         <v>mu_5,1,1</v>
       </c>
       <c r="K192" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L192" s="11">
         <f t="shared" ref="L192:L199" si="16">L160</f>
@@ -14342,7 +14345,7 @@
         <v>273</v>
       </c>
       <c r="Q192" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="193" spans="1:17" ht="42.75">
@@ -14373,7 +14376,7 @@
         <v>mu_5,1,2</v>
       </c>
       <c r="K193" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L193" s="11">
         <f t="shared" si="16"/>
@@ -14384,7 +14387,7 @@
         <v>273</v>
       </c>
       <c r="Q193" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="194" spans="1:17" ht="47.25">
@@ -14415,7 +14418,7 @@
         <v>mu_5,2,1</v>
       </c>
       <c r="K194" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L194" s="11">
         <f t="shared" si="16"/>
@@ -14426,7 +14429,7 @@
         <v>277</v>
       </c>
       <c r="Q194" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="195" spans="1:17" ht="47.25">
@@ -14457,7 +14460,7 @@
         <v>mu_5,2,2</v>
       </c>
       <c r="K195" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L195" s="11">
         <f t="shared" si="16"/>
@@ -14468,7 +14471,7 @@
         <v>277</v>
       </c>
       <c r="Q195" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="196" spans="1:17" ht="47.25">
@@ -14499,7 +14502,7 @@
         <v>mu_5,3,1</v>
       </c>
       <c r="K196" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L196" s="11">
         <f t="shared" si="16"/>
@@ -14510,7 +14513,7 @@
         <v>278</v>
       </c>
       <c r="Q196" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="197" spans="1:17" ht="47.25">
@@ -14541,7 +14544,7 @@
         <v>mu_5,3,2</v>
       </c>
       <c r="K197" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L197" s="11">
         <f t="shared" si="16"/>
@@ -14552,7 +14555,7 @@
         <v>278</v>
       </c>
       <c r="Q197" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="198" spans="1:17" ht="42.75">
@@ -14583,7 +14586,7 @@
         <v>mu_5,4,1</v>
       </c>
       <c r="K198" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L198" s="11">
         <f t="shared" si="16"/>
@@ -14594,7 +14597,7 @@
         <v>279</v>
       </c>
       <c r="Q198" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="199" spans="1:17" ht="42.75">
@@ -14625,7 +14628,7 @@
         <v>mu_5,4,2</v>
       </c>
       <c r="K199" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L199" s="11">
         <f t="shared" si="16"/>
@@ -14636,7 +14639,7 @@
         <v>279</v>
       </c>
       <c r="Q199" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="200" spans="1:17" ht="42.75">
@@ -14667,7 +14670,7 @@
         <v>mu_6,1,1</v>
       </c>
       <c r="K200" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L200" s="11">
         <f>L160*20</f>
@@ -14678,7 +14681,7 @@
         <v>282</v>
       </c>
       <c r="Q200" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="201" spans="1:17" ht="42.75">
@@ -14709,7 +14712,7 @@
         <v>mu_6,1,2</v>
       </c>
       <c r="K201" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L201" s="11">
         <f>L161*20</f>
@@ -14720,10 +14723,10 @@
         <v>282</v>
       </c>
       <c r="Q201" s="53" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="202" spans="1:17" ht="47.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" ht="57">
       <c r="A202" s="20" t="s">
         <v>184</v>
       </c>
@@ -14751,18 +14754,20 @@
         <v>mu_6,2,1</v>
       </c>
       <c r="K202" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L202" s="11">
         <f>L160*50</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="O202" s="51"/>
+      <c r="O202" s="51" t="s">
+        <v>674</v>
+      </c>
       <c r="P202" s="52" t="s">
-        <v>283</v>
+        <v>672</v>
       </c>
       <c r="Q202" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="203" spans="1:17" ht="57">
@@ -14793,20 +14798,20 @@
         <v>mu_6,2,2</v>
       </c>
       <c r="K203" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L203" s="11">
         <f>L161*50</f>
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="O203" s="51" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="P203" s="52" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="Q203" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="204" spans="1:17" ht="47.25">
@@ -14837,20 +14842,20 @@
         <v>mu_6,3,1</v>
       </c>
       <c r="K204" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L204" s="11">
         <f>L160*100</f>
         <v>0.33</v>
       </c>
       <c r="O204" s="51" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="P204" s="52" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Q204" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="205" spans="1:17" ht="47.25">
@@ -14881,20 +14886,20 @@
         <v>mu_6,3,2</v>
       </c>
       <c r="K205" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L205" s="11">
         <f>L161*100</f>
         <v>0.19</v>
       </c>
       <c r="O205" s="51" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="P205" s="52" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Q205" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="206" spans="1:17" ht="42.75">
@@ -14925,18 +14930,20 @@
         <v>mu_6,4,1</v>
       </c>
       <c r="K206" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L206" s="11">
         <f>L160*30</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="O206" s="51"/>
+      <c r="O206" s="51" t="s">
+        <v>676</v>
+      </c>
       <c r="P206" s="52" t="s">
-        <v>283</v>
+        <v>677</v>
       </c>
       <c r="Q206" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="207" spans="1:17" ht="42.75">
@@ -14967,18 +14974,20 @@
         <v>mu_6,4,2</v>
       </c>
       <c r="K207" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L207" s="11">
         <f>L161*30</f>
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="O207" s="51"/>
+      <c r="O207" s="51" t="s">
+        <v>676</v>
+      </c>
       <c r="P207" s="52" t="s">
-        <v>283</v>
+        <v>677</v>
       </c>
       <c r="Q207" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="208" spans="1:17" ht="42.75">
@@ -15009,7 +15018,7 @@
         <v>mu_7,1,1</v>
       </c>
       <c r="K208" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L208" s="11">
         <f t="shared" ref="L208:L215" si="18">L160</f>
@@ -15020,7 +15029,7 @@
         <v>273</v>
       </c>
       <c r="Q208" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="209" spans="1:17" ht="42.75">
@@ -15051,7 +15060,7 @@
         <v>mu_7,1,2</v>
       </c>
       <c r="K209" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L209" s="11">
         <f t="shared" si="18"/>
@@ -15062,7 +15071,7 @@
         <v>273</v>
       </c>
       <c r="Q209" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="210" spans="1:17" ht="47.25">
@@ -15093,7 +15102,7 @@
         <v>mu_7,2,1</v>
       </c>
       <c r="K210" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L210" s="11">
         <f t="shared" si="18"/>
@@ -15104,7 +15113,7 @@
         <v>277</v>
       </c>
       <c r="Q210" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="211" spans="1:17" ht="47.25">
@@ -15135,7 +15144,7 @@
         <v>mu_7,2,2</v>
       </c>
       <c r="K211" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L211" s="11">
         <f t="shared" si="18"/>
@@ -15146,7 +15155,7 @@
         <v>277</v>
       </c>
       <c r="Q211" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="212" spans="1:17" ht="47.25">
@@ -15177,7 +15186,7 @@
         <v>mu_7,3,1</v>
       </c>
       <c r="K212" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L212" s="11">
         <f t="shared" si="18"/>
@@ -15188,7 +15197,7 @@
         <v>278</v>
       </c>
       <c r="Q212" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="213" spans="1:17" ht="47.25">
@@ -15219,7 +15228,7 @@
         <v>mu_7,3,2</v>
       </c>
       <c r="K213" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L213" s="11">
         <f t="shared" si="18"/>
@@ -15230,7 +15239,7 @@
         <v>278</v>
       </c>
       <c r="Q213" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="214" spans="1:17" ht="42.75">
@@ -15261,7 +15270,7 @@
         <v>mu_7,4,1</v>
       </c>
       <c r="K214" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L214" s="11">
         <f t="shared" si="18"/>
@@ -15272,7 +15281,7 @@
         <v>279</v>
       </c>
       <c r="Q214" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="215" spans="1:17" ht="47.25">
@@ -15303,7 +15312,7 @@
         <v>mu_7,4,2</v>
       </c>
       <c r="K215" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L215" s="11">
         <f t="shared" si="18"/>
@@ -15314,7 +15323,7 @@
         <v>279</v>
       </c>
       <c r="Q215" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="216" spans="1:17" ht="42.75">
@@ -15345,7 +15354,7 @@
         <v>mu_8,1,1</v>
       </c>
       <c r="K216" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L216" s="11">
         <f t="shared" ref="L216:L223" si="19">L160</f>
@@ -15356,7 +15365,7 @@
         <v>273</v>
       </c>
       <c r="Q216" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="217" spans="1:17" ht="42.75">
@@ -15387,7 +15396,7 @@
         <v>mu_8,1,2</v>
       </c>
       <c r="K217" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L217" s="11">
         <f t="shared" si="19"/>
@@ -15398,7 +15407,7 @@
         <v>273</v>
       </c>
       <c r="Q217" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="218" spans="1:17" ht="47.25">
@@ -15429,7 +15438,7 @@
         <v>mu_8,2,1</v>
       </c>
       <c r="K218" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L218" s="11">
         <f t="shared" si="19"/>
@@ -15440,7 +15449,7 @@
         <v>277</v>
       </c>
       <c r="Q218" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="219" spans="1:17" ht="47.25">
@@ -15471,7 +15480,7 @@
         <v>mu_8,2,2</v>
       </c>
       <c r="K219" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L219" s="11">
         <f t="shared" si="19"/>
@@ -15482,7 +15491,7 @@
         <v>277</v>
       </c>
       <c r="Q219" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="220" spans="1:17" ht="47.25">
@@ -15513,7 +15522,7 @@
         <v>mu_8,3,1</v>
       </c>
       <c r="K220" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L220" s="11">
         <f t="shared" si="19"/>
@@ -15524,7 +15533,7 @@
         <v>278</v>
       </c>
       <c r="Q220" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="221" spans="1:17" ht="47.25">
@@ -15555,7 +15564,7 @@
         <v>mu_8,3,2</v>
       </c>
       <c r="K221" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L221" s="11">
         <f t="shared" si="19"/>
@@ -15566,7 +15575,7 @@
         <v>278</v>
       </c>
       <c r="Q221" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="222" spans="1:17" ht="42.75">
@@ -15597,7 +15606,7 @@
         <v>mu_8,4,1</v>
       </c>
       <c r="K222" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L222" s="11">
         <f t="shared" si="19"/>
@@ -15608,7 +15617,7 @@
         <v>279</v>
       </c>
       <c r="Q222" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="223" spans="1:17" ht="42.75">
@@ -15639,7 +15648,7 @@
         <v>mu_8,4,2</v>
       </c>
       <c r="K223" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L223" s="11">
         <f t="shared" si="19"/>
@@ -15650,21 +15659,21 @@
         <v>279</v>
       </c>
       <c r="Q223" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="224" spans="1:17" ht="42.75" hidden="1">
       <c r="A224" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J224" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K224" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L224" s="11">
         <f>1/(60-15)</f>
@@ -15672,10 +15681,10 @@
       </c>
       <c r="O224" s="51"/>
       <c r="P224" s="52" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="Q224" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -15791,16 +15800,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>206</v>
@@ -15826,7 +15835,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="63" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -15841,59 +15850,59 @@
     </row>
     <row r="3" spans="1:12" ht="63">
       <c r="A3" s="63" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G3" s="19">
         <v>0.9</v>
       </c>
       <c r="K3" s="52" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="47.25">
       <c r="A4" s="63" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G4" s="19">
         <v>0.6</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="47.25">
       <c r="A5" s="63" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G5" s="19">
         <v>0.9</v>
       </c>
       <c r="K5" s="52" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="42.75" customHeight="1">
@@ -15941,7 +15950,7 @@
         <v>0.5</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75">
@@ -15958,7 +15967,7 @@
     </row>
     <row r="10" spans="1:12" ht="31.5">
       <c r="A10" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -15969,7 +15978,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G10" s="1">
         <f>G11</f>
@@ -15978,7 +15987,7 @@
     </row>
     <row r="11" spans="1:12" ht="31.5">
       <c r="A11" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -15989,19 +15998,19 @@
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G11" s="1">
         <f>1-G15-G13</f>
         <v>0.44999999999999996</v>
       </c>
       <c r="K11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="31.5">
       <c r="A12" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -16012,18 +16021,18 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G12" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="K12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5">
       <c r="A13" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -16034,18 +16043,18 @@
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G13" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="K13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="31.5">
       <c r="A14" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -16056,7 +16065,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G14" s="72">
         <v>0</v>
@@ -16064,7 +16073,7 @@
     </row>
     <row r="15" spans="1:12" ht="31.5">
       <c r="A15" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -16075,21 +16084,21 @@
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G15" s="72">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -16100,7 +16109,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G16" s="35">
         <v>0.7</v>
@@ -16108,14 +16117,14 @@
     </row>
     <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G17" s="35">
         <v>0.3</v>
@@ -16123,10 +16132,10 @@
     </row>
     <row r="18" spans="1:12" ht="31.5">
       <c r="A18" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31">
@@ -16136,21 +16145,21 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G18" s="35">
         <v>0.5</v>
       </c>
       <c r="K18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="31.5">
       <c r="A19" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31">
@@ -16160,21 +16169,21 @@
         <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G19" s="1">
         <v>0.5</v>
       </c>
       <c r="K19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31">
@@ -16184,7 +16193,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G20" s="1">
         <f>G21</f>
@@ -16193,10 +16202,10 @@
     </row>
     <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C21" s="31"/>
       <c r="D21" s="31">
@@ -16206,7 +16215,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G21" s="1">
         <f>1-G18-G24</f>
@@ -16215,44 +16224,44 @@
     </row>
     <row r="22" spans="1:12" ht="31.5">
       <c r="A22" s="67" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E22" s="31">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G22" s="1">
         <v>0.5</v>
       </c>
       <c r="K22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="31.5">
       <c r="A23" s="67" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E23" s="31">
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G23" s="1">
         <v>0.5</v>
@@ -16260,7 +16269,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75">
       <c r="A24" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B24" s="31">
         <v>6</v>
@@ -16273,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G24" s="1">
         <v>0.01</v>
@@ -16281,7 +16290,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75">
       <c r="A25" s="31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B25" s="31">
         <v>6</v>
@@ -16294,7 +16303,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G25" s="1">
         <v>0.01</v>
@@ -16302,20 +16311,20 @@
     </row>
     <row r="26" spans="1:12" ht="31.5">
       <c r="A26" s="67" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B26" s="31">
         <v>6</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E26" s="31">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G26" s="1">
         <v>0.6</v>
@@ -16323,20 +16332,20 @@
     </row>
     <row r="27" spans="1:12" ht="31.5">
       <c r="A27" s="67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B27" s="31">
         <v>6</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E27" s="31">
         <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G27" s="1">
         <v>0.8</v>
@@ -16344,14 +16353,14 @@
     </row>
     <row r="28" spans="1:12" ht="31.5">
       <c r="A28" s="69" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
       <c r="D28" s="32"/>
       <c r="E28" s="31"/>
       <c r="F28" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G28" s="1">
         <f>1-G26</f>
@@ -16360,14 +16369,14 @@
     </row>
     <row r="29" spans="1:12" ht="31.5">
       <c r="A29" s="69" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
       <c r="D29" s="32"/>
       <c r="E29" s="31"/>
       <c r="F29" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G29" s="1">
         <f>1-G27</f>
@@ -16376,35 +16385,35 @@
     </row>
     <row r="30" spans="1:12" ht="15.75">
       <c r="A30" s="66" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
       <c r="D30" s="32"/>
       <c r="E30" s="31"/>
       <c r="F30" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G30" s="70">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="K30" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75">
       <c r="A31" s="66" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
       <c r="D31" s="32"/>
       <c r="E31" s="31"/>
       <c r="F31" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G31" s="70">
         <v>0.95</v>
@@ -16412,32 +16421,32 @@
     </row>
     <row r="32" spans="1:12" ht="15.75">
       <c r="A32" s="66" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
       <c r="D32" s="32"/>
       <c r="E32" s="31"/>
       <c r="F32" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G32" s="70">
         <v>0.01</v>
       </c>
       <c r="L32" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75">
       <c r="A33" s="66" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32"/>
       <c r="E33" s="31"/>
       <c r="F33" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G33" s="70">
         <v>0.99</v>
@@ -16445,14 +16454,14 @@
     </row>
     <row r="34" spans="1:13" ht="15.75">
       <c r="A34" s="66" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="32"/>
       <c r="E34" s="31"/>
       <c r="F34" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G34" s="70">
         <v>0.01</v>
@@ -17434,10 +17443,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="41" t="s">
+        <v>668</v>
+      </c>
+      <c r="B3" t="s">
         <v>669</v>
-      </c>
-      <c r="B3" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -17522,7 +17531,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B14" s="43">
         <v>1000</v>
@@ -17557,7 +17566,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="47.25">
       <c r="A1" s="58" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -17578,25 +17587,25 @@
         <v>9</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>287</v>
-      </c>
       <c r="M1" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="N1" s="59" t="s">
         <v>412</v>
-      </c>
-      <c r="N1" s="59" t="s">
-        <v>413</v>
       </c>
       <c r="O1" s="60" t="s">
         <v>11</v>
@@ -24118,7 +24127,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -24126,7 +24135,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -24134,39 +24143,39 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="47.25">
       <c r="A5" s="62" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C5" s="62" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5" s="62" t="s">
         <v>351</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="F5" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="E5" s="62" t="s">
-        <v>352</v>
-      </c>
-      <c r="F5" s="62" t="s">
+      <c r="G5" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="G5" s="62" t="s">
-        <v>355</v>
-      </c>
       <c r="H5" s="62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J5" s="49"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B6" s="43">
         <v>0.17325000000000002</v>
@@ -24199,7 +24208,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="42" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B7" s="43">
         <v>0.17325000000000002</v>
@@ -24232,7 +24241,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B8" s="43">
         <v>1.3364999999999998E-2</v>
@@ -24265,7 +24274,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B9" s="43">
         <v>1.3364999999999998E-2</v>
@@ -24298,7 +24307,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B10" s="43">
         <v>0</v>
@@ -24331,7 +24340,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B11" s="43">
         <v>0</v>
@@ -24364,7 +24373,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B12" s="43">
         <v>0</v>
@@ -24397,7 +24406,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B13" s="43">
         <v>0</v>
@@ -24430,7 +24439,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B14" s="43">
         <v>8.0203870168483703E-3</v>
@@ -24463,7 +24472,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B15" s="43">
         <v>8.0203870168483703E-3</v>
@@ -24496,7 +24505,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B16" s="43">
         <v>6.1871556987115985E-4</v>
@@ -24529,7 +24538,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B17" s="43">
         <v>6.1871556987115985E-4</v>
@@ -24562,7 +24571,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B18" s="43">
         <v>3.0815609514370679E-4</v>
@@ -24595,7 +24604,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B19" s="43">
         <v>3.0815609514370679E-4</v>
@@ -24628,7 +24637,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B20" s="43">
         <v>2.3772041625371663E-5</v>
@@ -24661,7 +24670,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B21" s="43">
         <v>2.3772041625371663E-5</v>
@@ -24694,7 +24703,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B22" s="43">
         <v>0.1554972993062439</v>
@@ -24727,7 +24736,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B23" s="43">
         <v>0.1554972993062439</v>
@@ -24760,7 +24769,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B24" s="43">
         <v>1.1995505946481669E-2</v>
@@ -24793,7 +24802,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B25" s="43">
         <v>1.1995505946481669E-2</v>
@@ -24826,7 +24835,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B26" s="43">
         <v>5.9744549058473768E-3</v>
@@ -24859,7 +24868,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B27" s="43">
         <v>5.9744549058473768E-3</v>
@@ -24892,7 +24901,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B28" s="43">
         <v>4.6088652130822606E-4</v>
@@ -24925,7 +24934,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B29" s="43">
         <v>4.6088652130822606E-4</v>
@@ -24958,7 +24967,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B30" s="43">
         <v>1.926E-3</v>
@@ -24991,7 +25000,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B31" s="43">
         <v>9.6299999999999966E-4</v>
@@ -25024,7 +25033,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B32" s="43">
         <v>1.5889500000000002E-3</v>
@@ -25057,7 +25066,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B33" s="43">
         <v>2.1186000000000004E-3</v>
@@ -25090,7 +25099,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B34" s="43">
         <v>7.400000000000001E-5</v>
@@ -25123,7 +25132,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B35" s="43">
         <v>3.6999999999999991E-5</v>
@@ -25156,7 +25165,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B36" s="43">
         <v>6.1050000000000007E-5</v>
@@ -25189,7 +25198,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B37" s="43">
         <v>8.1400000000000013E-5</v>
@@ -25222,7 +25231,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B38" s="43">
         <v>0.7458783548067397</v>

--- a/param_files/Epi_model_parameters.xlsx
+++ b/param_files/Epi_model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/github/epi_model_HIV_TB/param_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD1AC3C-C0EE-7B4F-9C61-53277EBB710E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A47F06F-0A41-A545-AD65-D9468B2E1A5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model_matched_parameters" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">indirect_model_parameters!$A$1:$M$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model_matched_parameters!$A$1:$Q$225</definedName>
-    <definedName name="Epidemiological_data_point__description">model_matched_parameters!$A$1:$Q$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model_matched_parameters!$A$1:$Q$226</definedName>
+    <definedName name="Epidemiological_data_point__description">model_matched_parameters!$A$1:$Q$226</definedName>
     <definedName name="G_SET">'Set Ref'!$A$21:$B$23</definedName>
     <definedName name="HIV_SET">'Set Ref'!$A$15:$B$19</definedName>
     <definedName name="indirect_model_parameters">indirect_model_parameters!$F$1:$G$7</definedName>
     <definedName name="indirect_model_params">indirect_model_parameters!$F$1:$G$5</definedName>
-    <definedName name="model_matched_parameters">model_matched_parameters!$J$1:$L$225</definedName>
+    <definedName name="model_matched_parameters">model_matched_parameters!$J$1:$L$226</definedName>
     <definedName name="P_SET">'Set Ref'!$A$25:$B$34</definedName>
     <definedName name="R_SET">'Set Ref'!$A$11:$B$13</definedName>
     <definedName name="TB_SET">'Set Ref'!$A$1:$B$9</definedName>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L99" authorId="0" shapeId="0" xr:uid="{E41FFF7D-6323-DF46-BDEE-1787BC884E37}">
+    <comment ref="L100" authorId="0" shapeId="0" xr:uid="{E41FFF7D-6323-DF46-BDEE-1787BC884E37}">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L102" authorId="0" shapeId="0" xr:uid="{366C8D92-6836-5947-98E1-A12E7473EC53}">
+    <comment ref="L103" authorId="0" shapeId="0" xr:uid="{366C8D92-6836-5947-98E1-A12E7473EC53}">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="634">
   <si>
     <t>Epidemiological data point (description)</t>
   </si>
@@ -1933,9 +1933,6 @@
     <t>ART initiation at low CD4 - CG unsure of the connection to the parameters in indirect model params</t>
   </si>
   <si>
-    <t>Emily's paper (percent per year)</t>
-  </si>
-  <si>
     <t>Total population size</t>
   </si>
   <si>
@@ -2062,10 +2059,31 @@
     <t>Base rates of TB progression, relapse</t>
   </si>
   <si>
-    <t>CG NOTE: From David's Paper</t>
-  </si>
-  <si>
     <t>Andrews 2012 (.21) - changed to David's (.56)</t>
+  </si>
+  <si>
+    <t>set at david's relapse rate</t>
+  </si>
+  <si>
+    <t>Base rates of TB progression from LTBI after IPT to active</t>
+  </si>
+  <si>
+    <t>pi_86,</t>
+  </si>
+  <si>
+    <t>Emily's paper (percent per year) - 5%, 8.7% from david's paper</t>
+  </si>
+  <si>
+    <t>Emily's paper (percent per year) - .01%, .05% david's paper</t>
+  </si>
+  <si>
+    <t>CG note was .02, changed it to 50% reduction of recent</t>
+  </si>
+  <si>
+    <t>set to 50% reduction of remote rate</t>
+  </si>
+  <si>
+    <t>set at 6% IPT adherence</t>
   </si>
 </sst>
 </file>
@@ -2075,11 +2093,18 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2252,6 +2277,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF005CC5"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -2338,27 +2369,27 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2373,66 +2404,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2441,19 +2472,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2468,28 +2499,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2498,9 +2529,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2519,10 +2554,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2788,13 +2819,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q225"/>
+  <dimension ref="A1:Q226"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="1" topLeftCell="L91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2968,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="43" t="s">
@@ -3003,10 +3034,10 @@
         <v>0.15</v>
       </c>
       <c r="O5" s="41" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="P5" s="49" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q5" s="43" t="s">
         <v>319</v>
@@ -3040,10 +3071,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="41" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P6" s="42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Q6" s="43" t="s">
         <v>319</v>
@@ -3078,10 +3109,10 @@
         <v>0.9</v>
       </c>
       <c r="O7" s="41" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P7" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="Q7" s="43" t="s">
         <v>319</v>
@@ -3116,10 +3147,10 @@
         <v>0.6</v>
       </c>
       <c r="O8" s="41" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P8" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="Q8" s="43" t="s">
         <v>319</v>
@@ -3154,10 +3185,10 @@
         <v>0.9</v>
       </c>
       <c r="O9" s="41" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P9" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="Q9" s="43" t="s">
         <v>319</v>
@@ -3228,7 +3259,7 @@
         <v>22</v>
       </c>
       <c r="P11" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q11" s="43" t="s">
         <v>318</v>
@@ -3294,10 +3325,10 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="O13" s="41" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="P13" s="50" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="Q13" s="43" t="s">
         <v>319</v>
@@ -5628,7 +5659,7 @@
         <v>3</v>
       </c>
       <c r="J66" s="9" t="str">
-        <f t="shared" ref="J66:J130" si="3">CONCATENATE(C66, "_", E66, IF(E66&lt;&gt;"",",",""), F66, IF(F66&lt;&gt;"",",",""),  G66, IF(G66&lt;&gt;"",",",""),  H66, IF(I66&lt;&gt;"","(",""), I66, IF(I66&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J66:J131" si="3">CONCATENATE(C66, "_", E66, IF(E66&lt;&gt;"",",",""), F66, IF(F66&lt;&gt;"",",",""),  G66, IF(G66&lt;&gt;"",",",""),  H66, IF(I66&lt;&gt;"","(",""), I66, IF(I66&lt;&gt;"",")",""))</f>
         <v>kappa_4,1,1(3)</v>
       </c>
       <c r="K66" s="9" t="s">
@@ -6632,7 +6663,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>128</v>
       </c>
@@ -6656,17 +6687,17 @@
         <v>454</v>
       </c>
       <c r="L90" s="23">
-        <v>0.05</v>
-      </c>
-      <c r="O90" s="41"/>
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="O90" s="59"/>
       <c r="P90" s="42" t="s">
-        <v>583</v>
+        <v>629</v>
       </c>
       <c r="Q90" s="43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
         <v>129</v>
       </c>
@@ -6690,17 +6721,17 @@
         <v>455</v>
       </c>
       <c r="L91" s="23">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O91" s="41"/>
       <c r="P91" s="42" t="s">
-        <v>583</v>
+        <v>630</v>
       </c>
       <c r="Q91" s="43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
         <v>130</v>
       </c>
@@ -6724,20 +6755,23 @@
         <v>456</v>
       </c>
       <c r="L92" s="23">
-        <v>0.02</v>
+        <f>L90*0.4</f>
+        <v>3.4639999999999997E-2</v>
       </c>
       <c r="O92" s="41"/>
-      <c r="P92" s="42"/>
+      <c r="P92" s="42" t="s">
+        <v>631</v>
+      </c>
       <c r="Q92" s="43" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="57" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>126</v>
@@ -6753,7 +6787,7 @@
         <v>pi_76,</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L93" s="23">
         <v>1.2999999999999999E-2</v>
@@ -6796,49 +6830,44 @@
         <v>319</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="A95" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B95" s="9" t="str">
-        <f>CONCATENATE("Relative risk for TB progression from LTBI to active for HIV compartment ", VLOOKUP(G95, HIV_SET, 2))</f>
-        <v>Relative risk for TB progression from LTBI to active for HIV compartment  HIV-negative</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D95" s="8" t="s">
+    <row r="95" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A95" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="B95" s="22"/>
+      <c r="C95" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E95" s="8"/>
-      <c r="G95" s="9">
-        <v>1</v>
+      <c r="E95" s="9">
+        <v>86</v>
       </c>
       <c r="J95" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>theta_1,</v>
+        <v>pi_86,</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="L95" s="9">
-        <v>1</v>
+        <v>628</v>
+      </c>
+      <c r="L95" s="23">
+        <f>L91*0.5</f>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="O95" s="41"/>
       <c r="P95" s="42" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q95" s="43" t="s">
-        <v>319</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="Q95" s="43"/>
     </row>
     <row r="96" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B96" s="9" t="str">
         <f>CONCATENATE("Relative risk for TB progression from LTBI to active for HIV compartment ", VLOOKUP(G96, HIV_SET, 2))</f>
-        <v>Relative risk for TB progression from LTBI to active for HIV compartment  PLHIV not on ART, CD4&gt;200</v>
+        <v>Relative risk for TB progression from LTBI to active for HIV compartment  HIV-negative</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>132</v>
@@ -6848,17 +6877,17 @@
       </c>
       <c r="E96" s="8"/>
       <c r="G96" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>theta_2,</v>
+        <v>theta_1,</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L96" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O96" s="41"/>
       <c r="P96" s="42" t="s">
@@ -6870,11 +6899,11 @@
     </row>
     <row r="97" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B97" s="9" t="str">
         <f>CONCATENATE("Relative risk for TB progression from LTBI to active for HIV compartment ", VLOOKUP(G97, HIV_SET, 2))</f>
-        <v>Relative risk for TB progression from LTBI to active for HIV compartment  PLHIV not on ART, CD4≤200</v>
+        <v>Relative risk for TB progression from LTBI to active for HIV compartment  PLHIV not on ART, CD4&gt;200</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>132</v>
@@ -6884,17 +6913,17 @@
       </c>
       <c r="E97" s="8"/>
       <c r="G97" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J97" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>theta_3,</v>
+        <v>theta_2,</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L97" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O97" s="41"/>
       <c r="P97" s="42" t="s">
@@ -6906,11 +6935,11 @@
     </row>
     <row r="98" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B98" s="9" t="str">
         <f>CONCATENATE("Relative risk for TB progression from LTBI to active for HIV compartment ", VLOOKUP(G98, HIV_SET, 2))</f>
-        <v>Relative risk for TB progression from LTBI to active for HIV compartment  PLHIV and on ART</v>
+        <v>Relative risk for TB progression from LTBI to active for HIV compartment  PLHIV not on ART, CD4≤200</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>132</v>
@@ -6920,130 +6949,132 @@
       </c>
       <c r="E98" s="8"/>
       <c r="G98" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J98" s="9" t="str">
         <f t="shared" si="3"/>
+        <v>theta_3,</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="L98" s="9">
+        <v>10</v>
+      </c>
+      <c r="O98" s="41"/>
+      <c r="P98" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q98" s="43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A99" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B99" s="9" t="str">
+        <f>CONCATENATE("Relative risk for TB progression from LTBI to active for HIV compartment ", VLOOKUP(G99, HIV_SET, 2))</f>
+        <v>Relative risk for TB progression from LTBI to active for HIV compartment  PLHIV and on ART</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E99" s="8"/>
+      <c r="G99" s="9">
+        <v>4</v>
+      </c>
+      <c r="J99" s="9" t="str">
+        <f t="shared" si="3"/>
         <v>theta_4,</v>
       </c>
-      <c r="K98" s="9" t="s">
+      <c r="K99" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="L98" s="37">
+      <c r="L99" s="37">
         <f>AVERAGE(VLOOKUP("theta_2,",model_matched_parameters,3,FALSE),VLOOKUP("theta_3,",model_matched_parameters,3,FALSE))*(1/3)</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="O98" s="41" t="s">
+      <c r="O99" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="P98" s="42" t="s">
+      <c r="P99" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="Q98" s="43" t="s">
+      <c r="Q99" s="43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="32" x14ac:dyDescent="0.2">
-      <c r="A99" s="11" t="s">
+    <row r="100" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A100" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="B99" s="9" t="str">
-        <f t="shared" ref="B99:B104" si="5">CONCATENATE("IPT Adherence  under policy ", VLOOKUP(I99, P_SET,2), " for gender ", VLOOKUP(H99,G_SET,2))</f>
+      <c r="B100" s="9" t="str">
+        <f t="shared" ref="B100:B105" si="5">CONCATENATE("IPT Adherence  under policy ", VLOOKUP(I100, P_SET,2), " for gender ", VLOOKUP(H100,G_SET,2))</f>
         <v>IPT Adherence  under policy Standard (baseline) for gender Male</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C100" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D100" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H99" s="9">
-        <v>1</v>
-      </c>
-      <c r="I99" s="9">
-        <v>1</v>
-      </c>
-      <c r="J99" s="9" t="str">
+      <c r="H100" s="9">
+        <v>1</v>
+      </c>
+      <c r="I100" s="9">
+        <v>1</v>
+      </c>
+      <c r="J100" s="9" t="str">
         <f t="shared" si="3"/>
         <v>varpi_1(1)</v>
       </c>
-      <c r="K99" s="9" t="s">
+      <c r="K100" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="L99" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="O99" s="41"/>
-      <c r="P99" s="42"/>
-      <c r="Q99" s="43" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" ht="32" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="s">
+      <c r="L100" s="34">
+        <v>0.06</v>
+      </c>
+      <c r="O100" s="41"/>
+      <c r="P100" s="42" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q100" s="43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A101" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="B100" s="9" t="str">
+      <c r="B101" s="9" t="str">
         <f t="shared" si="5"/>
         <v>IPT Adherence  under policy Community ART for gender Male</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C101" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D101" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H100" s="9">
-        <v>1</v>
-      </c>
-      <c r="I100" s="9">
-        <v>2</v>
-      </c>
-      <c r="J100" s="9" t="str">
+      <c r="H101" s="9">
+        <v>1</v>
+      </c>
+      <c r="I101" s="9">
+        <v>2</v>
+      </c>
+      <c r="J101" s="9" t="str">
         <f t="shared" si="3"/>
         <v>varpi_1(2)</v>
       </c>
-      <c r="K100" s="9" t="s">
+      <c r="K101" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="L100" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="O100" s="41"/>
-      <c r="P100" s="42"/>
-      <c r="Q100" s="43" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="B101" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>IPT Adherence  under policy Community ART + IPT for gender Male</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H101" s="9">
-        <v>1</v>
-      </c>
-      <c r="I101" s="9">
-        <v>3</v>
-      </c>
-      <c r="J101" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>varpi_1(3)</v>
-      </c>
-      <c r="K101" s="9" t="s">
-        <v>464</v>
-      </c>
       <c r="L101" s="34">
-        <v>0.8</v>
+        <v>0.06</v>
       </c>
       <c r="O101" s="41"/>
       <c r="P101" s="42"/>
@@ -7053,11 +7084,11 @@
     </row>
     <row r="102" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B102" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>IPT Adherence  under policy Standard (baseline) for gender Female</v>
+        <v>IPT Adherence  under policy Community ART + IPT for gender Male</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>313</v>
@@ -7066,23 +7097,22 @@
         <v>41</v>
       </c>
       <c r="H102" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J102" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>varpi_2(1)</v>
+        <v>varpi_1(3)</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L102" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="N102" s="10"/>
-      <c r="O102" s="43"/>
+        <v>0.75</v>
+      </c>
+      <c r="O102" s="41"/>
       <c r="P102" s="42"/>
       <c r="Q102" s="43" t="s">
         <v>318</v>
@@ -7090,11 +7120,11 @@
     </row>
     <row r="103" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B103" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>IPT Adherence  under policy Community ART for gender Female</v>
+        <v>IPT Adherence  under policy Standard (baseline) for gender Female</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>313</v>
@@ -7106,17 +7136,17 @@
         <v>2</v>
       </c>
       <c r="I103" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>varpi_2(2)</v>
+        <v>varpi_2(1)</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L103" s="34">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="N103" s="10"/>
       <c r="O103" s="43"/>
@@ -7127,11 +7157,11 @@
     </row>
     <row r="104" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B104" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>IPT Adherence  under policy Community ART + IPT for gender Female</v>
+        <v>IPT Adherence  under policy Community ART for gender Female</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>313</v>
@@ -7143,17 +7173,17 @@
         <v>2</v>
       </c>
       <c r="I104" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J104" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>varpi_2(3)</v>
+        <v>varpi_2(2)</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L104" s="34">
-        <v>0.8</v>
+        <v>0.06</v>
       </c>
       <c r="N104" s="10"/>
       <c r="O104" s="43"/>
@@ -7162,57 +7192,50 @@
         <v>318</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="80" x14ac:dyDescent="0.2">
-      <c r="A105" s="20" t="s">
-        <v>326</v>
+    <row r="105" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A105" s="11" t="s">
+        <v>325</v>
       </c>
       <c r="B105" s="9" t="str">
-        <f t="shared" ref="B105:B128" si="6">CONCATENATE("Rate of populations moving from HIV compartment ",VLOOKUP(ROUND(G105/10,2),HIV_SET,2)," to ", VLOOKUP(MOD(G105,10),HIV_SET,2), " for gender ", VLOOKUP(H105,G_SET,2), " per year under policy ", VLOOKUP(I105, P_SET,2))</f>
-        <v>Rate of populations moving from HIV compartment  HIV-negative to  PLHIV not on ART, CD4&gt;200 for gender Male per year under policy Standard (baseline)</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E105" s="8"/>
-      <c r="G105" s="9">
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>IPT Adherence  under policy Community ART + IPT for gender Female</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="H105" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J105" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_12,1(1)</v>
+        <v>varpi_2(3)</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="L105" s="11">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="O105" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="P105" s="45" t="s">
-        <v>350</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="L105" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="N105" s="10"/>
+      <c r="O105" s="43"/>
+      <c r="P105" s="42"/>
       <c r="Q105" s="43" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B106" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  HIV-negative to  PLHIV not on ART, CD4&gt;200 for gender Male per year under policy Community ART</v>
+        <f t="shared" ref="B106:B129" si="6">CONCATENATE("Rate of populations moving from HIV compartment ",VLOOKUP(ROUND(G106/10,2),HIV_SET,2)," to ", VLOOKUP(MOD(G106,10),HIV_SET,2), " for gender ", VLOOKUP(H106,G_SET,2), " per year under policy ", VLOOKUP(I106, P_SET,2))</f>
+        <v>Rate of populations moving from HIV compartment  HIV-negative to  PLHIV not on ART, CD4&gt;200 for gender Male per year under policy Standard (baseline)</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>136</v>
@@ -7228,14 +7251,14 @@
         <v>1</v>
       </c>
       <c r="I106" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_12,1(2)</v>
+        <v>eta_12,1(1)</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L106" s="11">
         <v>6.8999999999999999E-3</v>
@@ -7252,11 +7275,11 @@
     </row>
     <row r="107" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B107" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  HIV-negative to  PLHIV not on ART, CD4&gt;200 for gender Male per year under policy Community ART + IPT</v>
+        <v>Rate of populations moving from HIV compartment  HIV-negative to  PLHIV not on ART, CD4&gt;200 for gender Male per year under policy Community ART</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>136</v>
@@ -7272,14 +7295,14 @@
         <v>1</v>
       </c>
       <c r="I107" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J107" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_12,1(3)</v>
+        <v>eta_12,1(2)</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L107" s="11">
         <v>6.8999999999999999E-3</v>
@@ -7294,13 +7317,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B108" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV not on ART, CD4≤200 for gender Male per year under policy Standard (baseline)</v>
+        <v>Rate of populations moving from HIV compartment  HIV-negative to  PLHIV not on ART, CD4&gt;200 for gender Male per year under policy Community ART + IPT</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>136</v>
@@ -7310,42 +7333,41 @@
       </c>
       <c r="E108" s="8"/>
       <c r="G108" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H108" s="9">
         <v>1</v>
       </c>
       <c r="I108" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J108" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_23,1(1)</v>
+        <v>eta_12,1(3)</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="L108" s="23">
-        <f>1/(0.25+1.71+1.05+4.71)</f>
-        <v>0.1295336787564767</v>
-      </c>
-      <c r="O108" s="46" t="s">
-        <v>354</v>
-      </c>
-      <c r="P108" s="42" t="s">
-        <v>352</v>
+        <v>470</v>
+      </c>
+      <c r="L108" s="11">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="O108" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="P108" s="45" t="s">
+        <v>350</v>
       </c>
       <c r="Q108" s="43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B109" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV not on ART, CD4≤200 for gender Male per year under policy Community ART</v>
+        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV not on ART, CD4≤200 for gender Male per year under policy Standard (baseline)</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>136</v>
@@ -7361,17 +7383,17 @@
         <v>1</v>
       </c>
       <c r="I109" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J109" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_23,1(2)</v>
+        <v>eta_23,1(1)</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L109" s="23">
-        <f t="shared" ref="L109:L110" si="7">1/(0.25+1.71+1.05+4.71)</f>
+        <f>1/(0.25+1.71+1.05+4.71)</f>
         <v>0.1295336787564767</v>
       </c>
       <c r="O109" s="46" t="s">
@@ -7386,11 +7408,11 @@
     </row>
     <row r="110" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B110" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV not on ART, CD4≤200 for gender Male per year under policy Community ART + IPT</v>
+        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV not on ART, CD4≤200 for gender Male per year under policy Community ART</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>136</v>
@@ -7406,76 +7428,81 @@
         <v>1</v>
       </c>
       <c r="I110" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J110" s="9" t="str">
         <f t="shared" si="3"/>
+        <v>eta_23,1(2)</v>
+      </c>
+      <c r="K110" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="L110" s="23">
+        <f t="shared" ref="L110:L111" si="7">1/(0.25+1.71+1.05+4.71)</f>
+        <v>0.1295336787564767</v>
+      </c>
+      <c r="O110" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="P110" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q110" s="43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="B111" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV not on ART, CD4≤200 for gender Male per year under policy Community ART + IPT</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E111" s="8"/>
+      <c r="G111" s="9">
+        <v>23</v>
+      </c>
+      <c r="H111" s="9">
+        <v>1</v>
+      </c>
+      <c r="I111" s="9">
+        <v>3</v>
+      </c>
+      <c r="J111" s="9" t="str">
+        <f t="shared" si="3"/>
         <v>eta_23,1(3)</v>
       </c>
-      <c r="K110" s="9" t="s">
+      <c r="K111" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="L110" s="23">
+      <c r="L111" s="23">
         <f t="shared" si="7"/>
         <v>0.1295336787564767</v>
       </c>
-      <c r="O110" s="46" t="s">
+      <c r="O111" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="P110" s="42" t="s">
+      <c r="P111" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="Q110" s="43" t="s">
+      <c r="Q111" s="43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="20" t="s">
+    <row r="112" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="B111" s="9" t="str">
+      <c r="B112" s="9" t="str">
         <f t="shared" si="6"/>
         <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV and on ART for gender Male per year under policy Standard (baseline)</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E111" s="8"/>
-      <c r="G111" s="9">
-        <v>24</v>
-      </c>
-      <c r="H111" s="9">
-        <v>1</v>
-      </c>
-      <c r="I111" s="9">
-        <v>1</v>
-      </c>
-      <c r="J111" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>eta_24,1(1)</v>
-      </c>
-      <c r="K111" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="L111" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="O111" s="46"/>
-      <c r="P111" s="42"/>
-      <c r="Q111" s="43" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" ht="48" x14ac:dyDescent="0.2">
-      <c r="A112" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="B112" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV and on ART for gender Male per year under policy Community ART</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>136</v>
@@ -7491,36 +7518,31 @@
         <v>1</v>
       </c>
       <c r="I112" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_24,1(2)</v>
+        <v>eta_24,1(1)</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L112" s="23">
-        <f>VLOOKUP("eta_24,1(1)",model_matched_parameters,3, FALSE)*VLOOKUP("eta_2,4(2)",indirect_model_parameters,2,FALSE)</f>
-        <v>0.44000000000000006</v>
-      </c>
-      <c r="O112" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="P112" s="42" t="s">
-        <v>365</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="O112" s="46"/>
+      <c r="P112" s="42"/>
       <c r="Q112" s="43" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B113" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV and on ART for gender Male per year under policy Community ART + IPT</v>
+        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV and on ART for gender Male per year under policy Community ART</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>136</v>
@@ -7536,36 +7558,36 @@
         <v>1</v>
       </c>
       <c r="I113" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J113" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_24,1(3)</v>
+        <v>eta_24,1(2)</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L113" s="23">
         <f>VLOOKUP("eta_24,1(1)",model_matched_parameters,3, FALSE)*VLOOKUP("eta_2,4(2)",indirect_model_parameters,2,FALSE)</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="O113" s="41" t="s">
-        <v>581</v>
+      <c r="O113" s="47" t="s">
+        <v>355</v>
       </c>
       <c r="P113" s="42" t="s">
-        <v>582</v>
+        <v>365</v>
       </c>
       <c r="Q113" s="43" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B114" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4≤200 to  PLHIV and on ART for gender Male per year under policy Standard (baseline)</v>
+        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV and on ART for gender Male per year under policy Community ART + IPT</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>136</v>
@@ -7575,37 +7597,42 @@
       </c>
       <c r="E114" s="8"/>
       <c r="G114" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H114" s="9">
         <v>1</v>
       </c>
       <c r="I114" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J114" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_34,1(1)</v>
+        <v>eta_24,1(3)</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="L114" s="38">
-        <v>0.4</v>
-      </c>
-      <c r="O114" s="41"/>
-      <c r="P114" s="42"/>
+        <v>476</v>
+      </c>
+      <c r="L114" s="23">
+        <f>VLOOKUP("eta_24,1(1)",model_matched_parameters,3, FALSE)*VLOOKUP("eta_2,4(2)",indirect_model_parameters,2,FALSE)</f>
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="O114" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="P114" s="42" t="s">
+        <v>582</v>
+      </c>
       <c r="Q114" s="43" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B115" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4≤200 to  PLHIV and on ART for gender Male per year under policy Community ART</v>
+        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4≤200 to  PLHIV and on ART for gender Male per year under policy Standard (baseline)</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>136</v>
@@ -7621,34 +7648,31 @@
         <v>1</v>
       </c>
       <c r="I115" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_34,1(2)</v>
+        <v>eta_34,1(1)</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="L115" s="23">
-        <f>L114*indirect_model_parameters!$G$6</f>
-        <v>0.44000000000000006</v>
-      </c>
-      <c r="O115" s="41" t="s">
-        <v>364</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="L115" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="O115" s="41"/>
       <c r="P115" s="42"/>
       <c r="Q115" s="43" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B116" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4≤200 to  PLHIV and on ART for gender Male per year under policy Community ART + IPT</v>
+        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4≤200 to  PLHIV and on ART for gender Male per year under policy Community ART</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>136</v>
@@ -7664,36 +7688,34 @@
         <v>1</v>
       </c>
       <c r="I116" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J116" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_34,1(3)</v>
+        <v>eta_34,1(2)</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L116" s="23">
-        <f>L114*indirect_model_parameters!$G$7</f>
-        <v>0.48</v>
+        <f>L115*indirect_model_parameters!$G$6</f>
+        <v>0.44000000000000006</v>
       </c>
       <c r="O116" s="41" t="s">
         <v>364</v>
       </c>
-      <c r="P116" s="42" t="s">
-        <v>138</v>
-      </c>
+      <c r="P116" s="42"/>
       <c r="Q116" s="43" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="80" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B117" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  HIV-negative to  PLHIV not on ART, CD4&gt;200 for gender Female per year under policy Standard (baseline)</v>
+        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4≤200 to  PLHIV and on ART for gender Male per year under policy Community ART + IPT</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>136</v>
@@ -7703,29 +7725,30 @@
       </c>
       <c r="E117" s="8"/>
       <c r="G117" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H117" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J117" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_12,2(1)</v>
+        <v>eta_34,1(3)</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="L117" s="11">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="O117" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="P117" s="45" t="s">
-        <v>350</v>
+        <v>479</v>
+      </c>
+      <c r="L117" s="23">
+        <f>L115*indirect_model_parameters!$G$7</f>
+        <v>0.48</v>
+      </c>
+      <c r="O117" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="P117" s="42" t="s">
+        <v>138</v>
       </c>
       <c r="Q117" s="43" t="s">
         <v>318</v>
@@ -7733,11 +7756,11 @@
     </row>
     <row r="118" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B118" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  HIV-negative to  PLHIV not on ART, CD4&gt;200 for gender Female per year under policy Community ART</v>
+        <v>Rate of populations moving from HIV compartment  HIV-negative to  PLHIV not on ART, CD4&gt;200 for gender Female per year under policy Standard (baseline)</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>136</v>
@@ -7753,14 +7776,14 @@
         <v>2</v>
       </c>
       <c r="I118" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_12,2(2)</v>
+        <v>eta_12,2(1)</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L118" s="11">
         <v>9.2999999999999992E-3</v>
@@ -7777,11 +7800,11 @@
     </row>
     <row r="119" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B119" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  HIV-negative to  PLHIV not on ART, CD4&gt;200 for gender Female per year under policy Community ART + IPT</v>
+        <v>Rate of populations moving from HIV compartment  HIV-negative to  PLHIV not on ART, CD4&gt;200 for gender Female per year under policy Community ART</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>136</v>
@@ -7797,14 +7820,14 @@
         <v>2</v>
       </c>
       <c r="I119" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J119" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_12,2(3)</v>
+        <v>eta_12,2(2)</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L119" s="11">
         <v>9.2999999999999992E-3</v>
@@ -7819,13 +7842,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B120" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV not on ART, CD4≤200 for gender Female per year under policy Standard (baseline)</v>
+        <v>Rate of populations moving from HIV compartment  HIV-negative to  PLHIV not on ART, CD4&gt;200 for gender Female per year under policy Community ART + IPT</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>136</v>
@@ -7835,41 +7858,41 @@
       </c>
       <c r="E120" s="8"/>
       <c r="G120" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H120" s="9">
         <v>2</v>
       </c>
       <c r="I120" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J120" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_23,2(1)</v>
+        <v>eta_12,2(3)</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L120" s="11">
-        <v>9.7560975609756101E-2</v>
-      </c>
-      <c r="O120" s="46" t="s">
-        <v>354</v>
-      </c>
-      <c r="P120" s="42" t="s">
-        <v>353</v>
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="O120" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="P120" s="45" t="s">
+        <v>350</v>
       </c>
       <c r="Q120" s="43" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B121" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV not on ART, CD4≤200 for gender Female per year under policy Community ART</v>
+        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV not on ART, CD4≤200 for gender Female per year under policy Standard (baseline)</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>136</v>
@@ -7885,14 +7908,14 @@
         <v>2</v>
       </c>
       <c r="I121" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_23,2(2)</v>
+        <v>eta_23,2(1)</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L121" s="11">
         <v>9.7560975609756101E-2</v>
@@ -7909,11 +7932,11 @@
     </row>
     <row r="122" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B122" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV not on ART, CD4≤200 for gender Female per year under policy Community ART + IPT</v>
+        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV not on ART, CD4≤200 for gender Female per year under policy Community ART</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>136</v>
@@ -7929,14 +7952,14 @@
         <v>2</v>
       </c>
       <c r="I122" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J122" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_23,2(3)</v>
+        <v>eta_23,2(2)</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L122" s="11">
         <v>9.7560975609756101E-2</v>
@@ -7951,13 +7974,13 @@
         <v>319</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B123" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV and on ART for gender Female per year under policy Standard (baseline)</v>
+        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV not on ART, CD4≤200 for gender Female per year under policy Community ART + IPT</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>136</v>
@@ -7967,37 +7990,41 @@
       </c>
       <c r="E123" s="8"/>
       <c r="G123" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H123" s="9">
         <v>2</v>
       </c>
       <c r="I123" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J123" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_24,2(1)</v>
+        <v>eta_23,2(3)</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="L123" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="O123" s="41"/>
-      <c r="P123" s="42"/>
+        <v>485</v>
+      </c>
+      <c r="L123" s="11">
+        <v>9.7560975609756101E-2</v>
+      </c>
+      <c r="O123" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="P123" s="42" t="s">
+        <v>353</v>
+      </c>
       <c r="Q123" s="43" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B124" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV and on ART for gender Female per year under policy Community ART</v>
+        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV and on ART for gender Female per year under policy Standard (baseline)</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>136</v>
@@ -8013,18 +8040,17 @@
         <v>2</v>
       </c>
       <c r="I124" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_24,2(2)</v>
+        <v>eta_24,2(1)</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L124" s="23">
-        <f>L123*indirect_model_parameters!$G$6</f>
-        <v>0.44000000000000006</v>
+        <v>0.4</v>
       </c>
       <c r="O124" s="41"/>
       <c r="P124" s="42"/>
@@ -8032,13 +8058,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B125" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV and on ART for gender Female per year under policy Community ART + IPT</v>
+        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV and on ART for gender Female per year under policy Community ART</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>136</v>
@@ -8054,34 +8080,32 @@
         <v>2</v>
       </c>
       <c r="I125" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J125" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_24,2(3)</v>
+        <v>eta_24,2(2)</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L125" s="23">
-        <f>L123*indirect_model_parameters!$G$7</f>
-        <v>0.48</v>
+        <f>L124*indirect_model_parameters!$G$6</f>
+        <v>0.44000000000000006</v>
       </c>
       <c r="O125" s="41"/>
-      <c r="P125" s="42" t="s">
-        <v>139</v>
-      </c>
+      <c r="P125" s="42"/>
       <c r="Q125" s="43" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="126" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B126" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4≤200 to  PLHIV and on ART for gender Female per year under policy Standard (baseline)</v>
+        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV and on ART for gender Female per year under policy Community ART + IPT</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>136</v>
@@ -8091,37 +8115,40 @@
       </c>
       <c r="E126" s="8"/>
       <c r="G126" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H126" s="9">
         <v>2</v>
       </c>
       <c r="I126" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J126" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_34,2(1)</v>
+        <v>eta_24,2(3)</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L126" s="23">
-        <v>0.4</v>
+        <f>L124*indirect_model_parameters!$G$7</f>
+        <v>0.48</v>
       </c>
       <c r="O126" s="41"/>
-      <c r="P126" s="42"/>
+      <c r="P126" s="42" t="s">
+        <v>139</v>
+      </c>
       <c r="Q126" s="43" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B127" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4≤200 to  PLHIV and on ART for gender Female per year under policy Community ART</v>
+        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4≤200 to  PLHIV and on ART for gender Female per year under policy Standard (baseline)</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>136</v>
@@ -8137,18 +8164,17 @@
         <v>2</v>
       </c>
       <c r="I127" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_34,2(2)</v>
+        <v>eta_34,2(1)</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L127" s="23">
-        <f>L126*indirect_model_parameters!$G$6</f>
-        <v>0.44000000000000006</v>
+        <v>0.4</v>
       </c>
       <c r="O127" s="41"/>
       <c r="P127" s="42"/>
@@ -8156,13 +8182,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B128" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4≤200 to  PLHIV and on ART for gender Female per year under policy Community ART + IPT</v>
+        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4≤200 to  PLHIV and on ART for gender Female per year under policy Community ART</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>136</v>
@@ -8178,67 +8204,63 @@
         <v>2</v>
       </c>
       <c r="I128" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J128" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>eta_34,2(3)</v>
+        <v>eta_34,2(2)</v>
       </c>
       <c r="K128" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L128" s="23">
-        <f>L126*indirect_model_parameters!$G$7</f>
-        <v>0.48</v>
+        <f>L127*indirect_model_parameters!$G$6</f>
+        <v>0.44000000000000006</v>
       </c>
       <c r="O128" s="41"/>
-      <c r="P128" s="42" t="s">
-        <v>138</v>
-      </c>
+      <c r="P128" s="42"/>
       <c r="Q128" s="43" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B129" s="9" t="str">
-        <f t="shared" ref="B129:B160" si="8">CONCATENATE("Rate of entry due to aging into HIV compartment ", VLOOKUP(G129, HIV_SET, 2), " and gender compartment ", VLOOKUP(H129, G_SET, 2), ", per year")</f>
-        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
+        <f t="shared" si="6"/>
+        <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4≤200 to  PLHIV and on ART for gender Female per year under policy Community ART + IPT</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>356</v>
+        <v>136</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E129" s="8">
-        <v>1</v>
-      </c>
-      <c r="F129" s="9">
-        <v>1</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E129" s="8"/>
       <c r="G129" s="9">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="H129" s="9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I129" s="9">
+        <v>3</v>
       </c>
       <c r="J129" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>alpha^in_1,1,1,1</v>
+        <v>eta_34,2(3)</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="L129" s="40" t="e">
-        <f>VLOOKUP(J129,#REF!,2)</f>
-        <v>#REF!</v>
+        <v>491</v>
+      </c>
+      <c r="L129" s="23">
+        <f>L127*indirect_model_parameters!$G$7</f>
+        <v>0.48</v>
       </c>
       <c r="O129" s="41"/>
       <c r="P129" s="42" t="s">
-        <v>362</v>
+        <v>138</v>
       </c>
       <c r="Q129" s="43" t="s">
         <v>318</v>
@@ -8246,11 +8268,11 @@
     </row>
     <row r="130" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B130" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
+        <f t="shared" ref="B130:B161" si="8">CONCATENATE("Rate of entry due to aging into HIV compartment ", VLOOKUP(G130, HIV_SET, 2), " and gender compartment ", VLOOKUP(H130, G_SET, 2), ", per year")</f>
+        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>356</v>
@@ -8268,14 +8290,14 @@
         <v>1</v>
       </c>
       <c r="H130" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>alpha^in_1,1,1,2</v>
+        <v>alpha^in_1,1,1,1</v>
       </c>
       <c r="K130" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L130" s="40" t="e">
         <f>VLOOKUP(J130,#REF!,2)</f>
@@ -8291,11 +8313,11 @@
     </row>
     <row r="131" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B131" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>356</v>
@@ -8310,17 +8332,17 @@
         <v>1</v>
       </c>
       <c r="G131" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f t="shared" ref="J131:J160" si="9">CONCATENATE(C131, "_", E131, IF(E131&lt;&gt;"",",",""), F131, IF(F131&lt;&gt;"",",",""),  G131, IF(G131&lt;&gt;"",",",""),  H131, IF(I131&lt;&gt;"","(",""), I131, IF(I131&lt;&gt;"",")",""))</f>
-        <v>alpha^in_1,1,2,1</v>
+        <f t="shared" si="3"/>
+        <v>alpha^in_1,1,1,2</v>
       </c>
       <c r="K131" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L131" s="40" t="e">
         <f>VLOOKUP(J131,#REF!,2)</f>
@@ -8336,11 +8358,11 @@
     </row>
     <row r="132" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B132" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>356</v>
@@ -8358,14 +8380,14 @@
         <v>2</v>
       </c>
       <c r="H132" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v>alpha^in_1,1,2,2</v>
+        <f t="shared" ref="J132:J161" si="9">CONCATENATE(C132, "_", E132, IF(E132&lt;&gt;"",",",""), F132, IF(F132&lt;&gt;"",",",""),  G132, IF(G132&lt;&gt;"",",",""),  H132, IF(I132&lt;&gt;"","(",""), I132, IF(I132&lt;&gt;"",")",""))</f>
+        <v>alpha^in_1,1,2,1</v>
       </c>
       <c r="K132" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L132" s="40" t="e">
         <f>VLOOKUP(J132,#REF!,2)</f>
@@ -8381,11 +8403,11 @@
     </row>
     <row r="133" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B133" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>356</v>
@@ -8394,23 +8416,23 @@
         <v>142</v>
       </c>
       <c r="E133" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F133" s="9">
         <v>1</v>
       </c>
       <c r="G133" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_3,1,1,1</v>
+        <v>alpha^in_1,1,2,2</v>
       </c>
       <c r="K133" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L133" s="40" t="e">
         <f>VLOOKUP(J133,#REF!,2)</f>
@@ -8426,11 +8448,11 @@
     </row>
     <row r="134" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B134" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>356</v>
@@ -8448,14 +8470,14 @@
         <v>1</v>
       </c>
       <c r="H134" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_3,1,1,2</v>
+        <v>alpha^in_3,1,1,1</v>
       </c>
       <c r="K134" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L134" s="40" t="e">
         <f>VLOOKUP(J134,#REF!,2)</f>
@@ -8471,11 +8493,11 @@
     </row>
     <row r="135" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B135" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>356</v>
@@ -8490,17 +8512,17 @@
         <v>1</v>
       </c>
       <c r="G135" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_3,1,2,1</v>
+        <v>alpha^in_3,1,1,2</v>
       </c>
       <c r="K135" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L135" s="40" t="e">
         <f>VLOOKUP(J135,#REF!,2)</f>
@@ -8516,11 +8538,11 @@
     </row>
     <row r="136" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B136" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>356</v>
@@ -8538,14 +8560,14 @@
         <v>2</v>
       </c>
       <c r="H136" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_3,1,2,2</v>
+        <v>alpha^in_3,1,2,1</v>
       </c>
       <c r="K136" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L136" s="40" t="e">
         <f>VLOOKUP(J136,#REF!,2)</f>
@@ -8561,11 +8583,11 @@
     </row>
     <row r="137" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B137" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>356</v>
@@ -8574,23 +8596,23 @@
         <v>142</v>
       </c>
       <c r="E137" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F137" s="9">
         <v>1</v>
       </c>
       <c r="G137" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H137" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_4,1,1,1</v>
+        <v>alpha^in_3,1,2,2</v>
       </c>
       <c r="K137" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L137" s="40" t="e">
         <f>VLOOKUP(J137,#REF!,2)</f>
@@ -8606,11 +8628,11 @@
     </row>
     <row r="138" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B138" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>356</v>
@@ -8628,14 +8650,14 @@
         <v>1</v>
       </c>
       <c r="H138" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J138" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_4,1,1,2</v>
+        <v>alpha^in_4,1,1,1</v>
       </c>
       <c r="K138" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L138" s="40" t="e">
         <f>VLOOKUP(J138,#REF!,2)</f>
@@ -8651,11 +8673,11 @@
     </row>
     <row r="139" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B139" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>356</v>
@@ -8670,17 +8692,17 @@
         <v>1</v>
       </c>
       <c r="G139" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_4,1,2,1</v>
+        <v>alpha^in_4,1,1,2</v>
       </c>
       <c r="K139" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L139" s="40" t="e">
         <f>VLOOKUP(J139,#REF!,2)</f>
@@ -8696,11 +8718,11 @@
     </row>
     <row r="140" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B140" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>356</v>
@@ -8718,14 +8740,14 @@
         <v>2</v>
       </c>
       <c r="H140" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_4,1,2,2</v>
+        <v>alpha^in_4,1,2,1</v>
       </c>
       <c r="K140" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L140" s="40" t="e">
         <f>VLOOKUP(J140,#REF!,2)</f>
@@ -8741,11 +8763,11 @@
     </row>
     <row r="141" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B141" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>356</v>
@@ -8754,23 +8776,23 @@
         <v>142</v>
       </c>
       <c r="E141" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F141" s="9">
         <v>1</v>
       </c>
       <c r="G141" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_6,1,1,1</v>
+        <v>alpha^in_4,1,2,2</v>
       </c>
       <c r="K141" s="9" t="s">
-        <v>586</v>
+        <v>503</v>
       </c>
       <c r="L141" s="40" t="e">
         <f>VLOOKUP(J141,#REF!,2)</f>
@@ -8786,11 +8808,11 @@
     </row>
     <row r="142" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B142" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>356</v>
@@ -8808,14 +8830,14 @@
         <v>1</v>
       </c>
       <c r="H142" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_6,1,1,2</v>
+        <v>alpha^in_6,1,1,1</v>
       </c>
       <c r="K142" s="9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L142" s="40" t="e">
         <f>VLOOKUP(J142,#REF!,2)</f>
@@ -8831,11 +8853,11 @@
     </row>
     <row r="143" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B143" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>356</v>
@@ -8850,17 +8872,17 @@
         <v>1</v>
       </c>
       <c r="G143" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_6,1,2,1</v>
+        <v>alpha^in_6,1,1,2</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L143" s="40" t="e">
         <f>VLOOKUP(J143,#REF!,2)</f>
@@ -8876,11 +8898,11 @@
     </row>
     <row r="144" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B144" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>356</v>
@@ -8898,14 +8920,14 @@
         <v>2</v>
       </c>
       <c r="H144" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_6,1,2,2</v>
+        <v>alpha^in_6,1,2,1</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L144" s="40" t="e">
         <f>VLOOKUP(J144,#REF!,2)</f>
@@ -8921,11 +8943,11 @@
     </row>
     <row r="145" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B145" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>356</v>
@@ -8934,23 +8956,23 @@
         <v>142</v>
       </c>
       <c r="E145" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F145" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G145" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H145" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_1,2,1,1</v>
+        <v>alpha^in_6,1,2,2</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>504</v>
+        <v>588</v>
       </c>
       <c r="L145" s="40" t="e">
         <f>VLOOKUP(J145,#REF!,2)</f>
@@ -8966,11 +8988,11 @@
     </row>
     <row r="146" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B146" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>356</v>
@@ -8988,14 +9010,14 @@
         <v>1</v>
       </c>
       <c r="H146" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_1,2,1,2</v>
+        <v>alpha^in_1,2,1,1</v>
       </c>
       <c r="K146" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L146" s="40" t="e">
         <f>VLOOKUP(J146,#REF!,2)</f>
@@ -9011,11 +9033,11 @@
     </row>
     <row r="147" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B147" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>356</v>
@@ -9030,17 +9052,17 @@
         <v>2</v>
       </c>
       <c r="G147" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_1,2,2,1</v>
+        <v>alpha^in_1,2,1,2</v>
       </c>
       <c r="K147" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L147" s="40" t="e">
         <f>VLOOKUP(J147,#REF!,2)</f>
@@ -9056,11 +9078,11 @@
     </row>
     <row r="148" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B148" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>356</v>
@@ -9078,14 +9100,14 @@
         <v>2</v>
       </c>
       <c r="H148" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_1,2,2,2</v>
+        <v>alpha^in_1,2,2,1</v>
       </c>
       <c r="K148" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L148" s="40" t="e">
         <f>VLOOKUP(J148,#REF!,2)</f>
@@ -9101,11 +9123,11 @@
     </row>
     <row r="149" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B149" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>356</v>
@@ -9114,23 +9136,23 @@
         <v>142</v>
       </c>
       <c r="E149" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F149" s="9">
         <v>2</v>
       </c>
       <c r="G149" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_3,2,1,1</v>
+        <v>alpha^in_1,2,2,2</v>
       </c>
       <c r="K149" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L149" s="40" t="e">
         <f>VLOOKUP(J149,#REF!,2)</f>
@@ -9146,11 +9168,11 @@
     </row>
     <row r="150" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B150" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>356</v>
@@ -9168,14 +9190,14 @@
         <v>1</v>
       </c>
       <c r="H150" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J150" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_3,2,1,2</v>
+        <v>alpha^in_3,2,1,1</v>
       </c>
       <c r="K150" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L150" s="40" t="e">
         <f>VLOOKUP(J150,#REF!,2)</f>
@@ -9191,11 +9213,11 @@
     </row>
     <row r="151" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B151" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>356</v>
@@ -9210,17 +9232,17 @@
         <v>2</v>
       </c>
       <c r="G151" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H151" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J151" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_3,2,2,1</v>
+        <v>alpha^in_3,2,1,2</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L151" s="40" t="e">
         <f>VLOOKUP(J151,#REF!,2)</f>
@@ -9236,11 +9258,11 @@
     </row>
     <row r="152" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B152" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>356</v>
@@ -9258,14 +9280,14 @@
         <v>2</v>
       </c>
       <c r="H152" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_3,2,2,2</v>
+        <v>alpha^in_3,2,2,1</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L152" s="40" t="e">
         <f>VLOOKUP(J152,#REF!,2)</f>
@@ -9281,11 +9303,11 @@
     </row>
     <row r="153" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A153" s="20" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B153" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>356</v>
@@ -9294,23 +9316,23 @@
         <v>142</v>
       </c>
       <c r="E153" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F153" s="9">
         <v>2</v>
       </c>
       <c r="G153" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H153" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J153" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_4,2,1,1</v>
+        <v>alpha^in_3,2,2,2</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L153" s="40" t="e">
         <f>VLOOKUP(J153,#REF!,2)</f>
@@ -9326,11 +9348,11 @@
     </row>
     <row r="154" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B154" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>356</v>
@@ -9348,14 +9370,14 @@
         <v>1</v>
       </c>
       <c r="H154" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J154" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_4,2,1,2</v>
+        <v>alpha^in_4,2,1,1</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L154" s="40" t="e">
         <f>VLOOKUP(J154,#REF!,2)</f>
@@ -9371,11 +9393,11 @@
     </row>
     <row r="155" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B155" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>356</v>
@@ -9390,17 +9412,17 @@
         <v>2</v>
       </c>
       <c r="G155" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H155" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_4,2,2,1</v>
+        <v>alpha^in_4,2,1,2</v>
       </c>
       <c r="K155" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L155" s="40" t="e">
         <f>VLOOKUP(J155,#REF!,2)</f>
@@ -9416,11 +9438,11 @@
     </row>
     <row r="156" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B156" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>356</v>
@@ -9438,14 +9460,14 @@
         <v>2</v>
       </c>
       <c r="H156" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_4,2,2,2</v>
+        <v>alpha^in_4,2,2,1</v>
       </c>
       <c r="K156" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L156" s="40" t="e">
         <f>VLOOKUP(J156,#REF!,2)</f>
@@ -9461,11 +9483,11 @@
     </row>
     <row r="157" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A157" s="20" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B157" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>356</v>
@@ -9474,23 +9496,23 @@
         <v>142</v>
       </c>
       <c r="E157" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F157" s="9">
         <v>2</v>
       </c>
       <c r="G157" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H157" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_6,2,1,1</v>
+        <v>alpha^in_4,2,2,2</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>590</v>
+        <v>515</v>
       </c>
       <c r="L157" s="40" t="e">
         <f>VLOOKUP(J157,#REF!,2)</f>
@@ -9506,11 +9528,11 @@
     </row>
     <row r="158" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A158" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B158" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>356</v>
@@ -9528,14 +9550,14 @@
         <v>1</v>
       </c>
       <c r="H158" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_6,2,1,2</v>
+        <v>alpha^in_6,2,1,1</v>
       </c>
       <c r="K158" s="9" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L158" s="40" t="e">
         <f>VLOOKUP(J158,#REF!,2)</f>
@@ -9551,11 +9573,11 @@
     </row>
     <row r="159" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B159" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>356</v>
@@ -9570,17 +9592,17 @@
         <v>2</v>
       </c>
       <c r="G159" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H159" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_6,2,2,1</v>
+        <v>alpha^in_6,2,1,2</v>
       </c>
       <c r="K159" s="9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L159" s="40" t="e">
         <f>VLOOKUP(J159,#REF!,2)</f>
@@ -9596,11 +9618,11 @@
     </row>
     <row r="160" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A160" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B160" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
+        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>356</v>
@@ -9618,14 +9640,14 @@
         <v>2</v>
       </c>
       <c r="H160" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>alpha^in_6,2,2,2</v>
+        <v>alpha^in_6,2,2,1</v>
       </c>
       <c r="K160" s="9" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L160" s="40" t="e">
         <f>VLOOKUP(J160,#REF!,2)</f>
@@ -9639,42 +9661,46 @@
         <v>318</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" s="20" t="s">
-        <v>140</v>
+        <v>360</v>
       </c>
       <c r="B161" s="9" t="str">
-        <f t="shared" ref="B161:B192" si="10">CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E161,TB_SET,2)," and HIV compartment ",VLOOKUP(G161,HIV_SET,2)," and gender compartment ",VLOOKUP(H161,G_SET,2)," per year")</f>
-        <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
+        <f t="shared" si="8"/>
+        <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>141</v>
+        <v>356</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>142</v>
       </c>
       <c r="E161" s="8">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="F161" s="9">
+        <v>2</v>
       </c>
       <c r="G161" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" s="9" t="str">
-        <f t="shared" ref="J161:J194" si="11">CONCATENATE(C161, "_", E161, IF(E161&lt;&gt;"",",",""), F161, IF(F161&lt;&gt;"",",",""),  G161, IF(G161&lt;&gt;"",",",""),  H161, IF(I161&lt;&gt;"","(",""), I161, IF(I161&lt;&gt;"",")",""))</f>
-        <v>mu_1,1,1</v>
+        <f t="shared" si="9"/>
+        <v>alpha^in_6,2,2,2</v>
       </c>
       <c r="K161" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="L161" s="11">
-        <v>3.3E-3</v>
+        <v>592</v>
+      </c>
+      <c r="L161" s="40" t="e">
+        <f>VLOOKUP(J161,#REF!,2)</f>
+        <v>#REF!</v>
       </c>
       <c r="O161" s="41"/>
       <c r="P161" s="42" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="Q161" s="43" t="s">
         <v>318</v>
@@ -9682,121 +9708,120 @@
     </row>
     <row r="162" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A162" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B162" s="9" t="str">
+        <f t="shared" ref="B162:B193" si="10">CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E162,TB_SET,2)," and HIV compartment ",VLOOKUP(G162,HIV_SET,2)," and gender compartment ",VLOOKUP(H162,G_SET,2)," per year")</f>
+        <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E162" s="8">
+        <v>1</v>
+      </c>
+      <c r="G162" s="9">
+        <v>1</v>
+      </c>
+      <c r="H162" s="9">
+        <v>1</v>
+      </c>
+      <c r="J162" s="9" t="str">
+        <f t="shared" ref="J162:J195" si="11">CONCATENATE(C162, "_", E162, IF(E162&lt;&gt;"",",",""), F162, IF(F162&lt;&gt;"",",",""),  G162, IF(G162&lt;&gt;"",",",""),  H162, IF(I162&lt;&gt;"","(",""), I162, IF(I162&lt;&gt;"",")",""))</f>
+        <v>mu_1,1,1</v>
+      </c>
+      <c r="K162" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="L162" s="11">
+        <v>3.3E-3</v>
+      </c>
+      <c r="O162" s="41"/>
+      <c r="P162" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q162" s="43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A163" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B162" s="9" t="str">
+      <c r="B163" s="9" t="str">
         <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C163" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D162" s="8" t="s">
+      <c r="D163" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E162" s="8">
-        <v>1</v>
-      </c>
-      <c r="G162" s="9">
-        <v>1</v>
-      </c>
-      <c r="H162" s="9">
-        <v>2</v>
-      </c>
-      <c r="J162" s="9" t="str">
+      <c r="E163" s="8">
+        <v>1</v>
+      </c>
+      <c r="G163" s="9">
+        <v>1</v>
+      </c>
+      <c r="H163" s="9">
+        <v>2</v>
+      </c>
+      <c r="J163" s="9" t="str">
         <f t="shared" si="11"/>
         <v>mu_1,1,2</v>
       </c>
-      <c r="K162" s="9" t="s">
+      <c r="K163" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="L162" s="11">
+      <c r="L163" s="11">
         <f>0.0019</f>
         <v>1.9E-3</v>
       </c>
-      <c r="O162" s="41"/>
-      <c r="P162" s="42" t="s">
+      <c r="O163" s="41"/>
+      <c r="P163" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="Q162" s="43" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A163" s="20" t="s">
+      <c r="Q163" s="43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A164" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B163" s="9" t="str">
+      <c r="B164" s="9" t="str">
         <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C164" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D163" s="8" t="s">
+      <c r="D164" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E163" s="8">
-        <v>1</v>
-      </c>
-      <c r="G163" s="9">
-        <v>2</v>
-      </c>
-      <c r="H163" s="9">
-        <v>1</v>
-      </c>
-      <c r="J163" s="9" t="str">
+      <c r="E164" s="8">
+        <v>1</v>
+      </c>
+      <c r="G164" s="9">
+        <v>2</v>
+      </c>
+      <c r="H164" s="9">
+        <v>1</v>
+      </c>
+      <c r="J164" s="9" t="str">
         <f t="shared" si="11"/>
         <v>mu_1,2,1</v>
       </c>
-      <c r="K163" s="9" t="s">
+      <c r="K164" s="9" t="s">
         <v>518</v>
-      </c>
-      <c r="L163" s="11">
-        <f>L161*5</f>
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="O163" s="41"/>
-      <c r="P163" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q163" s="43" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A164" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B164" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E164" s="8">
-        <v>1</v>
-      </c>
-      <c r="G164" s="9">
-        <v>2</v>
-      </c>
-      <c r="H164" s="9">
-        <v>2</v>
-      </c>
-      <c r="J164" s="9" t="str">
-        <f t="shared" si="11"/>
-        <v>mu_1,2,2</v>
-      </c>
-      <c r="K164" s="9" t="s">
-        <v>519</v>
       </c>
       <c r="L164" s="11">
         <f>L162*5</f>
-        <v>9.4999999999999998E-3</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="O164" s="41"/>
       <c r="P164" s="42" t="s">
@@ -9808,11 +9833,11 @@
     </row>
     <row r="165" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A165" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B165" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>141</v>
@@ -9824,25 +9849,25 @@
         <v>1</v>
       </c>
       <c r="G165" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H165" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J165" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_1,3,1</v>
+        <v>mu_1,2,2</v>
       </c>
       <c r="K165" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L165" s="11">
-        <f>L161*10</f>
-        <v>3.3000000000000002E-2</v>
+        <f>L163*5</f>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="O165" s="41"/>
       <c r="P165" s="42" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q165" s="43" t="s">
         <v>318</v>
@@ -9850,11 +9875,11 @@
     </row>
     <row r="166" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A166" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B166" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>141</v>
@@ -9869,18 +9894,18 @@
         <v>3</v>
       </c>
       <c r="H166" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J166" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_1,3,2</v>
+        <v>mu_1,3,1</v>
       </c>
       <c r="K166" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L166" s="11">
         <f>L162*10</f>
-        <v>1.9E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O166" s="41"/>
       <c r="P166" s="42" t="s">
@@ -9890,13 +9915,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A167" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B167" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>141</v>
@@ -9908,25 +9933,25 @@
         <v>1</v>
       </c>
       <c r="G167" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H167" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_1,4,1</v>
+        <v>mu_1,3,2</v>
       </c>
       <c r="K167" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L167" s="11">
-        <f>L161*1.2</f>
-        <v>3.96E-3</v>
+        <f>L163*10</f>
+        <v>1.9E-2</v>
       </c>
       <c r="O167" s="41"/>
       <c r="P167" s="42" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q167" s="43" t="s">
         <v>318</v>
@@ -9934,11 +9959,11 @@
     </row>
     <row r="168" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A168" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B168" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>141</v>
@@ -9953,18 +9978,18 @@
         <v>4</v>
       </c>
       <c r="H168" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J168" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_1,4,2</v>
+        <v>mu_1,4,1</v>
       </c>
       <c r="K168" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L168" s="11">
         <f>L162*1.2</f>
-        <v>2.2799999999999999E-3</v>
+        <v>3.96E-3</v>
       </c>
       <c r="O168" s="41"/>
       <c r="P168" s="42" t="s">
@@ -9976,11 +10001,11 @@
     </row>
     <row r="169" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A169" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B169" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>141</v>
@@ -9989,28 +10014,28 @@
         <v>142</v>
       </c>
       <c r="E169" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G169" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H169" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J169" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_2,1,1</v>
+        <v>mu_1,4,2</v>
       </c>
       <c r="K169" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L169" s="11">
-        <f t="shared" ref="L169:L176" si="12">L161</f>
-        <v>3.3E-3</v>
+        <f>L163*1.2</f>
+        <v>2.2799999999999999E-3</v>
       </c>
       <c r="O169" s="41"/>
       <c r="P169" s="42" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q169" s="43" t="s">
         <v>318</v>
@@ -10018,11 +10043,11 @@
     </row>
     <row r="170" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A170" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B170" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>141</v>
@@ -10037,18 +10062,18 @@
         <v>1</v>
       </c>
       <c r="H170" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_2,1,2</v>
+        <v>mu_2,1,1</v>
       </c>
       <c r="K170" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L170" s="11">
-        <f t="shared" si="12"/>
-        <v>1.9E-3</v>
+        <f t="shared" ref="L170:L177" si="12">L162</f>
+        <v>3.3E-3</v>
       </c>
       <c r="O170" s="41"/>
       <c r="P170" s="42" t="s">
@@ -10058,13 +10083,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A171" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B171" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>141</v>
@@ -10076,25 +10101,25 @@
         <v>2</v>
       </c>
       <c r="G171" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_2,2,1</v>
+        <v>mu_2,1,2</v>
       </c>
       <c r="K171" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L171" s="11">
         <f t="shared" si="12"/>
-        <v>1.6500000000000001E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="O171" s="41"/>
       <c r="P171" s="42" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q171" s="43" t="s">
         <v>318</v>
@@ -10102,11 +10127,11 @@
     </row>
     <row r="172" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A172" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B172" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>141</v>
@@ -10121,18 +10146,18 @@
         <v>2</v>
       </c>
       <c r="H172" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J172" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_2,2,2</v>
+        <v>mu_2,2,1</v>
       </c>
       <c r="K172" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L172" s="11">
         <f t="shared" si="12"/>
-        <v>9.4999999999999998E-3</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="O172" s="41"/>
       <c r="P172" s="42" t="s">
@@ -10144,11 +10169,11 @@
     </row>
     <row r="173" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A173" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B173" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>141</v>
@@ -10160,37 +10185,37 @@
         <v>2</v>
       </c>
       <c r="G173" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H173" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J173" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_2,3,1</v>
+        <v>mu_2,2,2</v>
       </c>
       <c r="K173" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L173" s="11">
         <f t="shared" si="12"/>
-        <v>3.3000000000000002E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="O173" s="41"/>
       <c r="P173" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q173" s="43" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="174" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A174" s="29" t="s">
-        <v>155</v>
+      <c r="A174" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="B174" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>141</v>
@@ -10205,18 +10230,18 @@
         <v>3</v>
       </c>
       <c r="H174" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J174" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_2,3,2</v>
+        <v>mu_2,3,1</v>
       </c>
       <c r="K174" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L174" s="11">
         <f t="shared" si="12"/>
-        <v>1.9E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O174" s="41"/>
       <c r="P174" s="42" t="s">
@@ -10226,13 +10251,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="48" x14ac:dyDescent="0.2">
-      <c r="A175" s="20" t="s">
-        <v>156</v>
+    <row r="175" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A175" s="29" t="s">
+        <v>155</v>
       </c>
       <c r="B175" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>141</v>
@@ -10244,25 +10269,25 @@
         <v>2</v>
       </c>
       <c r="G175" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H175" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J175" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_2,4,1</v>
+        <v>mu_2,3,2</v>
       </c>
       <c r="K175" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L175" s="11">
         <f t="shared" si="12"/>
-        <v>3.96E-3</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O175" s="41"/>
       <c r="P175" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q175" s="43" t="s">
         <v>318</v>
@@ -10270,11 +10295,11 @@
     </row>
     <row r="176" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A176" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B176" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>141</v>
@@ -10289,18 +10314,18 @@
         <v>4</v>
       </c>
       <c r="H176" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J176" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_2,4,2</v>
+        <v>mu_2,4,1</v>
       </c>
       <c r="K176" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L176" s="11">
         <f t="shared" si="12"/>
-        <v>2.2799999999999999E-3</v>
+        <v>3.96E-3</v>
       </c>
       <c r="O176" s="41"/>
       <c r="P176" s="42" t="s">
@@ -10310,13 +10335,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B177" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>141</v>
@@ -10325,28 +10350,28 @@
         <v>142</v>
       </c>
       <c r="E177" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G177" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H177" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_3,1,1</v>
+        <v>mu_2,4,2</v>
       </c>
       <c r="K177" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L177" s="11">
-        <f>L161</f>
-        <v>3.3E-3</v>
+        <f t="shared" si="12"/>
+        <v>2.2799999999999999E-3</v>
       </c>
       <c r="O177" s="41"/>
       <c r="P177" s="42" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q177" s="43" t="s">
         <v>318</v>
@@ -10354,11 +10379,11 @@
     </row>
     <row r="178" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A178" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B178" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>141</v>
@@ -10373,18 +10398,18 @@
         <v>1</v>
       </c>
       <c r="H178" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_3,1,2</v>
+        <v>mu_3,1,1</v>
       </c>
       <c r="K178" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L178" s="11">
-        <f t="shared" ref="L178:L184" si="13">L162</f>
-        <v>1.9E-3</v>
+        <f>L162</f>
+        <v>3.3E-3</v>
       </c>
       <c r="O178" s="41"/>
       <c r="P178" s="42" t="s">
@@ -10396,11 +10421,11 @@
     </row>
     <row r="179" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A179" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B179" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>141</v>
@@ -10412,63 +10437,63 @@
         <v>3</v>
       </c>
       <c r="G179" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H179" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" s="9" t="str">
         <f t="shared" si="11"/>
+        <v>mu_3,1,2</v>
+      </c>
+      <c r="K179" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="L179" s="11">
+        <f t="shared" ref="L179:L185" si="13">L163</f>
+        <v>1.9E-3</v>
+      </c>
+      <c r="O179" s="41"/>
+      <c r="P179" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q179" s="43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A180" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B180" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E180" s="8">
+        <v>3</v>
+      </c>
+      <c r="G180" s="9">
+        <v>2</v>
+      </c>
+      <c r="H180" s="9">
+        <v>1</v>
+      </c>
+      <c r="J180" s="9" t="str">
+        <f t="shared" si="11"/>
         <v>mu_3,2,1</v>
       </c>
-      <c r="K179" s="9" t="s">
+      <c r="K180" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="L179" s="11">
+      <c r="L180" s="11">
         <f t="shared" si="13"/>
         <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="O179" s="41"/>
-      <c r="P179" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q179" s="43" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A180" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B180" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E180" s="8">
-        <v>3</v>
-      </c>
-      <c r="G180" s="9">
-        <v>2</v>
-      </c>
-      <c r="H180" s="9">
-        <v>2</v>
-      </c>
-      <c r="J180" s="9" t="str">
-        <f t="shared" si="11"/>
-        <v>mu_3,2,2</v>
-      </c>
-      <c r="K180" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="L180" s="11">
-        <f t="shared" si="13"/>
-        <v>9.4999999999999998E-3</v>
       </c>
       <c r="O180" s="41"/>
       <c r="P180" s="42" t="s">
@@ -10480,11 +10505,11 @@
     </row>
     <row r="181" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A181" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B181" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>141</v>
@@ -10496,25 +10521,25 @@
         <v>3</v>
       </c>
       <c r="G181" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H181" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_3,3,1</v>
+        <v>mu_3,2,2</v>
       </c>
       <c r="K181" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L181" s="11">
         <f t="shared" si="13"/>
-        <v>3.3000000000000002E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="O181" s="41"/>
       <c r="P181" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q181" s="43" t="s">
         <v>318</v>
@@ -10522,11 +10547,11 @@
     </row>
     <row r="182" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A182" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B182" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>141</v>
@@ -10541,18 +10566,18 @@
         <v>3</v>
       </c>
       <c r="H182" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J182" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_3,3,2</v>
+        <v>mu_3,3,1</v>
       </c>
       <c r="K182" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L182" s="11">
         <f t="shared" si="13"/>
-        <v>1.9E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O182" s="41"/>
       <c r="P182" s="42" t="s">
@@ -10564,11 +10589,11 @@
     </row>
     <row r="183" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A183" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B183" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>141</v>
@@ -10580,25 +10605,25 @@
         <v>3</v>
       </c>
       <c r="G183" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H183" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_3,4,1</v>
+        <v>mu_3,3,2</v>
       </c>
       <c r="K183" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L183" s="11">
         <f t="shared" si="13"/>
-        <v>3.96E-3</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O183" s="41"/>
       <c r="P183" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q183" s="43" t="s">
         <v>318</v>
@@ -10606,11 +10631,11 @@
     </row>
     <row r="184" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A184" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B184" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>141</v>
@@ -10625,18 +10650,18 @@
         <v>4</v>
       </c>
       <c r="H184" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J184" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_3,4,2</v>
+        <v>mu_3,4,1</v>
       </c>
       <c r="K184" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L184" s="11">
         <f t="shared" si="13"/>
-        <v>2.2799999999999999E-3</v>
+        <v>3.96E-3</v>
       </c>
       <c r="O184" s="41"/>
       <c r="P184" s="42" t="s">
@@ -10646,13 +10671,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A185" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B185" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>141</v>
@@ -10661,28 +10686,28 @@
         <v>142</v>
       </c>
       <c r="E185" s="8">
+        <v>3</v>
+      </c>
+      <c r="G185" s="9">
         <v>4</v>
       </c>
-      <c r="G185" s="9">
-        <v>1</v>
-      </c>
       <c r="H185" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J185" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_4,1,1</v>
+        <v>mu_3,4,2</v>
       </c>
       <c r="K185" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L185" s="11">
-        <f t="shared" ref="L185:L192" si="14">L161</f>
-        <v>3.3E-3</v>
+        <f t="shared" si="13"/>
+        <v>2.2799999999999999E-3</v>
       </c>
       <c r="O185" s="41"/>
       <c r="P185" s="42" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q185" s="43" t="s">
         <v>318</v>
@@ -10690,11 +10715,11 @@
     </row>
     <row r="186" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A186" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B186" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>141</v>
@@ -10709,18 +10734,18 @@
         <v>1</v>
       </c>
       <c r="H186" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J186" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_4,1,2</v>
+        <v>mu_4,1,1</v>
       </c>
       <c r="K186" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L186" s="11">
-        <f t="shared" si="14"/>
-        <v>1.9E-3</v>
+        <f t="shared" ref="L186:L193" si="14">L162</f>
+        <v>3.3E-3</v>
       </c>
       <c r="O186" s="41"/>
       <c r="P186" s="42" t="s">
@@ -10730,13 +10755,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A187" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B187" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>141</v>
@@ -10748,25 +10773,25 @@
         <v>4</v>
       </c>
       <c r="G187" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H187" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J187" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_4,2,1</v>
+        <v>mu_4,1,2</v>
       </c>
       <c r="K187" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L187" s="11">
         <f t="shared" si="14"/>
-        <v>1.6500000000000001E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="O187" s="41"/>
       <c r="P187" s="42" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q187" s="43" t="s">
         <v>318</v>
@@ -10774,11 +10799,11 @@
     </row>
     <row r="188" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A188" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B188" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>141</v>
@@ -10793,18 +10818,18 @@
         <v>2</v>
       </c>
       <c r="H188" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J188" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_4,2,2</v>
+        <v>mu_4,2,1</v>
       </c>
       <c r="K188" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L188" s="11">
         <f t="shared" si="14"/>
-        <v>9.4999999999999998E-3</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="O188" s="41"/>
       <c r="P188" s="42" t="s">
@@ -10816,11 +10841,11 @@
     </row>
     <row r="189" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A189" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B189" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>141</v>
@@ -10832,25 +10857,25 @@
         <v>4</v>
       </c>
       <c r="G189" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H189" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_4,3,1</v>
+        <v>mu_4,2,2</v>
       </c>
       <c r="K189" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L189" s="11">
         <f t="shared" si="14"/>
-        <v>3.3000000000000002E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="O189" s="41"/>
       <c r="P189" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q189" s="43" t="s">
         <v>318</v>
@@ -10858,11 +10883,11 @@
     </row>
     <row r="190" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A190" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B190" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>141</v>
@@ -10877,18 +10902,18 @@
         <v>3</v>
       </c>
       <c r="H190" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J190" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_4,3,2</v>
+        <v>mu_4,3,1</v>
       </c>
       <c r="K190" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L190" s="11">
         <f t="shared" si="14"/>
-        <v>1.9E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O190" s="41"/>
       <c r="P190" s="42" t="s">
@@ -10900,11 +10925,11 @@
     </row>
     <row r="191" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A191" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B191" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>141</v>
@@ -10916,25 +10941,25 @@
         <v>4</v>
       </c>
       <c r="G191" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H191" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J191" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_4,4,1</v>
+        <v>mu_4,3,2</v>
       </c>
       <c r="K191" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L191" s="11">
         <f t="shared" si="14"/>
-        <v>3.96E-3</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O191" s="41"/>
       <c r="P191" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q191" s="43" t="s">
         <v>318</v>
@@ -10942,11 +10967,11 @@
     </row>
     <row r="192" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A192" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B192" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>141</v>
@@ -10961,18 +10986,18 @@
         <v>4</v>
       </c>
       <c r="H192" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_4,4,2</v>
+        <v>mu_4,4,1</v>
       </c>
       <c r="K192" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L192" s="11">
         <f t="shared" si="14"/>
-        <v>2.2799999999999999E-3</v>
+        <v>3.96E-3</v>
       </c>
       <c r="O192" s="41"/>
       <c r="P192" s="42" t="s">
@@ -10982,13 +11007,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A193" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B193" s="9" t="str">
-        <f t="shared" ref="B193:B224" si="15">CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E193,TB_SET,2)," and HIV compartment ",VLOOKUP(G193,HIV_SET,2)," and gender compartment ",VLOOKUP(H193,G_SET,2)," per year")</f>
-        <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
+        <f t="shared" si="10"/>
+        <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>141</v>
@@ -10997,28 +11022,28 @@
         <v>142</v>
       </c>
       <c r="E193" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G193" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H193" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J193" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_5,1,1</v>
+        <v>mu_4,4,2</v>
       </c>
       <c r="K193" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L193" s="11">
-        <f t="shared" ref="L193:L200" si="16">L161</f>
-        <v>3.3E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.2799999999999999E-3</v>
       </c>
       <c r="O193" s="41"/>
       <c r="P193" s="42" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q193" s="43" t="s">
         <v>318</v>
@@ -11026,11 +11051,11 @@
     </row>
     <row r="194" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A194" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B194" s="9" t="str">
-        <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
+        <f t="shared" ref="B194:B225" si="15">CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E194,TB_SET,2)," and HIV compartment ",VLOOKUP(G194,HIV_SET,2)," and gender compartment ",VLOOKUP(H194,G_SET,2)," per year")</f>
+        <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>141</v>
@@ -11045,18 +11070,18 @@
         <v>1</v>
       </c>
       <c r="H194" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J194" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>mu_5,1,2</v>
+        <v>mu_5,1,1</v>
       </c>
       <c r="K194" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L194" s="11">
-        <f t="shared" si="16"/>
-        <v>1.9E-3</v>
+        <f t="shared" ref="L194:L201" si="16">L162</f>
+        <v>3.3E-3</v>
       </c>
       <c r="O194" s="41"/>
       <c r="P194" s="42" t="s">
@@ -11066,13 +11091,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A195" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B195" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>141</v>
@@ -11084,25 +11109,25 @@
         <v>5</v>
       </c>
       <c r="G195" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195" s="9" t="str">
-        <f t="shared" ref="J195:J224" si="17">CONCATENATE(C195, "_", E195, IF(E195&lt;&gt;"",",",""), F195, IF(F195&lt;&gt;"",",",""),  G195, IF(G195&lt;&gt;"",",",""),  H195, IF(I195&lt;&gt;"","(",""), I195, IF(I195&lt;&gt;"",")",""))</f>
-        <v>mu_5,2,1</v>
+        <f t="shared" si="11"/>
+        <v>mu_5,1,2</v>
       </c>
       <c r="K195" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L195" s="11">
         <f t="shared" si="16"/>
-        <v>1.6500000000000001E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="O195" s="41"/>
       <c r="P195" s="42" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q195" s="43" t="s">
         <v>318</v>
@@ -11110,11 +11135,11 @@
     </row>
     <row r="196" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A196" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B196" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>141</v>
@@ -11129,18 +11154,18 @@
         <v>2</v>
       </c>
       <c r="H196" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J196" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v>mu_5,2,2</v>
+        <f t="shared" ref="J196:J225" si="17">CONCATENATE(C196, "_", E196, IF(E196&lt;&gt;"",",",""), F196, IF(F196&lt;&gt;"",",",""),  G196, IF(G196&lt;&gt;"",",",""),  H196, IF(I196&lt;&gt;"","(",""), I196, IF(I196&lt;&gt;"",")",""))</f>
+        <v>mu_5,2,1</v>
       </c>
       <c r="K196" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L196" s="11">
         <f t="shared" si="16"/>
-        <v>9.4999999999999998E-3</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="O196" s="41"/>
       <c r="P196" s="42" t="s">
@@ -11152,11 +11177,11 @@
     </row>
     <row r="197" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A197" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B197" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>141</v>
@@ -11168,25 +11193,25 @@
         <v>5</v>
       </c>
       <c r="G197" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H197" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_5,3,1</v>
+        <v>mu_5,2,2</v>
       </c>
       <c r="K197" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L197" s="11">
         <f t="shared" si="16"/>
-        <v>3.3000000000000002E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="O197" s="41"/>
       <c r="P197" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q197" s="43" t="s">
         <v>318</v>
@@ -11194,11 +11219,11 @@
     </row>
     <row r="198" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A198" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B198" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>141</v>
@@ -11213,18 +11238,18 @@
         <v>3</v>
       </c>
       <c r="H198" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_5,3,2</v>
+        <v>mu_5,3,1</v>
       </c>
       <c r="K198" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L198" s="11">
         <f t="shared" si="16"/>
-        <v>1.9E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O198" s="41"/>
       <c r="P198" s="42" t="s">
@@ -11234,13 +11259,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A199" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B199" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>141</v>
@@ -11252,25 +11277,25 @@
         <v>5</v>
       </c>
       <c r="G199" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H199" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J199" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_5,4,1</v>
+        <v>mu_5,3,2</v>
       </c>
       <c r="K199" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L199" s="11">
         <f t="shared" si="16"/>
-        <v>3.96E-3</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O199" s="41"/>
       <c r="P199" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q199" s="43" t="s">
         <v>318</v>
@@ -11278,11 +11303,11 @@
     </row>
     <row r="200" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A200" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B200" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>141</v>
@@ -11297,18 +11322,18 @@
         <v>4</v>
       </c>
       <c r="H200" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J200" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_5,4,2</v>
+        <v>mu_5,4,1</v>
       </c>
       <c r="K200" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L200" s="11">
         <f t="shared" si="16"/>
-        <v>2.2799999999999999E-3</v>
+        <v>3.96E-3</v>
       </c>
       <c r="O200" s="41"/>
       <c r="P200" s="42" t="s">
@@ -11320,11 +11345,11 @@
     </row>
     <row r="201" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A201" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B201" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  Active and HIV compartment  HIV-negative and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>141</v>
@@ -11333,28 +11358,28 @@
         <v>142</v>
       </c>
       <c r="E201" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G201" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H201" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J201" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_6,1,1</v>
+        <v>mu_5,4,2</v>
       </c>
       <c r="K201" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L201" s="11">
-        <f>L161*20</f>
-        <v>6.6000000000000003E-2</v>
+        <f t="shared" si="16"/>
+        <v>2.2799999999999999E-3</v>
       </c>
       <c r="O201" s="41"/>
       <c r="P201" s="42" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q201" s="43" t="s">
         <v>318</v>
@@ -11362,11 +11387,11 @@
     </row>
     <row r="202" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A202" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B202" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  Active and HIV compartment  HIV-negative and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  Active and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>141</v>
@@ -11381,18 +11406,18 @@
         <v>1</v>
       </c>
       <c r="H202" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J202" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_6,1,2</v>
+        <v>mu_6,1,1</v>
       </c>
       <c r="K202" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L202" s="11">
         <f>L162*20</f>
-        <v>3.7999999999999999E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="O202" s="41"/>
       <c r="P202" s="42" t="s">
@@ -11402,13 +11427,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A203" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B203" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  Active and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>141</v>
@@ -11420,27 +11445,25 @@
         <v>6</v>
       </c>
       <c r="G203" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H203" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J203" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_6,2,1</v>
+        <v>mu_6,1,2</v>
       </c>
       <c r="K203" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L203" s="11">
-        <f>L161*50</f>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="O203" s="41" t="s">
-        <v>620</v>
-      </c>
+        <f>L163*20</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O203" s="41"/>
       <c r="P203" s="42" t="s">
-        <v>618</v>
+        <v>282</v>
       </c>
       <c r="Q203" s="43" t="s">
         <v>318</v>
@@ -11448,11 +11471,11 @@
     </row>
     <row r="204" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A204" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B204" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>141</v>
@@ -11467,36 +11490,36 @@
         <v>2</v>
       </c>
       <c r="H204" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J204" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_6,2,2</v>
+        <v>mu_6,2,1</v>
       </c>
       <c r="K204" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L204" s="11">
         <f>L162*50</f>
-        <v>9.5000000000000001E-2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="O204" s="41" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="P204" s="42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Q204" s="43" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A205" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B205" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>141</v>
@@ -11508,27 +11531,27 @@
         <v>6</v>
       </c>
       <c r="G205" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H205" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J205" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_6,3,1</v>
+        <v>mu_6,2,2</v>
       </c>
       <c r="K205" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L205" s="11">
-        <f>L161*100</f>
-        <v>0.33</v>
+        <f>L163*50</f>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="O205" s="41" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="P205" s="42" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="Q205" s="43" t="s">
         <v>318</v>
@@ -11536,11 +11559,11 @@
     </row>
     <row r="206" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A206" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B206" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>141</v>
@@ -11555,36 +11578,36 @@
         <v>3</v>
       </c>
       <c r="H206" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J206" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_6,3,2</v>
+        <v>mu_6,3,1</v>
       </c>
       <c r="K206" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L206" s="11">
         <f>L162*100</f>
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="O206" s="41" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P206" s="42" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="Q206" s="43" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A207" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B207" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>141</v>
@@ -11596,27 +11619,27 @@
         <v>6</v>
       </c>
       <c r="G207" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H207" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J207" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_6,4,1</v>
+        <v>mu_6,3,2</v>
       </c>
       <c r="K207" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L207" s="11">
-        <f>L161*30</f>
-        <v>9.9000000000000005E-2</v>
+        <f>L163*100</f>
+        <v>0.19</v>
       </c>
       <c r="O207" s="41" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="P207" s="42" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="Q207" s="43" t="s">
         <v>318</v>
@@ -11624,11 +11647,11 @@
     </row>
     <row r="208" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A208" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B208" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>141</v>
@@ -11643,24 +11666,24 @@
         <v>4</v>
       </c>
       <c r="H208" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J208" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_6,4,2</v>
+        <v>mu_6,4,1</v>
       </c>
       <c r="K208" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L208" s="11">
         <f>L162*30</f>
-        <v>5.7000000000000002E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="O208" s="41" t="s">
+        <v>621</v>
+      </c>
+      <c r="P208" s="42" t="s">
         <v>622</v>
-      </c>
-      <c r="P208" s="42" t="s">
-        <v>623</v>
       </c>
       <c r="Q208" s="43" t="s">
         <v>318</v>
@@ -11668,11 +11691,11 @@
     </row>
     <row r="209" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A209" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B209" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  HIV-negative and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>141</v>
@@ -11681,28 +11704,30 @@
         <v>142</v>
       </c>
       <c r="E209" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G209" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H209" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J209" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_7,1,1</v>
+        <v>mu_6,4,2</v>
       </c>
       <c r="K209" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L209" s="11">
-        <f t="shared" ref="L209:L216" si="18">L161</f>
-        <v>3.3E-3</v>
-      </c>
-      <c r="O209" s="41"/>
+        <f>L163*30</f>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="O209" s="41" t="s">
+        <v>621</v>
+      </c>
       <c r="P209" s="42" t="s">
-        <v>273</v>
+        <v>622</v>
       </c>
       <c r="Q209" s="43" t="s">
         <v>318</v>
@@ -11710,11 +11735,11 @@
     </row>
     <row r="210" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A210" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B210" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  HIV-negative and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>141</v>
@@ -11729,18 +11754,18 @@
         <v>1</v>
       </c>
       <c r="H210" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J210" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_7,1,2</v>
+        <v>mu_7,1,1</v>
       </c>
       <c r="K210" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L210" s="11">
-        <f t="shared" si="18"/>
-        <v>1.9E-3</v>
+        <f t="shared" ref="L210:L217" si="18">L162</f>
+        <v>3.3E-3</v>
       </c>
       <c r="O210" s="41"/>
       <c r="P210" s="42" t="s">
@@ -11750,13 +11775,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A211" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B211" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>141</v>
@@ -11768,25 +11793,25 @@
         <v>7</v>
       </c>
       <c r="G211" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H211" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J211" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_7,2,1</v>
+        <v>mu_7,1,2</v>
       </c>
       <c r="K211" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L211" s="11">
         <f t="shared" si="18"/>
-        <v>1.6500000000000001E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="O211" s="41"/>
       <c r="P211" s="42" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q211" s="43" t="s">
         <v>318</v>
@@ -11794,11 +11819,11 @@
     </row>
     <row r="212" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A212" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B212" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>141</v>
@@ -11813,18 +11838,18 @@
         <v>2</v>
       </c>
       <c r="H212" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J212" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_7,2,2</v>
+        <v>mu_7,2,1</v>
       </c>
       <c r="K212" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L212" s="11">
         <f t="shared" si="18"/>
-        <v>9.4999999999999998E-3</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="O212" s="41"/>
       <c r="P212" s="42" t="s">
@@ -11836,11 +11861,11 @@
     </row>
     <row r="213" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A213" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B213" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>141</v>
@@ -11852,25 +11877,25 @@
         <v>7</v>
       </c>
       <c r="G213" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H213" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J213" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_7,3,1</v>
+        <v>mu_7,2,2</v>
       </c>
       <c r="K213" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L213" s="11">
         <f t="shared" si="18"/>
-        <v>3.3000000000000002E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="O213" s="41"/>
       <c r="P213" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q213" s="43" t="s">
         <v>318</v>
@@ -11878,11 +11903,11 @@
     </row>
     <row r="214" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A214" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B214" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>141</v>
@@ -11897,18 +11922,18 @@
         <v>3</v>
       </c>
       <c r="H214" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J214" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_7,3,2</v>
+        <v>mu_7,3,1</v>
       </c>
       <c r="K214" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L214" s="11">
         <f t="shared" si="18"/>
-        <v>1.9E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O214" s="41"/>
       <c r="P214" s="42" t="s">
@@ -11918,13 +11943,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A215" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B215" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>141</v>
@@ -11936,25 +11961,25 @@
         <v>7</v>
       </c>
       <c r="G215" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H215" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J215" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_7,4,1</v>
+        <v>mu_7,3,2</v>
       </c>
       <c r="K215" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L215" s="11">
         <f t="shared" si="18"/>
-        <v>3.96E-3</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O215" s="41"/>
       <c r="P215" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q215" s="43" t="s">
         <v>318</v>
@@ -11962,11 +11987,11 @@
     </row>
     <row r="216" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A216" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B216" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>141</v>
@@ -11981,18 +12006,18 @@
         <v>4</v>
       </c>
       <c r="H216" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J216" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_7,4,2</v>
+        <v>mu_7,4,1</v>
       </c>
       <c r="K216" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L216" s="11">
         <f t="shared" si="18"/>
-        <v>2.2799999999999999E-3</v>
+        <v>3.96E-3</v>
       </c>
       <c r="O216" s="41"/>
       <c r="P216" s="42" t="s">
@@ -12004,11 +12029,11 @@
     </row>
     <row r="217" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A217" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B217" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>141</v>
@@ -12017,28 +12042,28 @@
         <v>142</v>
       </c>
       <c r="E217" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G217" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H217" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J217" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_8,1,1</v>
+        <v>mu_7,4,2</v>
       </c>
       <c r="K217" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L217" s="11">
-        <f t="shared" ref="L217:L224" si="19">L161</f>
-        <v>3.3E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.2799999999999999E-3</v>
       </c>
       <c r="O217" s="41"/>
       <c r="P217" s="42" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q217" s="43" t="s">
         <v>318</v>
@@ -12046,11 +12071,11 @@
     </row>
     <row r="218" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A218" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B218" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>141</v>
@@ -12065,18 +12090,18 @@
         <v>1</v>
       </c>
       <c r="H218" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J218" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_8,1,2</v>
+        <v>mu_8,1,1</v>
       </c>
       <c r="K218" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L218" s="11">
-        <f t="shared" si="19"/>
-        <v>1.9E-3</v>
+        <f t="shared" ref="L218:L225" si="19">L162</f>
+        <v>3.3E-3</v>
       </c>
       <c r="O218" s="41"/>
       <c r="P218" s="42" t="s">
@@ -12086,13 +12111,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="219" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A219" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B219" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>141</v>
@@ -12104,25 +12129,25 @@
         <v>8</v>
       </c>
       <c r="G219" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H219" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J219" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_8,2,1</v>
+        <v>mu_8,1,2</v>
       </c>
       <c r="K219" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L219" s="11">
         <f t="shared" si="19"/>
-        <v>1.6500000000000001E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="O219" s="41"/>
       <c r="P219" s="42" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q219" s="43" t="s">
         <v>318</v>
@@ -12130,11 +12155,11 @@
     </row>
     <row r="220" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A220" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B220" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>141</v>
@@ -12149,18 +12174,18 @@
         <v>2</v>
       </c>
       <c r="H220" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J220" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_8,2,2</v>
+        <v>mu_8,2,1</v>
       </c>
       <c r="K220" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L220" s="11">
         <f t="shared" si="19"/>
-        <v>9.4999999999999998E-3</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="O220" s="41"/>
       <c r="P220" s="42" t="s">
@@ -12172,11 +12197,11 @@
     </row>
     <row r="221" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A221" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B221" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>141</v>
@@ -12188,25 +12213,25 @@
         <v>8</v>
       </c>
       <c r="G221" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H221" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J221" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_8,3,1</v>
+        <v>mu_8,2,2</v>
       </c>
       <c r="K221" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L221" s="11">
         <f t="shared" si="19"/>
-        <v>3.3000000000000002E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="O221" s="41"/>
       <c r="P221" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q221" s="43" t="s">
         <v>318</v>
@@ -12214,11 +12239,11 @@
     </row>
     <row r="222" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A222" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B222" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C222" s="8" t="s">
         <v>141</v>
@@ -12233,18 +12258,18 @@
         <v>3</v>
       </c>
       <c r="H222" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J222" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_8,3,2</v>
+        <v>mu_8,3,1</v>
       </c>
       <c r="K222" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L222" s="11">
         <f t="shared" si="19"/>
-        <v>1.9E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O222" s="41"/>
       <c r="P222" s="42" t="s">
@@ -12254,13 +12279,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A223" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B223" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C223" s="8" t="s">
         <v>141</v>
@@ -12272,25 +12297,25 @@
         <v>8</v>
       </c>
       <c r="G223" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H223" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J223" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_8,4,1</v>
+        <v>mu_8,3,2</v>
       </c>
       <c r="K223" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L223" s="11">
         <f t="shared" si="19"/>
-        <v>3.96E-3</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O223" s="41"/>
       <c r="P223" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q223" s="43" t="s">
         <v>318</v>
@@ -12298,11 +12323,11 @@
     </row>
     <row r="224" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A224" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B224" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
+        <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C224" s="8" t="s">
         <v>141</v>
@@ -12317,18 +12342,18 @@
         <v>4</v>
       </c>
       <c r="H224" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J224" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>mu_8,4,2</v>
+        <v>mu_8,4,1</v>
       </c>
       <c r="K224" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L224" s="11">
         <f t="shared" si="19"/>
-        <v>2.2799999999999999E-3</v>
+        <v>3.96E-3</v>
       </c>
       <c r="O224" s="41"/>
       <c r="P224" s="42" t="s">
@@ -12339,37 +12364,79 @@
       </c>
     </row>
     <row r="225" spans="1:17" ht="48" x14ac:dyDescent="0.2">
-      <c r="A225" s="11" t="s">
+      <c r="A225" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B225" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E225" s="8">
+        <v>8</v>
+      </c>
+      <c r="G225" s="9">
+        <v>4</v>
+      </c>
+      <c r="H225" s="9">
+        <v>2</v>
+      </c>
+      <c r="J225" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>mu_8,4,2</v>
+      </c>
+      <c r="K225" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="L225" s="11">
+        <f t="shared" si="19"/>
+        <v>2.2799999999999999E-3</v>
+      </c>
+      <c r="O225" s="41"/>
+      <c r="P225" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q225" s="43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A226" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="C225" s="9" t="s">
+      <c r="C226" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="J225" s="9" t="s">
+      <c r="J226" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="K225" s="9" t="s">
+      <c r="K226" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="L225" s="11">
+      <c r="L226" s="11">
         <f>1/(60-15)</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="O225" s="41"/>
-      <c r="P225" s="42" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q225" s="43" t="s">
+      <c r="O226" s="41"/>
+      <c r="P226" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q226" s="43" t="s">
         <v>318</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q225">
-    <sortCondition ref="D2:D225"/>
-    <sortCondition ref="C2:C225"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q226">
+    <sortCondition ref="D2:D226"/>
+    <sortCondition ref="C2:C226"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="O112" r:id="rId1" display="https://doi.org/10.1016/j.epidem.2017.12.001" xr:uid="{77CB643F-CD25-D241-919C-3DC7EAE81BFB}"/>
+    <hyperlink ref="O113" r:id="rId1" display="https://doi.org/10.1016/j.epidem.2017.12.001" xr:uid="{77CB643F-CD25-D241-919C-3DC7EAE81BFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -12381,11 +12448,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD4AF83-5BDA-B246-9A8F-C4F47C31E1D4}">
   <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12441,7 +12508,7 @@
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -12456,7 +12523,7 @@
     </row>
     <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -12469,15 +12536,15 @@
         <v>0.9</v>
       </c>
       <c r="K3" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -12490,12 +12557,12 @@
         <v>0.6</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -12508,7 +12575,7 @@
         <v>0.9</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12556,7 +12623,7 @@
         <v>0.5</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -12611,7 +12678,7 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="K11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -12633,7 +12700,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="K12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -12655,7 +12722,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="K13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -12959,7 +13026,7 @@
     </row>
     <row r="28" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="54" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -12975,7 +13042,7 @@
     </row>
     <row r="29" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -12991,7 +13058,7 @@
     </row>
     <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="51" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -13004,15 +13071,15 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="K30" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="51" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -13027,7 +13094,7 @@
     </row>
     <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="51" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -13040,12 +13107,12 @@
         <v>0.01</v>
       </c>
       <c r="L32" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="51" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -13060,7 +13127,7 @@
     </row>
     <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="51" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -14019,7 +14086,7 @@
       <c r="E108" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/param_files/Epi_model_parameters.xlsx
+++ b/param_files/Epi_model_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/github/epi_model_HIV_TB/param_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECC024C-2281-2748-AABC-B182C6DC8E7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F411C6B1-4D70-8349-8AFC-A8B14B76021B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1983,9 +1983,6 @@
     <t>https://journals.lww.com/aidsonline/fulltext/1999/08200/relapse_and_mortality_among_hiv_infected_and.15.aspx?casa_token=vWxO6_8KJzUAAAAA:ZO9CgaeDwvG-EClLVdnyIZJcVy6hs5FXUKMwwttTiELpLxc9Z7Mm25A76myj-SVbN_kQ9sIvz5levVDOFQhBRMSf</t>
   </si>
   <si>
-    <t>5% over 18 months</t>
-  </si>
-  <si>
     <t>Should we include adherence?</t>
   </si>
   <si>
@@ -2014,6 +2011,9 @@
   </si>
   <si>
     <t>cg: set to 70% reduction of average of recent and remote rate</t>
+  </si>
+  <si>
+    <t>Jenn Ref</t>
   </si>
 </sst>
 </file>
@@ -2792,10 +2792,10 @@
   <dimension ref="A1:Q224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O96" sqref="O96"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6906,7 +6906,7 @@
         <v>444</v>
       </c>
       <c r="L95" s="23">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="O95" s="58"/>
       <c r="P95" s="41" t="s">
@@ -6941,17 +6941,17 @@
       </c>
       <c r="L96" s="23">
         <f>AVERAGE(L94,L95)*0.3</f>
-        <v>8.2500000000000004E-3</v>
+        <v>7.6500000000000005E-3</v>
       </c>
       <c r="O96" s="40"/>
       <c r="P96" s="41" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Q96" s="42" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="176" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" ht="128" x14ac:dyDescent="0.2">
       <c r="A97" s="56" t="s">
         <v>607</v>
       </c>
@@ -6975,13 +6975,13 @@
         <v>606</v>
       </c>
       <c r="L97" s="23">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="O97" s="41" t="s">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O97" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="P97" s="41" t="s">
         <v>636</v>
-      </c>
-      <c r="P97" s="11" t="s">
-        <v>637</v>
       </c>
       <c r="Q97" s="10" t="s">
         <v>314</v>
@@ -7014,10 +7014,10 @@
         <v>2</v>
       </c>
       <c r="O98" s="65" t="s">
+        <v>637</v>
+      </c>
+      <c r="P98" s="66" t="s">
         <v>638</v>
-      </c>
-      <c r="P98" s="66" t="s">
-        <v>639</v>
       </c>
       <c r="Q98" s="42" t="s">
         <v>315</v>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="L99" s="23">
         <f>AVERAGE(L94,L95)*0.5</f>
-        <v>1.375E-2</v>
+        <v>1.2750000000000001E-2</v>
       </c>
       <c r="O99" s="40"/>
       <c r="P99" s="41" t="s">

--- a/param_files/Epi_model_parameters.xlsx
+++ b/param_files/Epi_model_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/github/epi_model_HIV_TB/param_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F411C6B1-4D70-8349-8AFC-A8B14B76021B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33411958-7E7A-5C49-96C5-A73AF157F611}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13180" yWindow="620" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model_matched_parameters" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="639">
   <si>
     <t>Epidemiological data point (description)</t>
   </si>
@@ -1903,9 +1903,6 @@
   </si>
   <si>
     <t>Jen agrees, but question for timing. Does this all happen in one year?-- CG note 91% initiation, 75% adherence</t>
-  </si>
-  <si>
-    <t>cg: set to 50% reduction of average of recent and remote rate</t>
   </si>
   <si>
     <t>xi</t>
@@ -2008,9 +2005,6 @@
       </rPr>
       <t> 104.5 (2014).</t>
     </r>
-  </si>
-  <si>
-    <t>cg: set to 70% reduction of average of recent and remote rate</t>
   </si>
   <si>
     <t>Jenn Ref</t>
@@ -2792,10 +2786,10 @@
   <dimension ref="A1:Q224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="P97" sqref="P97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3170,7 +3164,7 @@
     </row>
     <row r="10" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="61" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="8" t="s">
@@ -3188,23 +3182,23 @@
         <v>upsilon_1,</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L10" s="9">
         <f>0.5</f>
         <v>0.5</v>
       </c>
       <c r="O10" s="62" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P10" s="41" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Q10" s="42"/>
     </row>
     <row r="11" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="61" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="8" t="s">
@@ -3222,22 +3216,22 @@
         <v>upsilon_2,</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L11" s="9">
         <v>1</v>
       </c>
       <c r="O11" s="62" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P11" s="41" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Q11" s="42"/>
     </row>
     <row r="12" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="61" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="8" t="s">
@@ -3255,22 +3249,22 @@
         <v>upsilon_3,</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L12" s="9">
         <v>1</v>
       </c>
       <c r="O12" s="62" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P12" s="41" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Q12" s="42"/>
     </row>
     <row r="13" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="61" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="8" t="s">
@@ -3288,26 +3282,26 @@
         <v>upsilon_4,</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L13" s="9">
         <v>1</v>
       </c>
       <c r="O13" s="40" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P13" s="41" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Q13" s="42"/>
     </row>
     <row r="14" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>38</v>
@@ -3318,16 +3312,16 @@
         <v>xi_</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L14" s="23">
         <v>4</v>
       </c>
       <c r="O14" s="64" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P14" s="40" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Q14" s="42"/>
     </row>
@@ -6916,7 +6910,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
         <v>127</v>
       </c>
@@ -6940,12 +6934,12 @@
         <v>445</v>
       </c>
       <c r="L96" s="23">
-        <f>AVERAGE(L94,L95)*0.3</f>
-        <v>7.6500000000000005E-3</v>
+        <f>0.0075</f>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="O96" s="40"/>
       <c r="P96" s="41" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="Q96" s="42" t="s">
         <v>315</v>
@@ -6978,10 +6972,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="O97" s="9" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="P97" s="41" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="Q97" s="10" t="s">
         <v>314</v>
@@ -7014,10 +7008,10 @@
         <v>2</v>
       </c>
       <c r="O98" s="65" t="s">
+        <v>636</v>
+      </c>
+      <c r="P98" s="66" t="s">
         <v>637</v>
-      </c>
-      <c r="P98" s="66" t="s">
-        <v>638</v>
       </c>
       <c r="Q98" s="42" t="s">
         <v>315</v>
@@ -7045,12 +7039,12 @@
         <v>610</v>
       </c>
       <c r="L99" s="23">
-        <f>AVERAGE(L94,L95)*0.5</f>
-        <v>1.2750000000000001E-2</v>
+        <f>0.0038</f>
+        <v>3.8E-3</v>
       </c>
       <c r="O99" s="40"/>
       <c r="P99" s="41" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="Q99" s="42"/>
     </row>

--- a/param_files/Epi_model_parameters.xlsx
+++ b/param_files/Epi_model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/github/epi_model_HIV_TB/param_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33411958-7E7A-5C49-96C5-A73AF157F611}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC86193A-68ED-3E49-8937-AB398AA80125}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13180" yWindow="620" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model_matched_parameters" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="639">
   <si>
     <t>Epidemiological data point (description)</t>
   </si>
@@ -985,9 +985,6 @@
   </si>
   <si>
     <t>Lawn 2006, AIDS PMID: 16888441</t>
-  </si>
-  <si>
-    <t>Brian Williams ,</t>
   </si>
   <si>
     <t>Country Specific?</t>
@@ -2008,6 +2005,9 @@
   </si>
   <si>
     <t>Jenn Ref</t>
+  </si>
+  <si>
+    <t>Changed to Jenn Ref</t>
   </si>
 </sst>
 </file>
@@ -2420,9 +2420,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2500,6 +2497,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2786,10 +2786,10 @@
   <dimension ref="A1:Q224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P97" sqref="P97"/>
+      <selection pane="bottomRight" activeCell="O101" sqref="O101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2845,7 +2845,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>9</v>
@@ -2866,7 +2866,7 @@
         <v>14</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2891,17 +2891,17 @@
         <v>beta_1</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L2" s="9">
         <v>6.5440000000000003E-3</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="42" t="s">
-        <v>314</v>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2926,17 +2926,17 @@
         <v>beta_2</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L3" s="9">
         <v>5.5440000000000003E-3</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42" t="s">
-        <v>314</v>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="34" x14ac:dyDescent="0.2">
@@ -2961,17 +2961,17 @@
         <v>iota_1,</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L4" s="34">
         <v>0</v>
       </c>
-      <c r="O4" s="40" t="s">
-        <v>576</v>
-      </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42" t="s">
-        <v>315</v>
+      <c r="O4" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="34" x14ac:dyDescent="0.2">
@@ -2996,19 +2996,19 @@
         <v>iota_2,</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L5" s="34">
         <v>0.15</v>
       </c>
-      <c r="O5" s="40" t="s">
-        <v>581</v>
-      </c>
-      <c r="P5" s="48" t="s">
-        <v>577</v>
-      </c>
-      <c r="Q5" s="42" t="s">
-        <v>315</v>
+      <c r="O5" s="39" t="s">
+        <v>580</v>
+      </c>
+      <c r="P5" s="47" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q5" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -3033,19 +3033,19 @@
         <v>phi_1,</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L6" s="9">
         <v>1</v>
       </c>
-      <c r="O6" s="40" t="s">
-        <v>583</v>
-      </c>
-      <c r="P6" s="41" t="s">
-        <v>587</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>315</v>
+      <c r="O6" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q6" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -3070,20 +3070,20 @@
         <v>phi_2,</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP("phi_1,", model_matched_parameters,3, FALSE)*VLOOKUP(K7,indirect_model_params,2)</f>
         <v>0.9</v>
       </c>
-      <c r="O7" s="40" t="s">
-        <v>583</v>
-      </c>
-      <c r="P7" s="41" t="s">
+      <c r="O7" s="39" t="s">
         <v>582</v>
       </c>
-      <c r="Q7" s="42" t="s">
-        <v>315</v>
+      <c r="P7" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q7" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -3108,20 +3108,20 @@
         <v>phi_3,</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP("phi_1,", model_matched_parameters,3, FALSE)*VLOOKUP(K8,indirect_model_params,2)</f>
         <v>0.6</v>
       </c>
-      <c r="O8" s="40" t="s">
-        <v>583</v>
-      </c>
-      <c r="P8" s="41" t="s">
+      <c r="O8" s="39" t="s">
         <v>582</v>
       </c>
-      <c r="Q8" s="42" t="s">
-        <v>315</v>
+      <c r="P8" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q8" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -3146,25 +3146,25 @@
         <v>phi_4,</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP("phi_1,", model_matched_parameters,3, FALSE)*VLOOKUP(K9,indirect_model_params,2)</f>
         <v>0.9</v>
       </c>
-      <c r="O9" s="40" t="s">
-        <v>583</v>
-      </c>
-      <c r="P9" s="41" t="s">
+      <c r="O9" s="39" t="s">
         <v>582</v>
       </c>
-      <c r="Q9" s="42" t="s">
-        <v>315</v>
+      <c r="P9" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q9" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="61" t="s">
-        <v>619</v>
+      <c r="A10" s="60" t="s">
+        <v>618</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="8" t="s">
@@ -3182,23 +3182,23 @@
         <v>upsilon_1,</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L10" s="9">
         <f>0.5</f>
         <v>0.5</v>
       </c>
-      <c r="O10" s="62" t="s">
-        <v>630</v>
-      </c>
-      <c r="P10" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q10" s="42"/>
+      <c r="O10" s="61" t="s">
+        <v>629</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q10" s="41"/>
     </row>
     <row r="11" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="61" t="s">
-        <v>620</v>
+      <c r="A11" s="60" t="s">
+        <v>619</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="8" t="s">
@@ -3216,22 +3216,22 @@
         <v>upsilon_2,</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L11" s="9">
         <v>1</v>
       </c>
-      <c r="O11" s="62" t="s">
-        <v>630</v>
-      </c>
-      <c r="P11" s="41" t="s">
-        <v>628</v>
-      </c>
-      <c r="Q11" s="42"/>
+      <c r="O11" s="61" t="s">
+        <v>629</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q11" s="41"/>
     </row>
     <row r="12" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="61" t="s">
-        <v>621</v>
+      <c r="A12" s="60" t="s">
+        <v>620</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="8" t="s">
@@ -3249,22 +3249,22 @@
         <v>upsilon_3,</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L12" s="9">
         <v>1</v>
       </c>
-      <c r="O12" s="62" t="s">
-        <v>630</v>
-      </c>
-      <c r="P12" s="41" t="s">
-        <v>628</v>
-      </c>
-      <c r="Q12" s="42"/>
+      <c r="O12" s="61" t="s">
+        <v>629</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q12" s="41"/>
     </row>
     <row r="13" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
-        <v>622</v>
+      <c r="A13" s="60" t="s">
+        <v>621</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="8" t="s">
@@ -3282,26 +3282,26 @@
         <v>upsilon_4,</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L13" s="9">
         <v>1</v>
       </c>
-      <c r="O13" s="40" t="s">
-        <v>629</v>
-      </c>
-      <c r="P13" s="41" t="s">
+      <c r="O13" s="39" t="s">
         <v>628</v>
       </c>
-      <c r="Q13" s="42"/>
+      <c r="P13" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q13" s="41"/>
     </row>
     <row r="14" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63" t="s">
-        <v>631</v>
+      <c r="A14" s="62" t="s">
+        <v>630</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>38</v>
@@ -3312,18 +3312,18 @@
         <v>xi_</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L14" s="23">
         <v>4</v>
       </c>
-      <c r="O14" s="64" t="s">
-        <v>632</v>
-      </c>
-      <c r="P14" s="40" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q14" s="42"/>
+      <c r="O14" s="63" t="s">
+        <v>631</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q14" s="41"/>
     </row>
     <row r="15" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
@@ -3347,19 +3347,19 @@
         <v>varepsilon_1</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L15" s="9">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="O15" s="40" t="s">
+      <c r="O15" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="P15" s="41" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q15" s="42" t="s">
-        <v>314</v>
+      <c r="P15" s="40" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q15" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -3384,17 +3384,17 @@
         <v>varepsilon_2</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L16" s="9">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="O16" s="40" t="s">
+      <c r="O16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="42" t="s">
-        <v>314</v>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -3416,19 +3416,19 @@
         <v>zeta_</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L17" s="34">
         <v>0.56000000000000005</v>
       </c>
-      <c r="O17" s="40" t="s">
-        <v>608</v>
-      </c>
-      <c r="P17" s="49" t="s">
-        <v>586</v>
-      </c>
-      <c r="Q17" s="42" t="s">
-        <v>315</v>
+      <c r="O17" s="39" t="s">
+        <v>607</v>
+      </c>
+      <c r="P17" s="48" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q17" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -3453,15 +3453,15 @@
         <v>gamma_1,</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L18" s="9">
         <v>1</v>
       </c>
-      <c r="O18" s="40"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="42" t="s">
-        <v>315</v>
+      <c r="O18" s="39"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -3486,15 +3486,15 @@
         <v>gamma_2,</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L19" s="9">
         <v>0</v>
       </c>
-      <c r="O19" s="40"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="42" t="s">
-        <v>315</v>
+      <c r="O19" s="39"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -3528,17 +3528,17 @@
         <v>kappa_1,1,1(1)</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L20" s="9">
         <v>0</v>
       </c>
-      <c r="O20" s="40"/>
-      <c r="P20" s="41" t="s">
+      <c r="O20" s="39"/>
+      <c r="P20" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="Q20" s="42" t="s">
-        <v>314</v>
+      <c r="Q20" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -3572,17 +3572,17 @@
         <v>kappa_1,1,2(1)</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L21" s="9">
         <v>0</v>
       </c>
-      <c r="O21" s="40"/>
-      <c r="P21" s="41" t="s">
+      <c r="O21" s="39"/>
+      <c r="P21" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="Q21" s="42" t="s">
-        <v>314</v>
+      <c r="Q21" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -3616,17 +3616,17 @@
         <v>kappa_3,1,1(1)</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L22" s="9">
         <v>0</v>
       </c>
-      <c r="O22" s="40"/>
-      <c r="P22" s="41" t="s">
+      <c r="O22" s="39"/>
+      <c r="P22" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="Q22" s="42" t="s">
-        <v>314</v>
+      <c r="Q22" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -3660,17 +3660,17 @@
         <v>kappa_3,1,2(1)</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L23" s="9">
         <v>0</v>
       </c>
-      <c r="O23" s="40"/>
-      <c r="P23" s="41" t="s">
+      <c r="O23" s="39"/>
+      <c r="P23" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="Q23" s="42" t="s">
-        <v>314</v>
+      <c r="Q23" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -3704,17 +3704,17 @@
         <v>kappa_4,1,1(1)</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L24" s="9">
         <v>0</v>
       </c>
-      <c r="O24" s="40"/>
-      <c r="P24" s="41" t="s">
+      <c r="O24" s="39"/>
+      <c r="P24" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="Q24" s="42" t="s">
-        <v>314</v>
+      <c r="Q24" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -3748,17 +3748,17 @@
         <v>kappa_4,1,2(1)</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L25" s="9">
         <v>0</v>
       </c>
-      <c r="O25" s="40"/>
-      <c r="P25" s="41" t="s">
+      <c r="O25" s="39"/>
+      <c r="P25" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="Q25" s="42" t="s">
-        <v>314</v>
+      <c r="Q25" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -3792,17 +3792,17 @@
         <v>kappa_1,1,1(2)</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L26" s="9">
         <v>0</v>
       </c>
-      <c r="O26" s="40"/>
-      <c r="P26" s="41" t="s">
+      <c r="O26" s="39"/>
+      <c r="P26" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="Q26" s="42" t="s">
-        <v>314</v>
+      <c r="Q26" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -3836,17 +3836,17 @@
         <v>kappa_1,1,2(2)</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L27" s="9">
         <v>0</v>
       </c>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41" t="s">
+      <c r="O27" s="39"/>
+      <c r="P27" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="Q27" s="42" t="s">
-        <v>314</v>
+      <c r="Q27" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -3880,17 +3880,17 @@
         <v>kappa_3,1,1(2)</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L28" s="9">
         <v>0</v>
       </c>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41" t="s">
+      <c r="O28" s="39"/>
+      <c r="P28" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="Q28" s="42" t="s">
-        <v>314</v>
+      <c r="Q28" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -3924,17 +3924,17 @@
         <v>kappa_3,1,2(2)</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L29" s="9">
         <v>0</v>
       </c>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41" t="s">
+      <c r="O29" s="39"/>
+      <c r="P29" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="Q29" s="42" t="s">
-        <v>314</v>
+      <c r="Q29" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -3968,17 +3968,17 @@
         <v>kappa_4,1,1(2)</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L30" s="9">
         <v>0</v>
       </c>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41" t="s">
+      <c r="O30" s="39"/>
+      <c r="P30" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="Q30" s="42" t="s">
-        <v>314</v>
+      <c r="Q30" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -4012,17 +4012,17 @@
         <v>kappa_4,1,2(2)</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L31" s="9">
         <v>0</v>
       </c>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41" t="s">
+      <c r="O31" s="39"/>
+      <c r="P31" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="Q31" s="42" t="s">
-        <v>314</v>
+      <c r="Q31" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -4056,17 +4056,17 @@
         <v>kappa_1,1,1(3)</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L32" s="27">
         <v>0</v>
       </c>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41" t="s">
+      <c r="O32" s="39"/>
+      <c r="P32" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="Q32" s="42" t="s">
-        <v>314</v>
+      <c r="Q32" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -4100,17 +4100,17 @@
         <v>kappa_1,1,2(3)</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L33" s="27">
         <v>0</v>
       </c>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41" t="s">
+      <c r="O33" s="39"/>
+      <c r="P33" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="Q33" s="42" t="s">
-        <v>314</v>
+      <c r="Q33" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -4144,17 +4144,17 @@
         <v>kappa_3,1,1(3)</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L34" s="9">
         <v>0</v>
       </c>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41" t="s">
+      <c r="O34" s="39"/>
+      <c r="P34" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="Q34" s="42" t="s">
-        <v>314</v>
+      <c r="Q34" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -4188,17 +4188,17 @@
         <v>kappa_3,1,2(3)</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L35" s="9">
         <v>0</v>
       </c>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41" t="s">
+      <c r="O35" s="39"/>
+      <c r="P35" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="Q35" s="42" t="s">
-        <v>314</v>
+      <c r="Q35" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -4232,17 +4232,17 @@
         <v>kappa_4,1,1(3)</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L36" s="9">
         <v>0</v>
       </c>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41" t="s">
+      <c r="O36" s="39"/>
+      <c r="P36" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="Q36" s="42" t="s">
-        <v>314</v>
+      <c r="Q36" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -4276,17 +4276,17 @@
         <v>kappa_4,1,2(3)</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L37" s="9">
         <v>0</v>
       </c>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41" t="s">
+      <c r="O37" s="39"/>
+      <c r="P37" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="Q37" s="42" t="s">
-        <v>314</v>
+      <c r="Q37" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -4320,20 +4320,20 @@
         <v>kappa_1,2,1(1)</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L38" s="9">
         <f t="shared" ref="L38:L49" si="2">0.06*0.06</f>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O38" s="40" t="s">
+      <c r="O38" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P38" s="41" t="s">
-        <v>615</v>
-      </c>
-      <c r="Q38" s="42" t="s">
-        <v>314</v>
+      <c r="P38" s="40" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q38" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -4367,20 +4367,20 @@
         <v>kappa_1,2,2(1)</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L39" s="9">
         <f t="shared" si="2"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O39" s="40" t="s">
+      <c r="O39" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P39" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q39" s="42" t="s">
-        <v>314</v>
+      <c r="P39" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q39" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -4414,20 +4414,20 @@
         <v>kappa_3,2,1(1)</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L40" s="9">
         <f t="shared" si="2"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O40" s="40" t="s">
+      <c r="O40" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P40" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q40" s="42" t="s">
-        <v>314</v>
+      <c r="P40" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q40" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -4461,20 +4461,20 @@
         <v>kappa_3,2,2(1)</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L41" s="9">
         <f t="shared" si="2"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O41" s="40" t="s">
+      <c r="O41" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P41" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q41" s="42" t="s">
-        <v>314</v>
+      <c r="P41" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q41" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -4508,20 +4508,20 @@
         <v>kappa_4,2,1(1)</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L42" s="9">
         <f t="shared" si="2"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O42" s="40" t="s">
+      <c r="O42" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P42" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q42" s="42" t="s">
-        <v>314</v>
+      <c r="P42" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q42" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -4555,20 +4555,20 @@
         <v>kappa_4,2,2(1)</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L43" s="9">
         <f t="shared" si="2"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O43" s="40" t="s">
+      <c r="O43" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P43" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q43" s="42" t="s">
-        <v>314</v>
+      <c r="P43" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q43" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="112" x14ac:dyDescent="0.2">
@@ -4602,20 +4602,20 @@
         <v>kappa_1,2,1(2)</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L44" s="9">
         <f t="shared" si="2"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O44" s="40" t="s">
+      <c r="O44" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P44" s="41" t="s">
+      <c r="P44" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q44" s="42" t="s">
-        <v>314</v>
+      <c r="Q44" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="112" x14ac:dyDescent="0.2">
@@ -4649,20 +4649,20 @@
         <v>kappa_1,2,2(2)</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L45" s="9">
         <f t="shared" si="2"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O45" s="40" t="s">
+      <c r="O45" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P45" s="41" t="s">
+      <c r="P45" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q45" s="42" t="s">
-        <v>314</v>
+      <c r="Q45" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -4696,20 +4696,20 @@
         <v>kappa_3,2,1(2)</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L46" s="9">
         <f t="shared" si="2"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O46" s="40" t="s">
+      <c r="O46" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P46" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q46" s="42" t="s">
-        <v>314</v>
+      <c r="P46" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q46" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -4743,20 +4743,20 @@
         <v>kappa_3,2,2(2)</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L47" s="9">
         <f t="shared" si="2"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O47" s="40" t="s">
+      <c r="O47" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P47" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q47" s="42" t="s">
-        <v>314</v>
+      <c r="P47" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q47" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -4790,20 +4790,20 @@
         <v>kappa_4,2,1(2)</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L48" s="9">
         <f t="shared" si="2"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O48" s="40" t="s">
+      <c r="O48" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P48" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q48" s="42" t="s">
-        <v>314</v>
+      <c r="P48" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q48" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -4837,20 +4837,20 @@
         <v>kappa_4,2,2(2)</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L49" s="9">
         <f t="shared" si="2"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O49" s="40" t="s">
+      <c r="O49" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P49" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q49" s="42" t="s">
-        <v>314</v>
+      <c r="P49" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q49" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -4884,20 +4884,20 @@
         <v>kappa_1,2,1(3)</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L50" s="9">
         <f t="shared" ref="L50:L55" si="3">0.91*0.75</f>
         <v>0.6825</v>
       </c>
-      <c r="O50" s="40" t="s">
+      <c r="O50" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P50" s="41" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q50" s="42" t="s">
-        <v>314</v>
+      <c r="P50" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q50" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -4931,20 +4931,20 @@
         <v>kappa_1,2,2(3)</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L51" s="9">
         <f t="shared" si="3"/>
         <v>0.6825</v>
       </c>
-      <c r="O51" s="40" t="s">
+      <c r="O51" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P51" s="41" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q51" s="42" t="s">
-        <v>314</v>
+      <c r="P51" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q51" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -4978,20 +4978,20 @@
         <v>kappa_3,2,1(3)</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L52" s="9">
         <f t="shared" si="3"/>
         <v>0.6825</v>
       </c>
-      <c r="O52" s="40" t="s">
+      <c r="O52" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P52" s="41" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q52" s="42" t="s">
-        <v>314</v>
+      <c r="P52" s="40" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q52" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -5025,20 +5025,20 @@
         <v>kappa_3,2,2(3)</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L53" s="9">
         <f t="shared" si="3"/>
         <v>0.6825</v>
       </c>
-      <c r="O53" s="40" t="s">
+      <c r="O53" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P53" s="41" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q53" s="42" t="s">
-        <v>314</v>
+      <c r="P53" s="40" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q53" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -5072,20 +5072,20 @@
         <v>kappa_4,2,1(3)</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L54" s="9">
         <f t="shared" si="3"/>
         <v>0.6825</v>
       </c>
-      <c r="O54" s="40" t="s">
+      <c r="O54" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P54" s="41" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q54" s="42" t="s">
-        <v>314</v>
+      <c r="P54" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q54" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -5119,20 +5119,20 @@
         <v>kappa_4,2,2(3)</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L55" s="9">
         <f t="shared" si="3"/>
         <v>0.6825</v>
       </c>
-      <c r="O55" s="40" t="s">
+      <c r="O55" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P55" s="41" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q55" s="42" t="s">
-        <v>314</v>
+      <c r="P55" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q55" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -5166,18 +5166,18 @@
         <v>kappa_1,3,1(1)</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L56" s="9">
         <f>0.06*0.06</f>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O56" s="40" t="s">
+      <c r="O56" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="42" t="s">
-        <v>314</v>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -5211,18 +5211,18 @@
         <v>kappa_1,3,2(1)</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L57" s="9">
         <f>0.06*0.06</f>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O57" s="40" t="s">
+      <c r="O57" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="42" t="s">
-        <v>314</v>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -5256,18 +5256,18 @@
         <v>kappa_3,3,1(1)</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L58" s="9">
         <f>0.06*0.06</f>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O58" s="40" t="s">
+      <c r="O58" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="42" t="s">
-        <v>314</v>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -5301,18 +5301,18 @@
         <v>kappa_3,3,2(1)</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L59" s="9">
         <f>0.06*0.06</f>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O59" s="40" t="s">
+      <c r="O59" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="42" t="s">
-        <v>314</v>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -5346,19 +5346,19 @@
         <v>kappa_4,3,1(1)</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="L60" s="59">
+        <v>428</v>
+      </c>
+      <c r="L60" s="58">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O60" s="40" t="s">
+      <c r="O60" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P60" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q60" s="42" t="s">
-        <v>314</v>
+      <c r="P60" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q60" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -5392,19 +5392,19 @@
         <v>kappa_4,3,2(1)</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="L61" s="59">
+        <v>431</v>
+      </c>
+      <c r="L61" s="58">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O61" s="40" t="s">
+      <c r="O61" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P61" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q61" s="42" t="s">
-        <v>314</v>
+      <c r="P61" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q61" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="112" x14ac:dyDescent="0.2">
@@ -5438,20 +5438,20 @@
         <v>kappa_1,3,1(2)</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L62" s="9">
         <f>0.06*0.06</f>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O62" s="40" t="s">
+      <c r="O62" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P62" s="41" t="s">
+      <c r="P62" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q62" s="42" t="s">
-        <v>314</v>
+      <c r="Q62" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="112" x14ac:dyDescent="0.2">
@@ -5485,20 +5485,20 @@
         <v>kappa_1,3,2(2)</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L63" s="9">
         <f>0.06*0.06</f>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O63" s="40" t="s">
+      <c r="O63" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P63" s="41" t="s">
+      <c r="P63" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q63" s="42" t="s">
-        <v>314</v>
+      <c r="Q63" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -5532,18 +5532,18 @@
         <v>kappa_3,3,1(2)</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L64" s="9">
         <f>0.06*0.06</f>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O64" s="40" t="s">
+      <c r="O64" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="42" t="s">
-        <v>314</v>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -5577,18 +5577,18 @@
         <v>kappa_3,3,2(2)</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L65" s="9">
         <f>0.06*0.06</f>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O65" s="40" t="s">
+      <c r="O65" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="42" t="s">
-        <v>314</v>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -5622,19 +5622,19 @@
         <v>kappa_4,3,1(2)</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="L66" s="59">
+        <v>429</v>
+      </c>
+      <c r="L66" s="58">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O66" s="40" t="s">
+      <c r="O66" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P66" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q66" s="42" t="s">
-        <v>314</v>
+      <c r="P66" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q66" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -5668,19 +5668,19 @@
         <v>kappa_4,3,2(2)</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="L67" s="59">
+        <v>432</v>
+      </c>
+      <c r="L67" s="58">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O67" s="40" t="s">
+      <c r="O67" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P67" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q67" s="42" t="s">
-        <v>314</v>
+      <c r="P67" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q67" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -5714,19 +5714,19 @@
         <v>kappa_1,3,1(3)</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="L68" s="59">
+        <v>382</v>
+      </c>
+      <c r="L68" s="58">
         <v>0.6825</v>
       </c>
-      <c r="O68" s="40" t="s">
+      <c r="O68" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P68" s="41" t="s">
+      <c r="P68" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q68" s="42" t="s">
-        <v>314</v>
+      <c r="Q68" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -5760,19 +5760,19 @@
         <v>kappa_1,3,2(3)</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="L69" s="59">
+        <v>385</v>
+      </c>
+      <c r="L69" s="58">
         <v>0.6825</v>
       </c>
-      <c r="O69" s="40" t="s">
+      <c r="O69" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P69" s="41" t="s">
+      <c r="P69" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q69" s="42" t="s">
-        <v>314</v>
+      <c r="Q69" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -5806,19 +5806,19 @@
         <v>kappa_3,3,1(3)</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="L70" s="59">
+        <v>406</v>
+      </c>
+      <c r="L70" s="58">
         <v>0.6825</v>
       </c>
-      <c r="O70" s="40" t="s">
+      <c r="O70" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P70" s="41" t="s">
+      <c r="P70" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="Q70" s="42" t="s">
-        <v>314</v>
+      <c r="Q70" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -5852,19 +5852,19 @@
         <v>kappa_3,3,2(3)</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="L71" s="59">
+        <v>409</v>
+      </c>
+      <c r="L71" s="58">
         <v>0.6825</v>
       </c>
-      <c r="O71" s="40" t="s">
+      <c r="O71" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P71" s="41" t="s">
+      <c r="P71" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="Q71" s="42" t="s">
-        <v>314</v>
+      <c r="Q71" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -5898,19 +5898,19 @@
         <v>kappa_4,3,1(3)</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="L72" s="59">
+        <v>430</v>
+      </c>
+      <c r="L72" s="58">
         <v>0.6825</v>
       </c>
-      <c r="O72" s="40" t="s">
+      <c r="O72" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P72" s="41" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q72" s="42" t="s">
-        <v>314</v>
+      <c r="P72" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q72" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -5944,19 +5944,19 @@
         <v>kappa_4,3,2(3)</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="L73" s="59">
+        <v>433</v>
+      </c>
+      <c r="L73" s="58">
         <v>0.6825</v>
       </c>
-      <c r="O73" s="40" t="s">
+      <c r="O73" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P73" s="41" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q73" s="42" t="s">
-        <v>314</v>
+      <c r="P73" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q73" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -5990,17 +5990,17 @@
         <v>kappa_1,4,1(1)</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="L74" s="59">
+        <v>386</v>
+      </c>
+      <c r="L74" s="58">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O74" s="40" t="s">
+      <c r="O74" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P74" s="41"/>
-      <c r="Q74" s="42" t="s">
-        <v>314</v>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -6034,17 +6034,17 @@
         <v>kappa_1,4,2(1)</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="L75" s="59">
+        <v>389</v>
+      </c>
+      <c r="L75" s="58">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O75" s="40" t="s">
+      <c r="O75" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P75" s="41"/>
-      <c r="Q75" s="42" t="s">
-        <v>314</v>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -6078,17 +6078,17 @@
         <v>kappa_3,4,1(1)</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="L76" s="59">
+        <v>410</v>
+      </c>
+      <c r="L76" s="58">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O76" s="40" t="s">
+      <c r="O76" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P76" s="41"/>
-      <c r="Q76" s="42" t="s">
-        <v>314</v>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -6122,17 +6122,17 @@
         <v>kappa_3,4,2(1)</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="L77" s="59">
+        <v>413</v>
+      </c>
+      <c r="L77" s="58">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O77" s="40" t="s">
+      <c r="O77" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P77" s="41"/>
-      <c r="Q77" s="42" t="s">
-        <v>314</v>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -6166,19 +6166,19 @@
         <v>kappa_4,4,1(1)</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="L78" s="59">
+        <v>434</v>
+      </c>
+      <c r="L78" s="58">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O78" s="40" t="s">
+      <c r="O78" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P78" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q78" s="42" t="s">
-        <v>314</v>
+      <c r="P78" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q78" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -6212,19 +6212,19 @@
         <v>kappa_4,4,2(1)</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="L79" s="59">
+        <v>437</v>
+      </c>
+      <c r="L79" s="58">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O79" s="40" t="s">
+      <c r="O79" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P79" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q79" s="42" t="s">
-        <v>314</v>
+      <c r="P79" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q79" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="112" x14ac:dyDescent="0.2">
@@ -6258,19 +6258,19 @@
         <v>kappa_1,4,1(2)</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="L80" s="59">
+        <v>387</v>
+      </c>
+      <c r="L80" s="58">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O80" s="40" t="s">
+      <c r="O80" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P80" s="41" t="s">
+      <c r="P80" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q80" s="42" t="s">
-        <v>314</v>
+      <c r="Q80" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="112" x14ac:dyDescent="0.2">
@@ -6304,19 +6304,19 @@
         <v>kappa_1,4,2(2)</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="L81" s="59">
+        <v>390</v>
+      </c>
+      <c r="L81" s="58">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O81" s="40" t="s">
+      <c r="O81" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P81" s="41" t="s">
+      <c r="P81" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q81" s="42" t="s">
-        <v>314</v>
+      <c r="Q81" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -6350,19 +6350,19 @@
         <v>kappa_3,4,1(2)</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="L82" s="59">
+        <v>411</v>
+      </c>
+      <c r="L82" s="58">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O82" s="40" t="s">
+      <c r="O82" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P82" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q82" s="42" t="s">
-        <v>314</v>
+      <c r="P82" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q82" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -6396,19 +6396,19 @@
         <v>kappa_3,4,2(2)</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="L83" s="59">
+        <v>414</v>
+      </c>
+      <c r="L83" s="58">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O83" s="40" t="s">
+      <c r="O83" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P83" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q83" s="42" t="s">
-        <v>314</v>
+      <c r="P83" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q83" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -6442,19 +6442,19 @@
         <v>kappa_4,4,1(2)</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="L84" s="59">
+        <v>435</v>
+      </c>
+      <c r="L84" s="58">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O84" s="40" t="s">
+      <c r="O84" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P84" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q84" s="42" t="s">
-        <v>314</v>
+      <c r="P84" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q84" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -6488,19 +6488,19 @@
         <v>kappa_4,4,2(2)</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="L85" s="59">
+        <v>438</v>
+      </c>
+      <c r="L85" s="58">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O85" s="40" t="s">
+      <c r="O85" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P85" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q85" s="42" t="s">
-        <v>314</v>
+      <c r="P85" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q85" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -6534,19 +6534,19 @@
         <v>kappa_1,4,1(3)</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="L86" s="59">
+        <v>388</v>
+      </c>
+      <c r="L86" s="58">
         <v>0.6825</v>
       </c>
-      <c r="O86" s="40" t="s">
+      <c r="O86" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P86" s="41" t="s">
+      <c r="P86" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q86" s="42" t="s">
-        <v>314</v>
+      <c r="Q86" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -6580,19 +6580,19 @@
         <v>kappa_1,4,2(3)</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="L87" s="59">
+        <v>391</v>
+      </c>
+      <c r="L87" s="58">
         <v>0.6825</v>
       </c>
-      <c r="O87" s="40" t="s">
+      <c r="O87" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P87" s="41" t="s">
+      <c r="P87" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q87" s="42" t="s">
-        <v>314</v>
+      <c r="Q87" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -6626,19 +6626,19 @@
         <v>kappa_3,4,1(3)</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="L88" s="59">
+        <v>412</v>
+      </c>
+      <c r="L88" s="58">
         <v>0.6825</v>
       </c>
-      <c r="O88" s="40" t="s">
+      <c r="O88" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P88" s="41" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q88" s="42" t="s">
-        <v>314</v>
+      <c r="P88" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q88" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -6672,19 +6672,19 @@
         <v>kappa_3,4,2(3)</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="L89" s="59">
+        <v>415</v>
+      </c>
+      <c r="L89" s="58">
         <v>0.6825</v>
       </c>
-      <c r="O89" s="40" t="s">
+      <c r="O89" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P89" s="41" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q89" s="42" t="s">
-        <v>314</v>
+      <c r="P89" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q89" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -6718,19 +6718,19 @@
         <v>kappa_4,4,1(3)</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="L90" s="59">
+        <v>436</v>
+      </c>
+      <c r="L90" s="58">
         <v>0.6825</v>
       </c>
-      <c r="O90" s="40" t="s">
+      <c r="O90" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P90" s="41" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q90" s="42" t="s">
-        <v>314</v>
+      <c r="P90" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q90" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -6764,19 +6764,19 @@
         <v>kappa_4,4,2(3)</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="L91" s="59">
+        <v>439</v>
+      </c>
+      <c r="L91" s="58">
         <v>0.6825</v>
       </c>
-      <c r="O91" s="40" t="s">
+      <c r="O91" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P91" s="41" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q91" s="42" t="s">
-        <v>314</v>
+      <c r="P91" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q91" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -6795,17 +6795,17 @@
         <v>omega_</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L92" s="9">
         <v>2</v>
       </c>
-      <c r="O92" s="40"/>
-      <c r="P92" s="41" t="s">
+      <c r="O92" s="39"/>
+      <c r="P92" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="Q92" s="42" t="s">
-        <v>315</v>
+      <c r="Q92" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -6829,17 +6829,17 @@
         <v>pi_34,</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L93" s="23">
         <v>0.5</v>
       </c>
-      <c r="O93" s="40"/>
-      <c r="P93" s="41" t="s">
+      <c r="O93" s="39"/>
+      <c r="P93" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="Q93" s="42" t="s">
-        <v>315</v>
+      <c r="Q93" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -6863,17 +6863,17 @@
         <v>pi_36,</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L94" s="23">
         <v>0.05</v>
       </c>
-      <c r="O94" s="58"/>
-      <c r="P94" s="41" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q94" s="42" t="s">
-        <v>315</v>
+      <c r="O94" s="57"/>
+      <c r="P94" s="40" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q94" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -6897,17 +6897,17 @@
         <v>pi_46,</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L95" s="23">
         <v>1E-3</v>
       </c>
-      <c r="O95" s="58"/>
-      <c r="P95" s="41" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q95" s="42" t="s">
-        <v>315</v>
+      <c r="O95" s="57"/>
+      <c r="P95" s="40" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q95" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -6931,26 +6931,26 @@
         <v>pi_56,</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L96" s="23">
         <f>0.0075</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="O96" s="40"/>
-      <c r="P96" s="41" t="s">
-        <v>638</v>
-      </c>
-      <c r="Q96" s="42" t="s">
-        <v>315</v>
+      <c r="O96" s="39"/>
+      <c r="P96" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q96" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="128" x14ac:dyDescent="0.2">
-      <c r="A97" s="56" t="s">
-        <v>607</v>
+      <c r="A97" s="55" t="s">
+        <v>606</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>123</v>
@@ -6966,19 +6966,19 @@
         <v>pi_76,</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L97" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="O97" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="P97" s="41" t="s">
-        <v>635</v>
+        <v>637</v>
+      </c>
+      <c r="P97" s="40" t="s">
+        <v>634</v>
       </c>
       <c r="Q97" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="34" x14ac:dyDescent="0.2">
@@ -7002,24 +7002,24 @@
         <v>pi_67,</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L98" s="23">
         <v>2</v>
       </c>
-      <c r="O98" s="65" t="s">
+      <c r="O98" s="64" t="s">
+        <v>635</v>
+      </c>
+      <c r="P98" s="65" t="s">
         <v>636</v>
       </c>
-      <c r="P98" s="66" t="s">
-        <v>637</v>
-      </c>
-      <c r="Q98" s="42" t="s">
-        <v>315</v>
+      <c r="Q98" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="32" x14ac:dyDescent="0.2">
-      <c r="A99" s="57" t="s">
-        <v>609</v>
+      <c r="A99" s="56" t="s">
+        <v>608</v>
       </c>
       <c r="B99" s="22"/>
       <c r="C99" s="9" t="s">
@@ -7036,17 +7036,17 @@
         <v>pi_86,</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L99" s="23">
         <f>0.0038</f>
         <v>3.8E-3</v>
       </c>
-      <c r="O99" s="40"/>
-      <c r="P99" s="41" t="s">
-        <v>638</v>
-      </c>
-      <c r="Q99" s="42"/>
+      <c r="O99" s="39"/>
+      <c r="P99" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q99" s="41"/>
     </row>
     <row r="100" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
@@ -7071,17 +7071,19 @@
         <v>theta_1,</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L100" s="9">
         <v>1</v>
       </c>
-      <c r="O100" s="40"/>
-      <c r="P100" s="41" t="s">
+      <c r="O100" s="39" t="s">
+        <v>638</v>
+      </c>
+      <c r="P100" s="40" t="s">
         <v>311</v>
       </c>
-      <c r="Q100" s="42" t="s">
-        <v>315</v>
+      <c r="Q100" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="34" x14ac:dyDescent="0.2">
@@ -7107,17 +7109,19 @@
         <v>theta_2,</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L101" s="9">
-        <v>6</v>
-      </c>
-      <c r="O101" s="40"/>
-      <c r="P101" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="39" t="s">
+        <v>638</v>
+      </c>
+      <c r="P101" s="40" t="s">
         <v>311</v>
       </c>
-      <c r="Q101" s="42" t="s">
-        <v>315</v>
+      <c r="Q101" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="34" x14ac:dyDescent="0.2">
@@ -7143,17 +7147,19 @@
         <v>theta_3,</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L102" s="9">
-        <v>10</v>
-      </c>
-      <c r="O102" s="40"/>
-      <c r="P102" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="O102" s="39" t="s">
+        <v>638</v>
+      </c>
+      <c r="P102" s="40" t="s">
         <v>311</v>
       </c>
-      <c r="Q102" s="42" t="s">
-        <v>315</v>
+      <c r="Q102" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="34" x14ac:dyDescent="0.2">
@@ -7179,25 +7185,24 @@
         <v>theta_4,</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="L103" s="37">
-        <f>AVERAGE(L101,L102)/3</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="O103" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="P103" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="L103" s="66">
+        <v>4</v>
+      </c>
+      <c r="O103" s="39" t="s">
+        <v>638</v>
+      </c>
+      <c r="P103" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="Q103" s="42" t="s">
-        <v>315</v>
+      <c r="Q103" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B104" s="9" t="str">
         <f t="shared" ref="B104:B127" si="7">CONCATENATE("Rate of populations moving from HIV compartment ",VLOOKUP(ROUND(G104/10,2),HIV_SET,2)," to ", VLOOKUP(MOD(G104,10),HIV_SET,2), " for gender ", VLOOKUP(H104,G_SET,2), " per year under policy ", VLOOKUP(I104, P_SET,2))</f>
@@ -7224,24 +7229,24 @@
         <v>eta_12,1(1)</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L104" s="11">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="O104" s="43" t="s">
-        <v>341</v>
-      </c>
-      <c r="P104" s="44" t="s">
+      <c r="O104" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="Q104" s="42" t="s">
-        <v>314</v>
+      <c r="P104" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q104" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B105" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7268,24 +7273,24 @@
         <v>eta_12,2(1)</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L105" s="11">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="O105" s="43" t="s">
-        <v>341</v>
-      </c>
-      <c r="P105" s="44" t="s">
+      <c r="O105" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="Q105" s="42" t="s">
-        <v>314</v>
+      <c r="P105" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q105" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B106" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7312,24 +7317,24 @@
         <v>eta_12,1(2)</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L106" s="11">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="O106" s="43" t="s">
-        <v>341</v>
-      </c>
-      <c r="P106" s="44" t="s">
+      <c r="O106" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="Q106" s="42" t="s">
-        <v>314</v>
+      <c r="P106" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q106" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B107" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7356,24 +7361,24 @@
         <v>eta_12,2(2)</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L107" s="11">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="O107" s="43" t="s">
-        <v>341</v>
-      </c>
-      <c r="P107" s="44" t="s">
+      <c r="O107" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="Q107" s="42" t="s">
-        <v>314</v>
+      <c r="P107" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q107" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B108" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7400,24 +7405,24 @@
         <v>eta_12,1(3)</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L108" s="11">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="O108" s="43" t="s">
-        <v>341</v>
-      </c>
-      <c r="P108" s="44" t="s">
+      <c r="O108" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="Q108" s="42" t="s">
-        <v>314</v>
+      <c r="P108" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q108" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B109" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7444,24 +7449,24 @@
         <v>eta_12,2(3)</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L109" s="11">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="O109" s="43" t="s">
-        <v>341</v>
-      </c>
-      <c r="P109" s="44" t="s">
+      <c r="O109" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="Q109" s="42" t="s">
-        <v>314</v>
+      <c r="P109" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q109" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B110" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7488,25 +7493,25 @@
         <v>eta_23,1(1)</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L110" s="11">
         <f>1/(0.25+1.71+1.05+4.71)</f>
         <v>0.1295336787564767</v>
       </c>
-      <c r="O110" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="P110" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q110" s="42" t="s">
-        <v>315</v>
+      <c r="O110" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="P110" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q110" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B111" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7533,24 +7538,24 @@
         <v>eta_23,2(1)</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L111" s="11">
         <v>9.7560975609756101E-2</v>
       </c>
-      <c r="O111" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="P111" s="41" t="s">
+      <c r="O111" s="44" t="s">
         <v>343</v>
       </c>
-      <c r="Q111" s="42" t="s">
-        <v>315</v>
+      <c r="P111" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q111" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B112" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7577,25 +7582,25 @@
         <v>eta_23,1(2)</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L112" s="11">
         <f>1/(0.25+1.71+1.05+4.71)</f>
         <v>0.1295336787564767</v>
       </c>
-      <c r="O112" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="P112" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q112" s="42" t="s">
-        <v>315</v>
+      <c r="O112" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="P112" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q112" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B113" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7622,24 +7627,24 @@
         <v>eta_23,2(2)</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L113" s="11">
         <v>9.7560975609756101E-2</v>
       </c>
-      <c r="O113" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="P113" s="41" t="s">
+      <c r="O113" s="44" t="s">
         <v>343</v>
       </c>
-      <c r="Q113" s="42" t="s">
-        <v>315</v>
+      <c r="P113" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q113" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B114" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7666,25 +7671,25 @@
         <v>eta_23,1(3)</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L114" s="11">
         <f>1/(0.25+1.71+1.05+4.71)</f>
         <v>0.1295336787564767</v>
       </c>
-      <c r="O114" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="P114" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q114" s="42" t="s">
-        <v>315</v>
+      <c r="O114" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="P114" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q114" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B115" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7711,24 +7716,24 @@
         <v>eta_23,2(3)</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L115" s="11">
         <v>9.7560975609756101E-2</v>
       </c>
-      <c r="O115" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="P115" s="41" t="s">
+      <c r="O115" s="44" t="s">
         <v>343</v>
       </c>
-      <c r="Q115" s="42" t="s">
-        <v>315</v>
+      <c r="P115" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q115" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B116" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7755,20 +7760,20 @@
         <v>eta_24,1(1)</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L116" s="11">
         <v>0.4</v>
       </c>
-      <c r="O116" s="45"/>
-      <c r="P116" s="41"/>
-      <c r="Q116" s="42" t="s">
-        <v>314</v>
+      <c r="O116" s="44"/>
+      <c r="P116" s="40"/>
+      <c r="Q116" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B117" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7795,20 +7800,20 @@
         <v>eta_24,2(1)</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L117" s="11">
         <v>0.4</v>
       </c>
-      <c r="O117" s="40"/>
-      <c r="P117" s="41"/>
-      <c r="Q117" s="42" t="s">
-        <v>314</v>
+      <c r="O117" s="39"/>
+      <c r="P117" s="40"/>
+      <c r="Q117" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B118" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7835,25 +7840,25 @@
         <v>eta_24,1(2)</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L118" s="11">
         <f>VLOOKUP("eta_24,1(1)",model_matched_parameters,3, FALSE)*VLOOKUP("eta_2,4(2)",indirect_model_parameters,2,FALSE)</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="O118" s="46" t="s">
-        <v>345</v>
-      </c>
-      <c r="P118" s="41" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q118" s="42" t="s">
-        <v>314</v>
+      <c r="O118" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="P118" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q118" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B119" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7880,21 +7885,21 @@
         <v>eta_24,2(2)</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L119" s="11">
         <f>L118*indirect_model_parameters!$G$6</f>
         <v>0.4840000000000001</v>
       </c>
-      <c r="O119" s="40"/>
-      <c r="P119" s="41"/>
-      <c r="Q119" s="42" t="s">
-        <v>314</v>
+      <c r="O119" s="39"/>
+      <c r="P119" s="40"/>
+      <c r="Q119" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B120" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7921,25 +7926,25 @@
         <v>eta_24,1(3)</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L120" s="11">
         <f>VLOOKUP("eta_24,1(1)",model_matched_parameters,3, FALSE)*VLOOKUP("eta_2,4(2)",indirect_model_parameters,2,FALSE)</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="O120" s="40" t="s">
+      <c r="O120" s="39" t="s">
+        <v>563</v>
+      </c>
+      <c r="P120" s="40" t="s">
         <v>564</v>
       </c>
-      <c r="P120" s="41" t="s">
-        <v>565</v>
-      </c>
-      <c r="Q120" s="42" t="s">
-        <v>314</v>
+      <c r="Q120" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B121" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7966,23 +7971,23 @@
         <v>eta_24,2(3)</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L121" s="11">
         <f>L119*indirect_model_parameters!$G$7</f>
         <v>0.58080000000000009</v>
       </c>
-      <c r="O121" s="40"/>
-      <c r="P121" s="41" t="s">
+      <c r="O121" s="39"/>
+      <c r="P121" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="Q121" s="42" t="s">
-        <v>314</v>
+      <c r="Q121" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B122" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8009,20 +8014,20 @@
         <v>eta_34,1(1)</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="L122" s="60">
+        <v>459</v>
+      </c>
+      <c r="L122" s="59">
         <v>0.4</v>
       </c>
-      <c r="O122" s="40"/>
-      <c r="P122" s="41"/>
-      <c r="Q122" s="42" t="s">
-        <v>314</v>
+      <c r="O122" s="39"/>
+      <c r="P122" s="40"/>
+      <c r="Q122" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B123" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8049,20 +8054,20 @@
         <v>eta_34,2(1)</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L123" s="11">
         <v>0.4</v>
       </c>
-      <c r="O123" s="40"/>
-      <c r="P123" s="41"/>
-      <c r="Q123" s="42" t="s">
-        <v>314</v>
+      <c r="O123" s="39"/>
+      <c r="P123" s="40"/>
+      <c r="Q123" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B124" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8089,23 +8094,23 @@
         <v>eta_34,1(2)</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L124" s="11">
         <f>L123*indirect_model_parameters!$G$6</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="O124" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="P124" s="41"/>
-      <c r="Q124" s="42" t="s">
-        <v>314</v>
+      <c r="O124" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="P124" s="40"/>
+      <c r="Q124" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B125" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8132,21 +8137,21 @@
         <v>eta_34,2(2)</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L125" s="11">
         <f>L124*indirect_model_parameters!$G$6</f>
         <v>0.4840000000000001</v>
       </c>
-      <c r="O125" s="40"/>
-      <c r="P125" s="41"/>
-      <c r="Q125" s="42" t="s">
-        <v>314</v>
+      <c r="O125" s="39"/>
+      <c r="P125" s="40"/>
+      <c r="Q125" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="126" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B126" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8173,25 +8178,25 @@
         <v>eta_34,1(3)</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L126" s="11">
         <f>L124*indirect_model_parameters!$G$7</f>
         <v>0.52800000000000002</v>
       </c>
-      <c r="O126" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="P126" s="41" t="s">
+      <c r="O126" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="P126" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="Q126" s="42" t="s">
-        <v>314</v>
+      <c r="Q126" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B127" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8218,30 +8223,30 @@
         <v>eta_34,2(3)</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L127" s="11">
         <f>L125*indirect_model_parameters!$G$7</f>
         <v>0.58080000000000009</v>
       </c>
-      <c r="O127" s="40"/>
-      <c r="P127" s="41" t="s">
+      <c r="O127" s="39"/>
+      <c r="P127" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="Q127" s="42" t="s">
-        <v>314</v>
+      <c r="Q127" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="128" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B128" s="9" t="str">
         <f t="shared" ref="B128:B159" si="8">CONCATENATE("Rate of entry due to aging into HIV compartment ", VLOOKUP(G128, HIV_SET, 2), " and gender compartment ", VLOOKUP(H128, G_SET, 2), ", per year")</f>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>139</v>
@@ -8263,30 +8268,30 @@
         <v>alpha^in_1,1,1,1</v>
       </c>
       <c r="K128" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="L128" s="39" t="e">
+        <v>474</v>
+      </c>
+      <c r="L128" s="38" t="e">
         <f>VLOOKUP(J128,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O128" s="40"/>
-      <c r="P128" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q128" s="42" t="s">
-        <v>314</v>
+      <c r="O128" s="39"/>
+      <c r="P128" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q128" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="129" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B129" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>139</v>
@@ -8308,30 +8313,30 @@
         <v>alpha^in_1,1,1,2</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="L129" s="39" t="e">
+        <v>475</v>
+      </c>
+      <c r="L129" s="38" t="e">
         <f>VLOOKUP(J129,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O129" s="40"/>
-      <c r="P129" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q129" s="42" t="s">
-        <v>314</v>
+      <c r="O129" s="39"/>
+      <c r="P129" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q129" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="130" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B130" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>139</v>
@@ -8353,30 +8358,30 @@
         <v>alpha^in_3,1,1,1</v>
       </c>
       <c r="K130" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="L130" s="39" t="e">
+        <v>478</v>
+      </c>
+      <c r="L130" s="38" t="e">
         <f>VLOOKUP(J130,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O130" s="40"/>
-      <c r="P130" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q130" s="42" t="s">
-        <v>314</v>
+      <c r="O130" s="39"/>
+      <c r="P130" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q130" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B131" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>139</v>
@@ -8398,30 +8403,30 @@
         <v>alpha^in_3,1,1,2</v>
       </c>
       <c r="K131" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="L131" s="39" t="e">
+        <v>479</v>
+      </c>
+      <c r="L131" s="38" t="e">
         <f>VLOOKUP(J131,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O131" s="40"/>
-      <c r="P131" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q131" s="42" t="s">
-        <v>314</v>
+      <c r="O131" s="39"/>
+      <c r="P131" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q131" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B132" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>139</v>
@@ -8443,30 +8448,30 @@
         <v>alpha^in_4,1,1,1</v>
       </c>
       <c r="K132" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="L132" s="39" t="e">
+        <v>482</v>
+      </c>
+      <c r="L132" s="38" t="e">
         <f>VLOOKUP(J132,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O132" s="40"/>
-      <c r="P132" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q132" s="42" t="s">
-        <v>314</v>
+      <c r="O132" s="39"/>
+      <c r="P132" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q132" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B133" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>139</v>
@@ -8488,30 +8493,30 @@
         <v>alpha^in_4,1,1,2</v>
       </c>
       <c r="K133" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="L133" s="39" t="e">
+        <v>483</v>
+      </c>
+      <c r="L133" s="38" t="e">
         <f>VLOOKUP(J133,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O133" s="40"/>
-      <c r="P133" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q133" s="42" t="s">
-        <v>314</v>
+      <c r="O133" s="39"/>
+      <c r="P133" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q133" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="134" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B134" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>139</v>
@@ -8533,30 +8538,30 @@
         <v>alpha^in_6,1,1,1</v>
       </c>
       <c r="K134" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="L134" s="39" t="e">
+        <v>567</v>
+      </c>
+      <c r="L134" s="38" t="e">
         <f>VLOOKUP(J134,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O134" s="40"/>
-      <c r="P134" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q134" s="42" t="s">
-        <v>314</v>
+      <c r="O134" s="39"/>
+      <c r="P134" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q134" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B135" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>139</v>
@@ -8578,30 +8583,30 @@
         <v>alpha^in_6,1,1,2</v>
       </c>
       <c r="K135" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="L135" s="39" t="e">
+        <v>568</v>
+      </c>
+      <c r="L135" s="38" t="e">
         <f>VLOOKUP(J135,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O135" s="40"/>
-      <c r="P135" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q135" s="42" t="s">
-        <v>314</v>
+      <c r="O135" s="39"/>
+      <c r="P135" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q135" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="136" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B136" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>139</v>
@@ -8623,30 +8628,30 @@
         <v>alpha^in_1,2,1,1</v>
       </c>
       <c r="K136" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="L136" s="39" t="e">
+        <v>486</v>
+      </c>
+      <c r="L136" s="38" t="e">
         <f>VLOOKUP(J136,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O136" s="40"/>
-      <c r="P136" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q136" s="42" t="s">
-        <v>314</v>
+      <c r="O136" s="39"/>
+      <c r="P136" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q136" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="137" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B137" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>139</v>
@@ -8668,30 +8673,30 @@
         <v>alpha^in_1,2,1,2</v>
       </c>
       <c r="K137" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="L137" s="39" t="e">
+        <v>487</v>
+      </c>
+      <c r="L137" s="38" t="e">
         <f>VLOOKUP(J137,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O137" s="40"/>
-      <c r="P137" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q137" s="42" t="s">
-        <v>314</v>
+      <c r="O137" s="39"/>
+      <c r="P137" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q137" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="138" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B138" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>139</v>
@@ -8713,30 +8718,30 @@
         <v>alpha^in_3,2,1,1</v>
       </c>
       <c r="K138" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="L138" s="39" t="e">
+        <v>490</v>
+      </c>
+      <c r="L138" s="38" t="e">
         <f>VLOOKUP(J138,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O138" s="40"/>
-      <c r="P138" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q138" s="42" t="s">
-        <v>314</v>
+      <c r="O138" s="39"/>
+      <c r="P138" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q138" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B139" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>139</v>
@@ -8758,30 +8763,30 @@
         <v>alpha^in_3,2,1,2</v>
       </c>
       <c r="K139" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="L139" s="39" t="e">
+        <v>491</v>
+      </c>
+      <c r="L139" s="38" t="e">
         <f>VLOOKUP(J139,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O139" s="40"/>
-      <c r="P139" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q139" s="42" t="s">
-        <v>314</v>
+      <c r="O139" s="39"/>
+      <c r="P139" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q139" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B140" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>139</v>
@@ -8803,30 +8808,30 @@
         <v>alpha^in_4,2,1,1</v>
       </c>
       <c r="K140" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="L140" s="39" t="e">
+        <v>494</v>
+      </c>
+      <c r="L140" s="38" t="e">
         <f>VLOOKUP(J140,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O140" s="40"/>
-      <c r="P140" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q140" s="42" t="s">
-        <v>314</v>
+      <c r="O140" s="39"/>
+      <c r="P140" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q140" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="141" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B141" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>139</v>
@@ -8848,30 +8853,30 @@
         <v>alpha^in_4,2,1,2</v>
       </c>
       <c r="K141" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="L141" s="39" t="e">
+        <v>495</v>
+      </c>
+      <c r="L141" s="38" t="e">
         <f>VLOOKUP(J141,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O141" s="40"/>
-      <c r="P141" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q141" s="42" t="s">
-        <v>314</v>
+      <c r="O141" s="39"/>
+      <c r="P141" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q141" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="142" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B142" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>139</v>
@@ -8893,30 +8898,30 @@
         <v>alpha^in_6,2,1,1</v>
       </c>
       <c r="K142" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="L142" s="39" t="e">
+        <v>571</v>
+      </c>
+      <c r="L142" s="38" t="e">
         <f>VLOOKUP(J142,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O142" s="40"/>
-      <c r="P142" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q142" s="42" t="s">
-        <v>314</v>
+      <c r="O142" s="39"/>
+      <c r="P142" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q142" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="143" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B143" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>139</v>
@@ -8938,30 +8943,30 @@
         <v>alpha^in_6,2,1,2</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="L143" s="39" t="e">
+        <v>572</v>
+      </c>
+      <c r="L143" s="38" t="e">
         <f>VLOOKUP(J143,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O143" s="40"/>
-      <c r="P143" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q143" s="42" t="s">
-        <v>314</v>
+      <c r="O143" s="39"/>
+      <c r="P143" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q143" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="144" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B144" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>139</v>
@@ -8983,30 +8988,30 @@
         <v>alpha^in_1,1,2,1</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="L144" s="39" t="e">
+        <v>476</v>
+      </c>
+      <c r="L144" s="38" t="e">
         <f>VLOOKUP(J144,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O144" s="40"/>
-      <c r="P144" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q144" s="42" t="s">
-        <v>314</v>
+      <c r="O144" s="39"/>
+      <c r="P144" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q144" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="145" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B145" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>139</v>
@@ -9028,30 +9033,30 @@
         <v>alpha^in_1,1,2,2</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="L145" s="39" t="e">
+        <v>477</v>
+      </c>
+      <c r="L145" s="38" t="e">
         <f>VLOOKUP(J145,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O145" s="40"/>
-      <c r="P145" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q145" s="42" t="s">
-        <v>314</v>
+      <c r="O145" s="39"/>
+      <c r="P145" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q145" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="146" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B146" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>139</v>
@@ -9073,30 +9078,30 @@
         <v>alpha^in_3,1,2,1</v>
       </c>
       <c r="K146" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="L146" s="39" t="e">
+        <v>480</v>
+      </c>
+      <c r="L146" s="38" t="e">
         <f>VLOOKUP(J146,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O146" s="40"/>
-      <c r="P146" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q146" s="42" t="s">
-        <v>314</v>
+      <c r="O146" s="39"/>
+      <c r="P146" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q146" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="147" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B147" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>139</v>
@@ -9118,30 +9123,30 @@
         <v>alpha^in_3,1,2,2</v>
       </c>
       <c r="K147" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="L147" s="39" t="e">
+        <v>481</v>
+      </c>
+      <c r="L147" s="38" t="e">
         <f>VLOOKUP(J147,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O147" s="40"/>
-      <c r="P147" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q147" s="42" t="s">
-        <v>314</v>
+      <c r="O147" s="39"/>
+      <c r="P147" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q147" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="148" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B148" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>139</v>
@@ -9163,30 +9168,30 @@
         <v>alpha^in_4,1,2,1</v>
       </c>
       <c r="K148" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="L148" s="39" t="e">
+        <v>484</v>
+      </c>
+      <c r="L148" s="38" t="e">
         <f>VLOOKUP(J148,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O148" s="40"/>
-      <c r="P148" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q148" s="42" t="s">
-        <v>314</v>
+      <c r="O148" s="39"/>
+      <c r="P148" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q148" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="149" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B149" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>139</v>
@@ -9208,30 +9213,30 @@
         <v>alpha^in_4,1,2,2</v>
       </c>
       <c r="K149" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="L149" s="39" t="e">
+        <v>485</v>
+      </c>
+      <c r="L149" s="38" t="e">
         <f>VLOOKUP(J149,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O149" s="40"/>
-      <c r="P149" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q149" s="42" t="s">
-        <v>314</v>
+      <c r="O149" s="39"/>
+      <c r="P149" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q149" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="150" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B150" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>139</v>
@@ -9253,30 +9258,30 @@
         <v>alpha^in_6,1,2,1</v>
       </c>
       <c r="K150" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="L150" s="39" t="e">
+        <v>569</v>
+      </c>
+      <c r="L150" s="38" t="e">
         <f>VLOOKUP(J150,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O150" s="40"/>
-      <c r="P150" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q150" s="42" t="s">
-        <v>314</v>
+      <c r="O150" s="39"/>
+      <c r="P150" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q150" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="151" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B151" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>139</v>
@@ -9298,30 +9303,30 @@
         <v>alpha^in_6,1,2,2</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="L151" s="39" t="e">
+        <v>570</v>
+      </c>
+      <c r="L151" s="38" t="e">
         <f>VLOOKUP(J151,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O151" s="40"/>
-      <c r="P151" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q151" s="42" t="s">
-        <v>314</v>
+      <c r="O151" s="39"/>
+      <c r="P151" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q151" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="152" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B152" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>139</v>
@@ -9343,30 +9348,30 @@
         <v>alpha^in_1,2,2,1</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="L152" s="39" t="e">
+        <v>488</v>
+      </c>
+      <c r="L152" s="38" t="e">
         <f>VLOOKUP(J152,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O152" s="40"/>
-      <c r="P152" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q152" s="42" t="s">
-        <v>314</v>
+      <c r="O152" s="39"/>
+      <c r="P152" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q152" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="153" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A153" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B153" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>139</v>
@@ -9388,30 +9393,30 @@
         <v>alpha^in_1,2,2,2</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="L153" s="39" t="e">
+        <v>489</v>
+      </c>
+      <c r="L153" s="38" t="e">
         <f>VLOOKUP(J153,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O153" s="40"/>
-      <c r="P153" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q153" s="42" t="s">
-        <v>314</v>
+      <c r="O153" s="39"/>
+      <c r="P153" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q153" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="154" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B154" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D154" s="8" t="s">
         <v>139</v>
@@ -9433,30 +9438,30 @@
         <v>alpha^in_3,2,2,1</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="L154" s="39" t="e">
+        <v>492</v>
+      </c>
+      <c r="L154" s="38" t="e">
         <f>VLOOKUP(J154,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O154" s="40"/>
-      <c r="P154" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q154" s="42" t="s">
-        <v>314</v>
+      <c r="O154" s="39"/>
+      <c r="P154" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q154" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="155" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B155" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>139</v>
@@ -9478,30 +9483,30 @@
         <v>alpha^in_3,2,2,2</v>
       </c>
       <c r="K155" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="L155" s="39" t="e">
+        <v>493</v>
+      </c>
+      <c r="L155" s="38" t="e">
         <f>VLOOKUP(J155,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O155" s="40"/>
-      <c r="P155" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q155" s="42" t="s">
-        <v>314</v>
+      <c r="O155" s="39"/>
+      <c r="P155" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q155" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="156" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B156" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D156" s="8" t="s">
         <v>139</v>
@@ -9523,30 +9528,30 @@
         <v>alpha^in_4,2,2,1</v>
       </c>
       <c r="K156" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="L156" s="39" t="e">
+        <v>496</v>
+      </c>
+      <c r="L156" s="38" t="e">
         <f>VLOOKUP(J156,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O156" s="40"/>
-      <c r="P156" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q156" s="42" t="s">
-        <v>314</v>
+      <c r="O156" s="39"/>
+      <c r="P156" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q156" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="157" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A157" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B157" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>139</v>
@@ -9568,30 +9573,30 @@
         <v>alpha^in_4,2,2,2</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="L157" s="39" t="e">
+        <v>497</v>
+      </c>
+      <c r="L157" s="38" t="e">
         <f>VLOOKUP(J157,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O157" s="40"/>
-      <c r="P157" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q157" s="42" t="s">
-        <v>314</v>
+      <c r="O157" s="39"/>
+      <c r="P157" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q157" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="158" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A158" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B158" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>139</v>
@@ -9613,30 +9618,30 @@
         <v>alpha^in_6,2,2,1</v>
       </c>
       <c r="K158" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="L158" s="39" t="e">
+        <v>573</v>
+      </c>
+      <c r="L158" s="38" t="e">
         <f>VLOOKUP(J158,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O158" s="40"/>
-      <c r="P158" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q158" s="42" t="s">
-        <v>314</v>
+      <c r="O158" s="39"/>
+      <c r="P158" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q158" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="159" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B159" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>139</v>
@@ -9658,18 +9663,18 @@
         <v>alpha^in_6,2,2,2</v>
       </c>
       <c r="K159" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="L159" s="39" t="e">
+        <v>574</v>
+      </c>
+      <c r="L159" s="38" t="e">
         <f>VLOOKUP(J159,#REF!,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="O159" s="40"/>
-      <c r="P159" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q159" s="42" t="s">
-        <v>314</v>
+      <c r="O159" s="39"/>
+      <c r="P159" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q159" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -9700,17 +9705,17 @@
         <v>mu_1,1,1</v>
       </c>
       <c r="K160" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L160" s="11">
         <v>3.3E-3</v>
       </c>
-      <c r="O160" s="40"/>
-      <c r="P160" s="41" t="s">
+      <c r="O160" s="39"/>
+      <c r="P160" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="Q160" s="42" t="s">
-        <v>314</v>
+      <c r="Q160" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="161" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -9741,18 +9746,18 @@
         <v>mu_1,1,2</v>
       </c>
       <c r="K161" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L161" s="11">
         <f>0.0019</f>
         <v>1.9E-3</v>
       </c>
-      <c r="O161" s="40"/>
-      <c r="P161" s="41" t="s">
+      <c r="O161" s="39"/>
+      <c r="P161" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="Q161" s="42" t="s">
-        <v>314</v>
+      <c r="Q161" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="162" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -9783,18 +9788,18 @@
         <v>mu_2,1,1</v>
       </c>
       <c r="K162" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L162" s="11">
         <f>L160</f>
         <v>3.3E-3</v>
       </c>
-      <c r="O162" s="40"/>
-      <c r="P162" s="41" t="s">
+      <c r="O162" s="39"/>
+      <c r="P162" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="Q162" s="42" t="s">
-        <v>314</v>
+      <c r="Q162" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -9825,18 +9830,18 @@
         <v>mu_2,1,2</v>
       </c>
       <c r="K163" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L163" s="11">
         <f>L161</f>
         <v>1.9E-3</v>
       </c>
-      <c r="O163" s="40"/>
-      <c r="P163" s="41" t="s">
+      <c r="O163" s="39"/>
+      <c r="P163" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="Q163" s="42" t="s">
-        <v>314</v>
+      <c r="Q163" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="164" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -9867,18 +9872,18 @@
         <v>mu_3,1,1</v>
       </c>
       <c r="K164" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L164" s="11">
         <f t="shared" ref="L164:L169" si="11">L162</f>
         <v>3.3E-3</v>
       </c>
-      <c r="O164" s="40"/>
-      <c r="P164" s="41" t="s">
+      <c r="O164" s="39"/>
+      <c r="P164" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="Q164" s="42" t="s">
-        <v>314</v>
+      <c r="Q164" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="165" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -9909,18 +9914,18 @@
         <v>mu_3,1,2</v>
       </c>
       <c r="K165" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L165" s="11">
         <f t="shared" si="11"/>
         <v>1.9E-3</v>
       </c>
-      <c r="O165" s="40"/>
-      <c r="P165" s="41" t="s">
+      <c r="O165" s="39"/>
+      <c r="P165" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="Q165" s="42" t="s">
-        <v>314</v>
+      <c r="Q165" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="166" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -9951,18 +9956,18 @@
         <v>mu_4,1,1</v>
       </c>
       <c r="K166" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L166" s="11">
         <f t="shared" si="11"/>
         <v>3.3E-3</v>
       </c>
-      <c r="O166" s="40"/>
-      <c r="P166" s="41" t="s">
+      <c r="O166" s="39"/>
+      <c r="P166" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="Q166" s="42" t="s">
-        <v>314</v>
+      <c r="Q166" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="167" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -9993,18 +9998,18 @@
         <v>mu_4,1,2</v>
       </c>
       <c r="K167" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L167" s="11">
         <f t="shared" si="11"/>
         <v>1.9E-3</v>
       </c>
-      <c r="O167" s="40"/>
-      <c r="P167" s="41" t="s">
+      <c r="O167" s="39"/>
+      <c r="P167" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="Q167" s="42" t="s">
-        <v>314</v>
+      <c r="Q167" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="168" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -10035,18 +10040,18 @@
         <v>mu_5,1,1</v>
       </c>
       <c r="K168" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L168" s="11">
         <f t="shared" si="11"/>
         <v>3.3E-3</v>
       </c>
-      <c r="O168" s="40"/>
-      <c r="P168" s="41" t="s">
+      <c r="O168" s="39"/>
+      <c r="P168" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="Q168" s="42" t="s">
-        <v>314</v>
+      <c r="Q168" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="169" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -10077,18 +10082,18 @@
         <v>mu_5,1,2</v>
       </c>
       <c r="K169" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L169" s="11">
         <f t="shared" si="11"/>
         <v>1.9E-3</v>
       </c>
-      <c r="O169" s="40"/>
-      <c r="P169" s="41" t="s">
+      <c r="O169" s="39"/>
+      <c r="P169" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="Q169" s="42" t="s">
-        <v>314</v>
+      <c r="Q169" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="170" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -10119,18 +10124,18 @@
         <v>mu_6,1,1</v>
       </c>
       <c r="K170" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L170" s="11">
         <f>L160*20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="O170" s="40"/>
-      <c r="P170" s="41" t="s">
+      <c r="O170" s="39"/>
+      <c r="P170" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="Q170" s="42" t="s">
-        <v>314</v>
+      <c r="Q170" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="171" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -10161,18 +10166,18 @@
         <v>mu_6,1,2</v>
       </c>
       <c r="K171" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L171" s="11">
         <f>L161*20</f>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="O171" s="40"/>
-      <c r="P171" s="41" t="s">
+      <c r="O171" s="39"/>
+      <c r="P171" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="Q171" s="42" t="s">
-        <v>314</v>
+      <c r="Q171" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="172" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -10203,18 +10208,18 @@
         <v>mu_7,1,1</v>
       </c>
       <c r="K172" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L172" s="11">
         <f>L160</f>
         <v>3.3E-3</v>
       </c>
-      <c r="O172" s="40"/>
-      <c r="P172" s="41" t="s">
+      <c r="O172" s="39"/>
+      <c r="P172" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="Q172" s="42" t="s">
-        <v>314</v>
+      <c r="Q172" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="173" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -10245,18 +10250,18 @@
         <v>mu_7,1,2</v>
       </c>
       <c r="K173" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L173" s="11">
         <f>L161</f>
         <v>1.9E-3</v>
       </c>
-      <c r="O173" s="40"/>
-      <c r="P173" s="41" t="s">
+      <c r="O173" s="39"/>
+      <c r="P173" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="Q173" s="42" t="s">
-        <v>314</v>
+      <c r="Q173" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="174" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -10287,18 +10292,18 @@
         <v>mu_8,1,1</v>
       </c>
       <c r="K174" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L174" s="11">
         <f>L172</f>
         <v>3.3E-3</v>
       </c>
-      <c r="O174" s="40"/>
-      <c r="P174" s="41" t="s">
+      <c r="O174" s="39"/>
+      <c r="P174" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="Q174" s="42" t="s">
-        <v>314</v>
+      <c r="Q174" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="175" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -10329,18 +10334,18 @@
         <v>mu_8,1,2</v>
       </c>
       <c r="K175" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L175" s="11">
         <f>L173</f>
         <v>1.9E-3</v>
       </c>
-      <c r="O175" s="40"/>
-      <c r="P175" s="41" t="s">
+      <c r="O175" s="39"/>
+      <c r="P175" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="Q175" s="42" t="s">
-        <v>314</v>
+      <c r="Q175" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -10371,18 +10376,18 @@
         <v>mu_1,2,1</v>
       </c>
       <c r="K176" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L176" s="11">
         <f>L174*5</f>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="O176" s="40"/>
-      <c r="P176" s="41" t="s">
+      <c r="O176" s="39"/>
+      <c r="P176" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="Q176" s="42" t="s">
-        <v>314</v>
+      <c r="Q176" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="177" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -10413,18 +10418,18 @@
         <v>mu_1,2,2</v>
       </c>
       <c r="K177" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L177" s="11">
         <f>L175*5</f>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="O177" s="40"/>
-      <c r="P177" s="41" t="s">
+      <c r="O177" s="39"/>
+      <c r="P177" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="Q177" s="42" t="s">
-        <v>314</v>
+      <c r="Q177" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="178" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -10455,18 +10460,18 @@
         <v>mu_2,2,1</v>
       </c>
       <c r="K178" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L178" s="11">
         <f>L170</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="O178" s="40"/>
-      <c r="P178" s="41" t="s">
+      <c r="O178" s="39"/>
+      <c r="P178" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="Q178" s="42" t="s">
-        <v>314</v>
+      <c r="Q178" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="179" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -10497,18 +10502,18 @@
         <v>mu_2,2,2</v>
       </c>
       <c r="K179" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L179" s="11">
         <f>L171</f>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="O179" s="40"/>
-      <c r="P179" s="41" t="s">
+      <c r="O179" s="39"/>
+      <c r="P179" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="Q179" s="42" t="s">
-        <v>314</v>
+      <c r="Q179" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="180" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -10539,18 +10544,18 @@
         <v>mu_3,2,1</v>
       </c>
       <c r="K180" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L180" s="11">
         <f>L164</f>
         <v>3.3E-3</v>
       </c>
-      <c r="O180" s="40"/>
-      <c r="P180" s="41" t="s">
+      <c r="O180" s="39"/>
+      <c r="P180" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="Q180" s="42" t="s">
-        <v>314</v>
+      <c r="Q180" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="181" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -10581,18 +10586,18 @@
         <v>mu_3,2,2</v>
       </c>
       <c r="K181" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L181" s="11">
         <f>L165</f>
         <v>1.9E-3</v>
       </c>
-      <c r="O181" s="40"/>
-      <c r="P181" s="41" t="s">
+      <c r="O181" s="39"/>
+      <c r="P181" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="Q181" s="42" t="s">
-        <v>314</v>
+      <c r="Q181" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="182" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -10623,18 +10628,18 @@
         <v>mu_4,2,1</v>
       </c>
       <c r="K182" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L182" s="11">
         <f>L176</f>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="O182" s="40"/>
-      <c r="P182" s="41" t="s">
+      <c r="O182" s="39"/>
+      <c r="P182" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="Q182" s="42" t="s">
-        <v>314</v>
+      <c r="Q182" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="183" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -10665,18 +10670,18 @@
         <v>mu_4,2,2</v>
       </c>
       <c r="K183" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L183" s="11">
         <f t="shared" ref="L183:L185" si="12">L177</f>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="O183" s="40"/>
-      <c r="P183" s="41" t="s">
+      <c r="O183" s="39"/>
+      <c r="P183" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="Q183" s="42" t="s">
-        <v>314</v>
+      <c r="Q183" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="184" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -10707,18 +10712,18 @@
         <v>mu_5,2,1</v>
       </c>
       <c r="K184" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L184" s="11">
         <f t="shared" si="12"/>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="O184" s="40"/>
-      <c r="P184" s="41" t="s">
+      <c r="O184" s="39"/>
+      <c r="P184" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="Q184" s="42" t="s">
-        <v>314</v>
+      <c r="Q184" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="185" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -10749,18 +10754,18 @@
         <v>mu_5,2,2</v>
       </c>
       <c r="K185" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L185" s="11">
         <f t="shared" si="12"/>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="O185" s="40"/>
-      <c r="P185" s="41" t="s">
+      <c r="O185" s="39"/>
+      <c r="P185" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="Q185" s="42" t="s">
-        <v>314</v>
+      <c r="Q185" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="186" spans="1:17" ht="64" x14ac:dyDescent="0.2">
@@ -10791,20 +10796,20 @@
         <v>mu_6,2,1</v>
       </c>
       <c r="K186" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L186" s="11">
         <f>L176*20</f>
         <v>0.33</v>
       </c>
-      <c r="O186" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="P186" s="41" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q186" s="42" t="s">
-        <v>314</v>
+      <c r="O186" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="P186" s="40" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q186" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="187" spans="1:17" ht="64" x14ac:dyDescent="0.2">
@@ -10835,20 +10840,20 @@
         <v>mu_6,2,2</v>
       </c>
       <c r="K187" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L187" s="11">
         <f>L177*20</f>
         <v>0.19</v>
       </c>
-      <c r="O187" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="P187" s="41" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q187" s="42" t="s">
-        <v>314</v>
+      <c r="O187" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="P187" s="40" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q187" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="188" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -10879,18 +10884,18 @@
         <v>mu_7,2,1</v>
       </c>
       <c r="K188" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L188" s="11" t="e">
         <f>L140</f>
         <v>#REF!</v>
       </c>
-      <c r="O188" s="40"/>
-      <c r="P188" s="41" t="s">
+      <c r="O188" s="39"/>
+      <c r="P188" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="Q188" s="42" t="s">
-        <v>314</v>
+      <c r="Q188" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="189" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -10921,18 +10926,18 @@
         <v>mu_7,2,2</v>
       </c>
       <c r="K189" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L189" s="11" t="e">
         <f>L141</f>
         <v>#REF!</v>
       </c>
-      <c r="O189" s="40"/>
-      <c r="P189" s="41" t="s">
+      <c r="O189" s="39"/>
+      <c r="P189" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="Q189" s="42" t="s">
-        <v>314</v>
+      <c r="Q189" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="190" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -10963,18 +10968,18 @@
         <v>mu_8,2,1</v>
       </c>
       <c r="K190" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L190" s="11" t="e">
         <f>L134</f>
         <v>#REF!</v>
       </c>
-      <c r="O190" s="40"/>
-      <c r="P190" s="41" t="s">
+      <c r="O190" s="39"/>
+      <c r="P190" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="Q190" s="42" t="s">
-        <v>314</v>
+      <c r="Q190" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="191" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11005,18 +11010,18 @@
         <v>mu_8,2,2</v>
       </c>
       <c r="K191" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L191" s="11" t="e">
         <f>L135</f>
         <v>#REF!</v>
       </c>
-      <c r="O191" s="40"/>
-      <c r="P191" s="41" t="s">
+      <c r="O191" s="39"/>
+      <c r="P191" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="Q191" s="42" t="s">
-        <v>314</v>
+      <c r="Q191" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="192" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11047,18 +11052,18 @@
         <v>mu_1,3,1</v>
       </c>
       <c r="K192" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L192" s="11" t="e">
         <f>L188*10</f>
         <v>#REF!</v>
       </c>
-      <c r="O192" s="40"/>
-      <c r="P192" s="41" t="s">
+      <c r="O192" s="39"/>
+      <c r="P192" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="Q192" s="42" t="s">
-        <v>314</v>
+      <c r="Q192" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="193" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11089,18 +11094,18 @@
         <v>mu_1,3,2</v>
       </c>
       <c r="K193" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L193" s="11" t="e">
         <f>L189*10</f>
         <v>#REF!</v>
       </c>
-      <c r="O193" s="40"/>
-      <c r="P193" s="41" t="s">
+      <c r="O193" s="39"/>
+      <c r="P193" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="Q193" s="42" t="s">
-        <v>314</v>
+      <c r="Q193" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="194" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11131,18 +11136,18 @@
         <v>mu_2,3,1</v>
       </c>
       <c r="K194" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L194" s="11">
         <f>L186</f>
         <v>0.33</v>
       </c>
-      <c r="O194" s="40"/>
-      <c r="P194" s="41" t="s">
+      <c r="O194" s="39"/>
+      <c r="P194" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="Q194" s="42" t="s">
-        <v>314</v>
+      <c r="Q194" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="195" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11173,18 +11178,18 @@
         <v>mu_2,3,2</v>
       </c>
       <c r="K195" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L195" s="11">
         <f>L187</f>
         <v>0.19</v>
       </c>
-      <c r="O195" s="40"/>
-      <c r="P195" s="41" t="s">
+      <c r="O195" s="39"/>
+      <c r="P195" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="Q195" s="42" t="s">
-        <v>314</v>
+      <c r="Q195" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="196" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11215,18 +11220,18 @@
         <v>mu_3,3,1</v>
       </c>
       <c r="K196" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L196" s="11">
         <f>L180</f>
         <v>3.3E-3</v>
       </c>
-      <c r="O196" s="40"/>
-      <c r="P196" s="41" t="s">
+      <c r="O196" s="39"/>
+      <c r="P196" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="Q196" s="42" t="s">
-        <v>314</v>
+      <c r="Q196" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="197" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11257,18 +11262,18 @@
         <v>mu_3,3,2</v>
       </c>
       <c r="K197" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L197" s="11">
         <f>L181</f>
         <v>1.9E-3</v>
       </c>
-      <c r="O197" s="40"/>
-      <c r="P197" s="41" t="s">
+      <c r="O197" s="39"/>
+      <c r="P197" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="Q197" s="42" t="s">
-        <v>314</v>
+      <c r="Q197" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="198" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11299,18 +11304,18 @@
         <v>mu_4,3,1</v>
       </c>
       <c r="K198" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L198" s="11">
         <f>L174</f>
         <v>3.3E-3</v>
       </c>
-      <c r="O198" s="40"/>
-      <c r="P198" s="41" t="s">
+      <c r="O198" s="39"/>
+      <c r="P198" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="Q198" s="42" t="s">
-        <v>314</v>
+      <c r="Q198" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="199" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11341,18 +11346,18 @@
         <v>mu_4,3,2</v>
       </c>
       <c r="K199" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L199" s="11">
         <f>L175</f>
         <v>1.9E-3</v>
       </c>
-      <c r="O199" s="40"/>
-      <c r="P199" s="41" t="s">
+      <c r="O199" s="39"/>
+      <c r="P199" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="Q199" s="42" t="s">
-        <v>314</v>
+      <c r="Q199" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="200" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11383,18 +11388,18 @@
         <v>mu_5,3,1</v>
       </c>
       <c r="K200" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L200" s="11">
         <f>L168</f>
         <v>3.3E-3</v>
       </c>
-      <c r="O200" s="40"/>
-      <c r="P200" s="41" t="s">
+      <c r="O200" s="39"/>
+      <c r="P200" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="Q200" s="42" t="s">
-        <v>314</v>
+      <c r="Q200" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="201" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11425,18 +11430,18 @@
         <v>mu_5,3,2</v>
       </c>
       <c r="K201" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L201" s="11">
         <f>L169</f>
         <v>1.9E-3</v>
       </c>
-      <c r="O201" s="40"/>
-      <c r="P201" s="41" t="s">
+      <c r="O201" s="39"/>
+      <c r="P201" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="Q201" s="42" t="s">
-        <v>314</v>
+      <c r="Q201" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="202" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11467,20 +11472,20 @@
         <v>mu_6,3,1</v>
       </c>
       <c r="K202" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L202" s="11" t="e">
         <f>L158*100</f>
         <v>#REF!</v>
       </c>
-      <c r="O202" s="40" t="s">
-        <v>603</v>
-      </c>
-      <c r="P202" s="41" t="s">
-        <v>601</v>
-      </c>
-      <c r="Q202" s="42" t="s">
-        <v>314</v>
+      <c r="O202" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="P202" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q202" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="203" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11511,20 +11516,20 @@
         <v>mu_6,3,2</v>
       </c>
       <c r="K203" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L203" s="11" t="e">
         <f>L159*100</f>
         <v>#REF!</v>
       </c>
-      <c r="O203" s="40" t="s">
-        <v>603</v>
-      </c>
-      <c r="P203" s="41" t="s">
-        <v>601</v>
-      </c>
-      <c r="Q203" s="42" t="s">
-        <v>314</v>
+      <c r="O203" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="P203" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q203" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="204" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11555,18 +11560,18 @@
         <v>mu_7,3,1</v>
       </c>
       <c r="K204" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L204" s="11" t="e">
         <f>L156</f>
         <v>#REF!</v>
       </c>
-      <c r="O204" s="40"/>
-      <c r="P204" s="41" t="s">
+      <c r="O204" s="39"/>
+      <c r="P204" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="Q204" s="42" t="s">
-        <v>314</v>
+      <c r="Q204" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="205" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11597,18 +11602,18 @@
         <v>mu_7,3,2</v>
       </c>
       <c r="K205" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L205" s="11" t="e">
         <f>L157</f>
         <v>#REF!</v>
       </c>
-      <c r="O205" s="40"/>
-      <c r="P205" s="41" t="s">
+      <c r="O205" s="39"/>
+      <c r="P205" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="Q205" s="42" t="s">
-        <v>314</v>
+      <c r="Q205" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="206" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11639,18 +11644,18 @@
         <v>mu_8,3,1</v>
       </c>
       <c r="K206" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L206" s="11" t="e">
         <f>L150</f>
         <v>#REF!</v>
       </c>
-      <c r="O206" s="40"/>
-      <c r="P206" s="41" t="s">
+      <c r="O206" s="39"/>
+      <c r="P206" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="Q206" s="42" t="s">
-        <v>314</v>
+      <c r="Q206" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="207" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11681,18 +11686,18 @@
         <v>mu_8,3,2</v>
       </c>
       <c r="K207" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L207" s="11" t="e">
         <f>L151</f>
         <v>#REF!</v>
       </c>
-      <c r="O207" s="40"/>
-      <c r="P207" s="41" t="s">
+      <c r="O207" s="39"/>
+      <c r="P207" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="Q207" s="42" t="s">
-        <v>314</v>
+      <c r="Q207" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="208" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -11723,18 +11728,18 @@
         <v>mu_1,4,1</v>
       </c>
       <c r="K208" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L208" s="11" t="e">
         <f>L202*1.2</f>
         <v>#REF!</v>
       </c>
-      <c r="O208" s="40"/>
-      <c r="P208" s="41" t="s">
+      <c r="O208" s="39"/>
+      <c r="P208" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="Q208" s="42" t="s">
-        <v>314</v>
+      <c r="Q208" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="209" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -11765,18 +11770,18 @@
         <v>mu_1,4,2</v>
       </c>
       <c r="K209" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L209" s="11" t="e">
         <f>L203*1.2</f>
         <v>#REF!</v>
       </c>
-      <c r="O209" s="40"/>
-      <c r="P209" s="41" t="s">
+      <c r="O209" s="39"/>
+      <c r="P209" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="Q209" s="42" t="s">
-        <v>314</v>
+      <c r="Q209" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="210" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -11807,18 +11812,18 @@
         <v>mu_2,4,1</v>
       </c>
       <c r="K210" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L210" s="11" t="e">
         <f>L202</f>
         <v>#REF!</v>
       </c>
-      <c r="O210" s="40"/>
-      <c r="P210" s="41" t="s">
+      <c r="O210" s="39"/>
+      <c r="P210" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="Q210" s="42" t="s">
-        <v>314</v>
+      <c r="Q210" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="211" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -11849,18 +11854,18 @@
         <v>mu_2,4,2</v>
       </c>
       <c r="K211" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L211" s="11" t="e">
         <f>L203</f>
         <v>#REF!</v>
       </c>
-      <c r="O211" s="40"/>
-      <c r="P211" s="41" t="s">
+      <c r="O211" s="39"/>
+      <c r="P211" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="Q211" s="42" t="s">
-        <v>314</v>
+      <c r="Q211" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="212" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11891,18 +11896,18 @@
         <v>mu_3,4,1</v>
       </c>
       <c r="K212" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L212" s="11">
         <f>L196</f>
         <v>3.3E-3</v>
       </c>
-      <c r="O212" s="40"/>
-      <c r="P212" s="41" t="s">
+      <c r="O212" s="39"/>
+      <c r="P212" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="Q212" s="42" t="s">
-        <v>314</v>
+      <c r="Q212" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="213" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11933,18 +11938,18 @@
         <v>mu_3,4,2</v>
       </c>
       <c r="K213" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L213" s="11">
         <f>L197</f>
         <v>1.9E-3</v>
       </c>
-      <c r="O213" s="40"/>
-      <c r="P213" s="41" t="s">
+      <c r="O213" s="39"/>
+      <c r="P213" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="Q213" s="42" t="s">
-        <v>314</v>
+      <c r="Q213" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="214" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -11975,18 +11980,18 @@
         <v>mu_4,4,1</v>
       </c>
       <c r="K214" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L214" s="11" t="e">
         <f>L190</f>
         <v>#REF!</v>
       </c>
-      <c r="O214" s="40"/>
-      <c r="P214" s="41" t="s">
+      <c r="O214" s="39"/>
+      <c r="P214" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="Q214" s="42" t="s">
-        <v>314</v>
+      <c r="Q214" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="215" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -12017,18 +12022,18 @@
         <v>mu_4,4,2</v>
       </c>
       <c r="K215" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L215" s="11" t="e">
         <f>L191</f>
         <v>#REF!</v>
       </c>
-      <c r="O215" s="40"/>
-      <c r="P215" s="41" t="s">
+      <c r="O215" s="39"/>
+      <c r="P215" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="Q215" s="42" t="s">
-        <v>314</v>
+      <c r="Q215" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="216" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -12059,18 +12064,18 @@
         <v>mu_5,4,1</v>
       </c>
       <c r="K216" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L216" s="11">
         <f>L184</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="O216" s="40"/>
-      <c r="P216" s="41" t="s">
+      <c r="O216" s="39"/>
+      <c r="P216" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="Q216" s="42" t="s">
-        <v>314</v>
+      <c r="Q216" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="217" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -12101,18 +12106,18 @@
         <v>mu_5,4,2</v>
       </c>
       <c r="K217" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L217" s="11">
         <f>L185</f>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="O217" s="40"/>
-      <c r="P217" s="41" t="s">
+      <c r="O217" s="39"/>
+      <c r="P217" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="Q217" s="42" t="s">
-        <v>314</v>
+      <c r="Q217" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="218" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -12143,20 +12148,20 @@
         <v>mu_6,4,1</v>
       </c>
       <c r="K218" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L218" s="11">
         <f>L172*30</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="O218" s="40" t="s">
+      <c r="O218" s="39" t="s">
+        <v>603</v>
+      </c>
+      <c r="P218" s="40" t="s">
         <v>604</v>
       </c>
-      <c r="P218" s="41" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q218" s="42" t="s">
-        <v>314</v>
+      <c r="Q218" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="219" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -12187,20 +12192,20 @@
         <v>mu_6,4,2</v>
       </c>
       <c r="K219" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L219" s="11">
         <f>L173*30</f>
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="O219" s="40" t="s">
+      <c r="O219" s="39" t="s">
+        <v>603</v>
+      </c>
+      <c r="P219" s="40" t="s">
         <v>604</v>
       </c>
-      <c r="P219" s="41" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q219" s="42" t="s">
-        <v>314</v>
+      <c r="Q219" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="220" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -12231,18 +12236,18 @@
         <v>mu_7,4,1</v>
       </c>
       <c r="K220" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L220" s="11">
         <f>L172</f>
         <v>3.3E-3</v>
       </c>
-      <c r="O220" s="40"/>
-      <c r="P220" s="41" t="s">
+      <c r="O220" s="39"/>
+      <c r="P220" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="Q220" s="42" t="s">
-        <v>314</v>
+      <c r="Q220" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="221" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -12273,18 +12278,18 @@
         <v>mu_7,4,2</v>
       </c>
       <c r="K221" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L221" s="11">
         <f>L173</f>
         <v>1.9E-3</v>
       </c>
-      <c r="O221" s="40"/>
-      <c r="P221" s="41" t="s">
+      <c r="O221" s="39"/>
+      <c r="P221" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="Q221" s="42" t="s">
-        <v>314</v>
+      <c r="Q221" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="222" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -12315,18 +12320,18 @@
         <v>mu_8,4,1</v>
       </c>
       <c r="K222" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L222" s="11">
         <f>L166</f>
         <v>3.3E-3</v>
       </c>
-      <c r="O222" s="40"/>
-      <c r="P222" s="41" t="s">
+      <c r="O222" s="39"/>
+      <c r="P222" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="Q222" s="42" t="s">
-        <v>314</v>
+      <c r="Q222" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="223" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -12357,43 +12362,43 @@
         <v>mu_8,4,2</v>
       </c>
       <c r="K223" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L223" s="11">
         <f>L167</f>
         <v>1.9E-3</v>
       </c>
-      <c r="O223" s="40"/>
-      <c r="P223" s="41" t="s">
+      <c r="O223" s="39"/>
+      <c r="P223" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="Q223" s="42" t="s">
-        <v>314</v>
+      <c r="Q223" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="224" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A224" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J224" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K224" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L224" s="11">
         <f>1/(60-15)</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="O224" s="40"/>
-      <c r="P224" s="41" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q224" s="42" t="s">
-        <v>314</v>
+      <c r="O224" s="39"/>
+      <c r="P224" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q224" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -12476,8 +12481,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
-        <v>566</v>
+      <c r="A2" s="46" t="s">
+        <v>565</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -12486,65 +12491,65 @@
       <c r="F2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="37">
         <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
-        <v>578</v>
+      <c r="A3" s="46" t="s">
+        <v>577</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G3" s="19">
         <v>0.9</v>
       </c>
-      <c r="K3" s="41" t="s">
-        <v>582</v>
+      <c r="K3" s="40" t="s">
+        <v>581</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
-        <v>579</v>
+      <c r="A4" s="46" t="s">
+        <v>578</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G4" s="19">
         <v>0.6</v>
       </c>
-      <c r="K4" s="41" t="s">
-        <v>582</v>
+      <c r="K4" s="40" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
-        <v>580</v>
+      <c r="A5" s="46" t="s">
+        <v>579</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G5" s="19">
         <v>0.9</v>
       </c>
-      <c r="K5" s="41" t="s">
-        <v>582</v>
+      <c r="K5" s="40" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12588,11 +12593,11 @@
       <c r="F8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="53">
         <v>0.5</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -12647,7 +12652,7 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="K11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -12669,7 +12674,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="K12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -12691,7 +12696,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="K13" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -12709,7 +12714,7 @@
       <c r="F14" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="54">
         <v>0</v>
       </c>
     </row>
@@ -12728,7 +12733,7 @@
       <c r="F15" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="54">
         <v>0</v>
       </c>
       <c r="K15" t="s">
@@ -12865,7 +12870,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="50" t="s">
         <v>296</v>
       </c>
       <c r="B22" s="32" t="s">
@@ -12889,7 +12894,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="50" t="s">
         <v>297</v>
       </c>
       <c r="B23" s="32" t="s">
@@ -12952,7 +12957,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="50" t="s">
         <v>292</v>
       </c>
       <c r="B26" s="31">
@@ -12973,7 +12978,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="50" t="s">
         <v>293</v>
       </c>
       <c r="B27" s="31">
@@ -12994,8 +12999,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="53" t="s">
-        <v>593</v>
+      <c r="A28" s="52" t="s">
+        <v>592</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -13010,8 +13015,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="53" t="s">
-        <v>594</v>
+      <c r="A29" s="52" t="s">
+        <v>593</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -13026,8 +13031,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="50" t="s">
-        <v>588</v>
+      <c r="A30" s="49" t="s">
+        <v>587</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -13036,19 +13041,19 @@
       <c r="F30" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="G30" s="54">
+      <c r="G30" s="53">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="K30" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="50" t="s">
-        <v>589</v>
+      <c r="A31" s="49" t="s">
+        <v>588</v>
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -13057,13 +13062,13 @@
       <c r="F31" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="G31" s="54">
+      <c r="G31" s="53">
         <v>0.95</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="s">
-        <v>592</v>
+      <c r="A32" s="49" t="s">
+        <v>591</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -13072,16 +13077,16 @@
       <c r="F32" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="G32" s="54">
+      <c r="G32" s="53">
         <v>0.01</v>
       </c>
       <c r="L32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="50" t="s">
-        <v>590</v>
+      <c r="A33" s="49" t="s">
+        <v>589</v>
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -13090,13 +13095,13 @@
       <c r="F33" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="G33" s="54">
+      <c r="G33" s="53">
         <v>0.99</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="50" t="s">
-        <v>591</v>
+      <c r="A34" s="49" t="s">
+        <v>590</v>
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -13105,7 +13110,7 @@
       <c r="F34" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="G34" s="54">
+      <c r="G34" s="53">
         <v>0.01</v>
       </c>
     </row>
@@ -13666,7 +13671,7 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="51" t="s">
         <v>23</v>
       </c>
       <c r="B56" s="18"/>

--- a/param_files/Epi_model_parameters.xlsx
+++ b/param_files/Epi_model_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/github/epi_model_HIV_TB/param_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC86193A-68ED-3E49-8937-AB398AA80125}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83021EA-5363-A345-A1D5-51C8F892AF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model_matched_parameters" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="638">
   <si>
     <t>Epidemiological data point (description)</t>
   </si>
@@ -1927,12 +1927,6 @@
   </si>
   <si>
     <t>upsilon_4,</t>
-  </si>
-  <si>
-    <t>Total time between 6-&gt;7 = 1 year (6 months to initiate treatment, 6 months of treatment), so to double rate .5</t>
-  </si>
-  <si>
-    <t>Assume diagnosed right away</t>
   </si>
   <si>
     <t>https://www.atsjournals.org/doi/pdf/10.1164/rccm.201111-1941OC</t>
@@ -1977,9 +1971,6 @@
     <t>https://journals.lww.com/aidsonline/fulltext/1999/08200/relapse_and_mortality_among_hiv_infected_and.15.aspx?casa_token=vWxO6_8KJzUAAAAA:ZO9CgaeDwvG-EClLVdnyIZJcVy6hs5FXUKMwwttTiELpLxc9Z7Mm25A76myj-SVbN_kQ9sIvz5levVDOFQhBRMSf</t>
   </si>
   <si>
-    <t>Should we include adherence?</t>
-  </si>
-  <si>
     <r>
       <t>Ershova, Julia V., et al. "Evaluation of adherence to national treatment guidelines among tuberculosis patients in three provinces of South Africa." </t>
     </r>
@@ -2008,6 +1999,12 @@
   </si>
   <si>
     <t>Changed to Jenn Ref</t>
+  </si>
+  <si>
+    <t>Total time between 6-&gt;7 = 1.5 year (6 months to initiate treatment, 6 months of treatment), so x1/3</t>
+  </si>
+  <si>
+    <t>Assume 1 year active</t>
   </si>
 </sst>
 </file>
@@ -2786,10 +2783,10 @@
   <dimension ref="A1:Q224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O101" sqref="O101"/>
+      <selection pane="bottomRight" activeCell="O98" sqref="O98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3185,14 +3182,14 @@
         <v>622</v>
       </c>
       <c r="L10" s="9">
-        <f>0.5</f>
-        <v>0.5</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O10" s="61" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="Q10" s="41"/>
     </row>
@@ -3219,13 +3216,14 @@
         <v>623</v>
       </c>
       <c r="L11" s="9">
-        <v>1</v>
+        <f t="shared" ref="L11:L13" si="1">0.5</f>
+        <v>0.5</v>
       </c>
       <c r="O11" s="61" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="P11" s="40" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="Q11" s="41"/>
     </row>
@@ -3252,13 +3250,14 @@
         <v>624</v>
       </c>
       <c r="L12" s="9">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="O12" s="61" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="P12" s="40" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="Q12" s="41"/>
     </row>
@@ -3285,19 +3284,20 @@
         <v>625</v>
       </c>
       <c r="L13" s="9">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="O13" s="39" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="P13" s="40" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="Q13" s="41"/>
     </row>
     <row r="14" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="62" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="8" t="s">
@@ -3312,16 +3312,16 @@
         <v>xi_</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L14" s="23">
         <v>4</v>
       </c>
       <c r="O14" s="63" t="s">
+        <v>629</v>
+      </c>
+      <c r="P14" s="39" t="s">
         <v>631</v>
-      </c>
-      <c r="P14" s="39" t="s">
-        <v>633</v>
       </c>
       <c r="Q14" s="41"/>
     </row>
@@ -3502,7 +3502,7 @@
         <v>93</v>
       </c>
       <c r="B20" s="21" t="str">
-        <f t="shared" ref="B20:B51" si="1">CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E20,TB_SET,2)," and HIV compartment ",VLOOKUP(G20,HIV_SET,2)," for gender ",VLOOKUP(H20,G_SET,2), " under policy ", VLOOKUP(I20, P_SET,2))</f>
+        <f t="shared" ref="B20:B51" si="2">CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E20,TB_SET,2)," and HIV compartment ",VLOOKUP(G20,HIV_SET,2)," for gender ",VLOOKUP(H20,G_SET,2), " under policy ", VLOOKUP(I20, P_SET,2))</f>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -3546,7 +3546,7 @@
         <v>94</v>
       </c>
       <c r="B21" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -3590,7 +3590,7 @@
         <v>101</v>
       </c>
       <c r="B22" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -3634,7 +3634,7 @@
         <v>102</v>
       </c>
       <c r="B23" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -3678,7 +3678,7 @@
         <v>109</v>
       </c>
       <c r="B24" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -3722,7 +3722,7 @@
         <v>110</v>
       </c>
       <c r="B25" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -3766,7 +3766,7 @@
         <v>66</v>
       </c>
       <c r="B26" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative for gender Male under policy Community ART</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -3810,7 +3810,7 @@
         <v>68</v>
       </c>
       <c r="B27" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative for gender Female under policy Community ART</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -3854,7 +3854,7 @@
         <v>76</v>
       </c>
       <c r="B28" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative for gender Male under policy Community ART</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -3898,7 +3898,7 @@
         <v>77</v>
       </c>
       <c r="B29" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative for gender Female under policy Community ART</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -3942,7 +3942,7 @@
         <v>84</v>
       </c>
       <c r="B30" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative for gender Male under policy Community ART</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -3986,7 +3986,7 @@
         <v>86</v>
       </c>
       <c r="B31" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative for gender Female under policy Community ART</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -4030,7 +4030,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -4074,7 +4074,7 @@
         <v>40</v>
       </c>
       <c r="B33" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -4118,7 +4118,7 @@
         <v>49</v>
       </c>
       <c r="B34" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -4162,7 +4162,7 @@
         <v>50</v>
       </c>
       <c r="B35" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -4206,7 +4206,7 @@
         <v>58</v>
       </c>
       <c r="B36" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -4250,7 +4250,7 @@
         <v>59</v>
       </c>
       <c r="B37" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -4294,7 +4294,7 @@
         <v>95</v>
       </c>
       <c r="B38" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -4323,7 +4323,7 @@
         <v>374</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" ref="L38:L49" si="2">0.06*0.06</f>
+        <f t="shared" ref="L38:L49" si="3">0.06*0.06</f>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="O38" s="39" t="s">
@@ -4341,7 +4341,7 @@
         <v>96</v>
       </c>
       <c r="B39" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -4370,7 +4370,7 @@
         <v>377</v>
       </c>
       <c r="L39" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="O39" s="39" t="s">
@@ -4388,7 +4388,7 @@
         <v>103</v>
       </c>
       <c r="B40" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -4417,7 +4417,7 @@
         <v>398</v>
       </c>
       <c r="L40" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="O40" s="39" t="s">
@@ -4435,7 +4435,7 @@
         <v>104</v>
       </c>
       <c r="B41" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -4464,7 +4464,7 @@
         <v>401</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="O41" s="39" t="s">
@@ -4482,7 +4482,7 @@
         <v>111</v>
       </c>
       <c r="B42" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -4511,7 +4511,7 @@
         <v>422</v>
       </c>
       <c r="L42" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="O42" s="39" t="s">
@@ -4529,7 +4529,7 @@
         <v>112</v>
       </c>
       <c r="B43" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -4558,7 +4558,7 @@
         <v>425</v>
       </c>
       <c r="L43" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="O43" s="39" t="s">
@@ -4576,7 +4576,7 @@
         <v>69</v>
       </c>
       <c r="B44" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Community ART</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -4605,7 +4605,7 @@
         <v>375</v>
       </c>
       <c r="L44" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="O44" s="39" t="s">
@@ -4623,7 +4623,7 @@
         <v>71</v>
       </c>
       <c r="B45" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Community ART</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -4652,7 +4652,7 @@
         <v>378</v>
       </c>
       <c r="L45" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="O45" s="39" t="s">
@@ -4670,7 +4670,7 @@
         <v>78</v>
       </c>
       <c r="B46" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Community ART</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -4699,7 +4699,7 @@
         <v>399</v>
       </c>
       <c r="L46" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="O46" s="39" t="s">
@@ -4717,7 +4717,7 @@
         <v>79</v>
       </c>
       <c r="B47" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Community ART</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -4746,7 +4746,7 @@
         <v>402</v>
       </c>
       <c r="L47" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="O47" s="39" t="s">
@@ -4764,7 +4764,7 @@
         <v>87</v>
       </c>
       <c r="B48" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Community ART</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -4793,7 +4793,7 @@
         <v>423</v>
       </c>
       <c r="L48" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="O48" s="39" t="s">
@@ -4811,7 +4811,7 @@
         <v>88</v>
       </c>
       <c r="B49" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Community ART</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -4840,7 +4840,7 @@
         <v>426</v>
       </c>
       <c r="L49" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="O49" s="39" t="s">
@@ -4858,7 +4858,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -4887,7 +4887,7 @@
         <v>376</v>
       </c>
       <c r="L50" s="9">
-        <f t="shared" ref="L50:L55" si="3">0.91*0.75</f>
+        <f t="shared" ref="L50:L55" si="4">0.91*0.75</f>
         <v>0.6825</v>
       </c>
       <c r="O50" s="39" t="s">
@@ -4905,7 +4905,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -4934,7 +4934,7 @@
         <v>379</v>
       </c>
       <c r="L51" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6825</v>
       </c>
       <c r="O51" s="39" t="s">
@@ -4952,7 +4952,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="21" t="str">
-        <f t="shared" ref="B52:B83" si="4">CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E52,TB_SET,2)," and HIV compartment ",VLOOKUP(G52,HIV_SET,2)," for gender ",VLOOKUP(H52,G_SET,2), " under policy ", VLOOKUP(I52, P_SET,2))</f>
+        <f t="shared" ref="B52:B83" si="5">CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E52,TB_SET,2)," and HIV compartment ",VLOOKUP(G52,HIV_SET,2)," for gender ",VLOOKUP(H52,G_SET,2), " under policy ", VLOOKUP(I52, P_SET,2))</f>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -4981,7 +4981,7 @@
         <v>400</v>
       </c>
       <c r="L52" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6825</v>
       </c>
       <c r="O52" s="39" t="s">
@@ -4999,7 +4999,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -5028,7 +5028,7 @@
         <v>403</v>
       </c>
       <c r="L53" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6825</v>
       </c>
       <c r="O53" s="39" t="s">
@@ -5046,7 +5046,7 @@
         <v>60</v>
       </c>
       <c r="B54" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -5075,7 +5075,7 @@
         <v>424</v>
       </c>
       <c r="L54" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6825</v>
       </c>
       <c r="O54" s="39" t="s">
@@ -5093,7 +5093,7 @@
         <v>61</v>
       </c>
       <c r="B55" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C55" s="8" t="s">
@@ -5122,7 +5122,7 @@
         <v>427</v>
       </c>
       <c r="L55" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6825</v>
       </c>
       <c r="O55" s="39" t="s">
@@ -5140,7 +5140,7 @@
         <v>97</v>
       </c>
       <c r="B56" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -5185,7 +5185,7 @@
         <v>98</v>
       </c>
       <c r="B57" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -5230,7 +5230,7 @@
         <v>105</v>
       </c>
       <c r="B58" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -5275,7 +5275,7 @@
         <v>106</v>
       </c>
       <c r="B59" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -5320,7 +5320,7 @@
         <v>113</v>
       </c>
       <c r="B60" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -5366,7 +5366,7 @@
         <v>114</v>
       </c>
       <c r="B61" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -5412,7 +5412,7 @@
         <v>72</v>
       </c>
       <c r="B62" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Community ART</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -5459,7 +5459,7 @@
         <v>73</v>
       </c>
       <c r="B63" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Community ART</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -5506,7 +5506,7 @@
         <v>80</v>
       </c>
       <c r="B64" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Community ART</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -5551,7 +5551,7 @@
         <v>81</v>
       </c>
       <c r="B65" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Community ART</v>
       </c>
       <c r="C65" s="8" t="s">
@@ -5596,7 +5596,7 @@
         <v>89</v>
       </c>
       <c r="B66" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Community ART</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -5642,7 +5642,7 @@
         <v>90</v>
       </c>
       <c r="B67" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Community ART</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -5688,7 +5688,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -5734,7 +5734,7 @@
         <v>46</v>
       </c>
       <c r="B69" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -5780,7 +5780,7 @@
         <v>54</v>
       </c>
       <c r="B70" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -5802,7 +5802,7 @@
         <v>3</v>
       </c>
       <c r="J70" s="9" t="str">
-        <f t="shared" ref="J70:J133" si="5">CONCATENATE(C70, "_", E70, IF(E70&lt;&gt;"",",",""), F70, IF(F70&lt;&gt;"",",",""),  G70, IF(G70&lt;&gt;"",",",""),  H70, IF(I70&lt;&gt;"","(",""), I70, IF(I70&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J70:J133" si="6">CONCATENATE(C70, "_", E70, IF(E70&lt;&gt;"",",",""), F70, IF(F70&lt;&gt;"",",",""),  G70, IF(G70&lt;&gt;"",",",""),  H70, IF(I70&lt;&gt;"","(",""), I70, IF(I70&lt;&gt;"",")",""))</f>
         <v>kappa_3,3,1(3)</v>
       </c>
       <c r="K70" s="9" t="s">
@@ -5826,7 +5826,7 @@
         <v>55</v>
       </c>
       <c r="B71" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C71" s="8" t="s">
@@ -5848,7 +5848,7 @@
         <v>3</v>
       </c>
       <c r="J71" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_3,3,2(3)</v>
       </c>
       <c r="K71" s="9" t="s">
@@ -5872,7 +5872,7 @@
         <v>62</v>
       </c>
       <c r="B72" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -5894,7 +5894,7 @@
         <v>3</v>
       </c>
       <c r="J72" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_4,3,1(3)</v>
       </c>
       <c r="K72" s="9" t="s">
@@ -5918,7 +5918,7 @@
         <v>63</v>
       </c>
       <c r="B73" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -5940,7 +5940,7 @@
         <v>3</v>
       </c>
       <c r="J73" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_4,3,2(3)</v>
       </c>
       <c r="K73" s="9" t="s">
@@ -5964,7 +5964,7 @@
         <v>99</v>
       </c>
       <c r="B74" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C74" s="8" t="s">
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_1,4,1(1)</v>
       </c>
       <c r="K74" s="9" t="s">
@@ -6008,7 +6008,7 @@
         <v>100</v>
       </c>
       <c r="B75" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C75" s="8" t="s">
@@ -6030,7 +6030,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_1,4,2(1)</v>
       </c>
       <c r="K75" s="9" t="s">
@@ -6052,7 +6052,7 @@
         <v>107</v>
       </c>
       <c r="B76" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_3,4,1(1)</v>
       </c>
       <c r="K76" s="9" t="s">
@@ -6096,7 +6096,7 @@
         <v>108</v>
       </c>
       <c r="B77" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C77" s="8" t="s">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_3,4,2(1)</v>
       </c>
       <c r="K77" s="9" t="s">
@@ -6140,7 +6140,7 @@
         <v>115</v>
       </c>
       <c r="B78" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C78" s="8" t="s">
@@ -6162,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="J78" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_4,4,1(1)</v>
       </c>
       <c r="K78" s="9" t="s">
@@ -6186,7 +6186,7 @@
         <v>116</v>
       </c>
       <c r="B79" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C79" s="8" t="s">
@@ -6208,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_4,4,2(1)</v>
       </c>
       <c r="K79" s="9" t="s">
@@ -6232,7 +6232,7 @@
         <v>74</v>
       </c>
       <c r="B80" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART for gender Male under policy Community ART</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -6254,7 +6254,7 @@
         <v>2</v>
       </c>
       <c r="J80" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_1,4,1(2)</v>
       </c>
       <c r="K80" s="9" t="s">
@@ -6278,7 +6278,7 @@
         <v>75</v>
       </c>
       <c r="B81" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART for gender Female under policy Community ART</v>
       </c>
       <c r="C81" s="8" t="s">
@@ -6300,7 +6300,7 @@
         <v>2</v>
       </c>
       <c r="J81" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_1,4,2(2)</v>
       </c>
       <c r="K81" s="9" t="s">
@@ -6324,7 +6324,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART for gender Male under policy Community ART</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -6346,7 +6346,7 @@
         <v>2</v>
       </c>
       <c r="J82" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_3,4,1(2)</v>
       </c>
       <c r="K82" s="9" t="s">
@@ -6370,7 +6370,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART for gender Female under policy Community ART</v>
       </c>
       <c r="C83" s="8" t="s">
@@ -6392,7 +6392,7 @@
         <v>2</v>
       </c>
       <c r="J83" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_3,4,2(2)</v>
       </c>
       <c r="K83" s="9" t="s">
@@ -6416,7 +6416,7 @@
         <v>91</v>
       </c>
       <c r="B84" s="21" t="str">
-        <f t="shared" ref="B84:B91" si="6">CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E84,TB_SET,2)," and HIV compartment ",VLOOKUP(G84,HIV_SET,2)," for gender ",VLOOKUP(H84,G_SET,2), " under policy ", VLOOKUP(I84, P_SET,2))</f>
+        <f t="shared" ref="B84:B91" si="7">CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E84,TB_SET,2)," and HIV compartment ",VLOOKUP(G84,HIV_SET,2)," for gender ",VLOOKUP(H84,G_SET,2), " under policy ", VLOOKUP(I84, P_SET,2))</f>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART for gender Male under policy Community ART</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -6438,7 +6438,7 @@
         <v>2</v>
       </c>
       <c r="J84" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_4,4,1(2)</v>
       </c>
       <c r="K84" s="9" t="s">
@@ -6462,7 +6462,7 @@
         <v>92</v>
       </c>
       <c r="B85" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART for gender Female under policy Community ART</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -6484,7 +6484,7 @@
         <v>2</v>
       </c>
       <c r="J85" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_4,4,2(2)</v>
       </c>
       <c r="K85" s="9" t="s">
@@ -6508,7 +6508,7 @@
         <v>47</v>
       </c>
       <c r="B86" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C86" s="8" t="s">
@@ -6530,7 +6530,7 @@
         <v>3</v>
       </c>
       <c r="J86" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_1,4,1(3)</v>
       </c>
       <c r="K86" s="9" t="s">
@@ -6554,7 +6554,7 @@
         <v>48</v>
       </c>
       <c r="B87" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C87" s="8" t="s">
@@ -6576,7 +6576,7 @@
         <v>3</v>
       </c>
       <c r="J87" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_1,4,2(3)</v>
       </c>
       <c r="K87" s="9" t="s">
@@ -6600,7 +6600,7 @@
         <v>56</v>
       </c>
       <c r="B88" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C88" s="8" t="s">
@@ -6622,7 +6622,7 @@
         <v>3</v>
       </c>
       <c r="J88" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_3,4,1(3)</v>
       </c>
       <c r="K88" s="9" t="s">
@@ -6646,7 +6646,7 @@
         <v>57</v>
       </c>
       <c r="B89" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -6668,7 +6668,7 @@
         <v>3</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_3,4,2(3)</v>
       </c>
       <c r="K89" s="9" t="s">
@@ -6692,7 +6692,7 @@
         <v>64</v>
       </c>
       <c r="B90" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C90" s="8" t="s">
@@ -6714,7 +6714,7 @@
         <v>3</v>
       </c>
       <c r="J90" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_4,4,1(3)</v>
       </c>
       <c r="K90" s="9" t="s">
@@ -6738,7 +6738,7 @@
         <v>65</v>
       </c>
       <c r="B91" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C91" s="8" t="s">
@@ -6760,7 +6760,7 @@
         <v>3</v>
       </c>
       <c r="J91" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>kappa_4,4,2(3)</v>
       </c>
       <c r="K91" s="9" t="s">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="E92" s="8"/>
       <c r="J92" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>omega_</v>
       </c>
       <c r="K92" s="9" t="s">
@@ -6825,7 +6825,7 @@
         <v>34</v>
       </c>
       <c r="J93" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>pi_34,</v>
       </c>
       <c r="K93" s="9" t="s">
@@ -6859,7 +6859,7 @@
         <v>36</v>
       </c>
       <c r="J94" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>pi_36,</v>
       </c>
       <c r="K94" s="9" t="s">
@@ -6893,7 +6893,7 @@
         <v>46</v>
       </c>
       <c r="J95" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>pi_46,</v>
       </c>
       <c r="K95" s="9" t="s">
@@ -6927,7 +6927,7 @@
         <v>56</v>
       </c>
       <c r="J96" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>pi_56,</v>
       </c>
       <c r="K96" s="9" t="s">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="O96" s="39"/>
       <c r="P96" s="40" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="Q96" s="41" t="s">
         <v>314</v>
@@ -6962,7 +6962,7 @@
         <v>76</v>
       </c>
       <c r="J97" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>pi_76,</v>
       </c>
       <c r="K97" s="9" t="s">
@@ -6972,16 +6972,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="O97" s="9" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="P97" s="40" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="Q97" s="10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="22" t="s">
         <v>235</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>67</v>
       </c>
       <c r="J98" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>pi_67,</v>
       </c>
       <c r="K98" s="9" t="s">
@@ -7007,11 +7007,9 @@
       <c r="L98" s="23">
         <v>2</v>
       </c>
-      <c r="O98" s="64" t="s">
-        <v>635</v>
-      </c>
+      <c r="O98" s="64"/>
       <c r="P98" s="65" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="Q98" s="41" t="s">
         <v>314</v>
@@ -7032,7 +7030,7 @@
         <v>86</v>
       </c>
       <c r="J99" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>pi_86,</v>
       </c>
       <c r="K99" s="9" t="s">
@@ -7044,7 +7042,7 @@
       </c>
       <c r="O99" s="39"/>
       <c r="P99" s="40" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="Q99" s="41"/>
     </row>
@@ -7067,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="J100" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>theta_1,</v>
       </c>
       <c r="K100" s="9" t="s">
@@ -7077,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="O100" s="39" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="P100" s="40" t="s">
         <v>311</v>
@@ -7105,7 +7103,7 @@
         <v>2</v>
       </c>
       <c r="J101" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>theta_2,</v>
       </c>
       <c r="K101" s="9" t="s">
@@ -7115,7 +7113,7 @@
         <v>8</v>
       </c>
       <c r="O101" s="39" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="P101" s="40" t="s">
         <v>311</v>
@@ -7143,7 +7141,7 @@
         <v>3</v>
       </c>
       <c r="J102" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>theta_3,</v>
       </c>
       <c r="K102" s="9" t="s">
@@ -7153,7 +7151,7 @@
         <v>15</v>
       </c>
       <c r="O102" s="39" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="P102" s="40" t="s">
         <v>311</v>
@@ -7181,7 +7179,7 @@
         <v>4</v>
       </c>
       <c r="J103" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>theta_4,</v>
       </c>
       <c r="K103" s="9" t="s">
@@ -7191,7 +7189,7 @@
         <v>4</v>
       </c>
       <c r="O103" s="39" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="P103" s="40" t="s">
         <v>29</v>
@@ -7205,7 +7203,7 @@
         <v>315</v>
       </c>
       <c r="B104" s="9" t="str">
-        <f t="shared" ref="B104:B127" si="7">CONCATENATE("Rate of populations moving from HIV compartment ",VLOOKUP(ROUND(G104/10,2),HIV_SET,2)," to ", VLOOKUP(MOD(G104,10),HIV_SET,2), " for gender ", VLOOKUP(H104,G_SET,2), " per year under policy ", VLOOKUP(I104, P_SET,2))</f>
+        <f t="shared" ref="B104:B127" si="8">CONCATENATE("Rate of populations moving from HIV compartment ",VLOOKUP(ROUND(G104/10,2),HIV_SET,2)," to ", VLOOKUP(MOD(G104,10),HIV_SET,2), " for gender ", VLOOKUP(H104,G_SET,2), " per year under policy ", VLOOKUP(I104, P_SET,2))</f>
         <v>Rate of populations moving from HIV compartment  HIV-negative to  PLHIV not on ART, CD4&gt;200 for gender Male per year under policy Standard (baseline)</v>
       </c>
       <c r="C104" s="8" t="s">
@@ -7225,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="J104" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_12,1(1)</v>
       </c>
       <c r="K104" s="9" t="s">
@@ -7249,7 +7247,7 @@
         <v>327</v>
       </c>
       <c r="B105" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  HIV-negative to  PLHIV not on ART, CD4&gt;200 for gender Female per year under policy Standard (baseline)</v>
       </c>
       <c r="C105" s="8" t="s">
@@ -7269,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_12,2(1)</v>
       </c>
       <c r="K105" s="9" t="s">
@@ -7293,7 +7291,7 @@
         <v>316</v>
       </c>
       <c r="B106" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  HIV-negative to  PLHIV not on ART, CD4&gt;200 for gender Male per year under policy Community ART</v>
       </c>
       <c r="C106" s="8" t="s">
@@ -7313,7 +7311,7 @@
         <v>2</v>
       </c>
       <c r="J106" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_12,1(2)</v>
       </c>
       <c r="K106" s="9" t="s">
@@ -7337,7 +7335,7 @@
         <v>328</v>
       </c>
       <c r="B107" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  HIV-negative to  PLHIV not on ART, CD4&gt;200 for gender Female per year under policy Community ART</v>
       </c>
       <c r="C107" s="8" t="s">
@@ -7357,7 +7355,7 @@
         <v>2</v>
       </c>
       <c r="J107" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_12,2(2)</v>
       </c>
       <c r="K107" s="9" t="s">
@@ -7381,7 +7379,7 @@
         <v>317</v>
       </c>
       <c r="B108" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  HIV-negative to  PLHIV not on ART, CD4&gt;200 for gender Male per year under policy Community ART + IPT</v>
       </c>
       <c r="C108" s="8" t="s">
@@ -7401,7 +7399,7 @@
         <v>3</v>
       </c>
       <c r="J108" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_12,1(3)</v>
       </c>
       <c r="K108" s="9" t="s">
@@ -7425,7 +7423,7 @@
         <v>329</v>
       </c>
       <c r="B109" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  HIV-negative to  PLHIV not on ART, CD4&gt;200 for gender Female per year under policy Community ART + IPT</v>
       </c>
       <c r="C109" s="8" t="s">
@@ -7445,7 +7443,7 @@
         <v>3</v>
       </c>
       <c r="J109" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_12,2(3)</v>
       </c>
       <c r="K109" s="9" t="s">
@@ -7469,7 +7467,7 @@
         <v>318</v>
       </c>
       <c r="B110" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV not on ART, CD4≤200 for gender Male per year under policy Standard (baseline)</v>
       </c>
       <c r="C110" s="8" t="s">
@@ -7489,7 +7487,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_23,1(1)</v>
       </c>
       <c r="K110" s="9" t="s">
@@ -7514,7 +7512,7 @@
         <v>330</v>
       </c>
       <c r="B111" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV not on ART, CD4≤200 for gender Female per year under policy Standard (baseline)</v>
       </c>
       <c r="C111" s="8" t="s">
@@ -7534,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_23,2(1)</v>
       </c>
       <c r="K111" s="9" t="s">
@@ -7558,7 +7556,7 @@
         <v>319</v>
       </c>
       <c r="B112" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV not on ART, CD4≤200 for gender Male per year under policy Community ART</v>
       </c>
       <c r="C112" s="8" t="s">
@@ -7578,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="J112" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_23,1(2)</v>
       </c>
       <c r="K112" s="9" t="s">
@@ -7603,7 +7601,7 @@
         <v>331</v>
       </c>
       <c r="B113" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV not on ART, CD4≤200 for gender Female per year under policy Community ART</v>
       </c>
       <c r="C113" s="8" t="s">
@@ -7623,7 +7621,7 @@
         <v>2</v>
       </c>
       <c r="J113" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_23,2(2)</v>
       </c>
       <c r="K113" s="9" t="s">
@@ -7647,7 +7645,7 @@
         <v>320</v>
       </c>
       <c r="B114" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV not on ART, CD4≤200 for gender Male per year under policy Community ART + IPT</v>
       </c>
       <c r="C114" s="8" t="s">
@@ -7667,7 +7665,7 @@
         <v>3</v>
       </c>
       <c r="J114" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_23,1(3)</v>
       </c>
       <c r="K114" s="9" t="s">
@@ -7692,7 +7690,7 @@
         <v>332</v>
       </c>
       <c r="B115" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV not on ART, CD4≤200 for gender Female per year under policy Community ART + IPT</v>
       </c>
       <c r="C115" s="8" t="s">
@@ -7712,7 +7710,7 @@
         <v>3</v>
       </c>
       <c r="J115" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_23,2(3)</v>
       </c>
       <c r="K115" s="9" t="s">
@@ -7736,7 +7734,7 @@
         <v>321</v>
       </c>
       <c r="B116" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV and on ART for gender Male per year under policy Standard (baseline)</v>
       </c>
       <c r="C116" s="8" t="s">
@@ -7756,7 +7754,7 @@
         <v>1</v>
       </c>
       <c r="J116" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_24,1(1)</v>
       </c>
       <c r="K116" s="9" t="s">
@@ -7776,7 +7774,7 @@
         <v>333</v>
       </c>
       <c r="B117" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV and on ART for gender Female per year under policy Standard (baseline)</v>
       </c>
       <c r="C117" s="8" t="s">
@@ -7796,7 +7794,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_24,2(1)</v>
       </c>
       <c r="K117" s="9" t="s">
@@ -7816,7 +7814,7 @@
         <v>322</v>
       </c>
       <c r="B118" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV and on ART for gender Male per year under policy Community ART</v>
       </c>
       <c r="C118" s="8" t="s">
@@ -7836,7 +7834,7 @@
         <v>2</v>
       </c>
       <c r="J118" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_24,1(2)</v>
       </c>
       <c r="K118" s="9" t="s">
@@ -7861,7 +7859,7 @@
         <v>334</v>
       </c>
       <c r="B119" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV and on ART for gender Female per year under policy Community ART</v>
       </c>
       <c r="C119" s="8" t="s">
@@ -7881,7 +7879,7 @@
         <v>2</v>
       </c>
       <c r="J119" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_24,2(2)</v>
       </c>
       <c r="K119" s="9" t="s">
@@ -7902,7 +7900,7 @@
         <v>323</v>
       </c>
       <c r="B120" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV and on ART for gender Male per year under policy Community ART + IPT</v>
       </c>
       <c r="C120" s="8" t="s">
@@ -7922,7 +7920,7 @@
         <v>3</v>
       </c>
       <c r="J120" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_24,1(3)</v>
       </c>
       <c r="K120" s="9" t="s">
@@ -7947,7 +7945,7 @@
         <v>335</v>
       </c>
       <c r="B121" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4&gt;200 to  PLHIV and on ART for gender Female per year under policy Community ART + IPT</v>
       </c>
       <c r="C121" s="8" t="s">
@@ -7967,7 +7965,7 @@
         <v>3</v>
       </c>
       <c r="J121" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_24,2(3)</v>
       </c>
       <c r="K121" s="9" t="s">
@@ -7990,7 +7988,7 @@
         <v>324</v>
       </c>
       <c r="B122" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4≤200 to  PLHIV and on ART for gender Male per year under policy Standard (baseline)</v>
       </c>
       <c r="C122" s="8" t="s">
@@ -8010,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="J122" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_34,1(1)</v>
       </c>
       <c r="K122" s="9" t="s">
@@ -8030,7 +8028,7 @@
         <v>336</v>
       </c>
       <c r="B123" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4≤200 to  PLHIV and on ART for gender Female per year under policy Standard (baseline)</v>
       </c>
       <c r="C123" s="8" t="s">
@@ -8050,7 +8048,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_34,2(1)</v>
       </c>
       <c r="K123" s="9" t="s">
@@ -8070,7 +8068,7 @@
         <v>325</v>
       </c>
       <c r="B124" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4≤200 to  PLHIV and on ART for gender Male per year under policy Community ART</v>
       </c>
       <c r="C124" s="8" t="s">
@@ -8090,7 +8088,7 @@
         <v>2</v>
       </c>
       <c r="J124" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_34,1(2)</v>
       </c>
       <c r="K124" s="9" t="s">
@@ -8113,7 +8111,7 @@
         <v>337</v>
       </c>
       <c r="B125" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4≤200 to  PLHIV and on ART for gender Female per year under policy Community ART</v>
       </c>
       <c r="C125" s="8" t="s">
@@ -8133,7 +8131,7 @@
         <v>2</v>
       </c>
       <c r="J125" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_34,2(2)</v>
       </c>
       <c r="K125" s="9" t="s">
@@ -8154,7 +8152,7 @@
         <v>326</v>
       </c>
       <c r="B126" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4≤200 to  PLHIV and on ART for gender Male per year under policy Community ART + IPT</v>
       </c>
       <c r="C126" s="8" t="s">
@@ -8174,7 +8172,7 @@
         <v>3</v>
       </c>
       <c r="J126" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_34,1(3)</v>
       </c>
       <c r="K126" s="9" t="s">
@@ -8199,7 +8197,7 @@
         <v>338</v>
       </c>
       <c r="B127" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Rate of populations moving from HIV compartment  PLHIV not on ART, CD4≤200 to  PLHIV and on ART for gender Female per year under policy Community ART + IPT</v>
       </c>
       <c r="C127" s="8" t="s">
@@ -8219,7 +8217,7 @@
         <v>3</v>
       </c>
       <c r="J127" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>eta_34,2(3)</v>
       </c>
       <c r="K127" s="9" t="s">
@@ -8242,7 +8240,7 @@
         <v>346</v>
       </c>
       <c r="B128" s="9" t="str">
-        <f t="shared" ref="B128:B159" si="8">CONCATENATE("Rate of entry due to aging into HIV compartment ", VLOOKUP(G128, HIV_SET, 2), " and gender compartment ", VLOOKUP(H128, G_SET, 2), ", per year")</f>
+        <f t="shared" ref="B128:B159" si="9">CONCATENATE("Rate of entry due to aging into HIV compartment ", VLOOKUP(G128, HIV_SET, 2), " and gender compartment ", VLOOKUP(H128, G_SET, 2), ", per year")</f>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C128" s="8" t="s">
@@ -8264,7 +8262,7 @@
         <v>1</v>
       </c>
       <c r="J128" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alpha^in_1,1,1,1</v>
       </c>
       <c r="K128" s="9" t="s">
@@ -8287,7 +8285,7 @@
         <v>347</v>
       </c>
       <c r="B129" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C129" s="8" t="s">
@@ -8309,7 +8307,7 @@
         <v>2</v>
       </c>
       <c r="J129" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alpha^in_1,1,1,2</v>
       </c>
       <c r="K129" s="9" t="s">
@@ -8332,7 +8330,7 @@
         <v>346</v>
       </c>
       <c r="B130" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C130" s="8" t="s">
@@ -8354,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alpha^in_3,1,1,1</v>
       </c>
       <c r="K130" s="9" t="s">
@@ -8377,7 +8375,7 @@
         <v>347</v>
       </c>
       <c r="B131" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C131" s="8" t="s">
@@ -8399,7 +8397,7 @@
         <v>2</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alpha^in_3,1,1,2</v>
       </c>
       <c r="K131" s="9" t="s">
@@ -8422,7 +8420,7 @@
         <v>346</v>
       </c>
       <c r="B132" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C132" s="8" t="s">
@@ -8444,7 +8442,7 @@
         <v>1</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alpha^in_4,1,1,1</v>
       </c>
       <c r="K132" s="9" t="s">
@@ -8467,7 +8465,7 @@
         <v>347</v>
       </c>
       <c r="B133" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C133" s="8" t="s">
@@ -8489,7 +8487,7 @@
         <v>2</v>
       </c>
       <c r="J133" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alpha^in_4,1,1,2</v>
       </c>
       <c r="K133" s="9" t="s">
@@ -8512,7 +8510,7 @@
         <v>346</v>
       </c>
       <c r="B134" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C134" s="8" t="s">
@@ -8534,7 +8532,7 @@
         <v>1</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f t="shared" ref="J134:J197" si="9">CONCATENATE(C134, "_", E134, IF(E134&lt;&gt;"",",",""), F134, IF(F134&lt;&gt;"",",",""),  G134, IF(G134&lt;&gt;"",",",""),  H134, IF(I134&lt;&gt;"","(",""), I134, IF(I134&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J134:J197" si="10">CONCATENATE(C134, "_", E134, IF(E134&lt;&gt;"",",",""), F134, IF(F134&lt;&gt;"",",",""),  G134, IF(G134&lt;&gt;"",",",""),  H134, IF(I134&lt;&gt;"","(",""), I134, IF(I134&lt;&gt;"",")",""))</f>
         <v>alpha^in_6,1,1,1</v>
       </c>
       <c r="K134" s="9" t="s">
@@ -8557,7 +8555,7 @@
         <v>347</v>
       </c>
       <c r="B135" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C135" s="8" t="s">
@@ -8579,7 +8577,7 @@
         <v>2</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_6,1,1,2</v>
       </c>
       <c r="K135" s="9" t="s">
@@ -8602,7 +8600,7 @@
         <v>346</v>
       </c>
       <c r="B136" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C136" s="8" t="s">
@@ -8624,7 +8622,7 @@
         <v>1</v>
       </c>
       <c r="J136" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_1,2,1,1</v>
       </c>
       <c r="K136" s="9" t="s">
@@ -8647,7 +8645,7 @@
         <v>347</v>
       </c>
       <c r="B137" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C137" s="8" t="s">
@@ -8669,7 +8667,7 @@
         <v>2</v>
       </c>
       <c r="J137" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_1,2,1,2</v>
       </c>
       <c r="K137" s="9" t="s">
@@ -8692,7 +8690,7 @@
         <v>346</v>
       </c>
       <c r="B138" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C138" s="8" t="s">
@@ -8714,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="J138" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_3,2,1,1</v>
       </c>
       <c r="K138" s="9" t="s">
@@ -8737,7 +8735,7 @@
         <v>347</v>
       </c>
       <c r="B139" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C139" s="8" t="s">
@@ -8759,7 +8757,7 @@
         <v>2</v>
       </c>
       <c r="J139" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_3,2,1,2</v>
       </c>
       <c r="K139" s="9" t="s">
@@ -8782,7 +8780,7 @@
         <v>346</v>
       </c>
       <c r="B140" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C140" s="8" t="s">
@@ -8804,7 +8802,7 @@
         <v>1</v>
       </c>
       <c r="J140" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_4,2,1,1</v>
       </c>
       <c r="K140" s="9" t="s">
@@ -8827,7 +8825,7 @@
         <v>347</v>
       </c>
       <c r="B141" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C141" s="8" t="s">
@@ -8849,7 +8847,7 @@
         <v>2</v>
       </c>
       <c r="J141" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_4,2,1,2</v>
       </c>
       <c r="K141" s="9" t="s">
@@ -8872,7 +8870,7 @@
         <v>346</v>
       </c>
       <c r="B142" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C142" s="8" t="s">
@@ -8894,7 +8892,7 @@
         <v>1</v>
       </c>
       <c r="J142" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_6,2,1,1</v>
       </c>
       <c r="K142" s="9" t="s">
@@ -8917,7 +8915,7 @@
         <v>347</v>
       </c>
       <c r="B143" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C143" s="8" t="s">
@@ -8939,7 +8937,7 @@
         <v>2</v>
       </c>
       <c r="J143" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_6,2,1,2</v>
       </c>
       <c r="K143" s="9" t="s">
@@ -8962,7 +8960,7 @@
         <v>348</v>
       </c>
       <c r="B144" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C144" s="8" t="s">
@@ -8984,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="J144" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_1,1,2,1</v>
       </c>
       <c r="K144" s="9" t="s">
@@ -9007,7 +9005,7 @@
         <v>349</v>
       </c>
       <c r="B145" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C145" s="8" t="s">
@@ -9029,7 +9027,7 @@
         <v>2</v>
       </c>
       <c r="J145" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_1,1,2,2</v>
       </c>
       <c r="K145" s="9" t="s">
@@ -9052,7 +9050,7 @@
         <v>348</v>
       </c>
       <c r="B146" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C146" s="8" t="s">
@@ -9074,7 +9072,7 @@
         <v>1</v>
       </c>
       <c r="J146" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_3,1,2,1</v>
       </c>
       <c r="K146" s="9" t="s">
@@ -9097,7 +9095,7 @@
         <v>349</v>
       </c>
       <c r="B147" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C147" s="8" t="s">
@@ -9119,7 +9117,7 @@
         <v>2</v>
       </c>
       <c r="J147" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_3,1,2,2</v>
       </c>
       <c r="K147" s="9" t="s">
@@ -9142,7 +9140,7 @@
         <v>348</v>
       </c>
       <c r="B148" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C148" s="8" t="s">
@@ -9164,7 +9162,7 @@
         <v>1</v>
       </c>
       <c r="J148" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_4,1,2,1</v>
       </c>
       <c r="K148" s="9" t="s">
@@ -9187,7 +9185,7 @@
         <v>349</v>
       </c>
       <c r="B149" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C149" s="8" t="s">
@@ -9209,7 +9207,7 @@
         <v>2</v>
       </c>
       <c r="J149" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_4,1,2,2</v>
       </c>
       <c r="K149" s="9" t="s">
@@ -9232,7 +9230,7 @@
         <v>348</v>
       </c>
       <c r="B150" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C150" s="8" t="s">
@@ -9254,7 +9252,7 @@
         <v>1</v>
       </c>
       <c r="J150" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_6,1,2,1</v>
       </c>
       <c r="K150" s="9" t="s">
@@ -9277,7 +9275,7 @@
         <v>349</v>
       </c>
       <c r="B151" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C151" s="8" t="s">
@@ -9299,7 +9297,7 @@
         <v>2</v>
       </c>
       <c r="J151" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_6,1,2,2</v>
       </c>
       <c r="K151" s="9" t="s">
@@ -9322,7 +9320,7 @@
         <v>348</v>
       </c>
       <c r="B152" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C152" s="8" t="s">
@@ -9344,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="J152" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_1,2,2,1</v>
       </c>
       <c r="K152" s="9" t="s">
@@ -9367,7 +9365,7 @@
         <v>349</v>
       </c>
       <c r="B153" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C153" s="8" t="s">
@@ -9389,7 +9387,7 @@
         <v>2</v>
       </c>
       <c r="J153" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_1,2,2,2</v>
       </c>
       <c r="K153" s="9" t="s">
@@ -9412,7 +9410,7 @@
         <v>348</v>
       </c>
       <c r="B154" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C154" s="8" t="s">
@@ -9434,7 +9432,7 @@
         <v>1</v>
       </c>
       <c r="J154" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_3,2,2,1</v>
       </c>
       <c r="K154" s="9" t="s">
@@ -9457,7 +9455,7 @@
         <v>349</v>
       </c>
       <c r="B155" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C155" s="8" t="s">
@@ -9479,7 +9477,7 @@
         <v>2</v>
       </c>
       <c r="J155" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_3,2,2,2</v>
       </c>
       <c r="K155" s="9" t="s">
@@ -9502,7 +9500,7 @@
         <v>348</v>
       </c>
       <c r="B156" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C156" s="8" t="s">
@@ -9524,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="J156" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_4,2,2,1</v>
       </c>
       <c r="K156" s="9" t="s">
@@ -9547,7 +9545,7 @@
         <v>349</v>
       </c>
       <c r="B157" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C157" s="8" t="s">
@@ -9569,7 +9567,7 @@
         <v>2</v>
       </c>
       <c r="J157" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_4,2,2,2</v>
       </c>
       <c r="K157" s="9" t="s">
@@ -9592,7 +9590,7 @@
         <v>348</v>
       </c>
       <c r="B158" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C158" s="8" t="s">
@@ -9614,7 +9612,7 @@
         <v>1</v>
       </c>
       <c r="J158" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_6,2,2,1</v>
       </c>
       <c r="K158" s="9" t="s">
@@ -9637,7 +9635,7 @@
         <v>349</v>
       </c>
       <c r="B159" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Rate of entry due to aging into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C159" s="8" t="s">
@@ -9659,7 +9657,7 @@
         <v>2</v>
       </c>
       <c r="J159" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>alpha^in_6,2,2,2</v>
       </c>
       <c r="K159" s="9" t="s">
@@ -9682,7 +9680,7 @@
         <v>137</v>
       </c>
       <c r="B160" s="9" t="str">
-        <f t="shared" ref="B160:B191" si="10">CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E160,TB_SET,2)," and HIV compartment ",VLOOKUP(G160,HIV_SET,2)," and gender compartment ",VLOOKUP(H160,G_SET,2)," per year")</f>
+        <f t="shared" ref="B160:B191" si="11">CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E160,TB_SET,2)," and HIV compartment ",VLOOKUP(G160,HIV_SET,2)," and gender compartment ",VLOOKUP(H160,G_SET,2)," per year")</f>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C160" s="8" t="s">
@@ -9701,7 +9699,7 @@
         <v>1</v>
       </c>
       <c r="J160" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_1,1,1</v>
       </c>
       <c r="K160" s="9" t="s">
@@ -9723,7 +9721,7 @@
         <v>140</v>
       </c>
       <c r="B161" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C161" s="8" t="s">
@@ -9742,7 +9740,7 @@
         <v>2</v>
       </c>
       <c r="J161" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_1,1,2</v>
       </c>
       <c r="K161" s="9" t="s">
@@ -9765,7 +9763,7 @@
         <v>147</v>
       </c>
       <c r="B162" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C162" s="8" t="s">
@@ -9784,7 +9782,7 @@
         <v>1</v>
       </c>
       <c r="J162" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_2,1,1</v>
       </c>
       <c r="K162" s="9" t="s">
@@ -9807,7 +9805,7 @@
         <v>148</v>
       </c>
       <c r="B163" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C163" s="8" t="s">
@@ -9826,7 +9824,7 @@
         <v>2</v>
       </c>
       <c r="J163" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_2,1,2</v>
       </c>
       <c r="K163" s="9" t="s">
@@ -9849,7 +9847,7 @@
         <v>155</v>
       </c>
       <c r="B164" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C164" s="8" t="s">
@@ -9868,14 +9866,14 @@
         <v>1</v>
       </c>
       <c r="J164" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_3,1,1</v>
       </c>
       <c r="K164" s="9" t="s">
         <v>514</v>
       </c>
       <c r="L164" s="11">
-        <f t="shared" ref="L164:L169" si="11">L162</f>
+        <f t="shared" ref="L164:L169" si="12">L162</f>
         <v>3.3E-3</v>
       </c>
       <c r="O164" s="39"/>
@@ -9891,7 +9889,7 @@
         <v>156</v>
       </c>
       <c r="B165" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C165" s="8" t="s">
@@ -9910,14 +9908,14 @@
         <v>2</v>
       </c>
       <c r="J165" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_3,1,2</v>
       </c>
       <c r="K165" s="9" t="s">
         <v>515</v>
       </c>
       <c r="L165" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.9E-3</v>
       </c>
       <c r="O165" s="39"/>
@@ -9933,7 +9931,7 @@
         <v>163</v>
       </c>
       <c r="B166" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C166" s="8" t="s">
@@ -9952,14 +9950,14 @@
         <v>1</v>
       </c>
       <c r="J166" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_4,1,1</v>
       </c>
       <c r="K166" s="9" t="s">
         <v>522</v>
       </c>
       <c r="L166" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.3E-3</v>
       </c>
       <c r="O166" s="39"/>
@@ -9975,7 +9973,7 @@
         <v>164</v>
       </c>
       <c r="B167" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C167" s="8" t="s">
@@ -9994,14 +9992,14 @@
         <v>2</v>
       </c>
       <c r="J167" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_4,1,2</v>
       </c>
       <c r="K167" s="9" t="s">
         <v>523</v>
       </c>
       <c r="L167" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.9E-3</v>
       </c>
       <c r="O167" s="39"/>
@@ -10017,7 +10015,7 @@
         <v>171</v>
       </c>
       <c r="B168" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C168" s="8" t="s">
@@ -10036,14 +10034,14 @@
         <v>1</v>
       </c>
       <c r="J168" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_5,1,1</v>
       </c>
       <c r="K168" s="9" t="s">
         <v>530</v>
       </c>
       <c r="L168" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.3E-3</v>
       </c>
       <c r="O168" s="39"/>
@@ -10059,7 +10057,7 @@
         <v>172</v>
       </c>
       <c r="B169" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C169" s="8" t="s">
@@ -10078,14 +10076,14 @@
         <v>2</v>
       </c>
       <c r="J169" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_5,1,2</v>
       </c>
       <c r="K169" s="9" t="s">
         <v>531</v>
       </c>
       <c r="L169" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.9E-3</v>
       </c>
       <c r="O169" s="39"/>
@@ -10101,7 +10099,7 @@
         <v>179</v>
       </c>
       <c r="B170" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C170" s="8" t="s">
@@ -10120,7 +10118,7 @@
         <v>1</v>
       </c>
       <c r="J170" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_6,1,1</v>
       </c>
       <c r="K170" s="9" t="s">
@@ -10143,7 +10141,7 @@
         <v>180</v>
       </c>
       <c r="B171" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C171" s="8" t="s">
@@ -10162,7 +10160,7 @@
         <v>2</v>
       </c>
       <c r="J171" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_6,1,2</v>
       </c>
       <c r="K171" s="9" t="s">
@@ -10185,7 +10183,7 @@
         <v>187</v>
       </c>
       <c r="B172" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C172" s="8" t="s">
@@ -10204,7 +10202,7 @@
         <v>1</v>
       </c>
       <c r="J172" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_7,1,1</v>
       </c>
       <c r="K172" s="9" t="s">
@@ -10227,7 +10225,7 @@
         <v>188</v>
       </c>
       <c r="B173" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C173" s="8" t="s">
@@ -10246,7 +10244,7 @@
         <v>2</v>
       </c>
       <c r="J173" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_7,1,2</v>
       </c>
       <c r="K173" s="9" t="s">
@@ -10269,7 +10267,7 @@
         <v>195</v>
       </c>
       <c r="B174" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C174" s="8" t="s">
@@ -10288,7 +10286,7 @@
         <v>1</v>
       </c>
       <c r="J174" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_8,1,1</v>
       </c>
       <c r="K174" s="9" t="s">
@@ -10311,7 +10309,7 @@
         <v>196</v>
       </c>
       <c r="B175" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C175" s="8" t="s">
@@ -10330,7 +10328,7 @@
         <v>2</v>
       </c>
       <c r="J175" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_8,1,2</v>
       </c>
       <c r="K175" s="9" t="s">
@@ -10353,7 +10351,7 @@
         <v>141</v>
       </c>
       <c r="B176" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C176" s="8" t="s">
@@ -10372,7 +10370,7 @@
         <v>1</v>
       </c>
       <c r="J176" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_1,2,1</v>
       </c>
       <c r="K176" s="9" t="s">
@@ -10395,7 +10393,7 @@
         <v>142</v>
       </c>
       <c r="B177" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C177" s="8" t="s">
@@ -10414,7 +10412,7 @@
         <v>2</v>
       </c>
       <c r="J177" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_1,2,2</v>
       </c>
       <c r="K177" s="9" t="s">
@@ -10437,7 +10435,7 @@
         <v>149</v>
       </c>
       <c r="B178" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C178" s="8" t="s">
@@ -10456,7 +10454,7 @@
         <v>1</v>
       </c>
       <c r="J178" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_2,2,1</v>
       </c>
       <c r="K178" s="9" t="s">
@@ -10479,7 +10477,7 @@
         <v>150</v>
       </c>
       <c r="B179" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C179" s="8" t="s">
@@ -10498,7 +10496,7 @@
         <v>2</v>
       </c>
       <c r="J179" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_2,2,2</v>
       </c>
       <c r="K179" s="9" t="s">
@@ -10521,7 +10519,7 @@
         <v>157</v>
       </c>
       <c r="B180" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C180" s="8" t="s">
@@ -10540,7 +10538,7 @@
         <v>1</v>
       </c>
       <c r="J180" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_3,2,1</v>
       </c>
       <c r="K180" s="9" t="s">
@@ -10563,7 +10561,7 @@
         <v>158</v>
       </c>
       <c r="B181" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C181" s="8" t="s">
@@ -10582,7 +10580,7 @@
         <v>2</v>
       </c>
       <c r="J181" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_3,2,2</v>
       </c>
       <c r="K181" s="9" t="s">
@@ -10605,7 +10603,7 @@
         <v>165</v>
       </c>
       <c r="B182" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C182" s="8" t="s">
@@ -10624,7 +10622,7 @@
         <v>1</v>
       </c>
       <c r="J182" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_4,2,1</v>
       </c>
       <c r="K182" s="9" t="s">
@@ -10647,7 +10645,7 @@
         <v>166</v>
       </c>
       <c r="B183" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C183" s="8" t="s">
@@ -10666,14 +10664,14 @@
         <v>2</v>
       </c>
       <c r="J183" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_4,2,2</v>
       </c>
       <c r="K183" s="9" t="s">
         <v>525</v>
       </c>
       <c r="L183" s="11">
-        <f t="shared" ref="L183:L185" si="12">L177</f>
+        <f t="shared" ref="L183:L185" si="13">L177</f>
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="O183" s="39"/>
@@ -10689,7 +10687,7 @@
         <v>173</v>
       </c>
       <c r="B184" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C184" s="8" t="s">
@@ -10708,14 +10706,14 @@
         <v>1</v>
       </c>
       <c r="J184" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_5,2,1</v>
       </c>
       <c r="K184" s="9" t="s">
         <v>532</v>
       </c>
       <c r="L184" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="O184" s="39"/>
@@ -10731,7 +10729,7 @@
         <v>174</v>
       </c>
       <c r="B185" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C185" s="8" t="s">
@@ -10750,14 +10748,14 @@
         <v>2</v>
       </c>
       <c r="J185" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_5,2,2</v>
       </c>
       <c r="K185" s="9" t="s">
         <v>533</v>
       </c>
       <c r="L185" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="O185" s="39"/>
@@ -10773,7 +10771,7 @@
         <v>181</v>
       </c>
       <c r="B186" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C186" s="8" t="s">
@@ -10792,7 +10790,7 @@
         <v>1</v>
       </c>
       <c r="J186" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_6,2,1</v>
       </c>
       <c r="K186" s="9" t="s">
@@ -10817,7 +10815,7 @@
         <v>182</v>
       </c>
       <c r="B187" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C187" s="8" t="s">
@@ -10836,7 +10834,7 @@
         <v>2</v>
       </c>
       <c r="J187" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_6,2,2</v>
       </c>
       <c r="K187" s="9" t="s">
@@ -10861,7 +10859,7 @@
         <v>189</v>
       </c>
       <c r="B188" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C188" s="8" t="s">
@@ -10880,7 +10878,7 @@
         <v>1</v>
       </c>
       <c r="J188" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_7,2,1</v>
       </c>
       <c r="K188" s="9" t="s">
@@ -10903,7 +10901,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C189" s="8" t="s">
@@ -10922,7 +10920,7 @@
         <v>2</v>
       </c>
       <c r="J189" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_7,2,2</v>
       </c>
       <c r="K189" s="9" t="s">
@@ -10945,7 +10943,7 @@
         <v>197</v>
       </c>
       <c r="B190" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C190" s="8" t="s">
@@ -10964,7 +10962,7 @@
         <v>1</v>
       </c>
       <c r="J190" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_8,2,1</v>
       </c>
       <c r="K190" s="9" t="s">
@@ -10987,7 +10985,7 @@
         <v>198</v>
       </c>
       <c r="B191" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C191" s="8" t="s">
@@ -11006,7 +11004,7 @@
         <v>2</v>
       </c>
       <c r="J191" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_8,2,2</v>
       </c>
       <c r="K191" s="9" t="s">
@@ -11029,7 +11027,7 @@
         <v>143</v>
       </c>
       <c r="B192" s="9" t="str">
-        <f t="shared" ref="B192:B223" si="13">CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E192,TB_SET,2)," and HIV compartment ",VLOOKUP(G192,HIV_SET,2)," and gender compartment ",VLOOKUP(H192,G_SET,2)," per year")</f>
+        <f t="shared" ref="B192:B223" si="14">CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E192,TB_SET,2)," and HIV compartment ",VLOOKUP(G192,HIV_SET,2)," and gender compartment ",VLOOKUP(H192,G_SET,2)," per year")</f>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C192" s="8" t="s">
@@ -11048,7 +11046,7 @@
         <v>1</v>
       </c>
       <c r="J192" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_1,3,1</v>
       </c>
       <c r="K192" s="9" t="s">
@@ -11071,7 +11069,7 @@
         <v>144</v>
       </c>
       <c r="B193" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C193" s="8" t="s">
@@ -11090,7 +11088,7 @@
         <v>2</v>
       </c>
       <c r="J193" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_1,3,2</v>
       </c>
       <c r="K193" s="9" t="s">
@@ -11113,7 +11111,7 @@
         <v>151</v>
       </c>
       <c r="B194" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C194" s="8" t="s">
@@ -11132,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="J194" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_2,3,1</v>
       </c>
       <c r="K194" s="9" t="s">
@@ -11155,7 +11153,7 @@
         <v>152</v>
       </c>
       <c r="B195" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C195" s="8" t="s">
@@ -11174,7 +11172,7 @@
         <v>2</v>
       </c>
       <c r="J195" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_2,3,2</v>
       </c>
       <c r="K195" s="9" t="s">
@@ -11197,7 +11195,7 @@
         <v>159</v>
       </c>
       <c r="B196" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C196" s="8" t="s">
@@ -11216,7 +11214,7 @@
         <v>1</v>
       </c>
       <c r="J196" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_3,3,1</v>
       </c>
       <c r="K196" s="9" t="s">
@@ -11239,7 +11237,7 @@
         <v>160</v>
       </c>
       <c r="B197" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C197" s="8" t="s">
@@ -11258,7 +11256,7 @@
         <v>2</v>
       </c>
       <c r="J197" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>mu_3,3,2</v>
       </c>
       <c r="K197" s="9" t="s">
@@ -11281,7 +11279,7 @@
         <v>167</v>
       </c>
       <c r="B198" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C198" s="8" t="s">
@@ -11300,7 +11298,7 @@
         <v>1</v>
       </c>
       <c r="J198" s="9" t="str">
-        <f t="shared" ref="J198:J223" si="14">CONCATENATE(C198, "_", E198, IF(E198&lt;&gt;"",",",""), F198, IF(F198&lt;&gt;"",",",""),  G198, IF(G198&lt;&gt;"",",",""),  H198, IF(I198&lt;&gt;"","(",""), I198, IF(I198&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J198:J223" si="15">CONCATENATE(C198, "_", E198, IF(E198&lt;&gt;"",",",""), F198, IF(F198&lt;&gt;"",",",""),  G198, IF(G198&lt;&gt;"",",",""),  H198, IF(I198&lt;&gt;"","(",""), I198, IF(I198&lt;&gt;"",")",""))</f>
         <v>mu_4,3,1</v>
       </c>
       <c r="K198" s="9" t="s">
@@ -11323,7 +11321,7 @@
         <v>168</v>
       </c>
       <c r="B199" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C199" s="8" t="s">
@@ -11342,7 +11340,7 @@
         <v>2</v>
       </c>
       <c r="J199" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_4,3,2</v>
       </c>
       <c r="K199" s="9" t="s">
@@ -11365,7 +11363,7 @@
         <v>175</v>
       </c>
       <c r="B200" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C200" s="8" t="s">
@@ -11384,7 +11382,7 @@
         <v>1</v>
       </c>
       <c r="J200" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_5,3,1</v>
       </c>
       <c r="K200" s="9" t="s">
@@ -11407,7 +11405,7 @@
         <v>176</v>
       </c>
       <c r="B201" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C201" s="8" t="s">
@@ -11426,7 +11424,7 @@
         <v>2</v>
       </c>
       <c r="J201" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_5,3,2</v>
       </c>
       <c r="K201" s="9" t="s">
@@ -11449,7 +11447,7 @@
         <v>183</v>
       </c>
       <c r="B202" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C202" s="8" t="s">
@@ -11468,7 +11466,7 @@
         <v>1</v>
       </c>
       <c r="J202" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_6,3,1</v>
       </c>
       <c r="K202" s="9" t="s">
@@ -11493,7 +11491,7 @@
         <v>184</v>
       </c>
       <c r="B203" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C203" s="8" t="s">
@@ -11512,7 +11510,7 @@
         <v>2</v>
       </c>
       <c r="J203" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_6,3,2</v>
       </c>
       <c r="K203" s="9" t="s">
@@ -11537,7 +11535,7 @@
         <v>191</v>
       </c>
       <c r="B204" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C204" s="8" t="s">
@@ -11556,7 +11554,7 @@
         <v>1</v>
       </c>
       <c r="J204" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_7,3,1</v>
       </c>
       <c r="K204" s="9" t="s">
@@ -11579,7 +11577,7 @@
         <v>192</v>
       </c>
       <c r="B205" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C205" s="8" t="s">
@@ -11598,7 +11596,7 @@
         <v>2</v>
       </c>
       <c r="J205" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_7,3,2</v>
       </c>
       <c r="K205" s="9" t="s">
@@ -11621,7 +11619,7 @@
         <v>199</v>
       </c>
       <c r="B206" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C206" s="8" t="s">
@@ -11640,7 +11638,7 @@
         <v>1</v>
       </c>
       <c r="J206" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_8,3,1</v>
       </c>
       <c r="K206" s="9" t="s">
@@ -11663,7 +11661,7 @@
         <v>200</v>
       </c>
       <c r="B207" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C207" s="8" t="s">
@@ -11682,7 +11680,7 @@
         <v>2</v>
       </c>
       <c r="J207" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_8,3,2</v>
       </c>
       <c r="K207" s="9" t="s">
@@ -11705,7 +11703,7 @@
         <v>145</v>
       </c>
       <c r="B208" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C208" s="8" t="s">
@@ -11724,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="J208" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_1,4,1</v>
       </c>
       <c r="K208" s="9" t="s">
@@ -11747,7 +11745,7 @@
         <v>146</v>
       </c>
       <c r="B209" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C209" s="8" t="s">
@@ -11766,7 +11764,7 @@
         <v>2</v>
       </c>
       <c r="J209" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_1,4,2</v>
       </c>
       <c r="K209" s="9" t="s">
@@ -11789,7 +11787,7 @@
         <v>153</v>
       </c>
       <c r="B210" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C210" s="8" t="s">
@@ -11808,7 +11806,7 @@
         <v>1</v>
       </c>
       <c r="J210" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_2,4,1</v>
       </c>
       <c r="K210" s="9" t="s">
@@ -11831,7 +11829,7 @@
         <v>154</v>
       </c>
       <c r="B211" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C211" s="8" t="s">
@@ -11850,7 +11848,7 @@
         <v>2</v>
       </c>
       <c r="J211" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_2,4,2</v>
       </c>
       <c r="K211" s="9" t="s">
@@ -11873,7 +11871,7 @@
         <v>161</v>
       </c>
       <c r="B212" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C212" s="8" t="s">
@@ -11892,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="J212" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_3,4,1</v>
       </c>
       <c r="K212" s="9" t="s">
@@ -11915,7 +11913,7 @@
         <v>162</v>
       </c>
       <c r="B213" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C213" s="8" t="s">
@@ -11934,7 +11932,7 @@
         <v>2</v>
       </c>
       <c r="J213" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_3,4,2</v>
       </c>
       <c r="K213" s="9" t="s">
@@ -11957,7 +11955,7 @@
         <v>169</v>
       </c>
       <c r="B214" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C214" s="8" t="s">
@@ -11976,7 +11974,7 @@
         <v>1</v>
       </c>
       <c r="J214" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_4,4,1</v>
       </c>
       <c r="K214" s="9" t="s">
@@ -11999,7 +11997,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C215" s="8" t="s">
@@ -12018,7 +12016,7 @@
         <v>2</v>
       </c>
       <c r="J215" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_4,4,2</v>
       </c>
       <c r="K215" s="9" t="s">
@@ -12041,7 +12039,7 @@
         <v>177</v>
       </c>
       <c r="B216" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C216" s="8" t="s">
@@ -12060,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="J216" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_5,4,1</v>
       </c>
       <c r="K216" s="9" t="s">
@@ -12083,7 +12081,7 @@
         <v>178</v>
       </c>
       <c r="B217" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C217" s="8" t="s">
@@ -12102,7 +12100,7 @@
         <v>2</v>
       </c>
       <c r="J217" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_5,4,2</v>
       </c>
       <c r="K217" s="9" t="s">
@@ -12125,7 +12123,7 @@
         <v>185</v>
       </c>
       <c r="B218" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C218" s="8" t="s">
@@ -12144,7 +12142,7 @@
         <v>1</v>
       </c>
       <c r="J218" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_6,4,1</v>
       </c>
       <c r="K218" s="9" t="s">
@@ -12169,7 +12167,7 @@
         <v>186</v>
       </c>
       <c r="B219" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C219" s="8" t="s">
@@ -12188,7 +12186,7 @@
         <v>2</v>
       </c>
       <c r="J219" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_6,4,2</v>
       </c>
       <c r="K219" s="9" t="s">
@@ -12213,7 +12211,7 @@
         <v>193</v>
       </c>
       <c r="B220" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C220" s="8" t="s">
@@ -12232,7 +12230,7 @@
         <v>1</v>
       </c>
       <c r="J220" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_7,4,1</v>
       </c>
       <c r="K220" s="9" t="s">
@@ -12255,7 +12253,7 @@
         <v>194</v>
       </c>
       <c r="B221" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C221" s="8" t="s">
@@ -12274,7 +12272,7 @@
         <v>2</v>
       </c>
       <c r="J221" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_7,4,2</v>
       </c>
       <c r="K221" s="9" t="s">
@@ -12297,7 +12295,7 @@
         <v>201</v>
       </c>
       <c r="B222" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C222" s="8" t="s">
@@ -12316,7 +12314,7 @@
         <v>1</v>
       </c>
       <c r="J222" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_8,4,1</v>
       </c>
       <c r="K222" s="9" t="s">
@@ -12339,7 +12337,7 @@
         <v>202</v>
       </c>
       <c r="B223" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C223" s="8" t="s">
@@ -12358,7 +12356,7 @@
         <v>2</v>
       </c>
       <c r="J223" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>mu_8,4,2</v>
       </c>
       <c r="K223" s="9" t="s">

--- a/param_files/Epi_model_parameters.xlsx
+++ b/param_files/Epi_model_parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/github/epi_model_HIV_TB/param_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83021EA-5363-A345-A1D5-51C8F892AF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC5A172-5B4E-BE40-A0D9-CD405172873F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2783,10 +2783,10 @@
   <dimension ref="A1:Q224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O98" sqref="O98"/>
+      <selection pane="bottomRight" activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6981,7 +6981,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="22" t="s">
         <v>235</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>449</v>
       </c>
       <c r="L103" s="66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O103" s="39" t="s">
         <v>635</v>
